--- a/input_data/input_data.xlsx
+++ b/input_data/input_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dsdennis\HOPE\Predicer\input_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{21818551-CAB1-4B5E-A23B-A66D41BF3CB7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C59D0A8C-29C1-45BF-BB08-982C5F5C12C4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="commodities" sheetId="9" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="50">
   <si>
     <t>commodity</t>
   </si>
@@ -79,9 +79,6 @@
     <t>node</t>
   </si>
   <si>
-    <t>wind_source</t>
-  </si>
-  <si>
     <t>unit_gt1</t>
   </si>
   <si>
@@ -160,12 +157,6 @@
     <t>bioA</t>
   </si>
   <si>
-    <t>wind_availableA</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>VOM_cost</t>
   </si>
   <si>
@@ -191,6 +182,12 @@
   </si>
   <si>
     <t>unit_windturb1</t>
+  </si>
+  <si>
+    <t>wind_availableB</t>
+  </si>
+  <si>
+    <t>windB</t>
   </si>
 </sst>
 </file>
@@ -232,11 +229,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -520,7 +518,7 @@
   <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="A2" sqref="A2:A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -567,10 +565,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -595,7 +593,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -607,7 +605,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -619,10 +617,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" s="2"/>
     </row>
@@ -631,7 +629,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -642,7 +640,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -653,7 +651,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -664,7 +662,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -675,9 +673,20 @@
         <v>3</v>
       </c>
       <c r="B9" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="C9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10">
         <v>0</v>
       </c>
     </row>
@@ -690,13 +699,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B317E83-B82C-4F97-9016-F4FF07D7D9BF}">
   <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.5703125" customWidth="1"/>
     <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="5" width="13.42578125" customWidth="1"/>
     <col min="6" max="6" width="3.5703125" bestFit="1" customWidth="1"/>
@@ -710,39 +719,39 @@
         <v>8</v>
       </c>
       <c r="B1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" t="s">
         <v>23</v>
       </c>
-      <c r="C1" t="s">
-        <v>24</v>
-      </c>
       <c r="D1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F1" t="s">
         <v>9</v>
       </c>
       <c r="G1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="H1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="I1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D2">
         <v>10</v>
@@ -754,7 +763,7 @@
         <v>10</v>
       </c>
       <c r="G2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H2">
         <v>1</v>
@@ -762,13 +771,13 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D3">
         <v>5</v>
@@ -780,7 +789,7 @@
         <v>10</v>
       </c>
       <c r="G3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H3">
         <v>1</v>
@@ -788,13 +797,13 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D4">
         <v>5</v>
@@ -803,7 +812,7 @@
         <v>1</v>
       </c>
       <c r="F4" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G4" t="s">
         <v>11</v>
@@ -814,13 +823,13 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D5">
         <v>5</v>
@@ -840,13 +849,13 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D6">
         <v>4</v>
@@ -866,13 +875,13 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D7">
         <v>10</v>
@@ -884,7 +893,7 @@
         <v>11</v>
       </c>
       <c r="G7" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H7">
         <v>1</v>
@@ -892,13 +901,13 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D8">
         <v>7</v>
@@ -918,19 +927,19 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B9" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="C9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D9">
         <v>5</v>
       </c>
       <c r="E9" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F9">
         <v>1</v>
@@ -942,7 +951,7 @@
         <v>1</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>13</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -952,10 +961,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD40D804-01EB-47A4-AE91-C7D0229E2D4B}">
-  <dimension ref="A1:O7"/>
+  <dimension ref="A1:O8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="L2" sqref="L2:L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -966,41 +975,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D1" s="3">
-        <v>2</v>
-      </c>
-      <c r="E1" s="3">
-        <v>3</v>
-      </c>
-      <c r="F1" s="3">
-        <v>4</v>
-      </c>
-      <c r="G1" s="3">
-        <v>5</v>
-      </c>
-      <c r="H1" s="3">
-        <v>6</v>
-      </c>
-      <c r="I1" s="3">
-        <v>7</v>
-      </c>
-      <c r="J1" s="3">
-        <v>8</v>
-      </c>
-      <c r="K1" s="3">
-        <v>9</v>
-      </c>
-      <c r="L1" s="3">
-        <v>10</v>
+      <c r="C1" s="4">
+        <v>43831</v>
+      </c>
+      <c r="D1" s="4">
+        <v>43832</v>
+      </c>
+      <c r="E1" s="4">
+        <v>43833</v>
+      </c>
+      <c r="F1" s="4">
+        <v>43834</v>
+      </c>
+      <c r="G1" s="4">
+        <v>43835</v>
+      </c>
+      <c r="H1" s="4">
+        <v>43836</v>
+      </c>
+      <c r="I1" s="4">
+        <v>43837</v>
+      </c>
+      <c r="J1" s="4">
+        <v>43838</v>
+      </c>
+      <c r="K1" s="4">
+        <v>43839</v>
+      </c>
+      <c r="L1" s="4">
+        <v>43840</v>
       </c>
       <c r="M1" s="3"/>
       <c r="N1" s="3"/>
@@ -1011,7 +1014,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C2" s="3">
         <v>-1.8</v>
@@ -1051,7 +1054,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C3" s="3">
         <v>-1.1000000000000001</v>
@@ -1091,98 +1094,138 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C4" s="3">
-        <v>-1.1000000000000001</v>
+        <v>-2</v>
       </c>
       <c r="D4" s="3">
-        <v>-1.2</v>
+        <v>-2</v>
       </c>
       <c r="E4" s="3">
-        <v>-0.9</v>
+        <v>-2</v>
       </c>
       <c r="F4" s="3">
-        <v>-1.1000000000000001</v>
+        <v>-2</v>
       </c>
       <c r="G4" s="3">
-        <v>-0.8</v>
+        <v>-2</v>
       </c>
       <c r="H4" s="3">
-        <v>-1.2</v>
+        <v>-2</v>
       </c>
       <c r="I4" s="3">
-        <v>-1.2</v>
+        <v>-2</v>
       </c>
       <c r="J4" s="3">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="K4" s="3">
-        <v>-0.8</v>
+        <v>-2</v>
       </c>
       <c r="L4" s="3">
-        <v>-1.2</v>
+        <v>-2</v>
       </c>
       <c r="N4" s="3"/>
       <c r="O4" s="3"/>
     </row>
     <row r="5" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C5" s="3">
-        <v>4.5</v>
+        <v>-1.1000000000000001</v>
       </c>
       <c r="D5" s="3">
-        <v>3.1</v>
+        <v>-1.2</v>
       </c>
       <c r="E5" s="3">
-        <v>3.6</v>
+        <v>-0.9</v>
       </c>
       <c r="F5" s="3">
-        <v>3.1</v>
+        <v>-1.1000000000000001</v>
       </c>
       <c r="G5" s="3">
-        <v>3.4</v>
+        <v>-0.8</v>
       </c>
       <c r="H5" s="3">
-        <v>3.9</v>
+        <v>-1.2</v>
       </c>
       <c r="I5" s="3">
-        <v>4.8</v>
+        <v>-1.2</v>
       </c>
       <c r="J5" s="3">
-        <v>4.8</v>
+        <v>-1</v>
       </c>
       <c r="K5" s="3">
-        <v>4.2</v>
+        <v>-0.8</v>
       </c>
       <c r="L5" s="3">
-        <v>3.9</v>
+        <v>-1.2</v>
       </c>
       <c r="N5" s="3"/>
       <c r="O5" s="3"/>
     </row>
     <row r="6" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B6"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
+      <c r="A6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6" s="3">
+        <v>4.5</v>
+      </c>
+      <c r="D6" s="3">
+        <v>3.1</v>
+      </c>
+      <c r="E6" s="3">
+        <v>3.6</v>
+      </c>
+      <c r="F6" s="3">
+        <v>3.1</v>
+      </c>
+      <c r="G6" s="3">
+        <v>3.4</v>
+      </c>
+      <c r="H6" s="3">
+        <v>3.9</v>
+      </c>
+      <c r="I6" s="3">
+        <v>4.8</v>
+      </c>
+      <c r="J6" s="3">
+        <v>4.8</v>
+      </c>
+      <c r="K6" s="3">
+        <v>4.2</v>
+      </c>
+      <c r="L6" s="3">
+        <v>3.9</v>
+      </c>
       <c r="N6" s="3"/>
       <c r="O6" s="3"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B7"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1193,47 +1236,45 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A71A3C8B-32E4-43A2-86A7-9D0D83F1C332}">
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1">
-        <v>0</v>
-      </c>
-      <c r="C1">
-        <v>1</v>
-      </c>
-      <c r="D1">
-        <v>2</v>
-      </c>
-      <c r="E1">
-        <v>3</v>
-      </c>
-      <c r="F1">
-        <v>4</v>
-      </c>
-      <c r="G1">
-        <v>5</v>
-      </c>
-      <c r="H1">
-        <v>6</v>
-      </c>
-      <c r="I1">
-        <v>7</v>
-      </c>
-      <c r="J1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B1" s="4">
+        <v>43831</v>
+      </c>
+      <c r="C1" s="4">
+        <v>43832</v>
+      </c>
+      <c r="D1" s="4">
+        <v>43833</v>
+      </c>
+      <c r="E1" s="4">
+        <v>43834</v>
+      </c>
+      <c r="F1" s="4">
+        <v>43835</v>
+      </c>
+      <c r="G1" s="4">
+        <v>43836</v>
+      </c>
+      <c r="H1" s="4">
+        <v>43837</v>
+      </c>
+      <c r="I1" s="4">
+        <v>43838</v>
+      </c>
+      <c r="J1" s="4">
+        <v>43839</v>
+      </c>
+      <c r="K1" s="4">
+        <v>43840</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1264,8 +1305,11 @@
       <c r="J2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1296,8 +1340,11 @@
       <c r="J3">
         <v>12</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -1328,8 +1375,11 @@
       <c r="J4">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -1360,8 +1410,11 @@
       <c r="J5">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -1392,9 +1445,48 @@
       <c r="J6">
         <v>11</v>
       </c>
+      <c r="K6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1403,7 +1495,7 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1421,22 +1513,22 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" t="s">
         <v>17</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>18</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>19</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>20</v>
-      </c>
-      <c r="G1" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -1444,13 +1536,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" t="s">
         <v>33</v>
-      </c>
-      <c r="D2" t="s">
-        <v>34</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -1459,7 +1551,7 @@
         <v>3</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -1467,13 +1559,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" t="s">
         <v>35</v>
-      </c>
-      <c r="D3" t="s">
-        <v>36</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -1482,7 +1574,7 @@
         <v>3</v>
       </c>
       <c r="G3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/input_data/input_data.xlsx
+++ b/input_data/input_data.xlsx
@@ -8,17 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dsdennis\HOPE\Predicer\input_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C59D0A8C-29C1-45BF-BB08-982C5F5C12C4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FBCA8BA-398E-40A8-A677-1B154A4F0629}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5115" yWindow="3045" windowWidth="15375" windowHeight="7875" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="commodities" sheetId="9" r:id="rId1"/>
+    <sheet name="resources" sheetId="9" r:id="rId1"/>
     <sheet name="node_def" sheetId="1" r:id="rId2"/>
-    <sheet name="unit_def" sheetId="2" r:id="rId3"/>
+    <sheet name="process_def" sheetId="2" r:id="rId3"/>
     <sheet name="flow" sheetId="5" r:id="rId4"/>
     <sheet name="prices" sheetId="6" r:id="rId5"/>
-    <sheet name="transfer" sheetId="8" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,10 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="50">
-  <si>
-    <t>commodity</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="51">
   <si>
     <t>dh</t>
   </si>
@@ -52,9 +48,6 @@
     <t>wind</t>
   </si>
   <si>
-    <t>balance</t>
-  </si>
-  <si>
     <t>gas</t>
   </si>
   <si>
@@ -64,9 +57,6 @@
     <t>bio</t>
   </si>
   <si>
-    <t>unit</t>
-  </si>
-  <si>
     <t>eff</t>
   </si>
   <si>
@@ -88,24 +78,6 @@
     <t>unit_bio1</t>
   </si>
   <si>
-    <t>node_from</t>
-  </si>
-  <si>
-    <t>node_to</t>
-  </si>
-  <si>
-    <t>cap_from</t>
-  </si>
-  <si>
-    <t>cap_to</t>
-  </si>
-  <si>
-    <t>losses</t>
-  </si>
-  <si>
-    <t>0.01</t>
-  </si>
-  <si>
     <t>input_node</t>
   </si>
   <si>
@@ -124,15 +96,6 @@
     <t>unit_gt2</t>
   </si>
   <si>
-    <t>transfer</t>
-  </si>
-  <si>
-    <t>node_dh1__to__node_dh2</t>
-  </si>
-  <si>
-    <t>node_elec1__to__node_elec2</t>
-  </si>
-  <si>
     <t>source</t>
   </si>
   <si>
@@ -160,9 +123,6 @@
     <t>VOM_cost</t>
   </si>
   <si>
-    <t>0.5</t>
-  </si>
-  <si>
     <t>min_load</t>
   </si>
   <si>
@@ -184,10 +144,52 @@
     <t>unit_windturb1</t>
   </si>
   <si>
-    <t>wind_availableB</t>
-  </si>
-  <si>
     <t>windB</t>
+  </si>
+  <si>
+    <t>resource</t>
+  </si>
+  <si>
+    <t>is_commodity</t>
+  </si>
+  <si>
+    <t>has_balance</t>
+  </si>
+  <si>
+    <t>process</t>
+  </si>
+  <si>
+    <t>transfer_dhA_dhB</t>
+  </si>
+  <si>
+    <t>transfer_dhB_dhB</t>
+  </si>
+  <si>
+    <t>transfer_elecA_elecB</t>
+  </si>
+  <si>
+    <t>transfer_elecB_elecA</t>
+  </si>
+  <si>
+    <t>ramp_up</t>
+  </si>
+  <si>
+    <t>ramp_down</t>
+  </si>
+  <si>
+    <t>online</t>
+  </si>
+  <si>
+    <t>unit_CHP1_dh</t>
+  </si>
+  <si>
+    <t>unit_CHP1_elec</t>
+  </si>
+  <si>
+    <t>is_CF</t>
+  </si>
+  <si>
+    <t>0</t>
   </si>
 </sst>
 </file>
@@ -515,47 +517,68 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FF99E4D-86B0-48F4-832E-8948932567B4}">
-  <dimension ref="A1:A7"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A7"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+      <c r="B1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>3</v>
+      <c r="B7">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -565,10 +588,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -579,115 +602,129 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="B1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C1" t="s">
-        <v>4</v>
+        <v>38</v>
+      </c>
+      <c r="D1" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="C2">
         <v>1</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
       </c>
       <c r="E2" s="1"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
-      <c r="D3" s="1"/>
+      <c r="D3" s="1" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
-      <c r="D4" s="2"/>
+      <c r="D4" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="C5">
         <v>1</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B9" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" t="s">
-        <v>48</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
+      <c r="D9">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -697,261 +734,553 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B317E83-B82C-4F97-9016-F4FF07D7D9BF}">
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:L15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.5703125" customWidth="1"/>
+    <col min="1" max="1" width="20.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="13.42578125" customWidth="1"/>
-    <col min="6" max="6" width="3.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="13.42578125" customWidth="1"/>
+    <col min="7" max="7" width="7.28515625" customWidth="1"/>
+    <col min="8" max="8" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1" t="s">
+        <v>44</v>
+      </c>
+      <c r="L1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>10</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="K2">
+        <v>0.2</v>
+      </c>
+      <c r="L2">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>5</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <v>0.1</v>
+      </c>
+      <c r="L3">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>5</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H4" t="s">
         <v>8</v>
       </c>
-      <c r="B1" t="s">
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>0.2</v>
+      </c>
+      <c r="L4">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
         <v>22</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>5</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+      <c r="G5">
+        <v>3</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>0.4</v>
+      </c>
+      <c r="L5">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" t="s">
         <v>23</v>
       </c>
-      <c r="D1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1" t="s">
-        <v>41</v>
-      </c>
-      <c r="H1" t="s">
-        <v>42</v>
-      </c>
-      <c r="I1" t="s">
+      <c r="C6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>4</v>
+      </c>
+      <c r="F6">
+        <v>2</v>
+      </c>
+      <c r="G6">
+        <v>3</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="K6">
+        <v>0.5</v>
+      </c>
+      <c r="L6">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>10</v>
+      </c>
+      <c r="F7">
+        <v>3</v>
+      </c>
+      <c r="G7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H7" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D2">
-        <v>10</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="K7">
+        <v>0.2</v>
+      </c>
+      <c r="L7">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" t="s">
         <v>25</v>
       </c>
-      <c r="H2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D3">
-        <v>5</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" t="s">
-        <v>25</v>
-      </c>
-      <c r="H3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>45</v>
-      </c>
-      <c r="B4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D4">
-        <v>5</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4" t="s">
-        <v>46</v>
-      </c>
-      <c r="G4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C5" t="s">
-        <v>32</v>
-      </c>
-      <c r="D5">
-        <v>5</v>
-      </c>
-      <c r="E5">
+      <c r="C8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>7</v>
+      </c>
+      <c r="F8">
         <v>2</v>
       </c>
-      <c r="F5">
-        <v>3</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D6">
-        <v>4</v>
-      </c>
-      <c r="E6">
-        <v>2</v>
-      </c>
-      <c r="F6">
-        <v>3</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" t="s">
-        <v>38</v>
-      </c>
-      <c r="C7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D7">
-        <v>10</v>
-      </c>
-      <c r="E7">
-        <v>3</v>
-      </c>
-      <c r="F7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" t="s">
-        <v>44</v>
-      </c>
-      <c r="H7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>24</v>
-      </c>
-      <c r="B8" t="s">
-        <v>37</v>
-      </c>
-      <c r="C8" t="s">
-        <v>32</v>
-      </c>
-      <c r="D8">
+      <c r="G8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H8" t="s">
         <v>7</v>
       </c>
-      <c r="E8">
-        <v>2</v>
-      </c>
-      <c r="F8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" t="s">
-        <v>10</v>
-      </c>
-      <c r="H8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="K8">
+        <v>0.1</v>
+      </c>
+      <c r="L8">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>47</v>
       </c>
       <c r="B9" t="s">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>5</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>0.4</v>
+      </c>
+      <c r="H9">
+        <v>0.3</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9" s="1"/>
+      <c r="K9">
+        <v>0.3</v>
+      </c>
+      <c r="L9">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>48</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>5</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0.4</v>
+      </c>
+      <c r="H10">
+        <v>0.3</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="K10">
+        <v>0.1</v>
+      </c>
+      <c r="L10">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" t="s">
         <v>35</v>
       </c>
-      <c r="D9">
-        <v>5</v>
-      </c>
-      <c r="E9" t="s">
+      <c r="C11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>0.2</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11" t="s">
+        <v>35</v>
+      </c>
+      <c r="K11">
+        <v>0.3</v>
+      </c>
+      <c r="L11">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>40</v>
       </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>1</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>48</v>
+      <c r="B12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0.99</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+      <c r="K12">
+        <v>0.5</v>
+      </c>
+      <c r="L12">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0.99</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
+      </c>
+      <c r="K13">
+        <v>0.4</v>
+      </c>
+      <c r="L13">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>42</v>
+      </c>
+      <c r="B14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0.99</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>1</v>
+      </c>
+      <c r="K14">
+        <v>0.4</v>
+      </c>
+      <c r="L14">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>43</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0.99</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>1</v>
+      </c>
+      <c r="K15">
+        <v>0.5</v>
+      </c>
+      <c r="L15">
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>
@@ -961,140 +1290,133 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD40D804-01EB-47A4-AE91-C7D0229E2D4B}">
-  <dimension ref="A1:O8"/>
+  <dimension ref="A1:N8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L2" sqref="L2:L6"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="3"/>
-    <col min="2" max="2" width="24.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" width="24.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="4">
+        <v>43831</v>
+      </c>
       <c r="C1" s="4">
-        <v>43831</v>
+        <v>43832</v>
       </c>
       <c r="D1" s="4">
-        <v>43832</v>
+        <v>43833</v>
       </c>
       <c r="E1" s="4">
-        <v>43833</v>
+        <v>43834</v>
       </c>
       <c r="F1" s="4">
-        <v>43834</v>
+        <v>43835</v>
       </c>
       <c r="G1" s="4">
-        <v>43835</v>
+        <v>43836</v>
       </c>
       <c r="H1" s="4">
-        <v>43836</v>
+        <v>43837</v>
       </c>
       <c r="I1" s="4">
-        <v>43837</v>
+        <v>43838</v>
       </c>
       <c r="J1" s="4">
-        <v>43838</v>
+        <v>43839</v>
       </c>
       <c r="K1" s="4">
-        <v>43839</v>
-      </c>
-      <c r="L1" s="4">
         <v>43840</v>
       </c>
+      <c r="L1" s="3"/>
       <c r="M1" s="3"/>
       <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-    </row>
-    <row r="2" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>32</v>
+    </row>
+    <row r="2" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="3">
+        <v>-1.8</v>
       </c>
       <c r="C2" s="3">
-        <v>-1.8</v>
+        <v>-3.5</v>
       </c>
       <c r="D2" s="3">
+        <v>-6.6</v>
+      </c>
+      <c r="E2" s="3">
+        <v>-12.7</v>
+      </c>
+      <c r="F2" s="3">
+        <v>-12.8</v>
+      </c>
+      <c r="G2" s="3">
+        <v>-10</v>
+      </c>
+      <c r="H2" s="3">
+        <v>-7.7</v>
+      </c>
+      <c r="I2" s="3">
+        <v>-7.6</v>
+      </c>
+      <c r="J2" s="3">
+        <v>-2.5</v>
+      </c>
+      <c r="K2" s="3">
+        <v>-3.7</v>
+      </c>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+    </row>
+    <row r="3" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="3">
+        <v>-1.1000000000000001</v>
+      </c>
+      <c r="C3" s="3">
+        <v>-3.6</v>
+      </c>
+      <c r="D3" s="3">
+        <v>-4.2</v>
+      </c>
+      <c r="E3" s="3">
+        <v>-7.1</v>
+      </c>
+      <c r="F3" s="3">
+        <v>-11.1</v>
+      </c>
+      <c r="G3" s="3">
+        <v>-6.4</v>
+      </c>
+      <c r="H3" s="3">
+        <v>-3.3</v>
+      </c>
+      <c r="I3" s="3">
         <v>-3.5</v>
       </c>
-      <c r="E2" s="3">
-        <v>-6.6</v>
-      </c>
-      <c r="F2" s="3">
-        <v>-12.7</v>
-      </c>
-      <c r="G2" s="3">
-        <v>-12.8</v>
-      </c>
-      <c r="H2" s="3">
-        <v>-10</v>
-      </c>
-      <c r="I2" s="3">
-        <v>-7.7</v>
-      </c>
-      <c r="J2" s="3">
-        <v>-7.6</v>
-      </c>
-      <c r="K2" s="3">
-        <v>-2.5</v>
-      </c>
-      <c r="L2" s="3">
-        <v>-3.7</v>
-      </c>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
-    </row>
-    <row r="3" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C3" s="3">
-        <v>-1.1000000000000001</v>
-      </c>
-      <c r="D3" s="3">
-        <v>-3.6</v>
-      </c>
-      <c r="E3" s="3">
-        <v>-4.2</v>
-      </c>
-      <c r="F3" s="3">
-        <v>-7.1</v>
-      </c>
-      <c r="G3" s="3">
-        <v>-11.1</v>
-      </c>
-      <c r="H3" s="3">
-        <v>-6.4</v>
-      </c>
-      <c r="I3" s="3">
-        <v>-3.3</v>
-      </c>
       <c r="J3" s="3">
-        <v>-3.5</v>
+        <v>-2.1</v>
       </c>
       <c r="K3" s="3">
-        <v>-2.1</v>
-      </c>
-      <c r="L3" s="3">
         <v>-2.2000000000000002</v>
       </c>
+      <c r="M3" s="3"/>
       <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
-    </row>
-    <row r="4" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>34</v>
+    </row>
+    <row r="4" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="3">
+        <v>-2</v>
       </c>
       <c r="C4" s="3">
         <v>-2</v>
@@ -1123,94 +1445,86 @@
       <c r="K4" s="3">
         <v>-2</v>
       </c>
-      <c r="L4" s="3">
-        <v>-2</v>
-      </c>
+      <c r="M4" s="3"/>
       <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
-    </row>
-    <row r="5" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" t="s">
-        <v>35</v>
+    </row>
+    <row r="5" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="3">
+        <v>-1.1000000000000001</v>
       </c>
       <c r="C5" s="3">
+        <v>-1.2</v>
+      </c>
+      <c r="D5" s="3">
+        <v>-0.9</v>
+      </c>
+      <c r="E5" s="3">
         <v>-1.1000000000000001</v>
       </c>
-      <c r="D5" s="3">
+      <c r="F5" s="3">
+        <v>-0.8</v>
+      </c>
+      <c r="G5" s="3">
         <v>-1.2</v>
-      </c>
-      <c r="E5" s="3">
-        <v>-0.9</v>
-      </c>
-      <c r="F5" s="3">
-        <v>-1.1000000000000001</v>
-      </c>
-      <c r="G5" s="3">
-        <v>-0.8</v>
       </c>
       <c r="H5" s="3">
         <v>-1.2</v>
       </c>
       <c r="I5" s="3">
+        <v>-1</v>
+      </c>
+      <c r="J5" s="3">
+        <v>-0.8</v>
+      </c>
+      <c r="K5" s="3">
         <v>-1.2</v>
       </c>
-      <c r="J5" s="3">
-        <v>-1</v>
-      </c>
-      <c r="K5" s="3">
-        <v>-0.8</v>
-      </c>
-      <c r="L5" s="3">
-        <v>-1.2</v>
-      </c>
+      <c r="M5" s="3"/>
       <c r="N5" s="3"/>
-      <c r="O5" s="3"/>
-    </row>
-    <row r="6" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" t="s">
-        <v>48</v>
+    </row>
+    <row r="6" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" s="3">
+        <v>2.2999999999999998</v>
       </c>
       <c r="C6" s="3">
-        <v>4.5</v>
+        <v>1.6</v>
       </c>
       <c r="D6" s="3">
-        <v>3.1</v>
+        <v>2.1</v>
       </c>
       <c r="E6" s="3">
-        <v>3.6</v>
+        <v>1.4</v>
       </c>
       <c r="F6" s="3">
-        <v>3.1</v>
+        <v>1.7</v>
       </c>
       <c r="G6" s="3">
-        <v>3.4</v>
+        <v>1.3</v>
       </c>
       <c r="H6" s="3">
-        <v>3.9</v>
+        <v>0.7</v>
       </c>
       <c r="I6" s="3">
-        <v>4.8</v>
+        <v>0.6</v>
       </c>
       <c r="J6" s="3">
-        <v>4.8</v>
+        <v>0.7</v>
       </c>
       <c r="K6" s="3">
-        <v>4.2</v>
-      </c>
-      <c r="L6" s="3">
-        <v>3.9</v>
-      </c>
+        <v>0.7</v>
+      </c>
+      <c r="M6" s="3"/>
       <c r="N6" s="3"/>
-      <c r="O6" s="3"/>
-    </row>
-    <row r="7" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B7"/>
+    </row>
+    <row r="7" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7"/>
+      <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
@@ -1220,12 +1534,11 @@
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
       <c r="N7" s="3"/>
-      <c r="O7" s="3"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B8"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1238,7 +1551,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A71A3C8B-32E4-43A2-86A7-9D0D83F1C332}">
   <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -1276,7 +1591,7 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -1311,7 +1626,7 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
         <v>10</v>
@@ -1346,7 +1661,7 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B4">
         <v>8</v>
@@ -1381,7 +1696,7 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -1416,7 +1731,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B6">
         <v>10</v>
@@ -1451,7 +1766,7 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -1488,96 +1803,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCF7DCD5-37F1-4A06-946A-7D41EC709552}">
-  <dimension ref="A1:G3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E2">
-        <v>3</v>
-      </c>
-      <c r="F2">
-        <v>3</v>
-      </c>
-      <c r="G2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E3">
-        <v>3</v>
-      </c>
-      <c r="F3">
-        <v>3</v>
-      </c>
-      <c r="G3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/input_data/input_data.xlsx
+++ b/input_data/input_data.xlsx
@@ -8,23 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dsdennis\HOPE\Predicer\input_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45FA5B87-59E8-4444-AD4B-970E54FD7663}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB93A265-2292-40C4-9120-0885AC5F33E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2310" yWindow="1410" windowWidth="21600" windowHeight="12735" tabRatio="796" activeTab="2" xr2:uid="{788BFBD1-D930-4535-8A91-D85C56924796}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="796" activeTab="5" xr2:uid="{788BFBD1-D930-4535-8A91-D85C56924796}"/>
   </bookViews>
   <sheets>
     <sheet name="nodes" sheetId="1" r:id="rId1"/>
     <sheet name="processes" sheetId="2" r:id="rId2"/>
     <sheet name="efficiencies" sheetId="10" r:id="rId3"/>
     <sheet name="process_topology" sheetId="6" r:id="rId4"/>
-    <sheet name="cf" sheetId="7" r:id="rId5"/>
-    <sheet name="inflow" sheetId="3" r:id="rId6"/>
-    <sheet name="price" sheetId="4" r:id="rId7"/>
-    <sheet name="markets" sheetId="5" r:id="rId8"/>
-    <sheet name="market_prices" sheetId="8" r:id="rId9"/>
-    <sheet name="scenarios" sheetId="9" r:id="rId10"/>
-    <sheet name="fixed_ts" sheetId="11" r:id="rId11"/>
-    <sheet name="eff_ts" sheetId="12" r:id="rId12"/>
+    <sheet name="reserve_type" sheetId="13" r:id="rId5"/>
+    <sheet name="cf" sheetId="7" r:id="rId6"/>
+    <sheet name="inflow" sheetId="3" r:id="rId7"/>
+    <sheet name="price" sheetId="4" r:id="rId8"/>
+    <sheet name="markets" sheetId="5" r:id="rId9"/>
+    <sheet name="market_prices" sheetId="8" r:id="rId10"/>
+    <sheet name="scenarios" sheetId="9" r:id="rId11"/>
+    <sheet name="fixed_ts" sheetId="11" r:id="rId12"/>
+    <sheet name="eff_ts" sheetId="12" r:id="rId13"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -44,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="91">
   <si>
     <t>node</t>
   </si>
@@ -187,12 +188,6 @@
     <t>up_down</t>
   </si>
   <si>
-    <t>down</t>
-  </si>
-  <si>
-    <t>up</t>
-  </si>
-  <si>
     <t>name</t>
   </si>
   <si>
@@ -305,13 +300,31 @@
   </si>
   <si>
     <t>ngchp,eff</t>
+  </si>
+  <si>
+    <t>ramp_factor</t>
+  </si>
+  <si>
+    <t>fast</t>
+  </si>
+  <si>
+    <t>slow</t>
+  </si>
+  <si>
+    <t>reserve_type</t>
+  </si>
+  <si>
+    <t>res_up</t>
+  </si>
+  <si>
+    <t>res_down</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -321,6 +334,14 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -346,11 +367,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -667,38 +697,47 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04A1B16B-CDA9-46BD-BA51-731AA9327652}">
   <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
+    <row r="1" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="4" t="s">
         <v>5</v>
       </c>
     </row>
@@ -706,28 +745,28 @@
       <c r="A2" t="s">
         <v>7</v>
       </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
+      <c r="B2" s="8">
+        <v>1</v>
+      </c>
+      <c r="C2" s="8">
+        <v>0</v>
+      </c>
+      <c r="D2" s="8">
+        <v>0</v>
+      </c>
+      <c r="E2" s="8">
+        <v>0</v>
+      </c>
+      <c r="F2" s="8">
+        <v>0</v>
+      </c>
+      <c r="G2" s="8">
+        <v>0</v>
+      </c>
+      <c r="H2" s="8">
+        <v>0</v>
+      </c>
+      <c r="I2" s="8">
         <v>0</v>
       </c>
     </row>
@@ -735,28 +774,28 @@
       <c r="A3" t="s">
         <v>8</v>
       </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
+      <c r="B3" s="8">
+        <v>0</v>
+      </c>
+      <c r="C3" s="8">
+        <v>0</v>
+      </c>
+      <c r="D3" s="8">
+        <v>1</v>
+      </c>
+      <c r="E3" s="8">
+        <v>0</v>
+      </c>
+      <c r="F3" s="8">
+        <v>0</v>
+      </c>
+      <c r="G3" s="8">
+        <v>0</v>
+      </c>
+      <c r="H3" s="8">
+        <v>0</v>
+      </c>
+      <c r="I3" s="8">
         <v>0</v>
       </c>
     </row>
@@ -764,28 +803,28 @@
       <c r="A4" t="s">
         <v>9</v>
       </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
+      <c r="B4" s="8">
+        <v>0</v>
+      </c>
+      <c r="C4" s="8">
+        <v>1</v>
+      </c>
+      <c r="D4" s="8">
+        <v>0</v>
+      </c>
+      <c r="E4" s="8">
+        <v>0</v>
+      </c>
+      <c r="F4" s="8">
+        <v>0</v>
+      </c>
+      <c r="G4" s="8">
         <v>10</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="8">
         <v>3</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="8">
         <v>3</v>
       </c>
     </row>
@@ -793,28 +832,28 @@
       <c r="A5" t="s">
         <v>11</v>
       </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
+      <c r="B5" s="8">
+        <v>0</v>
+      </c>
+      <c r="C5" s="8">
+        <v>1</v>
+      </c>
+      <c r="D5" s="8">
+        <v>0</v>
+      </c>
+      <c r="E5" s="8">
+        <v>0</v>
+      </c>
+      <c r="F5" s="8">
+        <v>1</v>
+      </c>
+      <c r="G5" s="8">
         <v>4</v>
       </c>
-      <c r="H5">
-        <v>1</v>
-      </c>
-      <c r="I5">
+      <c r="H5" s="8">
+        <v>1</v>
+      </c>
+      <c r="I5" s="8">
         <v>1</v>
       </c>
     </row>
@@ -822,28 +861,28 @@
       <c r="A6" t="s">
         <v>36</v>
       </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
+      <c r="B6" s="8">
+        <v>0</v>
+      </c>
+      <c r="C6" s="8">
+        <v>0</v>
+      </c>
+      <c r="D6" s="8">
+        <v>0</v>
+      </c>
+      <c r="E6" s="8">
+        <v>0</v>
+      </c>
+      <c r="F6" s="8">
+        <v>1</v>
+      </c>
+      <c r="G6" s="8">
+        <v>0</v>
+      </c>
+      <c r="H6" s="8">
+        <v>0</v>
+      </c>
+      <c r="I6" s="8">
         <v>0</v>
       </c>
     </row>
@@ -851,28 +890,28 @@
       <c r="A7" t="s">
         <v>12</v>
       </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
+      <c r="B7" s="8">
+        <v>0</v>
+      </c>
+      <c r="C7" s="8">
+        <v>0</v>
+      </c>
+      <c r="D7" s="8">
+        <v>0</v>
+      </c>
+      <c r="E7" s="8">
+        <v>1</v>
+      </c>
+      <c r="F7" s="8">
+        <v>0</v>
+      </c>
+      <c r="G7" s="8">
+        <v>0</v>
+      </c>
+      <c r="H7" s="8">
+        <v>0</v>
+      </c>
+      <c r="I7" s="8">
         <v>0</v>
       </c>
     </row>
@@ -882,233 +921,1090 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A87AD413-E614-48C1-80E1-F1E8236FCBC6}">
-  <dimension ref="A1:B4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF6DDD9A-EF34-4108-8532-230729E9C708}">
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M26" sqref="M26"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="5" width="11.42578125" customWidth="1"/>
+    <col min="6" max="13" width="11.140625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>48</v>
+      </c>
+      <c r="C2">
+        <v>5</v>
+      </c>
+      <c r="D2">
+        <v>4</v>
+      </c>
+      <c r="E2">
+        <v>12</v>
+      </c>
+      <c r="F2">
+        <v>72</v>
+      </c>
+      <c r="G2">
+        <v>6</v>
+      </c>
+      <c r="H2">
+        <v>4.8</v>
+      </c>
+      <c r="I2">
+        <v>14.399999999999999</v>
+      </c>
+      <c r="J2">
+        <v>24</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>4.1666666666666699E-2</v>
+      </c>
+      <c r="B3">
+        <v>60</v>
+      </c>
+      <c r="C3">
+        <v>34</v>
+      </c>
+      <c r="D3">
+        <v>56</v>
+      </c>
+      <c r="E3">
+        <v>71</v>
+      </c>
+      <c r="F3">
+        <v>90</v>
+      </c>
+      <c r="G3">
+        <v>40.799999999999997</v>
+      </c>
+      <c r="H3">
+        <v>67.2</v>
+      </c>
+      <c r="I3">
+        <v>85.2</v>
+      </c>
+      <c r="J3">
+        <v>30</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>8.3333333333333301E-2</v>
+      </c>
+      <c r="B4">
+        <v>58</v>
+      </c>
+      <c r="C4">
+        <v>92</v>
+      </c>
+      <c r="D4">
+        <v>44</v>
+      </c>
+      <c r="E4">
+        <v>42</v>
+      </c>
+      <c r="F4">
+        <v>87</v>
+      </c>
+      <c r="G4">
+        <v>110.39999999999999</v>
+      </c>
+      <c r="H4">
+        <v>52.8</v>
+      </c>
+      <c r="I4">
+        <v>50.4</v>
+      </c>
+      <c r="J4">
+        <v>29</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>0.125</v>
+      </c>
+      <c r="B5">
+        <v>51</v>
+      </c>
+      <c r="C5">
+        <v>66</v>
+      </c>
+      <c r="D5">
+        <v>86</v>
+      </c>
+      <c r="E5">
+        <v>39</v>
+      </c>
+      <c r="F5">
+        <v>76.5</v>
+      </c>
+      <c r="G5">
+        <v>79.2</v>
+      </c>
+      <c r="H5">
+        <v>103.2</v>
+      </c>
+      <c r="I5">
+        <v>46.8</v>
+      </c>
+      <c r="J5">
+        <v>25.5</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>0.16666666666666699</v>
+      </c>
+      <c r="B6">
+        <v>37</v>
+      </c>
+      <c r="C6">
+        <v>64</v>
+      </c>
+      <c r="D6">
+        <v>10</v>
+      </c>
+      <c r="E6">
+        <v>78</v>
+      </c>
+      <c r="F6">
+        <v>55.5</v>
+      </c>
+      <c r="G6">
+        <v>76.8</v>
+      </c>
+      <c r="H6">
+        <v>12</v>
+      </c>
+      <c r="I6">
+        <v>93.6</v>
+      </c>
+      <c r="J6">
+        <v>18.5</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>0.20833333333333301</v>
+      </c>
+      <c r="B7">
+        <v>34</v>
+      </c>
+      <c r="C7">
+        <v>7</v>
+      </c>
+      <c r="D7">
+        <v>5</v>
+      </c>
+      <c r="E7">
+        <v>100</v>
+      </c>
+      <c r="F7">
+        <v>51</v>
+      </c>
+      <c r="G7">
+        <v>8.4</v>
+      </c>
+      <c r="H7">
+        <v>6</v>
+      </c>
+      <c r="I7">
+        <v>120</v>
+      </c>
+      <c r="J7">
+        <v>17</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="B8">
+        <v>45</v>
+      </c>
+      <c r="C8">
+        <v>92</v>
+      </c>
+      <c r="D8">
+        <v>12</v>
+      </c>
+      <c r="E8">
+        <v>7</v>
+      </c>
+      <c r="F8">
+        <v>67.5</v>
+      </c>
+      <c r="G8">
+        <v>110.39999999999999</v>
+      </c>
+      <c r="H8">
+        <v>14.399999999999999</v>
+      </c>
+      <c r="I8">
+        <v>8.4</v>
+      </c>
+      <c r="J8">
+        <v>22.5</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>0.29166666666666702</v>
+      </c>
+      <c r="B9">
+        <v>41</v>
+      </c>
+      <c r="C9">
+        <v>94</v>
+      </c>
+      <c r="D9">
+        <v>50</v>
+      </c>
+      <c r="E9">
         <v>49</v>
       </c>
-      <c r="B1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B2">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="F9">
+        <v>61.5</v>
+      </c>
+      <c r="G9">
+        <v>112.8</v>
+      </c>
+      <c r="H9">
+        <v>60</v>
+      </c>
+      <c r="I9">
+        <v>58.8</v>
+      </c>
+      <c r="J9">
+        <v>20.5</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="B10">
+        <v>55</v>
+      </c>
+      <c r="C10">
+        <v>87</v>
+      </c>
+      <c r="D10">
+        <v>99</v>
+      </c>
+      <c r="E10">
+        <v>94</v>
+      </c>
+      <c r="F10">
+        <v>82.5</v>
+      </c>
+      <c r="G10">
+        <v>104.39999999999999</v>
+      </c>
+      <c r="H10">
+        <v>118.8</v>
+      </c>
+      <c r="I10">
+        <v>112.8</v>
+      </c>
+      <c r="J10">
+        <v>27.5</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>0.375</v>
+      </c>
+      <c r="B11">
+        <v>59</v>
+      </c>
+      <c r="C11">
+        <v>3</v>
+      </c>
+      <c r="D11">
+        <v>78</v>
+      </c>
+      <c r="E11">
+        <v>88</v>
+      </c>
+      <c r="F11">
+        <v>88.5</v>
+      </c>
+      <c r="G11">
+        <v>3.5999999999999996</v>
+      </c>
+      <c r="H11">
+        <v>93.6</v>
+      </c>
+      <c r="I11">
+        <v>105.6</v>
+      </c>
+      <c r="J11">
+        <v>29.5</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>0.41666666666666702</v>
+      </c>
+      <c r="B12">
+        <v>60</v>
+      </c>
+      <c r="C12">
+        <v>44</v>
+      </c>
+      <c r="D12">
+        <v>25</v>
+      </c>
+      <c r="E12">
+        <v>24</v>
+      </c>
+      <c r="F12">
+        <v>90</v>
+      </c>
+      <c r="G12">
+        <v>52.8</v>
+      </c>
+      <c r="H12">
+        <v>30</v>
+      </c>
+      <c r="I12">
+        <v>28.799999999999997</v>
+      </c>
+      <c r="J12">
+        <v>30</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>0.45833333333333298</v>
+      </c>
+      <c r="B13">
+        <v>41</v>
+      </c>
+      <c r="C13">
+        <v>99</v>
+      </c>
+      <c r="D13">
+        <v>66</v>
+      </c>
+      <c r="E13">
+        <v>75</v>
+      </c>
+      <c r="F13">
+        <v>61.5</v>
+      </c>
+      <c r="G13">
+        <v>118.8</v>
+      </c>
+      <c r="H13">
+        <v>79.2</v>
+      </c>
+      <c r="I13">
+        <v>90</v>
+      </c>
+      <c r="J13">
+        <v>20.5</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="B14">
+        <v>46</v>
+      </c>
+      <c r="C14">
+        <v>60</v>
+      </c>
+      <c r="D14">
+        <v>15</v>
+      </c>
+      <c r="E14">
+        <v>40</v>
+      </c>
+      <c r="F14">
+        <v>69</v>
+      </c>
+      <c r="G14">
+        <v>72</v>
+      </c>
+      <c r="H14">
+        <v>18</v>
+      </c>
+      <c r="I14">
+        <v>48</v>
+      </c>
+      <c r="J14">
+        <v>23</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>0.54166666666666696</v>
+      </c>
+      <c r="B15">
+        <v>38</v>
+      </c>
+      <c r="C15">
+        <v>91</v>
+      </c>
+      <c r="D15">
+        <v>79</v>
+      </c>
+      <c r="E15">
+        <v>95</v>
+      </c>
+      <c r="F15">
+        <v>57</v>
+      </c>
+      <c r="G15">
+        <v>109.2</v>
+      </c>
+      <c r="H15">
+        <v>94.8</v>
+      </c>
+      <c r="I15">
+        <v>114</v>
+      </c>
+      <c r="J15">
+        <v>19</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>0.58333333333333304</v>
+      </c>
+      <c r="B16">
+        <v>46</v>
+      </c>
+      <c r="C16">
+        <v>67</v>
+      </c>
+      <c r="D16">
+        <v>60</v>
+      </c>
+      <c r="E16">
+        <v>71</v>
+      </c>
+      <c r="F16">
+        <v>69</v>
+      </c>
+      <c r="G16">
+        <v>80.399999999999991</v>
+      </c>
+      <c r="H16">
+        <v>72</v>
+      </c>
+      <c r="I16">
+        <v>85.2</v>
+      </c>
+      <c r="J16">
+        <v>23</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>0.625</v>
+      </c>
+      <c r="B17">
+        <v>45</v>
+      </c>
+      <c r="C17">
+        <v>85</v>
+      </c>
+      <c r="D17">
+        <v>70</v>
+      </c>
+      <c r="E17">
+        <v>19</v>
+      </c>
+      <c r="F17">
+        <v>67.5</v>
+      </c>
+      <c r="G17">
+        <v>102</v>
+      </c>
+      <c r="H17">
+        <v>84</v>
+      </c>
+      <c r="I17">
+        <v>22.8</v>
+      </c>
+      <c r="J17">
+        <v>22.5</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="B18">
+        <v>41</v>
+      </c>
+      <c r="C18">
+        <v>42</v>
+      </c>
+      <c r="D18">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>79</v>
+      </c>
+      <c r="F18">
+        <v>61.5</v>
+      </c>
+      <c r="G18">
+        <v>50.4</v>
+      </c>
+      <c r="H18">
+        <v>25.2</v>
+      </c>
+      <c r="I18">
+        <v>94.8</v>
+      </c>
+      <c r="J18">
+        <v>20.5</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>0.70833333333333304</v>
+      </c>
+      <c r="B19">
+        <v>46</v>
+      </c>
+      <c r="C19">
+        <v>71</v>
+      </c>
+      <c r="D19">
+        <v>78</v>
+      </c>
+      <c r="E19">
+        <v>38</v>
+      </c>
+      <c r="F19">
+        <v>69</v>
+      </c>
+      <c r="G19">
+        <v>85.2</v>
+      </c>
+      <c r="H19">
+        <v>93.6</v>
+      </c>
+      <c r="I19">
+        <v>45.6</v>
+      </c>
+      <c r="J19">
+        <v>23</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="B20">
         <v>52</v>
       </c>
-      <c r="B3">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="C20">
+        <v>76</v>
+      </c>
+      <c r="D20">
+        <v>79</v>
+      </c>
+      <c r="E20">
+        <v>39</v>
+      </c>
+      <c r="F20">
+        <v>78</v>
+      </c>
+      <c r="G20">
+        <v>91.2</v>
+      </c>
+      <c r="H20">
+        <v>94.8</v>
+      </c>
+      <c r="I20">
+        <v>46.8</v>
+      </c>
+      <c r="J20">
+        <v>26</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>0.79166666666666696</v>
+      </c>
+      <c r="B21">
+        <v>56</v>
+      </c>
+      <c r="C21">
+        <v>70</v>
+      </c>
+      <c r="D21">
+        <v>28</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>84</v>
+      </c>
+      <c r="G21">
+        <v>84</v>
+      </c>
+      <c r="H21">
+        <v>33.6</v>
+      </c>
+      <c r="I21">
+        <v>1.2</v>
+      </c>
+      <c r="J21">
+        <v>28</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>0.83333333333333304</v>
+      </c>
+      <c r="B22">
+        <v>33</v>
+      </c>
+      <c r="C22">
+        <v>74</v>
+      </c>
+      <c r="D22">
+        <v>9</v>
+      </c>
+      <c r="E22">
+        <v>23</v>
+      </c>
+      <c r="F22">
+        <v>49.5</v>
+      </c>
+      <c r="G22">
+        <v>88.8</v>
+      </c>
+      <c r="H22">
+        <v>10.799999999999999</v>
+      </c>
+      <c r="I22">
+        <v>27.599999999999998</v>
+      </c>
+      <c r="J22">
+        <v>16.5</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>0.875</v>
+      </c>
+      <c r="B23">
+        <v>43</v>
+      </c>
+      <c r="C23">
+        <v>84</v>
+      </c>
+      <c r="D23">
+        <v>32</v>
+      </c>
+      <c r="E23">
+        <v>47</v>
+      </c>
+      <c r="F23">
+        <v>64.5</v>
+      </c>
+      <c r="G23">
+        <v>100.8</v>
+      </c>
+      <c r="H23">
+        <v>38.4</v>
+      </c>
+      <c r="I23">
+        <v>56.4</v>
+      </c>
+      <c r="J23">
+        <v>21.5</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>0.91666666666666696</v>
+      </c>
+      <c r="B24">
+        <v>57</v>
+      </c>
+      <c r="C24">
+        <v>59</v>
+      </c>
+      <c r="D24">
+        <v>40</v>
+      </c>
+      <c r="E24">
+        <v>24</v>
+      </c>
+      <c r="F24">
+        <v>85.5</v>
+      </c>
+      <c r="G24">
+        <v>70.8</v>
+      </c>
+      <c r="H24">
+        <v>48</v>
+      </c>
+      <c r="I24">
+        <v>28.799999999999997</v>
+      </c>
+      <c r="J24">
+        <v>28.5</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>0.95833333333333304</v>
+      </c>
+      <c r="B25">
+        <v>32</v>
+      </c>
+      <c r="C25">
+        <v>65</v>
+      </c>
+      <c r="D25">
         <v>53</v>
       </c>
-      <c r="B4">
-        <v>0.25</v>
+      <c r="E25">
+        <v>96</v>
+      </c>
+      <c r="F25">
+        <v>48</v>
+      </c>
+      <c r="G25">
+        <v>78</v>
+      </c>
+      <c r="H25">
+        <v>63.599999999999994</v>
+      </c>
+      <c r="I25">
+        <v>115.19999999999999</v>
+      </c>
+      <c r="J25">
+        <v>16</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31679CA5-0AA2-4F6F-8223-14BF74917F04}">
-  <dimension ref="A1:C25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A87AD413-E614-48C1-80E1-F1E8236FCBC6}">
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" s="3">
-        <v>-3.5</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>4.1666666666666699E-2</v>
-      </c>
-      <c r="B3" s="3">
-        <v>-6</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>8.3333333333333301E-2</v>
-      </c>
-      <c r="B4" s="3">
-        <v>-2</v>
-      </c>
-      <c r="C4">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>0.125</v>
-      </c>
-      <c r="B5" s="3">
-        <v>3</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>0.16666666666666699</v>
-      </c>
-      <c r="B6" s="3">
-        <v>-9.5</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>0.20833333333333301</v>
-      </c>
-      <c r="B7" s="3">
-        <v>-9</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
+    <row r="1" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2">
         <v>0.25</v>
       </c>
-      <c r="B8" s="3">
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3">
         <v>0.5</v>
       </c>
-      <c r="C8">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>0.29166666666666702</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>0.33333333333333298</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>0.375</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>0.41666666666666702</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>0.45833333333333298</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
-        <v>0.54166666666666696</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
-        <v>0.58333333333333304</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
-        <v>0.625</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
-        <v>0.66666666666666696</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
-        <v>0.70833333333333304</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
-        <v>0.79166666666666696</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
-        <v>0.83333333333333304</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
-        <v>0.875</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
-        <v>0.91666666666666696</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
-        <v>0.95833333333333304</v>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4">
+        <v>0.25</v>
       </c>
     </row>
   </sheetData>
@@ -1117,27 +2013,174 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31679CA5-0AA2-4F6F-8223-14BF74917F04}">
+  <dimension ref="A1:B25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="B1:C12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3"/>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>4.1666666666666699E-2</v>
+      </c>
+      <c r="B3" s="3"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>8.3333333333333301E-2</v>
+      </c>
+      <c r="B4" s="3"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>0.125</v>
+      </c>
+      <c r="B5" s="3"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>0.16666666666666699</v>
+      </c>
+      <c r="B6" s="3"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>0.20833333333333301</v>
+      </c>
+      <c r="B7" s="3"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="B8" s="3"/>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>0.29166666666666702</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>0.33333333333333298</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>0.375</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>0.41666666666666702</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>0.45833333333333298</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>0.54166666666666696</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>0.58333333333333304</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>0.625</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>0.66666666666666696</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>0.70833333333333304</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>0.79166666666666696</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>0.83333333333333304</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>0.875</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>0.91666666666666696</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>0.95833333333333304</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD670E02-665B-45B8-BC4E-9596D2C1BC55}">
   <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>80</v>
-      </c>
-      <c r="C1" t="s">
-        <v>81</v>
-      </c>
-      <c r="D1" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -1484,301 +2527,267 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB20090B-02A9-43B7-8D03-9C18D42920EB}">
-  <dimension ref="A1:M7"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" customWidth="1"/>
+    <col min="6" max="6" width="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="I1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K1" t="s">
-        <v>78</v>
-      </c>
-      <c r="L1" t="s">
-        <v>83</v>
-      </c>
-      <c r="M1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I1" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>23</v>
       </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2">
+      <c r="B2" s="8">
+        <v>0</v>
+      </c>
+      <c r="C2" s="8">
+        <v>1</v>
+      </c>
+      <c r="D2" s="8">
+        <v>1</v>
+      </c>
+      <c r="E2" s="8">
+        <v>1</v>
+      </c>
+      <c r="F2" s="8">
         <v>0.9</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="8">
         <v>0.3</v>
       </c>
-      <c r="H2">
-        <v>1</v>
-      </c>
-      <c r="I2">
-        <v>0.8</v>
-      </c>
-      <c r="J2">
-        <v>0.8</v>
-      </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
-      <c r="L2">
+      <c r="H2" s="8">
+        <v>1</v>
+      </c>
+      <c r="I2" s="8">
+        <v>0</v>
+      </c>
+      <c r="J2" s="8">
         <v>4</v>
       </c>
-      <c r="M2">
+      <c r="K2" s="8">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>24</v>
       </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
+      <c r="B3" s="8">
+        <v>0</v>
+      </c>
+      <c r="C3" s="8">
+        <v>0</v>
+      </c>
+      <c r="D3" s="8">
+        <v>1</v>
+      </c>
+      <c r="E3" s="8">
+        <v>1</v>
+      </c>
+      <c r="F3" s="8">
         <v>3</v>
       </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>1</v>
-      </c>
-      <c r="I3">
-        <v>0.8</v>
-      </c>
-      <c r="J3">
-        <v>0.8</v>
-      </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-      <c r="L3">
-        <v>0</v>
-      </c>
-      <c r="M3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="G3" s="8">
+        <v>0</v>
+      </c>
+      <c r="H3" s="8">
+        <v>1</v>
+      </c>
+      <c r="I3" s="8">
+        <v>0</v>
+      </c>
+      <c r="J3" s="8">
+        <v>0</v>
+      </c>
+      <c r="K3" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>25</v>
       </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
+      <c r="B4" s="8">
+        <v>0</v>
+      </c>
+      <c r="C4" s="8">
+        <v>0</v>
+      </c>
+      <c r="D4" s="8">
+        <v>1</v>
+      </c>
+      <c r="E4" s="8">
+        <v>1</v>
+      </c>
+      <c r="F4" s="8">
         <v>0.7</v>
       </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>1</v>
-      </c>
-      <c r="I4">
-        <v>0.8</v>
-      </c>
-      <c r="J4">
-        <v>0.8</v>
-      </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-      <c r="L4">
-        <v>0</v>
-      </c>
-      <c r="M4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="G4" s="8">
+        <v>0</v>
+      </c>
+      <c r="H4" s="8">
+        <v>1</v>
+      </c>
+      <c r="I4" s="8">
+        <v>0</v>
+      </c>
+      <c r="J4" s="8">
+        <v>0</v>
+      </c>
+      <c r="K4" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>26</v>
       </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>1</v>
-      </c>
-      <c r="I5">
-        <v>1</v>
-      </c>
-      <c r="J5">
-        <v>1</v>
-      </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-      <c r="L5">
-        <v>0</v>
-      </c>
-      <c r="M5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B5" s="8">
+        <v>1</v>
+      </c>
+      <c r="C5" s="8">
+        <v>0</v>
+      </c>
+      <c r="D5" s="8">
+        <v>0</v>
+      </c>
+      <c r="E5" s="8">
+        <v>1</v>
+      </c>
+      <c r="F5" s="8">
+        <v>1</v>
+      </c>
+      <c r="G5" s="8">
+        <v>0</v>
+      </c>
+      <c r="H5" s="8">
+        <v>1</v>
+      </c>
+      <c r="I5" s="8">
+        <v>0</v>
+      </c>
+      <c r="J5" s="8">
+        <v>0</v>
+      </c>
+      <c r="K5" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>37</v>
       </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
+      <c r="B6" s="8">
+        <v>0</v>
+      </c>
+      <c r="C6" s="8">
+        <v>0</v>
+      </c>
+      <c r="D6" s="8">
+        <v>0</v>
+      </c>
+      <c r="E6" s="8">
         <v>2</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="8">
         <v>0.99</v>
       </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>1</v>
-      </c>
-      <c r="I6">
-        <v>1</v>
-      </c>
-      <c r="J6">
-        <v>1</v>
-      </c>
-      <c r="K6">
-        <v>0</v>
-      </c>
-      <c r="L6">
-        <v>0</v>
-      </c>
-      <c r="M6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="G6" s="8">
+        <v>0</v>
+      </c>
+      <c r="H6" s="8">
+        <v>1</v>
+      </c>
+      <c r="I6" s="8">
+        <v>0</v>
+      </c>
+      <c r="J6" s="8">
+        <v>0</v>
+      </c>
+      <c r="K6" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>27</v>
       </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
+      <c r="B7" s="8">
+        <v>0</v>
+      </c>
+      <c r="C7" s="8">
+        <v>0</v>
+      </c>
+      <c r="D7" s="8">
+        <v>0</v>
+      </c>
+      <c r="E7" s="8">
         <v>3</v>
       </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>1</v>
-      </c>
-      <c r="I7">
-        <v>1</v>
-      </c>
-      <c r="J7">
-        <v>1</v>
-      </c>
-      <c r="K7">
-        <v>0</v>
-      </c>
-      <c r="L7">
-        <v>0</v>
-      </c>
-      <c r="M7">
+      <c r="F7" s="8">
+        <v>1</v>
+      </c>
+      <c r="G7" s="8">
+        <v>0</v>
+      </c>
+      <c r="H7" s="8">
+        <v>1</v>
+      </c>
+      <c r="I7" s="8">
+        <v>0</v>
+      </c>
+      <c r="J7" s="8">
+        <v>0</v>
+      </c>
+      <c r="K7" s="8">
         <v>0</v>
       </c>
     </row>
@@ -1791,59 +2800,59 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAB1106B-D567-41FC-8E91-2B4CC5EC9B59}">
   <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B1">
-        <v>1</v>
-      </c>
-      <c r="C1">
+      <c r="B1" s="4">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4">
         <f>B1+1</f>
         <v>2</v>
       </c>
-      <c r="D1">
+      <c r="D1" s="4">
         <f t="shared" ref="D1:K1" si="0">C1+1</f>
         <v>3</v>
       </c>
-      <c r="E1">
+      <c r="E1" s="4">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="F1">
+      <c r="F1" s="4">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G1">
+      <c r="G1" s="4">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="H1">
+      <c r="H1" s="4">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="I1">
+      <c r="I1" s="4">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="J1">
+      <c r="J1" s="4">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="K1">
+      <c r="K1" s="4">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B2">
         <v>0.4</v>
@@ -1863,7 +2872,7 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B3">
         <v>0.8</v>
@@ -1888,277 +2897,401 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A86A8A7-FD76-4891-A53C-CBB095359118}">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" customWidth="1"/>
-    <col min="4" max="4" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.85546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="C1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="5" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="6">
+        <v>1</v>
+      </c>
+      <c r="E2" s="6">
+        <v>20</v>
+      </c>
+      <c r="F2" s="6">
+        <v>3</v>
+      </c>
+      <c r="G2" s="6">
+        <v>0.3</v>
+      </c>
+      <c r="H2" s="6">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="6">
+        <v>1</v>
+      </c>
+      <c r="E3" s="6">
+        <v>10</v>
+      </c>
+      <c r="F3" s="6">
+        <v>0</v>
+      </c>
+      <c r="G3" s="6">
+        <v>0.3</v>
+      </c>
+      <c r="H3" s="6">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="6">
+        <v>1</v>
+      </c>
+      <c r="E4" s="6">
+        <v>8</v>
+      </c>
+      <c r="F4" s="6">
+        <v>0</v>
+      </c>
+      <c r="G4" s="6">
+        <v>0.3</v>
+      </c>
+      <c r="H4" s="6">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="6">
+        <v>1</v>
+      </c>
+      <c r="E5" s="6">
+        <v>5</v>
+      </c>
+      <c r="F5" s="6">
+        <v>15</v>
+      </c>
+      <c r="G5" s="6">
+        <v>0.4</v>
+      </c>
+      <c r="H5" s="6">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="6">
+        <v>1</v>
+      </c>
+      <c r="E6" s="6">
+        <v>15</v>
+      </c>
+      <c r="F6" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="G6" s="6">
+        <v>0.4</v>
+      </c>
+      <c r="H6" s="6">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="6">
+        <v>1</v>
+      </c>
+      <c r="E7" s="6">
+        <v>10</v>
+      </c>
+      <c r="F7" s="6">
+        <v>15</v>
+      </c>
+      <c r="G7" s="6">
+        <v>1</v>
+      </c>
+      <c r="H7" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="6">
+        <v>1</v>
+      </c>
+      <c r="E8" s="6">
+        <v>7</v>
+      </c>
+      <c r="F8" s="6">
+        <v>1</v>
+      </c>
+      <c r="G8" s="6">
+        <v>1</v>
+      </c>
+      <c r="H8" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="6">
+        <v>1</v>
+      </c>
+      <c r="E9" s="6">
+        <v>5</v>
+      </c>
+      <c r="F9" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="G9" s="6">
+        <v>1</v>
+      </c>
+      <c r="H9" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="6">
+        <v>1</v>
+      </c>
+      <c r="E10" s="6">
+        <v>20</v>
+      </c>
+      <c r="F10" s="6">
+        <v>0</v>
+      </c>
+      <c r="G10" s="6">
+        <v>1</v>
+      </c>
+      <c r="H10" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" s="6">
+        <v>1</v>
+      </c>
+      <c r="E11" s="6">
+        <v>20</v>
+      </c>
+      <c r="F11" s="6">
+        <v>0</v>
+      </c>
+      <c r="G11" s="6">
+        <v>1</v>
+      </c>
+      <c r="H11" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="6">
+        <v>1</v>
+      </c>
+      <c r="E12" s="6">
+        <v>0</v>
+      </c>
+      <c r="F12" s="6">
+        <v>0</v>
+      </c>
+      <c r="G12" s="6">
+        <v>1</v>
+      </c>
+      <c r="H12" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="6">
+        <v>1</v>
+      </c>
+      <c r="E13" s="6">
+        <v>0</v>
+      </c>
+      <c r="F13" s="6">
+        <v>0</v>
+      </c>
+      <c r="G13" s="6">
+        <v>1</v>
+      </c>
+      <c r="H13" s="6">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0532F8A-0FB4-47AD-98A1-4065D3376432}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2">
-        <v>20</v>
-      </c>
-      <c r="F2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+      <c r="B2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3">
-        <v>10</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4">
-        <v>8</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5">
-        <v>5</v>
-      </c>
-      <c r="F5">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6">
-        <v>15</v>
-      </c>
-      <c r="F6">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>25</v>
-      </c>
-      <c r="B7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="E7">
-        <v>10</v>
-      </c>
-      <c r="F7">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>25</v>
-      </c>
-      <c r="B8" t="s">
-        <v>30</v>
-      </c>
-      <c r="C8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-      <c r="E8">
-        <v>7</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B9" t="s">
-        <v>30</v>
-      </c>
-      <c r="C9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-      <c r="E9">
-        <v>5</v>
-      </c>
-      <c r="F9">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>37</v>
-      </c>
-      <c r="B10" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-      <c r="E10">
-        <v>20</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>37</v>
-      </c>
-      <c r="B11" t="s">
-        <v>30</v>
-      </c>
-      <c r="C11" t="s">
-        <v>36</v>
-      </c>
-      <c r="D11">
-        <v>1</v>
-      </c>
-      <c r="E11">
-        <v>20</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>27</v>
-      </c>
-      <c r="B12" t="s">
-        <v>28</v>
-      </c>
-      <c r="C12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D12">
-        <v>1</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>27</v>
-      </c>
-      <c r="B13" t="s">
-        <v>30</v>
-      </c>
-      <c r="C13" t="s">
-        <v>12</v>
-      </c>
-      <c r="D13">
-        <v>1</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>0</v>
+        <v>87</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -2166,28 +3299,28 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77A4637A-7829-48D6-AE54-2E654AB1A427}">
   <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>54</v>
-      </c>
-      <c r="C1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D1" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -2604,12 +3737,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F87DD44-A1AD-4241-AED7-C48CC9DEE2E2}">
   <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A25"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2618,27 +3751,27 @@
     <col min="7" max="7" width="10.42578125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" s="4" t="s">
         <v>60</v>
-      </c>
-      <c r="F1" t="s">
-        <v>61</v>
-      </c>
-      <c r="G1" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -3296,28 +4429,28 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02307C1F-427B-487D-B703-EBF512D7AC27}">
   <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>63</v>
-      </c>
-      <c r="C1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D1" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -3353,13 +4486,13 @@
         <v>8.3333333333333301E-2</v>
       </c>
       <c r="B4">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C4">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D4">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -3367,13 +4500,13 @@
         <v>0.125</v>
       </c>
       <c r="B5">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C5">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D5">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -3381,13 +4514,13 @@
         <v>0.16666666666666699</v>
       </c>
       <c r="B6">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C6">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D6">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -3395,13 +4528,13 @@
         <v>0.20833333333333301</v>
       </c>
       <c r="B7">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C7">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D7">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -3409,13 +4542,13 @@
         <v>0.25</v>
       </c>
       <c r="B8">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C8">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D8">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -3423,13 +4556,13 @@
         <v>0.29166666666666702</v>
       </c>
       <c r="B9">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C9">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D9">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -3437,13 +4570,13 @@
         <v>0.33333333333333298</v>
       </c>
       <c r="B10">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C10">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D10">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -3451,13 +4584,13 @@
         <v>0.375</v>
       </c>
       <c r="B11">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C11">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D11">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -3465,13 +4598,13 @@
         <v>0.41666666666666702</v>
       </c>
       <c r="B12">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="C12">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="D12">
-        <v>1000</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -3479,13 +4612,13 @@
         <v>0.45833333333333298</v>
       </c>
       <c r="B13">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="C13">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="D13">
-        <v>1000</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -3493,13 +4626,13 @@
         <v>0.5</v>
       </c>
       <c r="B14">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="C14">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="D14">
-        <v>1000</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -3507,13 +4640,13 @@
         <v>0.54166666666666696</v>
       </c>
       <c r="B15">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="C15">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="D15">
-        <v>1000</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -3521,13 +4654,13 @@
         <v>0.58333333333333304</v>
       </c>
       <c r="B16">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="C16">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="D16">
-        <v>1000</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -3535,13 +4668,13 @@
         <v>0.625</v>
       </c>
       <c r="B17">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="C17">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="D17">
-        <v>1000</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -3549,13 +4682,13 @@
         <v>0.66666666666666696</v>
       </c>
       <c r="B18">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C18">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D18">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -3563,13 +4696,13 @@
         <v>0.70833333333333304</v>
       </c>
       <c r="B19">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C19">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D19">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -3591,13 +4724,13 @@
         <v>0.79166666666666696</v>
       </c>
       <c r="B21">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C21">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D21">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -3605,13 +4738,13 @@
         <v>0.83333333333333304</v>
       </c>
       <c r="B22">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C22">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D22">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -3619,13 +4752,13 @@
         <v>0.875</v>
       </c>
       <c r="B23">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C23">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D23">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -3633,13 +4766,13 @@
         <v>0.91666666666666696</v>
       </c>
       <c r="B24">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C24">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D24">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -3647,113 +4780,13 @@
         <v>0.95833333333333304</v>
       </c>
       <c r="B25">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C25">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D25">
-        <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3788A93-7501-4F5D-9E8F-38D329CC85EC}">
-  <dimension ref="A1:E5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" t="s">
-        <v>48</v>
-      </c>
-      <c r="E4">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>43</v>
-      </c>
-      <c r="B5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" t="s">
-        <v>47</v>
-      </c>
-      <c r="E5">
-        <v>0.2</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -3762,1166 +4795,124 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF6DDD9A-EF34-4108-8532-230729E9C708}">
-  <dimension ref="A1:M25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3788A93-7501-4F5D-9E8F-38D329CC85EC}">
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="5" width="11.42578125" customWidth="1"/>
-    <col min="6" max="13" width="11.140625" customWidth="1"/>
+    <col min="1" max="1" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.42578125" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E1" t="s">
-        <v>69</v>
-      </c>
-      <c r="F1" t="s">
-        <v>70</v>
-      </c>
-      <c r="G1" t="s">
-        <v>71</v>
-      </c>
-      <c r="H1" t="s">
-        <v>72</v>
-      </c>
-      <c r="I1" t="s">
-        <v>73</v>
-      </c>
-      <c r="J1" t="s">
-        <v>74</v>
-      </c>
-      <c r="K1" t="s">
-        <v>75</v>
-      </c>
-      <c r="L1" t="s">
-        <v>76</v>
-      </c>
-      <c r="M1" t="s">
+    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1" s="7" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>48</v>
-      </c>
-      <c r="C2">
-        <v>5</v>
-      </c>
-      <c r="D2">
-        <v>4</v>
-      </c>
-      <c r="E2">
-        <v>12</v>
-      </c>
-      <c r="F2">
-        <f>1.5*B2</f>
-        <v>72</v>
-      </c>
-      <c r="G2">
-        <f>1.2*C2</f>
-        <v>6</v>
-      </c>
-      <c r="H2">
-        <f t="shared" ref="H2:I17" si="0">1.2*D2</f>
-        <v>4.8</v>
-      </c>
-      <c r="I2">
-        <f t="shared" si="0"/>
-        <v>14.399999999999999</v>
-      </c>
-      <c r="J2">
-        <f>0.5*B2</f>
-        <v>24</v>
-      </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
-      <c r="L2">
-        <v>0</v>
-      </c>
-      <c r="M2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>4.1666666666666699E-2</v>
-      </c>
-      <c r="B3">
-        <v>60</v>
-      </c>
-      <c r="C3">
-        <v>34</v>
-      </c>
-      <c r="D3">
-        <v>56</v>
-      </c>
-      <c r="E3">
-        <v>71</v>
-      </c>
-      <c r="F3">
-        <f t="shared" ref="F3:F25" si="1">1.5*B3</f>
+      <c r="F1" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E2" s="8">
+        <v>0</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3" s="8">
+        <v>0</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="E4" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="G3">
-        <f t="shared" ref="G3:G25" si="2">1.2*C3</f>
-        <v>40.799999999999997</v>
-      </c>
-      <c r="H3">
-        <f t="shared" si="0"/>
-        <v>67.2</v>
-      </c>
-      <c r="I3">
-        <f t="shared" si="0"/>
-        <v>85.2</v>
-      </c>
-      <c r="J3">
-        <f t="shared" ref="J3:J25" si="3">0.5*B3</f>
-        <v>30</v>
-      </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-      <c r="L3">
-        <v>0</v>
-      </c>
-      <c r="M3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>8.3333333333333301E-2</v>
-      </c>
-      <c r="B4">
-        <v>58</v>
-      </c>
-      <c r="C4">
-        <v>92</v>
-      </c>
-      <c r="D4">
-        <v>44</v>
-      </c>
-      <c r="E4">
-        <v>42</v>
-      </c>
-      <c r="F4">
-        <f t="shared" si="1"/>
+      <c r="E5" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="F5" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="G4">
-        <f t="shared" si="2"/>
-        <v>110.39999999999999</v>
-      </c>
-      <c r="H4">
-        <f t="shared" si="0"/>
-        <v>52.8</v>
-      </c>
-      <c r="I4">
-        <f t="shared" si="0"/>
-        <v>50.4</v>
-      </c>
-      <c r="J4">
-        <f t="shared" si="3"/>
-        <v>29</v>
-      </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-      <c r="L4">
-        <v>0</v>
-      </c>
-      <c r="M4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>0.125</v>
-      </c>
-      <c r="B5">
-        <v>51</v>
-      </c>
-      <c r="C5">
-        <v>66</v>
-      </c>
-      <c r="D5">
-        <v>86</v>
-      </c>
-      <c r="E5">
-        <v>39</v>
-      </c>
-      <c r="F5">
-        <f t="shared" si="1"/>
-        <v>76.5</v>
-      </c>
-      <c r="G5">
-        <f t="shared" si="2"/>
-        <v>79.2</v>
-      </c>
-      <c r="H5">
-        <f t="shared" si="0"/>
-        <v>103.2</v>
-      </c>
-      <c r="I5">
-        <f t="shared" si="0"/>
-        <v>46.8</v>
-      </c>
-      <c r="J5">
-        <f t="shared" si="3"/>
-        <v>25.5</v>
-      </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-      <c r="L5">
-        <v>0</v>
-      </c>
-      <c r="M5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>0.16666666666666699</v>
-      </c>
-      <c r="B6">
-        <v>37</v>
-      </c>
-      <c r="C6">
-        <v>64</v>
-      </c>
-      <c r="D6">
-        <v>10</v>
-      </c>
-      <c r="E6">
-        <v>78</v>
-      </c>
-      <c r="F6">
-        <f t="shared" si="1"/>
-        <v>55.5</v>
-      </c>
-      <c r="G6">
-        <f t="shared" si="2"/>
-        <v>76.8</v>
-      </c>
-      <c r="H6">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="I6">
-        <f t="shared" si="0"/>
-        <v>93.6</v>
-      </c>
-      <c r="J6">
-        <f t="shared" si="3"/>
-        <v>18.5</v>
-      </c>
-      <c r="K6">
-        <v>0</v>
-      </c>
-      <c r="L6">
-        <v>0</v>
-      </c>
-      <c r="M6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>0.20833333333333301</v>
-      </c>
-      <c r="B7">
-        <v>34</v>
-      </c>
-      <c r="C7">
-        <v>7</v>
-      </c>
-      <c r="D7">
-        <v>5</v>
-      </c>
-      <c r="E7">
-        <v>100</v>
-      </c>
-      <c r="F7">
-        <f t="shared" si="1"/>
-        <v>51</v>
-      </c>
-      <c r="G7">
-        <f t="shared" si="2"/>
-        <v>8.4</v>
-      </c>
-      <c r="H7">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="I7">
-        <f t="shared" si="0"/>
-        <v>120</v>
-      </c>
-      <c r="J7">
-        <f t="shared" si="3"/>
-        <v>17</v>
-      </c>
-      <c r="K7">
-        <v>0</v>
-      </c>
-      <c r="L7">
-        <v>0</v>
-      </c>
-      <c r="M7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>0.25</v>
-      </c>
-      <c r="B8">
-        <v>45</v>
-      </c>
-      <c r="C8">
-        <v>92</v>
-      </c>
-      <c r="D8">
-        <v>12</v>
-      </c>
-      <c r="E8">
-        <v>7</v>
-      </c>
-      <c r="F8">
-        <f t="shared" si="1"/>
-        <v>67.5</v>
-      </c>
-      <c r="G8">
-        <f t="shared" si="2"/>
-        <v>110.39999999999999</v>
-      </c>
-      <c r="H8">
-        <f t="shared" si="0"/>
-        <v>14.399999999999999</v>
-      </c>
-      <c r="I8">
-        <f t="shared" si="0"/>
-        <v>8.4</v>
-      </c>
-      <c r="J8">
-        <f t="shared" si="3"/>
-        <v>22.5</v>
-      </c>
-      <c r="K8">
-        <v>0</v>
-      </c>
-      <c r="L8">
-        <v>0</v>
-      </c>
-      <c r="M8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>0.29166666666666702</v>
-      </c>
-      <c r="B9">
-        <v>41</v>
-      </c>
-      <c r="C9">
-        <v>94</v>
-      </c>
-      <c r="D9">
-        <v>50</v>
-      </c>
-      <c r="E9">
-        <v>49</v>
-      </c>
-      <c r="F9">
-        <f t="shared" si="1"/>
-        <v>61.5</v>
-      </c>
-      <c r="G9">
-        <f t="shared" si="2"/>
-        <v>112.8</v>
-      </c>
-      <c r="H9">
-        <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-      <c r="I9">
-        <f t="shared" si="0"/>
-        <v>58.8</v>
-      </c>
-      <c r="J9">
-        <f t="shared" si="3"/>
-        <v>20.5</v>
-      </c>
-      <c r="K9">
-        <v>0</v>
-      </c>
-      <c r="L9">
-        <v>0</v>
-      </c>
-      <c r="M9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>0.33333333333333298</v>
-      </c>
-      <c r="B10">
-        <v>55</v>
-      </c>
-      <c r="C10">
-        <v>87</v>
-      </c>
-      <c r="D10">
-        <v>99</v>
-      </c>
-      <c r="E10">
-        <v>94</v>
-      </c>
-      <c r="F10">
-        <f t="shared" si="1"/>
-        <v>82.5</v>
-      </c>
-      <c r="G10">
-        <f t="shared" si="2"/>
-        <v>104.39999999999999</v>
-      </c>
-      <c r="H10">
-        <f t="shared" si="0"/>
-        <v>118.8</v>
-      </c>
-      <c r="I10">
-        <f t="shared" si="0"/>
-        <v>112.8</v>
-      </c>
-      <c r="J10">
-        <f t="shared" si="3"/>
-        <v>27.5</v>
-      </c>
-      <c r="K10">
-        <v>0</v>
-      </c>
-      <c r="L10">
-        <v>0</v>
-      </c>
-      <c r="M10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>0.375</v>
-      </c>
-      <c r="B11">
-        <v>59</v>
-      </c>
-      <c r="C11">
-        <v>3</v>
-      </c>
-      <c r="D11">
-        <v>78</v>
-      </c>
-      <c r="E11">
-        <v>88</v>
-      </c>
-      <c r="F11">
-        <f t="shared" si="1"/>
-        <v>88.5</v>
-      </c>
-      <c r="G11">
-        <f t="shared" si="2"/>
-        <v>3.5999999999999996</v>
-      </c>
-      <c r="H11">
-        <f t="shared" si="0"/>
-        <v>93.6</v>
-      </c>
-      <c r="I11">
-        <f t="shared" si="0"/>
-        <v>105.6</v>
-      </c>
-      <c r="J11">
-        <f t="shared" si="3"/>
-        <v>29.5</v>
-      </c>
-      <c r="K11">
-        <v>0</v>
-      </c>
-      <c r="L11">
-        <v>0</v>
-      </c>
-      <c r="M11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>0.41666666666666702</v>
-      </c>
-      <c r="B12">
-        <v>60</v>
-      </c>
-      <c r="C12">
-        <v>44</v>
-      </c>
-      <c r="D12">
-        <v>25</v>
-      </c>
-      <c r="E12">
-        <v>24</v>
-      </c>
-      <c r="F12">
-        <f t="shared" si="1"/>
-        <v>90</v>
-      </c>
-      <c r="G12">
-        <f t="shared" si="2"/>
-        <v>52.8</v>
-      </c>
-      <c r="H12">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="I12">
-        <f t="shared" si="0"/>
-        <v>28.799999999999997</v>
-      </c>
-      <c r="J12">
-        <f t="shared" si="3"/>
-        <v>30</v>
-      </c>
-      <c r="K12">
-        <v>0</v>
-      </c>
-      <c r="L12">
-        <v>0</v>
-      </c>
-      <c r="M12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>0.45833333333333298</v>
-      </c>
-      <c r="B13">
-        <v>41</v>
-      </c>
-      <c r="C13">
-        <v>99</v>
-      </c>
-      <c r="D13">
-        <v>66</v>
-      </c>
-      <c r="E13">
-        <v>75</v>
-      </c>
-      <c r="F13">
-        <f t="shared" si="1"/>
-        <v>61.5</v>
-      </c>
-      <c r="G13">
-        <f t="shared" si="2"/>
-        <v>118.8</v>
-      </c>
-      <c r="H13">
-        <f t="shared" si="0"/>
-        <v>79.2</v>
-      </c>
-      <c r="I13">
-        <f t="shared" si="0"/>
-        <v>90</v>
-      </c>
-      <c r="J13">
-        <f t="shared" si="3"/>
-        <v>20.5</v>
-      </c>
-      <c r="K13">
-        <v>0</v>
-      </c>
-      <c r="L13">
-        <v>0</v>
-      </c>
-      <c r="M13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="B14">
-        <v>46</v>
-      </c>
-      <c r="C14">
-        <v>60</v>
-      </c>
-      <c r="D14">
-        <v>15</v>
-      </c>
-      <c r="E14">
-        <v>40</v>
-      </c>
-      <c r="F14">
-        <f t="shared" si="1"/>
-        <v>69</v>
-      </c>
-      <c r="G14">
-        <f t="shared" si="2"/>
-        <v>72</v>
-      </c>
-      <c r="H14">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="I14">
-        <f t="shared" si="0"/>
-        <v>48</v>
-      </c>
-      <c r="J14">
-        <f t="shared" si="3"/>
-        <v>23</v>
-      </c>
-      <c r="K14">
-        <v>0</v>
-      </c>
-      <c r="L14">
-        <v>0</v>
-      </c>
-      <c r="M14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
-        <v>0.54166666666666696</v>
-      </c>
-      <c r="B15">
-        <v>38</v>
-      </c>
-      <c r="C15">
-        <v>91</v>
-      </c>
-      <c r="D15">
-        <v>79</v>
-      </c>
-      <c r="E15">
-        <v>95</v>
-      </c>
-      <c r="F15">
-        <f t="shared" si="1"/>
-        <v>57</v>
-      </c>
-      <c r="G15">
-        <f t="shared" si="2"/>
-        <v>109.2</v>
-      </c>
-      <c r="H15">
-        <f t="shared" si="0"/>
-        <v>94.8</v>
-      </c>
-      <c r="I15">
-        <f t="shared" si="0"/>
-        <v>114</v>
-      </c>
-      <c r="J15">
-        <f t="shared" si="3"/>
-        <v>19</v>
-      </c>
-      <c r="K15">
-        <v>0</v>
-      </c>
-      <c r="L15">
-        <v>0</v>
-      </c>
-      <c r="M15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
-        <v>0.58333333333333304</v>
-      </c>
-      <c r="B16">
-        <v>46</v>
-      </c>
-      <c r="C16">
-        <v>67</v>
-      </c>
-      <c r="D16">
-        <v>60</v>
-      </c>
-      <c r="E16">
-        <v>71</v>
-      </c>
-      <c r="F16">
-        <f t="shared" si="1"/>
-        <v>69</v>
-      </c>
-      <c r="G16">
-        <f t="shared" si="2"/>
-        <v>80.399999999999991</v>
-      </c>
-      <c r="H16">
-        <f t="shared" si="0"/>
-        <v>72</v>
-      </c>
-      <c r="I16">
-        <f t="shared" si="0"/>
-        <v>85.2</v>
-      </c>
-      <c r="J16">
-        <f t="shared" si="3"/>
-        <v>23</v>
-      </c>
-      <c r="K16">
-        <v>0</v>
-      </c>
-      <c r="L16">
-        <v>0</v>
-      </c>
-      <c r="M16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
-        <v>0.625</v>
-      </c>
-      <c r="B17">
-        <v>45</v>
-      </c>
-      <c r="C17">
-        <v>85</v>
-      </c>
-      <c r="D17">
-        <v>70</v>
-      </c>
-      <c r="E17">
-        <v>19</v>
-      </c>
-      <c r="F17">
-        <f t="shared" si="1"/>
-        <v>67.5</v>
-      </c>
-      <c r="G17">
-        <f t="shared" si="2"/>
-        <v>102</v>
-      </c>
-      <c r="H17">
-        <f t="shared" si="0"/>
-        <v>84</v>
-      </c>
-      <c r="I17">
-        <f t="shared" si="0"/>
-        <v>22.8</v>
-      </c>
-      <c r="J17">
-        <f t="shared" si="3"/>
-        <v>22.5</v>
-      </c>
-      <c r="K17">
-        <v>0</v>
-      </c>
-      <c r="L17">
-        <v>0</v>
-      </c>
-      <c r="M17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
-        <v>0.66666666666666696</v>
-      </c>
-      <c r="B18">
-        <v>41</v>
-      </c>
-      <c r="C18">
-        <v>42</v>
-      </c>
-      <c r="D18">
-        <v>21</v>
-      </c>
-      <c r="E18">
-        <v>79</v>
-      </c>
-      <c r="F18">
-        <f t="shared" si="1"/>
-        <v>61.5</v>
-      </c>
-      <c r="G18">
-        <f t="shared" si="2"/>
-        <v>50.4</v>
-      </c>
-      <c r="H18">
-        <f t="shared" ref="H18:H25" si="4">1.2*D18</f>
-        <v>25.2</v>
-      </c>
-      <c r="I18">
-        <f t="shared" ref="I18:I25" si="5">1.2*E18</f>
-        <v>94.8</v>
-      </c>
-      <c r="J18">
-        <f t="shared" si="3"/>
-        <v>20.5</v>
-      </c>
-      <c r="K18">
-        <v>0</v>
-      </c>
-      <c r="L18">
-        <v>0</v>
-      </c>
-      <c r="M18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
-        <v>0.70833333333333304</v>
-      </c>
-      <c r="B19">
-        <v>46</v>
-      </c>
-      <c r="C19">
-        <v>71</v>
-      </c>
-      <c r="D19">
-        <v>78</v>
-      </c>
-      <c r="E19">
-        <v>38</v>
-      </c>
-      <c r="F19">
-        <f t="shared" si="1"/>
-        <v>69</v>
-      </c>
-      <c r="G19">
-        <f t="shared" si="2"/>
-        <v>85.2</v>
-      </c>
-      <c r="H19">
-        <f t="shared" si="4"/>
-        <v>93.6</v>
-      </c>
-      <c r="I19">
-        <f t="shared" si="5"/>
-        <v>45.6</v>
-      </c>
-      <c r="J19">
-        <f t="shared" si="3"/>
-        <v>23</v>
-      </c>
-      <c r="K19">
-        <v>0</v>
-      </c>
-      <c r="L19">
-        <v>0</v>
-      </c>
-      <c r="M19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
-        <v>0.75</v>
-      </c>
-      <c r="B20">
-        <v>52</v>
-      </c>
-      <c r="C20">
-        <v>76</v>
-      </c>
-      <c r="D20">
-        <v>79</v>
-      </c>
-      <c r="E20">
-        <v>39</v>
-      </c>
-      <c r="F20">
-        <f t="shared" si="1"/>
-        <v>78</v>
-      </c>
-      <c r="G20">
-        <f t="shared" si="2"/>
-        <v>91.2</v>
-      </c>
-      <c r="H20">
-        <f t="shared" si="4"/>
-        <v>94.8</v>
-      </c>
-      <c r="I20">
-        <f t="shared" si="5"/>
-        <v>46.8</v>
-      </c>
-      <c r="J20">
-        <f t="shared" si="3"/>
-        <v>26</v>
-      </c>
-      <c r="K20">
-        <v>0</v>
-      </c>
-      <c r="L20">
-        <v>0</v>
-      </c>
-      <c r="M20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
-        <v>0.79166666666666696</v>
-      </c>
-      <c r="B21">
-        <v>56</v>
-      </c>
-      <c r="C21">
-        <v>70</v>
-      </c>
-      <c r="D21">
-        <v>28</v>
-      </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-      <c r="F21">
-        <f t="shared" si="1"/>
-        <v>84</v>
-      </c>
-      <c r="G21">
-        <f t="shared" si="2"/>
-        <v>84</v>
-      </c>
-      <c r="H21">
-        <f t="shared" si="4"/>
-        <v>33.6</v>
-      </c>
-      <c r="I21">
-        <f t="shared" si="5"/>
-        <v>1.2</v>
-      </c>
-      <c r="J21">
-        <f t="shared" si="3"/>
-        <v>28</v>
-      </c>
-      <c r="K21">
-        <v>0</v>
-      </c>
-      <c r="L21">
-        <v>0</v>
-      </c>
-      <c r="M21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
-        <v>0.83333333333333304</v>
-      </c>
-      <c r="B22">
-        <v>33</v>
-      </c>
-      <c r="C22">
-        <v>74</v>
-      </c>
-      <c r="D22">
-        <v>9</v>
-      </c>
-      <c r="E22">
-        <v>23</v>
-      </c>
-      <c r="F22">
-        <f t="shared" si="1"/>
-        <v>49.5</v>
-      </c>
-      <c r="G22">
-        <f t="shared" si="2"/>
-        <v>88.8</v>
-      </c>
-      <c r="H22">
-        <f t="shared" si="4"/>
-        <v>10.799999999999999</v>
-      </c>
-      <c r="I22">
-        <f t="shared" si="5"/>
-        <v>27.599999999999998</v>
-      </c>
-      <c r="J22">
-        <f t="shared" si="3"/>
-        <v>16.5</v>
-      </c>
-      <c r="K22">
-        <v>0</v>
-      </c>
-      <c r="L22">
-        <v>0</v>
-      </c>
-      <c r="M22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
-        <v>0.875</v>
-      </c>
-      <c r="B23">
-        <v>43</v>
-      </c>
-      <c r="C23">
-        <v>84</v>
-      </c>
-      <c r="D23">
-        <v>32</v>
-      </c>
-      <c r="E23">
-        <v>47</v>
-      </c>
-      <c r="F23">
-        <f t="shared" si="1"/>
-        <v>64.5</v>
-      </c>
-      <c r="G23">
-        <f t="shared" si="2"/>
-        <v>100.8</v>
-      </c>
-      <c r="H23">
-        <f t="shared" si="4"/>
-        <v>38.4</v>
-      </c>
-      <c r="I23">
-        <f t="shared" si="5"/>
-        <v>56.4</v>
-      </c>
-      <c r="J23">
-        <f t="shared" si="3"/>
-        <v>21.5</v>
-      </c>
-      <c r="K23">
-        <v>0</v>
-      </c>
-      <c r="L23">
-        <v>0</v>
-      </c>
-      <c r="M23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
-        <v>0.91666666666666696</v>
-      </c>
-      <c r="B24">
-        <v>57</v>
-      </c>
-      <c r="C24">
-        <v>59</v>
-      </c>
-      <c r="D24">
-        <v>40</v>
-      </c>
-      <c r="E24">
-        <v>24</v>
-      </c>
-      <c r="F24">
-        <f t="shared" si="1"/>
-        <v>85.5</v>
-      </c>
-      <c r="G24">
-        <f t="shared" si="2"/>
-        <v>70.8</v>
-      </c>
-      <c r="H24">
-        <f t="shared" si="4"/>
-        <v>48</v>
-      </c>
-      <c r="I24">
-        <f t="shared" si="5"/>
-        <v>28.799999999999997</v>
-      </c>
-      <c r="J24">
-        <f t="shared" si="3"/>
-        <v>28.5</v>
-      </c>
-      <c r="K24">
-        <v>0</v>
-      </c>
-      <c r="L24">
-        <v>0</v>
-      </c>
-      <c r="M24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
-        <v>0.95833333333333304</v>
-      </c>
-      <c r="B25">
-        <v>32</v>
-      </c>
-      <c r="C25">
-        <v>65</v>
-      </c>
-      <c r="D25">
-        <v>53</v>
-      </c>
-      <c r="E25">
-        <v>96</v>
-      </c>
-      <c r="F25">
-        <f t="shared" si="1"/>
-        <v>48</v>
-      </c>
-      <c r="G25">
-        <f t="shared" si="2"/>
-        <v>78</v>
-      </c>
-      <c r="H25">
-        <f t="shared" si="4"/>
-        <v>63.599999999999994</v>
-      </c>
-      <c r="I25">
-        <f t="shared" si="5"/>
-        <v>115.19999999999999</v>
-      </c>
-      <c r="J25">
-        <f t="shared" si="3"/>
-        <v>16</v>
-      </c>
-      <c r="K25">
-        <v>0</v>
-      </c>
-      <c r="L25">
-        <v>0</v>
-      </c>
-      <c r="M25">
-        <v>0</v>
-      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/input_data/input_data.xlsx
+++ b/input_data/input_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dsdennis\HOPE\Predicer\input_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB93A265-2292-40C4-9120-0885AC5F33E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0FF20ED-79B0-4E4A-990B-F58D1B33B255}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="796" activeTab="5" xr2:uid="{788BFBD1-D930-4535-8A91-D85C56924796}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="796" activeTab="1" xr2:uid="{788BFBD1-D930-4535-8A91-D85C56924796}"/>
   </bookViews>
   <sheets>
     <sheet name="nodes" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="96">
   <si>
     <t>node</t>
   </si>
@@ -318,6 +318,21 @@
   </si>
   <si>
     <t>res_down</t>
+  </si>
+  <si>
+    <t>pv2</t>
+  </si>
+  <si>
+    <t>pv2,s1</t>
+  </si>
+  <si>
+    <t>pv2,s2</t>
+  </si>
+  <si>
+    <t>pv2,s3</t>
+  </si>
+  <si>
+    <t>is_cf_fix</t>
   </si>
 </sst>
 </file>
@@ -697,7 +712,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04A1B16B-CDA9-46BD-BA51-731AA9327652}">
   <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2527,26 +2544,27 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB20090B-02A9-43B7-8D03-9C18D42920EB}">
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:L8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" customWidth="1"/>
-    <col min="6" max="6" width="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" customWidth="1"/>
+    <col min="7" max="7" width="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>13</v>
       </c>
@@ -2554,34 +2572,37 @@
         <v>14</v>
       </c>
       <c r="C1" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>23</v>
       </c>
@@ -2589,7 +2610,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2" s="8">
         <v>1</v>
@@ -2598,25 +2619,28 @@
         <v>1</v>
       </c>
       <c r="F2" s="8">
+        <v>1</v>
+      </c>
+      <c r="G2" s="8">
         <v>0.9</v>
       </c>
-      <c r="G2" s="8">
+      <c r="H2" s="8">
         <v>0.3</v>
       </c>
-      <c r="H2" s="8">
-        <v>1</v>
-      </c>
       <c r="I2" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J2" s="8">
+        <v>0</v>
+      </c>
+      <c r="K2" s="8">
         <v>4</v>
       </c>
-      <c r="K2" s="8">
+      <c r="L2" s="8">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>24</v>
       </c>
@@ -2627,22 +2651,22 @@
         <v>0</v>
       </c>
       <c r="D3" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" s="8">
         <v>1</v>
       </c>
       <c r="F3" s="8">
+        <v>1</v>
+      </c>
+      <c r="G3" s="8">
         <v>3</v>
       </c>
-      <c r="G3" s="8">
-        <v>0</v>
-      </c>
       <c r="H3" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3" s="8">
         <v>0</v>
@@ -2650,8 +2674,11 @@
       <c r="K3" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L3" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>25</v>
       </c>
@@ -2662,22 +2689,22 @@
         <v>0</v>
       </c>
       <c r="D4" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" s="8">
         <v>1</v>
       </c>
       <c r="F4" s="8">
+        <v>1</v>
+      </c>
+      <c r="G4" s="8">
         <v>0.7</v>
       </c>
-      <c r="G4" s="8">
-        <v>0</v>
-      </c>
       <c r="H4" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4" s="8">
         <v>0</v>
@@ -2685,8 +2712,11 @@
       <c r="K4" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L4" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -2694,25 +2724,25 @@
         <v>1</v>
       </c>
       <c r="C5" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5" s="8">
         <v>0</v>
       </c>
       <c r="E5" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5" s="8">
         <v>1</v>
       </c>
       <c r="G5" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H5" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5" s="8">
         <v>0</v>
@@ -2720,74 +2750,121 @@
       <c r="K5" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L5" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>91</v>
+      </c>
+      <c r="B6" s="8">
+        <v>1</v>
+      </c>
+      <c r="C6" s="8">
+        <v>0</v>
+      </c>
+      <c r="D6" s="8">
+        <v>0</v>
+      </c>
+      <c r="E6" s="8">
+        <v>0</v>
+      </c>
+      <c r="F6" s="8">
+        <v>1</v>
+      </c>
+      <c r="G6" s="8">
+        <v>1</v>
+      </c>
+      <c r="H6" s="8">
+        <v>0</v>
+      </c>
+      <c r="I6" s="8">
+        <v>1</v>
+      </c>
+      <c r="J6" s="8">
+        <v>0</v>
+      </c>
+      <c r="K6" s="8">
+        <v>0</v>
+      </c>
+      <c r="L6" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>37</v>
       </c>
-      <c r="B6" s="8">
-        <v>0</v>
-      </c>
-      <c r="C6" s="8">
-        <v>0</v>
-      </c>
-      <c r="D6" s="8">
-        <v>0</v>
-      </c>
-      <c r="E6" s="8">
+      <c r="B7" s="8">
+        <v>0</v>
+      </c>
+      <c r="C7" s="8">
+        <v>0</v>
+      </c>
+      <c r="D7" s="8">
+        <v>0</v>
+      </c>
+      <c r="E7" s="8">
+        <v>0</v>
+      </c>
+      <c r="F7" s="8">
         <v>2</v>
       </c>
-      <c r="F6" s="8">
+      <c r="G7" s="8">
         <v>0.99</v>
       </c>
-      <c r="G6" s="8">
-        <v>0</v>
-      </c>
-      <c r="H6" s="8">
-        <v>1</v>
-      </c>
-      <c r="I6" s="8">
-        <v>0</v>
-      </c>
-      <c r="J6" s="8">
-        <v>0</v>
-      </c>
-      <c r="K6" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="H7" s="8">
+        <v>0</v>
+      </c>
+      <c r="I7" s="8">
+        <v>1</v>
+      </c>
+      <c r="J7" s="8">
+        <v>0</v>
+      </c>
+      <c r="K7" s="8">
+        <v>0</v>
+      </c>
+      <c r="L7" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="8">
-        <v>0</v>
-      </c>
-      <c r="C7" s="8">
-        <v>0</v>
-      </c>
-      <c r="D7" s="8">
-        <v>0</v>
-      </c>
-      <c r="E7" s="8">
+      <c r="B8" s="8">
+        <v>0</v>
+      </c>
+      <c r="C8" s="8">
+        <v>0</v>
+      </c>
+      <c r="D8" s="8">
+        <v>0</v>
+      </c>
+      <c r="E8" s="8">
+        <v>0</v>
+      </c>
+      <c r="F8" s="8">
         <v>3</v>
       </c>
-      <c r="F7" s="8">
-        <v>1</v>
-      </c>
-      <c r="G7" s="8">
-        <v>0</v>
-      </c>
-      <c r="H7" s="8">
-        <v>1</v>
-      </c>
-      <c r="I7" s="8">
-        <v>0</v>
-      </c>
-      <c r="J7" s="8">
-        <v>0</v>
-      </c>
-      <c r="K7" s="8">
+      <c r="G8" s="8">
+        <v>1</v>
+      </c>
+      <c r="H8" s="8">
+        <v>0</v>
+      </c>
+      <c r="I8" s="8">
+        <v>1</v>
+      </c>
+      <c r="J8" s="8">
+        <v>0</v>
+      </c>
+      <c r="K8" s="8">
+        <v>0</v>
+      </c>
+      <c r="L8" s="8">
         <v>0</v>
       </c>
     </row>
@@ -2897,10 +2974,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A86A8A7-FD76-4891-A53C-CBB095359118}">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3152,22 +3229,22 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>37</v>
+        <v>91</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D10" s="6">
         <v>1</v>
       </c>
       <c r="E10" s="6">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="F10" s="6">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="G10" s="6">
         <v>1</v>
@@ -3181,10 +3258,10 @@
         <v>37</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="D11" s="6">
         <v>1</v>
@@ -3204,19 +3281,19 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="D12" s="6">
         <v>1</v>
       </c>
       <c r="E12" s="6">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F12" s="6">
         <v>0</v>
@@ -3233,24 +3310,50 @@
         <v>27</v>
       </c>
       <c r="B13" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="6">
+        <v>1</v>
+      </c>
+      <c r="E13" s="6">
+        <v>0</v>
+      </c>
+      <c r="F13" s="6">
+        <v>0</v>
+      </c>
+      <c r="G13" s="6">
+        <v>1</v>
+      </c>
+      <c r="H13" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C13" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D13" s="6">
-        <v>1</v>
-      </c>
-      <c r="E13" s="6">
-        <v>0</v>
-      </c>
-      <c r="F13" s="6">
-        <v>0</v>
-      </c>
-      <c r="G13" s="6">
-        <v>1</v>
-      </c>
-      <c r="H13" s="6">
+      <c r="C14" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="6">
+        <v>1</v>
+      </c>
+      <c r="E14" s="6">
+        <v>0</v>
+      </c>
+      <c r="F14" s="6">
+        <v>0</v>
+      </c>
+      <c r="G14" s="6">
+        <v>1</v>
+      </c>
+      <c r="H14" s="6">
         <v>1</v>
       </c>
     </row>
@@ -3301,15 +3404,15 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77A4637A-7829-48D6-AE54-2E654AB1A427}">
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>32</v>
       </c>
@@ -3322,8 +3425,17 @@
       <c r="D1" s="4" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E1" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -3338,9 +3450,19 @@
         <f>1*B2</f>
         <v>0</v>
       </c>
-      <c r="E2" s="1"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <f>1*E2</f>
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <f>1*E2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>4.1666666666666699E-2</v>
       </c>
@@ -3355,9 +3477,19 @@
         <f t="shared" ref="D3:D25" si="1">1*B3</f>
         <v>0.4</v>
       </c>
-      <c r="E3" s="1"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E3">
+        <v>0.4</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3:F25" si="2">1*E3</f>
+        <v>0.4</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G25" si="3">1*E3</f>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>8.3333333333333301E-2</v>
       </c>
@@ -3372,9 +3504,19 @@
         <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
-      <c r="E4" s="1"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E4">
+        <v>0.5</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="2"/>
+        <v>0.5</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="3"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>0.125</v>
       </c>
@@ -3389,9 +3531,19 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E5" s="1"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>0.16666666666666699</v>
       </c>
@@ -3406,9 +3558,19 @@
         <f t="shared" si="1"/>
         <v>0.8</v>
       </c>
-      <c r="E6" s="1"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E6">
+        <v>0.8</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="2"/>
+        <v>0.8</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="3"/>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>0.20833333333333301</v>
       </c>
@@ -3423,9 +3585,19 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="E7" s="1"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>0.25</v>
       </c>
@@ -3440,9 +3612,19 @@
         <f t="shared" si="1"/>
         <v>0.1</v>
       </c>
-      <c r="E8" s="1"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E8">
+        <v>0.1</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="2"/>
+        <v>0.1</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="3"/>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>0.29166666666666702</v>
       </c>
@@ -3457,9 +3639,19 @@
         <f t="shared" si="1"/>
         <v>0.6</v>
       </c>
-      <c r="E9" s="1"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E9">
+        <v>0.6</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="2"/>
+        <v>0.6</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="3"/>
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>0.33333333333333298</v>
       </c>
@@ -3474,9 +3666,19 @@
         <f t="shared" si="1"/>
         <v>0.4</v>
       </c>
-      <c r="E10" s="1"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E10">
+        <v>0.4</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="2"/>
+        <v>0.4</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="3"/>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>0.375</v>
       </c>
@@ -3491,9 +3693,19 @@
         <f t="shared" si="1"/>
         <v>0.6</v>
       </c>
-      <c r="E11" s="1"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E11">
+        <v>0.6</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="2"/>
+        <v>0.6</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="3"/>
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>0.41666666666666702</v>
       </c>
@@ -3508,9 +3720,19 @@
         <f t="shared" si="1"/>
         <v>0.7</v>
       </c>
-      <c r="E12" s="1"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E12">
+        <v>0.7</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="2"/>
+        <v>0.7</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="3"/>
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>0.45833333333333298</v>
       </c>
@@ -3525,9 +3747,19 @@
         <f t="shared" si="1"/>
         <v>0.1</v>
       </c>
-      <c r="E13" s="1"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E13">
+        <v>0.1</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="2"/>
+        <v>0.1</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="3"/>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>0.5</v>
       </c>
@@ -3542,9 +3774,19 @@
         <f t="shared" si="1"/>
         <v>0.1</v>
       </c>
-      <c r="E14" s="1"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E14">
+        <v>0.1</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="2"/>
+        <v>0.1</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="3"/>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>0.54166666666666696</v>
       </c>
@@ -3559,9 +3801,19 @@
         <f t="shared" si="1"/>
         <v>0.8</v>
       </c>
-      <c r="E15" s="1"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E15">
+        <v>0.8</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="2"/>
+        <v>0.8</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="3"/>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>0.58333333333333304</v>
       </c>
@@ -3576,9 +3828,19 @@
         <f t="shared" si="1"/>
         <v>0.9</v>
       </c>
-      <c r="E16" s="1"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E16">
+        <v>0.9</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="2"/>
+        <v>0.9</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="3"/>
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>0.625</v>
       </c>
@@ -3593,9 +3855,19 @@
         <f t="shared" si="1"/>
         <v>0.2</v>
       </c>
-      <c r="E17" s="1"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E17">
+        <v>0.2</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="2"/>
+        <v>0.2</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="3"/>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>0.66666666666666696</v>
       </c>
@@ -3610,9 +3882,19 @@
         <f t="shared" si="1"/>
         <v>0.4</v>
       </c>
-      <c r="E18" s="1"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E18">
+        <v>0.4</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="2"/>
+        <v>0.4</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="3"/>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>0.70833333333333304</v>
       </c>
@@ -3627,9 +3909,19 @@
         <f t="shared" si="1"/>
         <v>0.6</v>
       </c>
-      <c r="E19" s="1"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E19">
+        <v>0.6</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="2"/>
+        <v>0.6</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="3"/>
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>0.75</v>
       </c>
@@ -3644,9 +3936,19 @@
         <f t="shared" si="1"/>
         <v>0.7</v>
       </c>
-      <c r="E20" s="1"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E20">
+        <v>0.7</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="2"/>
+        <v>0.7</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="3"/>
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>0.79166666666666696</v>
       </c>
@@ -3661,9 +3963,19 @@
         <f t="shared" si="1"/>
         <v>0.7</v>
       </c>
-      <c r="E21" s="1"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E21">
+        <v>0.7</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="2"/>
+        <v>0.7</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="3"/>
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>0.83333333333333304</v>
       </c>
@@ -3678,9 +3990,19 @@
         <f t="shared" si="1"/>
         <v>0.6</v>
       </c>
-      <c r="E22" s="1"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E22">
+        <v>0.6</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="2"/>
+        <v>0.6</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="3"/>
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>0.875</v>
       </c>
@@ -3695,9 +4017,19 @@
         <f t="shared" si="1"/>
         <v>0.7</v>
       </c>
-      <c r="E23" s="1"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E23">
+        <v>0.7</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="2"/>
+        <v>0.7</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="3"/>
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>0.91666666666666696</v>
       </c>
@@ -3712,9 +4044,19 @@
         <f t="shared" si="1"/>
         <v>0.1</v>
       </c>
-      <c r="E24" s="1"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E24">
+        <v>0.1</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="2"/>
+        <v>0.1</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="3"/>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>0.95833333333333304</v>
       </c>
@@ -3729,7 +4071,17 @@
         <f t="shared" si="1"/>
         <v>0.6</v>
       </c>
-      <c r="E25" s="1"/>
+      <c r="E25">
+        <v>0.6</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="2"/>
+        <v>0.6</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="3"/>
+        <v>0.6</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/input_data/input_data.xlsx
+++ b/input_data/input_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dsdennis\HOPE\Predicer\input_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0FF20ED-79B0-4E4A-990B-F58D1B33B255}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4264FA4-91B3-4C57-85A4-A9E40CB129EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="796" activeTab="1" xr2:uid="{788BFBD1-D930-4535-8A91-D85C56924796}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="796" xr2:uid="{788BFBD1-D930-4535-8A91-D85C56924796}"/>
   </bookViews>
   <sheets>
     <sheet name="nodes" sheetId="1" r:id="rId1"/>
@@ -26,6 +26,8 @@
     <sheet name="scenarios" sheetId="9" r:id="rId11"/>
     <sheet name="fixed_ts" sheetId="11" r:id="rId12"/>
     <sheet name="eff_ts" sheetId="12" r:id="rId13"/>
+    <sheet name="constraints" sheetId="14" r:id="rId14"/>
+    <sheet name="gen_constraint" sheetId="15" r:id="rId15"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -45,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="107">
   <si>
     <t>node</t>
   </si>
@@ -333,6 +335,39 @@
   </si>
   <si>
     <t>is_cf_fix</t>
+  </si>
+  <si>
+    <t>c1</t>
+  </si>
+  <si>
+    <t>eq</t>
+  </si>
+  <si>
+    <t>c1,ngchp,elc,s1</t>
+  </si>
+  <si>
+    <t>c1,ngchp,elc,s2</t>
+  </si>
+  <si>
+    <t>c1,ngchp,elc,s3</t>
+  </si>
+  <si>
+    <t>c1,ngchp,dh,s1</t>
+  </si>
+  <si>
+    <t>c1,ngchp,dh,s2</t>
+  </si>
+  <si>
+    <t>c1,ngchp,dh,s3</t>
+  </si>
+  <si>
+    <t>c1,s1</t>
+  </si>
+  <si>
+    <t>c1,s2</t>
+  </si>
+  <si>
+    <t>c1,s3</t>
   </si>
 </sst>
 </file>
@@ -712,8 +747,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04A1B16B-CDA9-46BD-BA51-731AA9327652}">
   <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1987,7 +2022,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="B2" sqref="B2:B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2005,7 +2040,7 @@
         <v>49</v>
       </c>
       <c r="B2">
-        <v>0.25</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -2021,7 +2056,7 @@
         <v>51</v>
       </c>
       <c r="B4">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
     </row>
   </sheetData>
@@ -2542,12 +2577,858 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5704FC51-737E-45F9-9A9E-85A96AFE5439}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE12AB76-2BDA-4ACA-A128-8CFB9FB6C8F8}">
+  <dimension ref="A1:J25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E1" t="s">
+        <v>101</v>
+      </c>
+      <c r="F1" t="s">
+        <v>102</v>
+      </c>
+      <c r="G1" t="s">
+        <v>103</v>
+      </c>
+      <c r="H1" t="s">
+        <v>104</v>
+      </c>
+      <c r="I1" t="s">
+        <v>105</v>
+      </c>
+      <c r="J1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>-0.8</v>
+      </c>
+      <c r="F2">
+        <v>-0.8</v>
+      </c>
+      <c r="G2">
+        <v>-0.8</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>4.1666666666666699E-2</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>-0.8</v>
+      </c>
+      <c r="F3">
+        <v>-0.8</v>
+      </c>
+      <c r="G3">
+        <v>-0.8</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>8.3333333333333301E-2</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>-0.8</v>
+      </c>
+      <c r="F4">
+        <v>-0.8</v>
+      </c>
+      <c r="G4">
+        <v>-0.8</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>0.125</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>-0.8</v>
+      </c>
+      <c r="F5">
+        <v>-0.8</v>
+      </c>
+      <c r="G5">
+        <v>-0.8</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>0.16666666666666699</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>-0.8</v>
+      </c>
+      <c r="F6">
+        <v>-0.8</v>
+      </c>
+      <c r="G6">
+        <v>-0.8</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>0.20833333333333301</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>-0.8</v>
+      </c>
+      <c r="F7">
+        <v>-0.8</v>
+      </c>
+      <c r="G7">
+        <v>-0.8</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>-0.8</v>
+      </c>
+      <c r="F8">
+        <v>-0.8</v>
+      </c>
+      <c r="G8">
+        <v>-0.8</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>0.29166666666666702</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>-0.8</v>
+      </c>
+      <c r="F9">
+        <v>-0.8</v>
+      </c>
+      <c r="G9">
+        <v>-0.8</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>-0.8</v>
+      </c>
+      <c r="F10">
+        <v>-0.8</v>
+      </c>
+      <c r="G10">
+        <v>-0.8</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>0.375</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>-0.8</v>
+      </c>
+      <c r="F11">
+        <v>-0.8</v>
+      </c>
+      <c r="G11">
+        <v>-0.8</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>0.41666666666666702</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>-0.8</v>
+      </c>
+      <c r="F12">
+        <v>-0.8</v>
+      </c>
+      <c r="G12">
+        <v>-0.8</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>0.45833333333333298</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>-0.8</v>
+      </c>
+      <c r="F13">
+        <v>-0.8</v>
+      </c>
+      <c r="G13">
+        <v>-0.8</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>-0.8</v>
+      </c>
+      <c r="F14">
+        <v>-0.8</v>
+      </c>
+      <c r="G14">
+        <v>-0.8</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>0.54166666666666696</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>-0.8</v>
+      </c>
+      <c r="F15">
+        <v>-0.8</v>
+      </c>
+      <c r="G15">
+        <v>-0.8</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>0.58333333333333304</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>-0.8</v>
+      </c>
+      <c r="F16">
+        <v>-0.8</v>
+      </c>
+      <c r="G16">
+        <v>-0.8</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>0.625</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>-0.8</v>
+      </c>
+      <c r="F17">
+        <v>-0.8</v>
+      </c>
+      <c r="G17">
+        <v>-0.8</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <v>-0.8</v>
+      </c>
+      <c r="F18">
+        <v>-0.8</v>
+      </c>
+      <c r="G18">
+        <v>-0.8</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>0.70833333333333304</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <v>-0.8</v>
+      </c>
+      <c r="F19">
+        <v>-0.8</v>
+      </c>
+      <c r="G19">
+        <v>-0.8</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <v>-0.8</v>
+      </c>
+      <c r="F20">
+        <v>-0.8</v>
+      </c>
+      <c r="G20">
+        <v>-0.8</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>0.79166666666666696</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21">
+        <v>-0.8</v>
+      </c>
+      <c r="F21">
+        <v>-0.8</v>
+      </c>
+      <c r="G21">
+        <v>-0.8</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>0.83333333333333304</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22">
+        <v>-0.8</v>
+      </c>
+      <c r="F22">
+        <v>-0.8</v>
+      </c>
+      <c r="G22">
+        <v>-0.8</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>0.875</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23">
+        <v>-0.8</v>
+      </c>
+      <c r="F23">
+        <v>-0.8</v>
+      </c>
+      <c r="G23">
+        <v>-0.8</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>0.91666666666666696</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24">
+        <v>-0.8</v>
+      </c>
+      <c r="F24">
+        <v>-0.8</v>
+      </c>
+      <c r="G24">
+        <v>-0.8</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>0.95833333333333304</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25">
+        <v>-0.8</v>
+      </c>
+      <c r="F25">
+        <v>-0.8</v>
+      </c>
+      <c r="G25">
+        <v>-0.8</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB20090B-02A9-43B7-8D03-9C18D42920EB}">
   <dimension ref="A1:L8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H3" sqref="H3:I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2977,7 +3858,7 @@
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4094,7 +4975,7 @@
   <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4131,26 +5012,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>-4</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <f>1*B2</f>
-        <v>-4</v>
+        <v>0</v>
       </c>
       <c r="E2">
         <f>1*C2</f>
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="F2" s="3">
         <f>1*B2</f>
-        <v>-4</v>
+        <v>0</v>
       </c>
       <c r="G2" s="3">
         <f>1*C2</f>
-        <v>-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">

--- a/input_data/input_data.xlsx
+++ b/input_data/input_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dsdennis\HOPE\Predicer\input_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4264FA4-91B3-4C57-85A4-A9E40CB129EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D945E25-DF45-41BF-B530-45D8A81DB053}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="796" xr2:uid="{788BFBD1-D930-4535-8A91-D85C56924796}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="796" activeTab="3" xr2:uid="{788BFBD1-D930-4535-8A91-D85C56924796}"/>
   </bookViews>
   <sheets>
     <sheet name="nodes" sheetId="1" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="108">
   <si>
     <t>node</t>
   </si>
@@ -368,6 +368,9 @@
   </si>
   <si>
     <t>c1,s3</t>
+  </si>
+  <si>
+    <t>initial_state</t>
   </si>
 </sst>
 </file>
@@ -745,10 +748,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04A1B16B-CDA9-46BD-BA51-731AA9327652}">
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -764,7 +767,7 @@
     <col min="9" max="9" width="8.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -792,8 +795,11 @@
       <c r="I1" s="4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J1" s="4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -821,8 +827,11 @@
       <c r="I2" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J2" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -850,8 +859,11 @@
       <c r="I3" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J3" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -879,8 +891,11 @@
       <c r="I4" s="8">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J4" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -908,8 +923,11 @@
       <c r="I5" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J5" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>36</v>
       </c>
@@ -937,8 +955,11 @@
       <c r="I6" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J6" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -964,6 +985,9 @@
         <v>0</v>
       </c>
       <c r="I7" s="8">
+        <v>0</v>
+      </c>
+      <c r="J7" s="8">
         <v>0</v>
       </c>
     </row>
@@ -3425,10 +3449,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB20090B-02A9-43B7-8D03-9C18D42920EB}">
-  <dimension ref="A1:L8"/>
+  <dimension ref="A1:M8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H3" sqref="H3:I3"/>
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3445,7 +3469,7 @@
     <col min="12" max="12" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>13</v>
       </c>
@@ -3482,8 +3506,11 @@
       <c r="L1" s="4" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M1" s="4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>23</v>
       </c>
@@ -3520,8 +3547,11 @@
       <c r="L2" s="8">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M2" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>24</v>
       </c>
@@ -3558,8 +3588,11 @@
       <c r="L3" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M3" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>25</v>
       </c>
@@ -3596,8 +3629,11 @@
       <c r="L4" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M4" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -3634,8 +3670,11 @@
       <c r="L5" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M5" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>91</v>
       </c>
@@ -3672,8 +3711,11 @@
       <c r="L6" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M6" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>37</v>
       </c>
@@ -3710,8 +3752,11 @@
       <c r="L7" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M7" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>27</v>
       </c>
@@ -3746,6 +3791,9 @@
         <v>0</v>
       </c>
       <c r="L8" s="8">
+        <v>0</v>
+      </c>
+      <c r="M8" s="8">
         <v>0</v>
       </c>
     </row>
@@ -3857,8 +3905,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A86A8A7-FD76-4891-A53C-CBB095359118}">
   <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3920,10 +3968,10 @@
         <v>3</v>
       </c>
       <c r="G2" s="6">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="H2" s="6">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -3946,10 +3994,10 @@
         <v>0</v>
       </c>
       <c r="G3" s="6">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="H3" s="6">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -3972,10 +4020,10 @@
         <v>0</v>
       </c>
       <c r="G4" s="6">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="H4" s="6">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -3998,10 +4046,10 @@
         <v>15</v>
       </c>
       <c r="G5" s="6">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="H5" s="6">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -4024,10 +4072,10 @@
         <v>0.5</v>
       </c>
       <c r="G6" s="6">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="H6" s="6">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -4288,7 +4336,7 @@
   <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4975,7 +5023,7 @@
   <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5012,25 +5060,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="E2">
         <f>1*C2</f>
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="F2" s="3">
         <f>1*B2</f>
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="G2" s="3">
         <f>1*C2</f>
-        <v>0</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">

--- a/input_data/input_data.xlsx
+++ b/input_data/input_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dsdennis\HOPE\Predicer\input_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D945E25-DF45-41BF-B530-45D8A81DB053}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D44CB0F-CDAF-4959-822F-DFC2EFC06C4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="796" activeTab="3" xr2:uid="{788BFBD1-D930-4535-8A91-D85C56924796}"/>
   </bookViews>
@@ -3452,7 +3452,7 @@
   <dimension ref="A1:M8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+      <selection activeCell="F2" sqref="F2:F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3906,7 +3906,7 @@
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/input_data/input_data.xlsx
+++ b/input_data/input_data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dsdennis\HOPE\Predicer\input_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\data\Hope\Predicer_master\Predicer\input_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D945E25-DF45-41BF-B530-45D8A81DB053}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E35C52D-5BF9-4BB6-A864-5CB459C7E295}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="796" activeTab="3" xr2:uid="{788BFBD1-D930-4535-8A91-D85C56924796}"/>
+    <workbookView xWindow="-46020" yWindow="780" windowWidth="21600" windowHeight="12735" tabRatio="796" xr2:uid="{788BFBD1-D930-4535-8A91-D85C56924796}"/>
   </bookViews>
   <sheets>
     <sheet name="nodes" sheetId="1" r:id="rId1"/>
@@ -28,6 +28,7 @@
     <sheet name="eff_ts" sheetId="12" r:id="rId13"/>
     <sheet name="constraints" sheetId="14" r:id="rId14"/>
     <sheet name="gen_constraint" sheetId="15" r:id="rId15"/>
+    <sheet name="cap_ts" sheetId="16" r:id="rId16"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -47,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="112">
   <si>
     <t>node</t>
   </si>
@@ -371,6 +372,18 @@
   </si>
   <si>
     <t>initial_state</t>
+  </si>
+  <si>
+    <t>hp1,elc,s1</t>
+  </si>
+  <si>
+    <t>hp1,elc,s2</t>
+  </si>
+  <si>
+    <t>hp1,elc,s3</t>
+  </si>
+  <si>
+    <t>state_loss</t>
   </si>
 </sst>
 </file>
@@ -748,10 +761,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04A1B16B-CDA9-46BD-BA51-731AA9327652}">
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -767,7 +780,7 @@
     <col min="9" max="9" width="8.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -798,8 +811,11 @@
       <c r="J1" s="4" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K1" s="4" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -830,8 +846,11 @@
       <c r="J2" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K2" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -862,8 +881,11 @@
       <c r="J3" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K3" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -892,10 +914,13 @@
         <v>3</v>
       </c>
       <c r="J4" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="K4">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -926,8 +951,11 @@
       <c r="J5" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K5" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>36</v>
       </c>
@@ -958,8 +986,11 @@
       <c r="J6" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K6" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -988,6 +1019,9 @@
         <v>0</v>
       </c>
       <c r="J7" s="8">
+        <v>0</v>
+      </c>
+      <c r="K7" s="8">
         <v>0</v>
       </c>
     </row>
@@ -2637,7 +2671,7 @@
   <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="A2" sqref="A2:A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3440,6 +3474,371 @@
       </c>
       <c r="J25">
         <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7FEDBA5-B0F3-4E9D-9367-08D5F5FA8AEA}">
+  <dimension ref="A1:D25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M29" sqref="M29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>5</v>
+      </c>
+      <c r="C2">
+        <v>5</v>
+      </c>
+      <c r="D2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>4.1666666666666699E-2</v>
+      </c>
+      <c r="B3">
+        <v>4.2857142857142856</v>
+      </c>
+      <c r="C3">
+        <v>4.2857142857142856</v>
+      </c>
+      <c r="D3">
+        <v>4.2857142857142856</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>8.3333333333333301E-2</v>
+      </c>
+      <c r="B4">
+        <v>4.2857142857142856</v>
+      </c>
+      <c r="C4">
+        <v>4.2857142857142856</v>
+      </c>
+      <c r="D4">
+        <v>4.2857142857142856</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>0.125</v>
+      </c>
+      <c r="B5">
+        <v>4.4117647058823533</v>
+      </c>
+      <c r="C5">
+        <v>4.4117647058823533</v>
+      </c>
+      <c r="D5">
+        <v>4.4117647058823533</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>0.16666666666666699</v>
+      </c>
+      <c r="B6">
+        <v>4.5454545454545459</v>
+      </c>
+      <c r="C6">
+        <v>4.5454545454545459</v>
+      </c>
+      <c r="D6">
+        <v>4.5454545454545459</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>0.20833333333333301</v>
+      </c>
+      <c r="B7">
+        <v>4.6875</v>
+      </c>
+      <c r="C7">
+        <v>4.6875</v>
+      </c>
+      <c r="D7">
+        <v>4.6875</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="B8">
+        <v>4.838709677419355</v>
+      </c>
+      <c r="C8">
+        <v>4.838709677419355</v>
+      </c>
+      <c r="D8">
+        <v>4.838709677419355</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>0.29166666666666702</v>
+      </c>
+      <c r="B9">
+        <v>5</v>
+      </c>
+      <c r="C9">
+        <v>5</v>
+      </c>
+      <c r="D9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="B10">
+        <v>6</v>
+      </c>
+      <c r="C10">
+        <v>6</v>
+      </c>
+      <c r="D10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>0.375</v>
+      </c>
+      <c r="B11">
+        <v>6</v>
+      </c>
+      <c r="C11">
+        <v>6</v>
+      </c>
+      <c r="D11">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>0.41666666666666702</v>
+      </c>
+      <c r="B12">
+        <v>6</v>
+      </c>
+      <c r="C12">
+        <v>6</v>
+      </c>
+      <c r="D12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>0.45833333333333298</v>
+      </c>
+      <c r="B13">
+        <v>6</v>
+      </c>
+      <c r="C13">
+        <v>6</v>
+      </c>
+      <c r="D13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="B14">
+        <v>6</v>
+      </c>
+      <c r="C14">
+        <v>6</v>
+      </c>
+      <c r="D14">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>0.54166666666666696</v>
+      </c>
+      <c r="B15">
+        <v>6</v>
+      </c>
+      <c r="C15">
+        <v>6</v>
+      </c>
+      <c r="D15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>0.58333333333333304</v>
+      </c>
+      <c r="B16">
+        <v>6</v>
+      </c>
+      <c r="C16">
+        <v>6</v>
+      </c>
+      <c r="D16">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>0.625</v>
+      </c>
+      <c r="B17">
+        <v>6</v>
+      </c>
+      <c r="C17">
+        <v>6</v>
+      </c>
+      <c r="D17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="B18">
+        <v>6</v>
+      </c>
+      <c r="C18">
+        <v>6</v>
+      </c>
+      <c r="D18">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>0.70833333333333304</v>
+      </c>
+      <c r="B19">
+        <v>3.75</v>
+      </c>
+      <c r="C19">
+        <v>3.75</v>
+      </c>
+      <c r="D19">
+        <v>3.75</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="B20">
+        <v>3.75</v>
+      </c>
+      <c r="C20">
+        <v>3.75</v>
+      </c>
+      <c r="D20">
+        <v>3.75</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>0.79166666666666696</v>
+      </c>
+      <c r="B21">
+        <v>3.75</v>
+      </c>
+      <c r="C21">
+        <v>3.75</v>
+      </c>
+      <c r="D21">
+        <v>3.75</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>0.83333333333333304</v>
+      </c>
+      <c r="B22">
+        <v>3.75</v>
+      </c>
+      <c r="C22">
+        <v>3.75</v>
+      </c>
+      <c r="D22">
+        <v>3.75</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>0.875</v>
+      </c>
+      <c r="B23">
+        <v>4.2857142857142856</v>
+      </c>
+      <c r="C23">
+        <v>4.2857142857142856</v>
+      </c>
+      <c r="D23">
+        <v>4.2857142857142856</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>0.91666666666666696</v>
+      </c>
+      <c r="B24">
+        <v>4.2857142857142856</v>
+      </c>
+      <c r="C24">
+        <v>4.2857142857142856</v>
+      </c>
+      <c r="D24">
+        <v>4.2857142857142856</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>0.95833333333333304</v>
+      </c>
+      <c r="B25">
+        <v>4.2857142857142856</v>
+      </c>
+      <c r="C25">
+        <v>4.2857142857142856</v>
+      </c>
+      <c r="D25">
+        <v>4.2857142857142856</v>
       </c>
     </row>
   </sheetData>
@@ -3452,7 +3851,7 @@
   <dimension ref="A1:M8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3905,7 +4304,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A86A8A7-FD76-4891-A53C-CBB095359118}">
   <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>

--- a/input_data/input_data.xlsx
+++ b/input_data/input_data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\data\Hope\Predicer_master\Predicer\input_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dsdennis\HOPE\Predicer\input_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E35C52D-5BF9-4BB6-A864-5CB459C7E295}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F0A4073-A20F-4529-8BD5-AB07D18B0824}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-46020" yWindow="780" windowWidth="21600" windowHeight="12735" tabRatio="796" xr2:uid="{788BFBD1-D930-4535-8A91-D85C56924796}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="796" activeTab="6" xr2:uid="{788BFBD1-D930-4535-8A91-D85C56924796}"/>
   </bookViews>
   <sheets>
     <sheet name="nodes" sheetId="1" r:id="rId1"/>
@@ -763,8 +763,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04A1B16B-CDA9-46BD-BA51-731AA9327652}">
   <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K7" sqref="G1:K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5421,8 +5421,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F87DD44-A1AD-4241-AED7-C48CC9DEE2E2}">
   <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/input_data/input_data.xlsx
+++ b/input_data/input_data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dsdennis\HOPE\Predicer\input_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\data\Hope\Predicer_master\Predicer\input_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F0A4073-A20F-4529-8BD5-AB07D18B0824}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D377BFB-4D87-412E-8144-49501D205597}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="796" activeTab="6" xr2:uid="{788BFBD1-D930-4535-8A91-D85C56924796}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="796" activeTab="10" xr2:uid="{788BFBD1-D930-4535-8A91-D85C56924796}"/>
   </bookViews>
   <sheets>
     <sheet name="nodes" sheetId="1" r:id="rId1"/>
@@ -23,12 +23,13 @@
     <sheet name="price" sheetId="4" r:id="rId8"/>
     <sheet name="markets" sheetId="5" r:id="rId9"/>
     <sheet name="market_prices" sheetId="8" r:id="rId10"/>
-    <sheet name="scenarios" sheetId="9" r:id="rId11"/>
-    <sheet name="fixed_ts" sheetId="11" r:id="rId12"/>
-    <sheet name="eff_ts" sheetId="12" r:id="rId13"/>
-    <sheet name="constraints" sheetId="14" r:id="rId14"/>
-    <sheet name="gen_constraint" sheetId="15" r:id="rId15"/>
-    <sheet name="cap_ts" sheetId="16" r:id="rId16"/>
+    <sheet name="risk" sheetId="17" r:id="rId11"/>
+    <sheet name="scenarios" sheetId="9" r:id="rId12"/>
+    <sheet name="fixed_ts" sheetId="11" r:id="rId13"/>
+    <sheet name="eff_ts" sheetId="12" r:id="rId14"/>
+    <sheet name="constraints" sheetId="14" r:id="rId15"/>
+    <sheet name="gen_constraint" sheetId="15" r:id="rId16"/>
+    <sheet name="cap_ts" sheetId="16" r:id="rId17"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -48,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="116">
   <si>
     <t>node</t>
   </si>
@@ -384,6 +385,18 @@
   </si>
   <si>
     <t>state_loss</t>
+  </si>
+  <si>
+    <t>parameter</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>alfa</t>
+  </si>
+  <si>
+    <t>beta</t>
   </si>
 </sst>
 </file>
@@ -2076,6 +2089,48 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{455BFA53-C3D0-4BC3-8FDD-0F1FF3FD2BAA}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B2">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>115</v>
+      </c>
+      <c r="B3">
+        <v>0.2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A87AD413-E614-48C1-80E1-F1E8236FCBC6}">
   <dimension ref="A1:B4"/>
   <sheetViews>
@@ -2122,7 +2177,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31679CA5-0AA2-4F6F-8223-14BF74917F04}">
   <dimension ref="A1:B25"/>
   <sheetViews>
@@ -2269,7 +2324,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD670E02-665B-45B8-BC4E-9596D2C1BC55}">
   <dimension ref="A1:D25"/>
   <sheetViews>
@@ -2635,7 +2690,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5704FC51-737E-45F9-9A9E-85A96AFE5439}">
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -2666,7 +2721,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE12AB76-2BDA-4ACA-A128-8CFB9FB6C8F8}">
   <dimension ref="A1:J25"/>
   <sheetViews>
@@ -3481,7 +3536,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7FEDBA5-B0F3-4E9D-9367-08D5F5FA8AEA}">
   <dimension ref="A1:D25"/>
   <sheetViews>
@@ -5421,7 +5476,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F87DD44-A1AD-4241-AED7-C48CC9DEE2E2}">
   <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>

--- a/input_data/input_data.xlsx
+++ b/input_data/input_data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\data\Hope\Predicer_master\Predicer\input_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dsdennis\HOPE\Predicer - Copy\input_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D377BFB-4D87-412E-8144-49501D205597}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCC4D9F8-212D-4541-B8DE-FD1C1A8E23AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="796" activeTab="10" xr2:uid="{788BFBD1-D930-4535-8A91-D85C56924796}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="796" activeTab="10" xr2:uid="{788BFBD1-D930-4535-8A91-D85C56924796}"/>
   </bookViews>
   <sheets>
     <sheet name="nodes" sheetId="1" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="117">
   <si>
     <t>node</t>
   </si>
@@ -385,6 +385,9 @@
   </si>
   <si>
     <t>state_loss</t>
+  </si>
+  <si>
+    <t>delay</t>
   </si>
   <si>
     <t>parameter</t>
@@ -403,6 +406,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="d/m/yyyy\ h:mm;@"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -446,9 +452,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -460,6 +465,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -777,7 +784,7 @@
   <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K7" sqref="G1:K7"/>
+      <selection activeCell="A8" sqref="A8:XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -793,38 +800,38 @@
     <col min="9" max="9" width="8.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="4" t="s">
+    <row r="1" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="3" t="s">
         <v>111</v>
       </c>
     </row>
@@ -832,34 +839,34 @@
       <c r="A2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="8">
-        <v>1</v>
-      </c>
-      <c r="C2" s="8">
-        <v>0</v>
-      </c>
-      <c r="D2" s="8">
-        <v>0</v>
-      </c>
-      <c r="E2" s="8">
-        <v>0</v>
-      </c>
-      <c r="F2" s="8">
-        <v>0</v>
-      </c>
-      <c r="G2" s="8">
-        <v>0</v>
-      </c>
-      <c r="H2" s="8">
-        <v>0</v>
-      </c>
-      <c r="I2" s="8">
-        <v>0</v>
-      </c>
-      <c r="J2" s="8">
-        <v>0</v>
-      </c>
-      <c r="K2" s="8">
+      <c r="B2" s="7">
+        <v>1</v>
+      </c>
+      <c r="C2" s="7">
+        <v>0</v>
+      </c>
+      <c r="D2" s="7">
+        <v>0</v>
+      </c>
+      <c r="E2" s="7">
+        <v>0</v>
+      </c>
+      <c r="F2" s="7">
+        <v>0</v>
+      </c>
+      <c r="G2" s="7">
+        <v>0</v>
+      </c>
+      <c r="H2" s="7">
+        <v>0</v>
+      </c>
+      <c r="I2" s="7">
+        <v>0</v>
+      </c>
+      <c r="J2" s="7">
+        <v>0</v>
+      </c>
+      <c r="K2" s="7">
         <v>0</v>
       </c>
     </row>
@@ -867,34 +874,34 @@
       <c r="A3" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="8">
-        <v>0</v>
-      </c>
-      <c r="C3" s="8">
-        <v>0</v>
-      </c>
-      <c r="D3" s="8">
-        <v>1</v>
-      </c>
-      <c r="E3" s="8">
-        <v>0</v>
-      </c>
-      <c r="F3" s="8">
-        <v>0</v>
-      </c>
-      <c r="G3" s="8">
-        <v>0</v>
-      </c>
-      <c r="H3" s="8">
-        <v>0</v>
-      </c>
-      <c r="I3" s="8">
-        <v>0</v>
-      </c>
-      <c r="J3" s="8">
-        <v>0</v>
-      </c>
-      <c r="K3" s="8">
+      <c r="B3" s="7">
+        <v>0</v>
+      </c>
+      <c r="C3" s="7">
+        <v>0</v>
+      </c>
+      <c r="D3" s="7">
+        <v>1</v>
+      </c>
+      <c r="E3" s="7">
+        <v>0</v>
+      </c>
+      <c r="F3" s="7">
+        <v>0</v>
+      </c>
+      <c r="G3" s="7">
+        <v>0</v>
+      </c>
+      <c r="H3" s="7">
+        <v>0</v>
+      </c>
+      <c r="I3" s="7">
+        <v>0</v>
+      </c>
+      <c r="J3" s="7">
+        <v>0</v>
+      </c>
+      <c r="K3" s="7">
         <v>0</v>
       </c>
     </row>
@@ -902,31 +909,31 @@
       <c r="A4" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="8">
-        <v>0</v>
-      </c>
-      <c r="C4" s="8">
-        <v>1</v>
-      </c>
-      <c r="D4" s="8">
-        <v>0</v>
-      </c>
-      <c r="E4" s="8">
-        <v>0</v>
-      </c>
-      <c r="F4" s="8">
-        <v>0</v>
-      </c>
-      <c r="G4" s="8">
+      <c r="B4" s="7">
+        <v>0</v>
+      </c>
+      <c r="C4" s="7">
+        <v>1</v>
+      </c>
+      <c r="D4" s="7">
+        <v>0</v>
+      </c>
+      <c r="E4" s="7">
+        <v>0</v>
+      </c>
+      <c r="F4" s="7">
+        <v>0</v>
+      </c>
+      <c r="G4" s="7">
         <v>10</v>
       </c>
-      <c r="H4" s="8">
+      <c r="H4" s="7">
         <v>3</v>
       </c>
-      <c r="I4" s="8">
+      <c r="I4" s="7">
         <v>3</v>
       </c>
-      <c r="J4" s="8">
+      <c r="J4" s="7">
         <v>10</v>
       </c>
       <c r="K4">
@@ -937,34 +944,34 @@
       <c r="A5" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="8">
-        <v>0</v>
-      </c>
-      <c r="C5" s="8">
-        <v>1</v>
-      </c>
-      <c r="D5" s="8">
-        <v>0</v>
-      </c>
-      <c r="E5" s="8">
-        <v>0</v>
-      </c>
-      <c r="F5" s="8">
-        <v>1</v>
-      </c>
-      <c r="G5" s="8">
+      <c r="B5" s="7">
+        <v>0</v>
+      </c>
+      <c r="C5" s="7">
+        <v>1</v>
+      </c>
+      <c r="D5" s="7">
+        <v>0</v>
+      </c>
+      <c r="E5" s="7">
+        <v>0</v>
+      </c>
+      <c r="F5" s="7">
+        <v>1</v>
+      </c>
+      <c r="G5" s="7">
         <v>4</v>
       </c>
-      <c r="H5" s="8">
-        <v>1</v>
-      </c>
-      <c r="I5" s="8">
-        <v>1</v>
-      </c>
-      <c r="J5" s="8">
-        <v>0</v>
-      </c>
-      <c r="K5" s="8">
+      <c r="H5" s="7">
+        <v>1</v>
+      </c>
+      <c r="I5" s="7">
+        <v>1</v>
+      </c>
+      <c r="J5" s="7">
+        <v>0</v>
+      </c>
+      <c r="K5" s="7">
         <v>0</v>
       </c>
     </row>
@@ -972,34 +979,34 @@
       <c r="A6" t="s">
         <v>36</v>
       </c>
-      <c r="B6" s="8">
-        <v>0</v>
-      </c>
-      <c r="C6" s="8">
-        <v>0</v>
-      </c>
-      <c r="D6" s="8">
-        <v>0</v>
-      </c>
-      <c r="E6" s="8">
-        <v>0</v>
-      </c>
-      <c r="F6" s="8">
-        <v>1</v>
-      </c>
-      <c r="G6" s="8">
-        <v>0</v>
-      </c>
-      <c r="H6" s="8">
-        <v>0</v>
-      </c>
-      <c r="I6" s="8">
-        <v>0</v>
-      </c>
-      <c r="J6" s="8">
-        <v>0</v>
-      </c>
-      <c r="K6" s="8">
+      <c r="B6" s="7">
+        <v>0</v>
+      </c>
+      <c r="C6" s="7">
+        <v>0</v>
+      </c>
+      <c r="D6" s="7">
+        <v>0</v>
+      </c>
+      <c r="E6" s="7">
+        <v>0</v>
+      </c>
+      <c r="F6" s="7">
+        <v>1</v>
+      </c>
+      <c r="G6" s="7">
+        <v>0</v>
+      </c>
+      <c r="H6" s="7">
+        <v>0</v>
+      </c>
+      <c r="I6" s="7">
+        <v>0</v>
+      </c>
+      <c r="J6" s="7">
+        <v>0</v>
+      </c>
+      <c r="K6" s="7">
         <v>0</v>
       </c>
     </row>
@@ -1007,34 +1014,34 @@
       <c r="A7" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="8">
-        <v>0</v>
-      </c>
-      <c r="C7" s="8">
-        <v>0</v>
-      </c>
-      <c r="D7" s="8">
-        <v>0</v>
-      </c>
-      <c r="E7" s="8">
-        <v>1</v>
-      </c>
-      <c r="F7" s="8">
-        <v>0</v>
-      </c>
-      <c r="G7" s="8">
-        <v>0</v>
-      </c>
-      <c r="H7" s="8">
-        <v>0</v>
-      </c>
-      <c r="I7" s="8">
-        <v>0</v>
-      </c>
-      <c r="J7" s="8">
-        <v>0</v>
-      </c>
-      <c r="K7" s="8">
+      <c r="B7" s="7">
+        <v>0</v>
+      </c>
+      <c r="C7" s="7">
+        <v>0</v>
+      </c>
+      <c r="D7" s="7">
+        <v>0</v>
+      </c>
+      <c r="E7" s="7">
+        <v>1</v>
+      </c>
+      <c r="F7" s="7">
+        <v>0</v>
+      </c>
+      <c r="G7" s="7">
+        <v>0</v>
+      </c>
+      <c r="H7" s="7">
+        <v>0</v>
+      </c>
+      <c r="I7" s="7">
+        <v>0</v>
+      </c>
+      <c r="J7" s="7">
+        <v>0</v>
+      </c>
+      <c r="K7" s="7">
         <v>0</v>
       </c>
     </row>
@@ -1048,59 +1055,60 @@
   <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="A2" sqref="A2:A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="5" width="11.42578125" customWidth="1"/>
     <col min="6" max="13" width="11.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="M1" s="3" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>0</v>
+      <c r="A2" s="9">
+        <v>44671</v>
       </c>
       <c r="B2">
         <v>48</v>
@@ -1140,8 +1148,8 @@
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>4.1666666666666699E-2</v>
+      <c r="A3" s="9">
+        <v>44671.041666666664</v>
       </c>
       <c r="B3">
         <v>60</v>
@@ -1181,8 +1189,8 @@
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>8.3333333333333301E-2</v>
+      <c r="A4" s="9">
+        <v>44671.08333321759</v>
       </c>
       <c r="B4">
         <v>58</v>
@@ -1222,8 +1230,8 @@
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>0.125</v>
+      <c r="A5" s="9">
+        <v>44671.124999826388</v>
       </c>
       <c r="B5">
         <v>51</v>
@@ -1263,8 +1271,8 @@
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>0.16666666666666699</v>
+      <c r="A6" s="9">
+        <v>44671.166666435187</v>
       </c>
       <c r="B6">
         <v>37</v>
@@ -1304,8 +1312,8 @@
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>0.20833333333333301</v>
+      <c r="A7" s="9">
+        <v>44671.208333043978</v>
       </c>
       <c r="B7">
         <v>34</v>
@@ -1345,8 +1353,8 @@
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>0.25</v>
+      <c r="A8" s="9">
+        <v>44671.249999652777</v>
       </c>
       <c r="B8">
         <v>45</v>
@@ -1386,8 +1394,8 @@
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>0.29166666666666702</v>
+      <c r="A9" s="9">
+        <v>44671.291666261575</v>
       </c>
       <c r="B9">
         <v>41</v>
@@ -1427,8 +1435,8 @@
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>0.33333333333333298</v>
+      <c r="A10" s="9">
+        <v>44671.333332870374</v>
       </c>
       <c r="B10">
         <v>55</v>
@@ -1468,8 +1476,8 @@
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>0.375</v>
+      <c r="A11" s="9">
+        <v>44671.374999479165</v>
       </c>
       <c r="B11">
         <v>59</v>
@@ -1509,8 +1517,8 @@
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>0.41666666666666702</v>
+      <c r="A12" s="9">
+        <v>44671.416666087964</v>
       </c>
       <c r="B12">
         <v>60</v>
@@ -1550,8 +1558,8 @@
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>0.45833333333333298</v>
+      <c r="A13" s="9">
+        <v>44671.458332696762</v>
       </c>
       <c r="B13">
         <v>41</v>
@@ -1591,8 +1599,8 @@
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
-        <v>0.5</v>
+      <c r="A14" s="9">
+        <v>44671.499999305554</v>
       </c>
       <c r="B14">
         <v>46</v>
@@ -1632,8 +1640,8 @@
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
-        <v>0.54166666666666696</v>
+      <c r="A15" s="9">
+        <v>44671.541665914352</v>
       </c>
       <c r="B15">
         <v>38</v>
@@ -1673,8 +1681,8 @@
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
-        <v>0.58333333333333304</v>
+      <c r="A16" s="9">
+        <v>44671.583332523151</v>
       </c>
       <c r="B16">
         <v>46</v>
@@ -1714,8 +1722,8 @@
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
-        <v>0.625</v>
+      <c r="A17" s="9">
+        <v>44671.624999131942</v>
       </c>
       <c r="B17">
         <v>45</v>
@@ -1755,8 +1763,8 @@
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
-        <v>0.66666666666666696</v>
+      <c r="A18" s="9">
+        <v>44671.66666574074</v>
       </c>
       <c r="B18">
         <v>41</v>
@@ -1796,8 +1804,8 @@
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
-        <v>0.70833333333333304</v>
+      <c r="A19" s="9">
+        <v>44671.708332349539</v>
       </c>
       <c r="B19">
         <v>46</v>
@@ -1837,8 +1845,8 @@
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
-        <v>0.75</v>
+      <c r="A20" s="9">
+        <v>44671.74999895833</v>
       </c>
       <c r="B20">
         <v>52</v>
@@ -1878,8 +1886,8 @@
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
-        <v>0.79166666666666696</v>
+      <c r="A21" s="9">
+        <v>44671.791665567129</v>
       </c>
       <c r="B21">
         <v>56</v>
@@ -1919,8 +1927,8 @@
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
-        <v>0.83333333333333304</v>
+      <c r="A22" s="9">
+        <v>44671.833332175927</v>
       </c>
       <c r="B22">
         <v>33</v>
@@ -1960,8 +1968,8 @@
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
-        <v>0.875</v>
+      <c r="A23" s="9">
+        <v>44671.874998784719</v>
       </c>
       <c r="B23">
         <v>43</v>
@@ -2001,8 +2009,8 @@
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
-        <v>0.91666666666666696</v>
+      <c r="A24" s="9">
+        <v>44671.916665393517</v>
       </c>
       <c r="B24">
         <v>57</v>
@@ -2042,8 +2050,8 @@
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
-        <v>0.95833333333333304</v>
+      <c r="A25" s="9">
+        <v>44671.958332002316</v>
       </c>
       <c r="B25">
         <v>32</v>
@@ -2089,11 +2097,11 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{455BFA53-C3D0-4BC3-8FDD-0F1FF3FD2BAA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9314D326-256A-435C-AAE3-3517FA836EAE}">
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2102,16 +2110,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="B1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>113</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B2">
         <v>0.1</v>
@@ -2119,7 +2127,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B3">
         <v>0.2</v>
@@ -2140,11 +2148,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>48</v>
       </c>
     </row>
@@ -2182,141 +2190,144 @@
   <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="B1:C12"/>
+      <selection activeCell="A2" sqref="A2:A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" s="3"/>
+      <c r="A2" s="9">
+        <v>44671</v>
+      </c>
+      <c r="B2" s="2"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>4.1666666666666699E-2</v>
-      </c>
-      <c r="B3" s="3"/>
+      <c r="A3" s="9">
+        <v>44671.041666666664</v>
+      </c>
+      <c r="B3" s="2"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>8.3333333333333301E-2</v>
-      </c>
-      <c r="B4" s="3"/>
+      <c r="A4" s="9">
+        <v>44671.08333321759</v>
+      </c>
+      <c r="B4" s="2"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>0.125</v>
-      </c>
-      <c r="B5" s="3"/>
+      <c r="A5" s="9">
+        <v>44671.124999826388</v>
+      </c>
+      <c r="B5" s="2"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>0.16666666666666699</v>
-      </c>
-      <c r="B6" s="3"/>
+      <c r="A6" s="9">
+        <v>44671.166666435187</v>
+      </c>
+      <c r="B6" s="2"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>0.20833333333333301</v>
-      </c>
-      <c r="B7" s="3"/>
+      <c r="A7" s="9">
+        <v>44671.208333043978</v>
+      </c>
+      <c r="B7" s="2"/>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>0.25</v>
-      </c>
-      <c r="B8" s="3"/>
+      <c r="A8" s="9">
+        <v>44671.249999652777</v>
+      </c>
+      <c r="B8" s="2"/>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>0.29166666666666702</v>
+      <c r="A9" s="9">
+        <v>44671.291666261575</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>0.33333333333333298</v>
+      <c r="A10" s="9">
+        <v>44671.333332870374</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>0.375</v>
+      <c r="A11" s="9">
+        <v>44671.374999479165</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>0.41666666666666702</v>
+      <c r="A12" s="9">
+        <v>44671.416666087964</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>0.45833333333333298</v>
+      <c r="A13" s="9">
+        <v>44671.458332696762</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
-        <v>0.5</v>
+      <c r="A14" s="9">
+        <v>44671.499999305554</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
-        <v>0.54166666666666696</v>
+      <c r="A15" s="9">
+        <v>44671.541665914352</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
-        <v>0.58333333333333304</v>
+      <c r="A16" s="9">
+        <v>44671.583332523151</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
-        <v>0.625</v>
+      <c r="A17" s="9">
+        <v>44671.624999131942</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
-        <v>0.66666666666666696</v>
+      <c r="A18" s="9">
+        <v>44671.66666574074</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
-        <v>0.70833333333333304</v>
+      <c r="A19" s="9">
+        <v>44671.708332349539</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
-        <v>0.75</v>
+      <c r="A20" s="9">
+        <v>44671.74999895833</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
-        <v>0.79166666666666696</v>
+      <c r="A21" s="9">
+        <v>44671.791665567129</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
-        <v>0.83333333333333304</v>
+      <c r="A22" s="9">
+        <v>44671.833332175927</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
-        <v>0.875</v>
+      <c r="A23" s="9">
+        <v>44671.874998784719</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
-        <v>0.91666666666666696</v>
+      <c r="A24" s="9">
+        <v>44671.916665393517</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
-        <v>0.95833333333333304</v>
+      <c r="A25" s="9">
+        <v>44671.958332002316</v>
       </c>
     </row>
   </sheetData>
@@ -2329,28 +2340,31 @@
   <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="A2" sqref="A2:A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>0</v>
+      <c r="A2" s="9">
+        <v>44671</v>
       </c>
       <c r="B2">
         <v>3</v>
@@ -2363,8 +2377,8 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>4.1666666666666699E-2</v>
+      <c r="A3" s="9">
+        <v>44671.041666666664</v>
       </c>
       <c r="B3">
         <v>3.5</v>
@@ -2377,8 +2391,8 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>8.3333333333333301E-2</v>
+      <c r="A4" s="9">
+        <v>44671.08333321759</v>
       </c>
       <c r="B4">
         <v>3.5</v>
@@ -2391,8 +2405,8 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>0.125</v>
+      <c r="A5" s="9">
+        <v>44671.124999826388</v>
       </c>
       <c r="B5">
         <v>3.4</v>
@@ -2405,8 +2419,8 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>0.16666666666666699</v>
+      <c r="A6" s="9">
+        <v>44671.166666435187</v>
       </c>
       <c r="B6">
         <v>3.3</v>
@@ -2419,8 +2433,8 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>0.20833333333333301</v>
+      <c r="A7" s="9">
+        <v>44671.208333043978</v>
       </c>
       <c r="B7">
         <v>3.2</v>
@@ -2433,8 +2447,8 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>0.25</v>
+      <c r="A8" s="9">
+        <v>44671.249999652777</v>
       </c>
       <c r="B8">
         <v>3.1</v>
@@ -2447,8 +2461,8 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>0.29166666666666702</v>
+      <c r="A9" s="9">
+        <v>44671.291666261575</v>
       </c>
       <c r="B9">
         <v>3</v>
@@ -2461,8 +2475,8 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>0.33333333333333298</v>
+      <c r="A10" s="9">
+        <v>44671.333332870374</v>
       </c>
       <c r="B10">
         <v>2.5</v>
@@ -2475,8 +2489,8 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>0.375</v>
+      <c r="A11" s="9">
+        <v>44671.374999479165</v>
       </c>
       <c r="B11">
         <v>2.5</v>
@@ -2489,8 +2503,8 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>0.41666666666666702</v>
+      <c r="A12" s="9">
+        <v>44671.416666087964</v>
       </c>
       <c r="B12">
         <v>2.5</v>
@@ -2503,8 +2517,8 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>0.45833333333333298</v>
+      <c r="A13" s="9">
+        <v>44671.458332696762</v>
       </c>
       <c r="B13">
         <v>2.5</v>
@@ -2517,8 +2531,8 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
-        <v>0.5</v>
+      <c r="A14" s="9">
+        <v>44671.499999305554</v>
       </c>
       <c r="B14">
         <v>2.5</v>
@@ -2531,8 +2545,8 @@
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
-        <v>0.54166666666666696</v>
+      <c r="A15" s="9">
+        <v>44671.541665914352</v>
       </c>
       <c r="B15">
         <v>2.5</v>
@@ -2545,8 +2559,8 @@
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
-        <v>0.58333333333333304</v>
+      <c r="A16" s="9">
+        <v>44671.583332523151</v>
       </c>
       <c r="B16">
         <v>2.5</v>
@@ -2559,8 +2573,8 @@
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
-        <v>0.625</v>
+      <c r="A17" s="9">
+        <v>44671.624999131942</v>
       </c>
       <c r="B17">
         <v>2.5</v>
@@ -2573,8 +2587,8 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
-        <v>0.66666666666666696</v>
+      <c r="A18" s="9">
+        <v>44671.66666574074</v>
       </c>
       <c r="B18">
         <v>2.5</v>
@@ -2587,8 +2601,8 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
-        <v>0.70833333333333304</v>
+      <c r="A19" s="9">
+        <v>44671.708332349539</v>
       </c>
       <c r="B19">
         <v>4</v>
@@ -2601,8 +2615,8 @@
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
-        <v>0.75</v>
+      <c r="A20" s="9">
+        <v>44671.74999895833</v>
       </c>
       <c r="B20">
         <v>4</v>
@@ -2615,8 +2629,8 @@
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
-        <v>0.79166666666666696</v>
+      <c r="A21" s="9">
+        <v>44671.791665567129</v>
       </c>
       <c r="B21">
         <v>4</v>
@@ -2629,8 +2643,8 @@
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
-        <v>0.83333333333333304</v>
+      <c r="A22" s="9">
+        <v>44671.833332175927</v>
       </c>
       <c r="B22">
         <v>4</v>
@@ -2643,8 +2657,8 @@
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
-        <v>0.875</v>
+      <c r="A23" s="9">
+        <v>44671.874998784719</v>
       </c>
       <c r="B23">
         <v>3.5</v>
@@ -2657,8 +2671,8 @@
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
-        <v>0.91666666666666696</v>
+      <c r="A24" s="9">
+        <v>44671.916665393517</v>
       </c>
       <c r="B24">
         <v>3.5</v>
@@ -2671,8 +2685,8 @@
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
-        <v>0.95833333333333304</v>
+      <c r="A25" s="9">
+        <v>44671.958332002316</v>
       </c>
       <c r="B25">
         <v>3.5</v>
@@ -2730,6 +2744,9 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -2764,8 +2781,8 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>0</v>
+      <c r="A2" s="9">
+        <v>44671</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -2796,8 +2813,8 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>4.1666666666666699E-2</v>
+      <c r="A3" s="9">
+        <v>44671.041666666664</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -2828,8 +2845,8 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>8.3333333333333301E-2</v>
+      <c r="A4" s="9">
+        <v>44671.08333321759</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -2860,8 +2877,8 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>0.125</v>
+      <c r="A5" s="9">
+        <v>44671.124999826388</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -2892,8 +2909,8 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>0.16666666666666699</v>
+      <c r="A6" s="9">
+        <v>44671.166666435187</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -2924,8 +2941,8 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>0.20833333333333301</v>
+      <c r="A7" s="9">
+        <v>44671.208333043978</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -2956,8 +2973,8 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>0.25</v>
+      <c r="A8" s="9">
+        <v>44671.249999652777</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -2988,8 +3005,8 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>0.29166666666666702</v>
+      <c r="A9" s="9">
+        <v>44671.291666261575</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -3020,8 +3037,8 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>0.33333333333333298</v>
+      <c r="A10" s="9">
+        <v>44671.333332870374</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -3052,8 +3069,8 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>0.375</v>
+      <c r="A11" s="9">
+        <v>44671.374999479165</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -3084,8 +3101,8 @@
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>0.41666666666666702</v>
+      <c r="A12" s="9">
+        <v>44671.416666087964</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -3116,8 +3133,8 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>0.45833333333333298</v>
+      <c r="A13" s="9">
+        <v>44671.458332696762</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -3148,8 +3165,8 @@
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
-        <v>0.5</v>
+      <c r="A14" s="9">
+        <v>44671.499999305554</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -3180,8 +3197,8 @@
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
-        <v>0.54166666666666696</v>
+      <c r="A15" s="9">
+        <v>44671.541665914352</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -3212,8 +3229,8 @@
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
-        <v>0.58333333333333304</v>
+      <c r="A16" s="9">
+        <v>44671.583332523151</v>
       </c>
       <c r="B16">
         <v>1</v>
@@ -3244,8 +3261,8 @@
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
-        <v>0.625</v>
+      <c r="A17" s="9">
+        <v>44671.624999131942</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -3276,8 +3293,8 @@
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
-        <v>0.66666666666666696</v>
+      <c r="A18" s="9">
+        <v>44671.66666574074</v>
       </c>
       <c r="B18">
         <v>1</v>
@@ -3308,8 +3325,8 @@
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
-        <v>0.70833333333333304</v>
+      <c r="A19" s="9">
+        <v>44671.708332349539</v>
       </c>
       <c r="B19">
         <v>1</v>
@@ -3340,8 +3357,8 @@
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
-        <v>0.75</v>
+      <c r="A20" s="9">
+        <v>44671.74999895833</v>
       </c>
       <c r="B20">
         <v>1</v>
@@ -3372,8 +3389,8 @@
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
-        <v>0.79166666666666696</v>
+      <c r="A21" s="9">
+        <v>44671.791665567129</v>
       </c>
       <c r="B21">
         <v>1</v>
@@ -3404,8 +3421,8 @@
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
-        <v>0.83333333333333304</v>
+      <c r="A22" s="9">
+        <v>44671.833332175927</v>
       </c>
       <c r="B22">
         <v>1</v>
@@ -3436,8 +3453,8 @@
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
-        <v>0.875</v>
+      <c r="A23" s="9">
+        <v>44671.874998784719</v>
       </c>
       <c r="B23">
         <v>1</v>
@@ -3468,8 +3485,8 @@
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
-        <v>0.91666666666666696</v>
+      <c r="A24" s="9">
+        <v>44671.916665393517</v>
       </c>
       <c r="B24">
         <v>1</v>
@@ -3500,8 +3517,8 @@
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
-        <v>0.95833333333333304</v>
+      <c r="A25" s="9">
+        <v>44671.958332002316</v>
       </c>
       <c r="B25">
         <v>1</v>
@@ -3541,10 +3558,13 @@
   <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M29" sqref="M29"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -3561,8 +3581,8 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>0</v>
+      <c r="A2" s="9">
+        <v>44671</v>
       </c>
       <c r="B2">
         <v>5</v>
@@ -3575,8 +3595,8 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>4.1666666666666699E-2</v>
+      <c r="A3" s="9">
+        <v>44671.041666666664</v>
       </c>
       <c r="B3">
         <v>4.2857142857142856</v>
@@ -3589,8 +3609,8 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>8.3333333333333301E-2</v>
+      <c r="A4" s="9">
+        <v>44671.08333321759</v>
       </c>
       <c r="B4">
         <v>4.2857142857142856</v>
@@ -3603,8 +3623,8 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>0.125</v>
+      <c r="A5" s="9">
+        <v>44671.124999826388</v>
       </c>
       <c r="B5">
         <v>4.4117647058823533</v>
@@ -3617,8 +3637,8 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>0.16666666666666699</v>
+      <c r="A6" s="9">
+        <v>44671.166666435187</v>
       </c>
       <c r="B6">
         <v>4.5454545454545459</v>
@@ -3631,8 +3651,8 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>0.20833333333333301</v>
+      <c r="A7" s="9">
+        <v>44671.208333043978</v>
       </c>
       <c r="B7">
         <v>4.6875</v>
@@ -3645,8 +3665,8 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>0.25</v>
+      <c r="A8" s="9">
+        <v>44671.249999652777</v>
       </c>
       <c r="B8">
         <v>4.838709677419355</v>
@@ -3659,8 +3679,8 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>0.29166666666666702</v>
+      <c r="A9" s="9">
+        <v>44671.291666261575</v>
       </c>
       <c r="B9">
         <v>5</v>
@@ -3673,8 +3693,8 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>0.33333333333333298</v>
+      <c r="A10" s="9">
+        <v>44671.333332870374</v>
       </c>
       <c r="B10">
         <v>6</v>
@@ -3687,8 +3707,8 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>0.375</v>
+      <c r="A11" s="9">
+        <v>44671.374999479165</v>
       </c>
       <c r="B11">
         <v>6</v>
@@ -3701,8 +3721,8 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>0.41666666666666702</v>
+      <c r="A12" s="9">
+        <v>44671.416666087964</v>
       </c>
       <c r="B12">
         <v>6</v>
@@ -3715,8 +3735,8 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>0.45833333333333298</v>
+      <c r="A13" s="9">
+        <v>44671.458332696762</v>
       </c>
       <c r="B13">
         <v>6</v>
@@ -3729,8 +3749,8 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
-        <v>0.5</v>
+      <c r="A14" s="9">
+        <v>44671.499999305554</v>
       </c>
       <c r="B14">
         <v>6</v>
@@ -3743,8 +3763,8 @@
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
-        <v>0.54166666666666696</v>
+      <c r="A15" s="9">
+        <v>44671.541665914352</v>
       </c>
       <c r="B15">
         <v>6</v>
@@ -3757,8 +3777,8 @@
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
-        <v>0.58333333333333304</v>
+      <c r="A16" s="9">
+        <v>44671.583332523151</v>
       </c>
       <c r="B16">
         <v>6</v>
@@ -3771,8 +3791,8 @@
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
-        <v>0.625</v>
+      <c r="A17" s="9">
+        <v>44671.624999131942</v>
       </c>
       <c r="B17">
         <v>6</v>
@@ -3785,8 +3805,8 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
-        <v>0.66666666666666696</v>
+      <c r="A18" s="9">
+        <v>44671.66666574074</v>
       </c>
       <c r="B18">
         <v>6</v>
@@ -3799,8 +3819,8 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
-        <v>0.70833333333333304</v>
+      <c r="A19" s="9">
+        <v>44671.708332349539</v>
       </c>
       <c r="B19">
         <v>3.75</v>
@@ -3813,8 +3833,8 @@
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
-        <v>0.75</v>
+      <c r="A20" s="9">
+        <v>44671.74999895833</v>
       </c>
       <c r="B20">
         <v>3.75</v>
@@ -3827,8 +3847,8 @@
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
-        <v>0.79166666666666696</v>
+      <c r="A21" s="9">
+        <v>44671.791665567129</v>
       </c>
       <c r="B21">
         <v>3.75</v>
@@ -3841,8 +3861,8 @@
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
-        <v>0.83333333333333304</v>
+      <c r="A22" s="9">
+        <v>44671.833332175927</v>
       </c>
       <c r="B22">
         <v>3.75</v>
@@ -3855,8 +3875,8 @@
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
-        <v>0.875</v>
+      <c r="A23" s="9">
+        <v>44671.874998784719</v>
       </c>
       <c r="B23">
         <v>4.2857142857142856</v>
@@ -3869,8 +3889,8 @@
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
-        <v>0.91666666666666696</v>
+      <c r="A24" s="9">
+        <v>44671.916665393517</v>
       </c>
       <c r="B24">
         <v>4.2857142857142856</v>
@@ -3883,8 +3903,8 @@
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
-        <v>0.95833333333333304</v>
+      <c r="A25" s="9">
+        <v>44671.958332002316</v>
       </c>
       <c r="B25">
         <v>4.2857142857142856</v>
@@ -3903,15 +3923,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB20090B-02A9-43B7-8D03-9C18D42920EB}">
-  <dimension ref="A1:M8"/>
+  <dimension ref="A1:N8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="G41" sqref="G41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" customWidth="1"/>
     <col min="2" max="2" width="5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6.140625" bestFit="1" customWidth="1"/>
@@ -3923,333 +3943,340 @@
     <col min="12" max="12" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="M1" s="3" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="8">
-        <v>0</v>
-      </c>
-      <c r="C2" s="8">
-        <v>0</v>
-      </c>
-      <c r="D2" s="8">
-        <v>1</v>
-      </c>
-      <c r="E2" s="8">
-        <v>1</v>
-      </c>
-      <c r="F2" s="8">
-        <v>1</v>
-      </c>
-      <c r="G2" s="8">
+      <c r="B2" s="7">
+        <v>0</v>
+      </c>
+      <c r="C2" s="7">
+        <v>0</v>
+      </c>
+      <c r="D2" s="7">
+        <v>1</v>
+      </c>
+      <c r="E2" s="7">
+        <v>1</v>
+      </c>
+      <c r="F2" s="7">
+        <v>1</v>
+      </c>
+      <c r="G2" s="7">
         <v>0.9</v>
       </c>
-      <c r="H2" s="8">
+      <c r="H2" s="7">
         <v>0.3</v>
       </c>
-      <c r="I2" s="8">
-        <v>1</v>
-      </c>
-      <c r="J2" s="8">
-        <v>0</v>
-      </c>
-      <c r="K2" s="8">
+      <c r="I2" s="7">
+        <v>1</v>
+      </c>
+      <c r="J2" s="7">
+        <v>0</v>
+      </c>
+      <c r="K2" s="7">
         <v>4</v>
       </c>
-      <c r="L2" s="8">
+      <c r="L2" s="7">
         <v>3</v>
       </c>
-      <c r="M2" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M2" s="7">
+        <v>1</v>
+      </c>
+      <c r="N2" s="7"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="8">
-        <v>0</v>
-      </c>
-      <c r="C3" s="8">
-        <v>0</v>
-      </c>
-      <c r="D3" s="8">
-        <v>0</v>
-      </c>
-      <c r="E3" s="8">
-        <v>1</v>
-      </c>
-      <c r="F3" s="8">
-        <v>1</v>
-      </c>
-      <c r="G3" s="8">
+      <c r="B3" s="7">
+        <v>0</v>
+      </c>
+      <c r="C3" s="7">
+        <v>0</v>
+      </c>
+      <c r="D3" s="7">
+        <v>0</v>
+      </c>
+      <c r="E3" s="7">
+        <v>1</v>
+      </c>
+      <c r="F3" s="7">
+        <v>1</v>
+      </c>
+      <c r="G3" s="7">
         <v>3</v>
       </c>
-      <c r="H3" s="8">
-        <v>0</v>
-      </c>
-      <c r="I3" s="8">
-        <v>1</v>
-      </c>
-      <c r="J3" s="8">
-        <v>0</v>
-      </c>
-      <c r="K3" s="8">
-        <v>0</v>
-      </c>
-      <c r="L3" s="8">
-        <v>0</v>
-      </c>
-      <c r="M3" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="H3" s="7">
+        <v>0</v>
+      </c>
+      <c r="I3" s="7">
+        <v>1</v>
+      </c>
+      <c r="J3" s="7">
+        <v>0</v>
+      </c>
+      <c r="K3" s="7">
+        <v>0</v>
+      </c>
+      <c r="L3" s="7">
+        <v>0</v>
+      </c>
+      <c r="M3" s="7">
+        <v>0</v>
+      </c>
+      <c r="N3" s="7"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="8">
-        <v>0</v>
-      </c>
-      <c r="C4" s="8">
-        <v>0</v>
-      </c>
-      <c r="D4" s="8">
-        <v>0</v>
-      </c>
-      <c r="E4" s="8">
-        <v>1</v>
-      </c>
-      <c r="F4" s="8">
-        <v>1</v>
-      </c>
-      <c r="G4" s="8">
+      <c r="B4" s="7">
+        <v>0</v>
+      </c>
+      <c r="C4" s="7">
+        <v>0</v>
+      </c>
+      <c r="D4" s="7">
+        <v>0</v>
+      </c>
+      <c r="E4" s="7">
+        <v>1</v>
+      </c>
+      <c r="F4" s="7">
+        <v>1</v>
+      </c>
+      <c r="G4" s="7">
         <v>0.7</v>
       </c>
-      <c r="H4" s="8">
-        <v>0</v>
-      </c>
-      <c r="I4" s="8">
-        <v>1</v>
-      </c>
-      <c r="J4" s="8">
-        <v>0</v>
-      </c>
-      <c r="K4" s="8">
-        <v>0</v>
-      </c>
-      <c r="L4" s="8">
-        <v>0</v>
-      </c>
-      <c r="M4" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="H4" s="7">
+        <v>0</v>
+      </c>
+      <c r="I4" s="7">
+        <v>1</v>
+      </c>
+      <c r="J4" s="7">
+        <v>0</v>
+      </c>
+      <c r="K4" s="7">
+        <v>0</v>
+      </c>
+      <c r="L4" s="7">
+        <v>0</v>
+      </c>
+      <c r="M4" s="7">
+        <v>0</v>
+      </c>
+      <c r="N4" s="7"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="8">
-        <v>1</v>
-      </c>
-      <c r="C5" s="8">
-        <v>1</v>
-      </c>
-      <c r="D5" s="8">
-        <v>0</v>
-      </c>
-      <c r="E5" s="8">
-        <v>0</v>
-      </c>
-      <c r="F5" s="8">
-        <v>1</v>
-      </c>
-      <c r="G5" s="8">
-        <v>1</v>
-      </c>
-      <c r="H5" s="8">
-        <v>0</v>
-      </c>
-      <c r="I5" s="8">
-        <v>1</v>
-      </c>
-      <c r="J5" s="8">
-        <v>0</v>
-      </c>
-      <c r="K5" s="8">
-        <v>0</v>
-      </c>
-      <c r="L5" s="8">
-        <v>0</v>
-      </c>
-      <c r="M5" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B5" s="7">
+        <v>1</v>
+      </c>
+      <c r="C5" s="7">
+        <v>1</v>
+      </c>
+      <c r="D5" s="7">
+        <v>0</v>
+      </c>
+      <c r="E5" s="7">
+        <v>0</v>
+      </c>
+      <c r="F5" s="7">
+        <v>1</v>
+      </c>
+      <c r="G5" s="7">
+        <v>1</v>
+      </c>
+      <c r="H5" s="7">
+        <v>0</v>
+      </c>
+      <c r="I5" s="7">
+        <v>1</v>
+      </c>
+      <c r="J5" s="7">
+        <v>0</v>
+      </c>
+      <c r="K5" s="7">
+        <v>0</v>
+      </c>
+      <c r="L5" s="7">
+        <v>0</v>
+      </c>
+      <c r="M5" s="7">
+        <v>0</v>
+      </c>
+      <c r="N5" s="7"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>91</v>
       </c>
-      <c r="B6" s="8">
-        <v>1</v>
-      </c>
-      <c r="C6" s="8">
-        <v>0</v>
-      </c>
-      <c r="D6" s="8">
-        <v>0</v>
-      </c>
-      <c r="E6" s="8">
-        <v>0</v>
-      </c>
-      <c r="F6" s="8">
-        <v>1</v>
-      </c>
-      <c r="G6" s="8">
-        <v>1</v>
-      </c>
-      <c r="H6" s="8">
-        <v>0</v>
-      </c>
-      <c r="I6" s="8">
-        <v>1</v>
-      </c>
-      <c r="J6" s="8">
-        <v>0</v>
-      </c>
-      <c r="K6" s="8">
-        <v>0</v>
-      </c>
-      <c r="L6" s="8">
-        <v>0</v>
-      </c>
-      <c r="M6" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B6" s="7">
+        <v>1</v>
+      </c>
+      <c r="C6" s="7">
+        <v>0</v>
+      </c>
+      <c r="D6" s="7">
+        <v>0</v>
+      </c>
+      <c r="E6" s="7">
+        <v>0</v>
+      </c>
+      <c r="F6" s="7">
+        <v>1</v>
+      </c>
+      <c r="G6" s="7">
+        <v>1</v>
+      </c>
+      <c r="H6" s="7">
+        <v>0</v>
+      </c>
+      <c r="I6" s="7">
+        <v>1</v>
+      </c>
+      <c r="J6" s="7">
+        <v>0</v>
+      </c>
+      <c r="K6" s="7">
+        <v>0</v>
+      </c>
+      <c r="L6" s="7">
+        <v>0</v>
+      </c>
+      <c r="M6" s="7">
+        <v>0</v>
+      </c>
+      <c r="N6" s="7"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>37</v>
       </c>
-      <c r="B7" s="8">
-        <v>0</v>
-      </c>
-      <c r="C7" s="8">
-        <v>0</v>
-      </c>
-      <c r="D7" s="8">
-        <v>0</v>
-      </c>
-      <c r="E7" s="8">
-        <v>0</v>
-      </c>
-      <c r="F7" s="8">
+      <c r="B7" s="7">
+        <v>0</v>
+      </c>
+      <c r="C7" s="7">
+        <v>0</v>
+      </c>
+      <c r="D7" s="7">
+        <v>0</v>
+      </c>
+      <c r="E7" s="7">
+        <v>0</v>
+      </c>
+      <c r="F7" s="7">
         <v>2</v>
       </c>
-      <c r="G7" s="8">
+      <c r="G7" s="7">
         <v>0.99</v>
       </c>
-      <c r="H7" s="8">
-        <v>0</v>
-      </c>
-      <c r="I7" s="8">
-        <v>1</v>
-      </c>
-      <c r="J7" s="8">
-        <v>0</v>
-      </c>
-      <c r="K7" s="8">
-        <v>0</v>
-      </c>
-      <c r="L7" s="8">
-        <v>0</v>
-      </c>
-      <c r="M7" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="H7" s="7">
+        <v>0</v>
+      </c>
+      <c r="I7" s="7">
+        <v>1</v>
+      </c>
+      <c r="J7" s="7">
+        <v>0</v>
+      </c>
+      <c r="K7" s="7">
+        <v>0</v>
+      </c>
+      <c r="L7" s="7">
+        <v>0</v>
+      </c>
+      <c r="M7" s="7">
+        <v>0</v>
+      </c>
+      <c r="N7" s="7"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>27</v>
       </c>
-      <c r="B8" s="8">
-        <v>0</v>
-      </c>
-      <c r="C8" s="8">
-        <v>0</v>
-      </c>
-      <c r="D8" s="8">
-        <v>0</v>
-      </c>
-      <c r="E8" s="8">
-        <v>0</v>
-      </c>
-      <c r="F8" s="8">
+      <c r="B8" s="7">
+        <v>0</v>
+      </c>
+      <c r="C8" s="7">
+        <v>0</v>
+      </c>
+      <c r="D8" s="7">
+        <v>0</v>
+      </c>
+      <c r="E8" s="7">
+        <v>0</v>
+      </c>
+      <c r="F8" s="7">
         <v>3</v>
       </c>
-      <c r="G8" s="8">
-        <v>1</v>
-      </c>
-      <c r="H8" s="8">
-        <v>0</v>
-      </c>
-      <c r="I8" s="8">
-        <v>1</v>
-      </c>
-      <c r="J8" s="8">
-        <v>0</v>
-      </c>
-      <c r="K8" s="8">
-        <v>0</v>
-      </c>
-      <c r="L8" s="8">
-        <v>0</v>
-      </c>
-      <c r="M8" s="8">
-        <v>0</v>
-      </c>
+      <c r="G8" s="7">
+        <v>1</v>
+      </c>
+      <c r="H8" s="7">
+        <v>0</v>
+      </c>
+      <c r="I8" s="7">
+        <v>1</v>
+      </c>
+      <c r="J8" s="7">
+        <v>0</v>
+      </c>
+      <c r="K8" s="7">
+        <v>0</v>
+      </c>
+      <c r="L8" s="7">
+        <v>0</v>
+      </c>
+      <c r="M8" s="7">
+        <v>0</v>
+      </c>
+      <c r="N8" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4266,46 +4293,46 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="4">
-        <v>1</v>
-      </c>
-      <c r="C1" s="4">
+      <c r="B1" s="3">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3">
         <f>B1+1</f>
         <v>2</v>
       </c>
-      <c r="D1" s="4">
+      <c r="D1" s="3">
         <f t="shared" ref="D1:K1" si="0">C1+1</f>
         <v>3</v>
       </c>
-      <c r="E1" s="4">
+      <c r="E1" s="3">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="F1" s="4">
+      <c r="F1" s="3">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G1" s="4">
+      <c r="G1" s="3">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="H1" s="4">
+      <c r="H1" s="3">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="I1" s="4">
+      <c r="I1" s="3">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="J1" s="4">
+      <c r="J1" s="3">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="K1" s="4">
+      <c r="K1" s="3">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
@@ -4357,387 +4384,429 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A86A8A7-FD76-4891-A53C-CBB095359118}">
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.42578125" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.85546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="6"/>
+    <col min="1" max="1" width="7.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="5" t="s">
+      <c r="C1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="4" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="I1" s="4" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="6">
-        <v>1</v>
-      </c>
-      <c r="E2" s="6">
+      <c r="D2" s="5">
+        <v>1</v>
+      </c>
+      <c r="E2" s="5">
         <v>20</v>
       </c>
-      <c r="F2" s="6">
+      <c r="F2" s="5">
         <v>3</v>
       </c>
-      <c r="G2" s="6">
+      <c r="G2" s="5">
         <v>0.5</v>
       </c>
-      <c r="H2" s="6">
+      <c r="H2" s="5">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+      <c r="I2" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="6">
-        <v>1</v>
-      </c>
-      <c r="E3" s="6">
+      <c r="D3" s="5">
+        <v>1</v>
+      </c>
+      <c r="E3" s="5">
         <v>10</v>
       </c>
-      <c r="F3" s="6">
-        <v>0</v>
-      </c>
-      <c r="G3" s="6">
+      <c r="F3" s="5">
+        <v>0</v>
+      </c>
+      <c r="G3" s="5">
         <v>0.5</v>
       </c>
-      <c r="H3" s="6">
+      <c r="H3" s="5">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
+      <c r="I3" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="6">
-        <v>1</v>
-      </c>
-      <c r="E4" s="6">
+      <c r="D4" s="5">
+        <v>1</v>
+      </c>
+      <c r="E4" s="5">
         <v>8</v>
       </c>
-      <c r="F4" s="6">
-        <v>0</v>
-      </c>
-      <c r="G4" s="6">
+      <c r="F4" s="5">
+        <v>0</v>
+      </c>
+      <c r="G4" s="5">
         <v>0.5</v>
       </c>
-      <c r="H4" s="6">
+      <c r="H4" s="5">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
+      <c r="I4" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="6">
-        <v>1</v>
-      </c>
-      <c r="E5" s="6">
+      <c r="D5" s="5">
+        <v>1</v>
+      </c>
+      <c r="E5" s="5">
         <v>5</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5" s="5">
         <v>15</v>
       </c>
-      <c r="G5" s="6">
+      <c r="G5" s="5">
         <v>0.5</v>
       </c>
-      <c r="H5" s="6">
+      <c r="H5" s="5">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
+      <c r="I5" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="6">
-        <v>1</v>
-      </c>
-      <c r="E6" s="6">
+      <c r="D6" s="5">
+        <v>1</v>
+      </c>
+      <c r="E6" s="5">
         <v>15</v>
       </c>
-      <c r="F6" s="6">
+      <c r="F6" s="5">
         <v>0.5</v>
       </c>
-      <c r="G6" s="6">
+      <c r="G6" s="5">
         <v>0.5</v>
       </c>
-      <c r="H6" s="6">
+      <c r="H6" s="5">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
+      <c r="I6" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="6">
-        <v>1</v>
-      </c>
-      <c r="E7" s="6">
+      <c r="D7" s="5">
+        <v>1</v>
+      </c>
+      <c r="E7" s="5">
         <v>10</v>
       </c>
-      <c r="F7" s="6">
+      <c r="F7" s="5">
         <v>15</v>
       </c>
-      <c r="G7" s="6">
-        <v>1</v>
-      </c>
-      <c r="H7" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
+      <c r="G7" s="5">
+        <v>1</v>
+      </c>
+      <c r="H7" s="5">
+        <v>1</v>
+      </c>
+      <c r="I7" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="6">
-        <v>1</v>
-      </c>
-      <c r="E8" s="6">
+      <c r="D8" s="5">
+        <v>1</v>
+      </c>
+      <c r="E8" s="5">
         <v>7</v>
       </c>
-      <c r="F8" s="6">
-        <v>1</v>
-      </c>
-      <c r="G8" s="6">
-        <v>1</v>
-      </c>
-      <c r="H8" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
+      <c r="F8" s="5">
+        <v>1</v>
+      </c>
+      <c r="G8" s="5">
+        <v>1</v>
+      </c>
+      <c r="H8" s="5">
+        <v>1</v>
+      </c>
+      <c r="I8" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="6">
-        <v>1</v>
-      </c>
-      <c r="E9" s="6">
+      <c r="D9" s="5">
+        <v>1</v>
+      </c>
+      <c r="E9" s="5">
         <v>5</v>
       </c>
-      <c r="F9" s="6">
+      <c r="F9" s="5">
         <v>0.5</v>
       </c>
-      <c r="G9" s="6">
-        <v>1</v>
-      </c>
-      <c r="H9" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
+      <c r="G9" s="5">
+        <v>1</v>
+      </c>
+      <c r="H9" s="5">
+        <v>1</v>
+      </c>
+      <c r="I9" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="6">
-        <v>1</v>
-      </c>
-      <c r="E10" s="6">
+      <c r="D10" s="5">
+        <v>1</v>
+      </c>
+      <c r="E10" s="5">
         <v>5</v>
       </c>
-      <c r="F10" s="6">
+      <c r="F10" s="5">
         <v>0.5</v>
       </c>
-      <c r="G10" s="6">
-        <v>1</v>
-      </c>
-      <c r="H10" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
+      <c r="G10" s="5">
+        <v>1</v>
+      </c>
+      <c r="H10" s="5">
+        <v>1</v>
+      </c>
+      <c r="I10" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="6">
-        <v>1</v>
-      </c>
-      <c r="E11" s="6">
+      <c r="D11" s="5">
+        <v>1</v>
+      </c>
+      <c r="E11" s="5">
         <v>20</v>
       </c>
-      <c r="F11" s="6">
-        <v>0</v>
-      </c>
-      <c r="G11" s="6">
-        <v>1</v>
-      </c>
-      <c r="H11" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
+      <c r="F11" s="5">
+        <v>0</v>
+      </c>
+      <c r="G11" s="5">
+        <v>1</v>
+      </c>
+      <c r="H11" s="5">
+        <v>1</v>
+      </c>
+      <c r="I11" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D12" s="6">
-        <v>1</v>
-      </c>
-      <c r="E12" s="6">
+      <c r="D12" s="5">
+        <v>1</v>
+      </c>
+      <c r="E12" s="5">
         <v>20</v>
       </c>
-      <c r="F12" s="6">
-        <v>0</v>
-      </c>
-      <c r="G12" s="6">
-        <v>1</v>
-      </c>
-      <c r="H12" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
+      <c r="F12" s="5">
+        <v>0</v>
+      </c>
+      <c r="G12" s="5">
+        <v>1</v>
+      </c>
+      <c r="H12" s="5">
+        <v>1</v>
+      </c>
+      <c r="I12" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D13" s="6">
-        <v>1</v>
-      </c>
-      <c r="E13" s="6">
-        <v>0</v>
-      </c>
-      <c r="F13" s="6">
-        <v>0</v>
-      </c>
-      <c r="G13" s="6">
-        <v>1</v>
-      </c>
-      <c r="H13" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
+      <c r="D13" s="5">
+        <v>1</v>
+      </c>
+      <c r="E13" s="5">
+        <v>0</v>
+      </c>
+      <c r="F13" s="5">
+        <v>0</v>
+      </c>
+      <c r="G13" s="5">
+        <v>1</v>
+      </c>
+      <c r="H13" s="5">
+        <v>1</v>
+      </c>
+      <c r="I13" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D14" s="6">
-        <v>1</v>
-      </c>
-      <c r="E14" s="6">
-        <v>0</v>
-      </c>
-      <c r="F14" s="6">
-        <v>0</v>
-      </c>
-      <c r="G14" s="6">
-        <v>1</v>
-      </c>
-      <c r="H14" s="6">
-        <v>1</v>
+      <c r="C14" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="5">
+        <v>1</v>
+      </c>
+      <c r="E14" s="5">
+        <v>0</v>
+      </c>
+      <c r="F14" s="5">
+        <v>0</v>
+      </c>
+      <c r="G14" s="5">
+        <v>1</v>
+      </c>
+      <c r="H14" s="5">
+        <v>1</v>
+      </c>
+      <c r="I14" s="5">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4751,16 +4820,16 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>85</v>
       </c>
     </row>
@@ -4787,40 +4856,43 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77A4637A-7829-48D6-AE54-2E654AB1A427}">
-  <dimension ref="A1:G25"/>
+  <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>0</v>
+      <c r="A2" s="9">
+        <v>44671</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -4846,8 +4918,8 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>4.1666666666666699E-2</v>
+      <c r="A3" s="9">
+        <v>44671.041666666664</v>
       </c>
       <c r="B3">
         <v>0.4</v>
@@ -4873,8 +4945,8 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>8.3333333333333301E-2</v>
+      <c r="A4" s="9">
+        <v>44671.08333321759</v>
       </c>
       <c r="B4">
         <v>0.5</v>
@@ -4900,8 +4972,8 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>0.125</v>
+      <c r="A5" s="9">
+        <v>44671.124999826388</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -4927,8 +4999,8 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>0.16666666666666699</v>
+      <c r="A6" s="9">
+        <v>44671.166666435187</v>
       </c>
       <c r="B6">
         <v>0.8</v>
@@ -4954,8 +5026,8 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>0.20833333333333301</v>
+      <c r="A7" s="9">
+        <v>44671.208333043978</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -4981,8 +5053,8 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>0.25</v>
+      <c r="A8" s="9">
+        <v>44671.249999652777</v>
       </c>
       <c r="B8">
         <v>0.1</v>
@@ -5008,8 +5080,8 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>0.29166666666666702</v>
+      <c r="A9" s="9">
+        <v>44671.291666261575</v>
       </c>
       <c r="B9">
         <v>0.6</v>
@@ -5035,8 +5107,8 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>0.33333333333333298</v>
+      <c r="A10" s="9">
+        <v>44671.333332870374</v>
       </c>
       <c r="B10">
         <v>0.4</v>
@@ -5062,8 +5134,8 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>0.375</v>
+      <c r="A11" s="9">
+        <v>44671.374999479165</v>
       </c>
       <c r="B11">
         <v>0.6</v>
@@ -5089,8 +5161,8 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>0.41666666666666702</v>
+      <c r="A12" s="9">
+        <v>44671.416666087964</v>
       </c>
       <c r="B12">
         <v>0.7</v>
@@ -5116,8 +5188,8 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>0.45833333333333298</v>
+      <c r="A13" s="9">
+        <v>44671.458332696762</v>
       </c>
       <c r="B13">
         <v>0.1</v>
@@ -5143,8 +5215,8 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
-        <v>0.5</v>
+      <c r="A14" s="9">
+        <v>44671.499999305554</v>
       </c>
       <c r="B14">
         <v>0.1</v>
@@ -5170,8 +5242,8 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
-        <v>0.54166666666666696</v>
+      <c r="A15" s="9">
+        <v>44671.541665914352</v>
       </c>
       <c r="B15">
         <v>0.8</v>
@@ -5197,8 +5269,8 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
-        <v>0.58333333333333304</v>
+      <c r="A16" s="9">
+        <v>44671.583332523151</v>
       </c>
       <c r="B16">
         <v>0.9</v>
@@ -5224,8 +5296,8 @@
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
-        <v>0.625</v>
+      <c r="A17" s="9">
+        <v>44671.624999131942</v>
       </c>
       <c r="B17">
         <v>0.2</v>
@@ -5251,8 +5323,8 @@
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
-        <v>0.66666666666666696</v>
+      <c r="A18" s="9">
+        <v>44671.66666574074</v>
       </c>
       <c r="B18">
         <v>0.4</v>
@@ -5278,8 +5350,8 @@
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
-        <v>0.70833333333333304</v>
+      <c r="A19" s="9">
+        <v>44671.708332349539</v>
       </c>
       <c r="B19">
         <v>0.6</v>
@@ -5305,8 +5377,8 @@
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
-        <v>0.75</v>
+      <c r="A20" s="9">
+        <v>44671.74999895833</v>
       </c>
       <c r="B20">
         <v>0.7</v>
@@ -5332,8 +5404,8 @@
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
-        <v>0.79166666666666696</v>
+      <c r="A21" s="9">
+        <v>44671.791665567129</v>
       </c>
       <c r="B21">
         <v>0.7</v>
@@ -5359,8 +5431,8 @@
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
-        <v>0.83333333333333304</v>
+      <c r="A22" s="9">
+        <v>44671.833332175927</v>
       </c>
       <c r="B22">
         <v>0.6</v>
@@ -5386,8 +5458,8 @@
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
-        <v>0.875</v>
+      <c r="A23" s="9">
+        <v>44671.874998784719</v>
       </c>
       <c r="B23">
         <v>0.7</v>
@@ -5413,8 +5485,8 @@
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
-        <v>0.91666666666666696</v>
+      <c r="A24" s="9">
+        <v>44671.916665393517</v>
       </c>
       <c r="B24">
         <v>0.1</v>
@@ -5440,8 +5512,8 @@
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
-        <v>0.95833333333333304</v>
+      <c r="A25" s="9">
+        <v>44671.958332002316</v>
       </c>
       <c r="B25">
         <v>0.6</v>
@@ -5466,9 +5538,13 @@
         <v>0.6</v>
       </c>
     </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="8"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5477,41 +5553,42 @@
   <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="A2" sqref="A2:A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="6" width="10.42578125" customWidth="1"/>
-    <col min="7" max="7" width="10.42578125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="10.42578125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>0</v>
+      <c r="A2" s="9">
+        <v>44671</v>
       </c>
       <c r="B2">
         <v>-5</v>
@@ -5526,18 +5603,18 @@
         <f>1*C2</f>
         <v>-5</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2" s="2">
         <f>1*B2</f>
         <v>-5</v>
       </c>
-      <c r="G2" s="3">
+      <c r="G2" s="2">
         <f>1*C2</f>
         <v>-5</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>4.1666666666666699E-2</v>
+      <c r="A3" s="9">
+        <v>44671.041666666664</v>
       </c>
       <c r="B3">
         <v>-5</v>
@@ -5553,18 +5630,18 @@
         <f t="shared" ref="E3:E25" si="1">1*C3</f>
         <v>-5</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3" s="2">
         <f t="shared" ref="F3:F25" si="2">1*B3</f>
         <v>-5</v>
       </c>
-      <c r="G3" s="3">
+      <c r="G3" s="2">
         <f t="shared" ref="G3:G25" si="3">1*C3</f>
         <v>-5</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>8.3333333333333301E-2</v>
+      <c r="A4" s="9">
+        <v>44671.08333321759</v>
       </c>
       <c r="B4">
         <v>-4</v>
@@ -5580,18 +5657,18 @@
         <f t="shared" si="1"/>
         <v>-6</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="2">
         <f t="shared" si="2"/>
         <v>-4</v>
       </c>
-      <c r="G4" s="3">
+      <c r="G4" s="2">
         <f t="shared" si="3"/>
         <v>-6</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>0.125</v>
+      <c r="A5" s="9">
+        <v>44671.124999826388</v>
       </c>
       <c r="B5">
         <v>-2</v>
@@ -5607,18 +5684,18 @@
         <f t="shared" si="1"/>
         <v>-3</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="2">
         <f t="shared" si="2"/>
         <v>-2</v>
       </c>
-      <c r="G5" s="3">
+      <c r="G5" s="2">
         <f t="shared" si="3"/>
         <v>-3</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>0.16666666666666699</v>
+      <c r="A6" s="9">
+        <v>44671.166666435187</v>
       </c>
       <c r="B6">
         <v>-7</v>
@@ -5634,18 +5711,18 @@
         <f t="shared" si="1"/>
         <v>-4</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="2">
         <f t="shared" si="2"/>
         <v>-7</v>
       </c>
-      <c r="G6" s="3">
+      <c r="G6" s="2">
         <f t="shared" si="3"/>
         <v>-4</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>0.20833333333333301</v>
+      <c r="A7" s="9">
+        <v>44671.208333043978</v>
       </c>
       <c r="B7">
         <v>-5</v>
@@ -5661,18 +5738,18 @@
         <f t="shared" si="1"/>
         <v>-5</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="2">
         <f t="shared" si="2"/>
         <v>-5</v>
       </c>
-      <c r="G7" s="3">
+      <c r="G7" s="2">
         <f t="shared" si="3"/>
         <v>-5</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>0.25</v>
+      <c r="A8" s="9">
+        <v>44671.249999652777</v>
       </c>
       <c r="B8">
         <v>-14</v>
@@ -5688,18 +5765,18 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="2">
         <f t="shared" si="2"/>
         <v>-14</v>
       </c>
-      <c r="G8" s="3">
+      <c r="G8" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>0.29166666666666702</v>
+      <c r="A9" s="9">
+        <v>44671.291666261575</v>
       </c>
       <c r="B9">
         <v>-20</v>
@@ -5715,18 +5792,18 @@
         <f t="shared" si="1"/>
         <v>-2</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9" s="2">
         <f t="shared" si="2"/>
         <v>-20</v>
       </c>
-      <c r="G9" s="3">
+      <c r="G9" s="2">
         <f t="shared" si="3"/>
         <v>-2</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>0.33333333333333298</v>
+      <c r="A10" s="9">
+        <v>44671.333332870374</v>
       </c>
       <c r="B10">
         <v>-13</v>
@@ -5742,18 +5819,18 @@
         <f t="shared" si="1"/>
         <v>-2</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10" s="2">
         <f t="shared" si="2"/>
         <v>-13</v>
       </c>
-      <c r="G10" s="3">
+      <c r="G10" s="2">
         <f t="shared" si="3"/>
         <v>-2</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>0.375</v>
+      <c r="A11" s="9">
+        <v>44671.374999479165</v>
       </c>
       <c r="B11">
         <v>-12</v>
@@ -5769,18 +5846,18 @@
         <f t="shared" si="1"/>
         <v>-5</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F11" s="2">
         <f t="shared" si="2"/>
         <v>-12</v>
       </c>
-      <c r="G11" s="3">
+      <c r="G11" s="2">
         <f t="shared" si="3"/>
         <v>-5</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>0.41666666666666702</v>
+      <c r="A12" s="9">
+        <v>44671.416666087964</v>
       </c>
       <c r="B12">
         <v>-13</v>
@@ -5796,18 +5873,18 @@
         <f t="shared" si="1"/>
         <v>-2</v>
       </c>
-      <c r="F12" s="3">
+      <c r="F12" s="2">
         <f t="shared" si="2"/>
         <v>-13</v>
       </c>
-      <c r="G12" s="3">
+      <c r="G12" s="2">
         <f t="shared" si="3"/>
         <v>-2</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>0.45833333333333298</v>
+      <c r="A13" s="9">
+        <v>44671.458332696762</v>
       </c>
       <c r="B13">
         <v>-14</v>
@@ -5823,18 +5900,18 @@
         <f t="shared" si="1"/>
         <v>-6</v>
       </c>
-      <c r="F13" s="3">
+      <c r="F13" s="2">
         <f t="shared" si="2"/>
         <v>-14</v>
       </c>
-      <c r="G13" s="3">
+      <c r="G13" s="2">
         <f t="shared" si="3"/>
         <v>-6</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
-        <v>0.5</v>
+      <c r="A14" s="9">
+        <v>44671.499999305554</v>
       </c>
       <c r="B14">
         <v>-18</v>
@@ -5850,18 +5927,18 @@
         <f t="shared" si="1"/>
         <v>-4</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14" s="2">
         <f t="shared" si="2"/>
         <v>-18</v>
       </c>
-      <c r="G14" s="3">
+      <c r="G14" s="2">
         <f t="shared" si="3"/>
         <v>-4</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
-        <v>0.54166666666666696</v>
+      <c r="A15" s="9">
+        <v>44671.541665914352</v>
       </c>
       <c r="B15">
         <v>-14</v>
@@ -5877,18 +5954,18 @@
         <f t="shared" si="1"/>
         <v>-3</v>
       </c>
-      <c r="F15" s="3">
+      <c r="F15" s="2">
         <f t="shared" si="2"/>
         <v>-14</v>
       </c>
-      <c r="G15" s="3">
+      <c r="G15" s="2">
         <f t="shared" si="3"/>
         <v>-3</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
-        <v>0.58333333333333304</v>
+      <c r="A16" s="9">
+        <v>44671.583332523151</v>
       </c>
       <c r="B16">
         <v>-15</v>
@@ -5904,18 +5981,18 @@
         <f t="shared" si="1"/>
         <v>-5</v>
       </c>
-      <c r="F16" s="3">
+      <c r="F16" s="2">
         <f t="shared" si="2"/>
         <v>-15</v>
       </c>
-      <c r="G16" s="3">
+      <c r="G16" s="2">
         <f t="shared" si="3"/>
         <v>-5</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
-        <v>0.625</v>
+      <c r="A17" s="9">
+        <v>44671.624999131942</v>
       </c>
       <c r="B17">
         <v>-14</v>
@@ -5931,18 +6008,18 @@
         <f t="shared" si="1"/>
         <v>-1</v>
       </c>
-      <c r="F17" s="3">
+      <c r="F17" s="2">
         <f t="shared" si="2"/>
         <v>-14</v>
       </c>
-      <c r="G17" s="3">
+      <c r="G17" s="2">
         <f t="shared" si="3"/>
         <v>-1</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
-        <v>0.66666666666666696</v>
+      <c r="A18" s="9">
+        <v>44671.66666574074</v>
       </c>
       <c r="B18">
         <v>-20</v>
@@ -5958,18 +6035,18 @@
         <f t="shared" si="1"/>
         <v>-5</v>
       </c>
-      <c r="F18" s="3">
+      <c r="F18" s="2">
         <f t="shared" si="2"/>
         <v>-20</v>
       </c>
-      <c r="G18" s="3">
+      <c r="G18" s="2">
         <f t="shared" si="3"/>
         <v>-5</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
-        <v>0.70833333333333304</v>
+      <c r="A19" s="9">
+        <v>44671.708332349539</v>
       </c>
       <c r="B19">
         <v>-20</v>
@@ -5985,18 +6062,18 @@
         <f t="shared" si="1"/>
         <v>-4</v>
       </c>
-      <c r="F19" s="3">
+      <c r="F19" s="2">
         <f t="shared" si="2"/>
         <v>-20</v>
       </c>
-      <c r="G19" s="3">
+      <c r="G19" s="2">
         <f t="shared" si="3"/>
         <v>-4</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
-        <v>0.75</v>
+      <c r="A20" s="9">
+        <v>44671.74999895833</v>
       </c>
       <c r="B20">
         <v>-20</v>
@@ -6012,18 +6089,18 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F20" s="3">
+      <c r="F20" s="2">
         <f t="shared" si="2"/>
         <v>-20</v>
       </c>
-      <c r="G20" s="3">
+      <c r="G20" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
-        <v>0.79166666666666696</v>
+      <c r="A21" s="9">
+        <v>44671.791665567129</v>
       </c>
       <c r="B21">
         <v>-20</v>
@@ -6039,18 +6116,18 @@
         <f t="shared" si="1"/>
         <v>-1</v>
       </c>
-      <c r="F21" s="3">
+      <c r="F21" s="2">
         <f t="shared" si="2"/>
         <v>-20</v>
       </c>
-      <c r="G21" s="3">
+      <c r="G21" s="2">
         <f t="shared" si="3"/>
         <v>-1</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
-        <v>0.83333333333333304</v>
+      <c r="A22" s="9">
+        <v>44671.833332175927</v>
       </c>
       <c r="B22">
         <v>-16</v>
@@ -6066,18 +6143,18 @@
         <f t="shared" si="1"/>
         <v>-4</v>
       </c>
-      <c r="F22" s="3">
+      <c r="F22" s="2">
         <f t="shared" si="2"/>
         <v>-16</v>
       </c>
-      <c r="G22" s="3">
+      <c r="G22" s="2">
         <f t="shared" si="3"/>
         <v>-4</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
-        <v>0.875</v>
+      <c r="A23" s="9">
+        <v>44671.874998784719</v>
       </c>
       <c r="B23">
         <v>-14</v>
@@ -6093,18 +6170,18 @@
         <f t="shared" si="1"/>
         <v>-5</v>
       </c>
-      <c r="F23" s="3">
+      <c r="F23" s="2">
         <f t="shared" si="2"/>
         <v>-14</v>
       </c>
-      <c r="G23" s="3">
+      <c r="G23" s="2">
         <f t="shared" si="3"/>
         <v>-5</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
-        <v>0.91666666666666696</v>
+      <c r="A24" s="9">
+        <v>44671.916665393517</v>
       </c>
       <c r="B24">
         <v>-11</v>
@@ -6120,18 +6197,18 @@
         <f t="shared" si="1"/>
         <v>-1</v>
       </c>
-      <c r="F24" s="3">
+      <c r="F24" s="2">
         <f t="shared" si="2"/>
         <v>-11</v>
       </c>
-      <c r="G24" s="3">
+      <c r="G24" s="2">
         <f t="shared" si="3"/>
         <v>-1</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
-        <v>0.95833333333333304</v>
+      <c r="A25" s="9">
+        <v>44671.958332002316</v>
       </c>
       <c r="B25">
         <v>-9</v>
@@ -6147,11 +6224,11 @@
         <f t="shared" si="1"/>
         <v>-3</v>
       </c>
-      <c r="F25" s="3">
+      <c r="F25" s="2">
         <f t="shared" si="2"/>
         <v>-9</v>
       </c>
-      <c r="G25" s="3">
+      <c r="G25" s="2">
         <f t="shared" si="3"/>
         <v>-3</v>
       </c>
@@ -6168,28 +6245,31 @@
   <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+      <selection activeCell="A2" sqref="A2:A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>0</v>
+      <c r="A2" s="9">
+        <v>44671</v>
       </c>
       <c r="B2">
         <v>12</v>
@@ -6202,8 +6282,8 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>4.1666666666666699E-2</v>
+      <c r="A3" s="9">
+        <v>44671.041666666664</v>
       </c>
       <c r="B3">
         <v>12</v>
@@ -6216,8 +6296,8 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>8.3333333333333301E-2</v>
+      <c r="A4" s="9">
+        <v>44671.08333321759</v>
       </c>
       <c r="B4">
         <v>12</v>
@@ -6230,8 +6310,8 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>0.125</v>
+      <c r="A5" s="9">
+        <v>44671.124999826388</v>
       </c>
       <c r="B5">
         <v>12</v>
@@ -6244,8 +6324,8 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>0.16666666666666699</v>
+      <c r="A6" s="9">
+        <v>44671.166666435187</v>
       </c>
       <c r="B6">
         <v>12</v>
@@ -6258,8 +6338,8 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>0.20833333333333301</v>
+      <c r="A7" s="9">
+        <v>44671.208333043978</v>
       </c>
       <c r="B7">
         <v>12</v>
@@ -6272,8 +6352,8 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>0.25</v>
+      <c r="A8" s="9">
+        <v>44671.249999652777</v>
       </c>
       <c r="B8">
         <v>12</v>
@@ -6286,8 +6366,8 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>0.29166666666666702</v>
+      <c r="A9" s="9">
+        <v>44671.291666261575</v>
       </c>
       <c r="B9">
         <v>12</v>
@@ -6300,8 +6380,8 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>0.33333333333333298</v>
+      <c r="A10" s="9">
+        <v>44671.333332870374</v>
       </c>
       <c r="B10">
         <v>12</v>
@@ -6314,8 +6394,8 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>0.375</v>
+      <c r="A11" s="9">
+        <v>44671.374999479165</v>
       </c>
       <c r="B11">
         <v>12</v>
@@ -6328,8 +6408,8 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>0.41666666666666702</v>
+      <c r="A12" s="9">
+        <v>44671.416666087964</v>
       </c>
       <c r="B12">
         <v>12</v>
@@ -6342,8 +6422,8 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>0.45833333333333298</v>
+      <c r="A13" s="9">
+        <v>44671.458332696762</v>
       </c>
       <c r="B13">
         <v>12</v>
@@ -6356,8 +6436,8 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
-        <v>0.5</v>
+      <c r="A14" s="9">
+        <v>44671.499999305554</v>
       </c>
       <c r="B14">
         <v>12</v>
@@ -6370,8 +6450,8 @@
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
-        <v>0.54166666666666696</v>
+      <c r="A15" s="9">
+        <v>44671.541665914352</v>
       </c>
       <c r="B15">
         <v>12</v>
@@ -6384,8 +6464,8 @@
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
-        <v>0.58333333333333304</v>
+      <c r="A16" s="9">
+        <v>44671.583332523151</v>
       </c>
       <c r="B16">
         <v>12</v>
@@ -6398,8 +6478,8 @@
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
-        <v>0.625</v>
+      <c r="A17" s="9">
+        <v>44671.624999131942</v>
       </c>
       <c r="B17">
         <v>12</v>
@@ -6412,8 +6492,8 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
-        <v>0.66666666666666696</v>
+      <c r="A18" s="9">
+        <v>44671.66666574074</v>
       </c>
       <c r="B18">
         <v>12</v>
@@ -6426,8 +6506,8 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
-        <v>0.70833333333333304</v>
+      <c r="A19" s="9">
+        <v>44671.708332349539</v>
       </c>
       <c r="B19">
         <v>12</v>
@@ -6440,8 +6520,8 @@
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
-        <v>0.75</v>
+      <c r="A20" s="9">
+        <v>44671.74999895833</v>
       </c>
       <c r="B20">
         <v>12</v>
@@ -6454,8 +6534,8 @@
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
-        <v>0.79166666666666696</v>
+      <c r="A21" s="9">
+        <v>44671.791665567129</v>
       </c>
       <c r="B21">
         <v>12</v>
@@ -6468,8 +6548,8 @@
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
-        <v>0.83333333333333304</v>
+      <c r="A22" s="9">
+        <v>44671.833332175927</v>
       </c>
       <c r="B22">
         <v>12</v>
@@ -6482,8 +6562,8 @@
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
-        <v>0.875</v>
+      <c r="A23" s="9">
+        <v>44671.874998784719</v>
       </c>
       <c r="B23">
         <v>12</v>
@@ -6496,8 +6576,8 @@
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
-        <v>0.91666666666666696</v>
+      <c r="A24" s="9">
+        <v>44671.916665393517</v>
       </c>
       <c r="B24">
         <v>12</v>
@@ -6510,8 +6590,8 @@
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
-        <v>0.95833333333333304</v>
+      <c r="A25" s="9">
+        <v>44671.958332002316</v>
       </c>
       <c r="B25">
         <v>12</v>
@@ -6542,107 +6622,107 @@
     <col min="2" max="2" width="7.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.42578125" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.42578125" style="7" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="4" t="s">
+      <c r="C1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="8" t="s">
+      <c r="A2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="C2" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" s="8" t="s">
+      <c r="C2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="E2" s="8">
-        <v>0</v>
-      </c>
-      <c r="F2" s="8" t="s">
+      <c r="E2" s="7">
+        <v>0</v>
+      </c>
+      <c r="F2" s="7" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="E3" s="8">
-        <v>0</v>
-      </c>
-      <c r="F3" s="8" t="s">
+      <c r="E3" s="7">
+        <v>0</v>
+      </c>
+      <c r="F3" s="7" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="E4" s="8">
+      <c r="E4" s="7">
         <v>0.2</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="F4" s="7" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="E5" s="8">
+      <c r="E5" s="7">
         <v>0.2</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="F5" s="7" t="s">
         <v>87</v>
       </c>
     </row>

--- a/input_data/input_data.xlsx
+++ b/input_data/input_data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dsdennis\HOPE\Predicer - Copy\input_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dsdennis\HOPE\Predicer\Predicer\input_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCC4D9F8-212D-4541-B8DE-FD1C1A8E23AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8968EC7D-612A-45C5-959A-A6805E912DEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="796" activeTab="10" xr2:uid="{788BFBD1-D930-4535-8A91-D85C56924796}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="796" activeTab="8" xr2:uid="{788BFBD1-D930-4535-8A91-D85C56924796}"/>
   </bookViews>
   <sheets>
     <sheet name="nodes" sheetId="1" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="118">
   <si>
     <t>node</t>
   </si>
@@ -400,6 +400,9 @@
   </si>
   <si>
     <t>beta</t>
+  </si>
+  <si>
+    <t>is_bid</t>
   </si>
 </sst>
 </file>
@@ -2100,7 +2103,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9314D326-256A-435C-AAE3-3517FA836EAE}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
@@ -6610,10 +6613,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3788A93-7501-4F5D-9E8F-38D329CC85EC}">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6626,7 +6629,7 @@
     <col min="6" max="6" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>33</v>
       </c>
@@ -6645,8 +6648,11 @@
       <c r="F1" s="3" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1" s="3" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>12</v>
       </c>
@@ -6665,8 +6671,11 @@
       <c r="F2" s="7" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>41</v>
       </c>
@@ -6685,8 +6694,11 @@
       <c r="F3" s="7" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>42</v>
       </c>
@@ -6705,8 +6717,11 @@
       <c r="F4" s="7" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>43</v>
       </c>
@@ -6724,6 +6739,9 @@
       </c>
       <c r="F5" s="7" t="s">
         <v>87</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/input_data/input_data.xlsx
+++ b/input_data/input_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dsdennis\HOPE\Predicer\Predicer\input_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE149ADE-FA06-4FED-B224-E237691D8654}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BBA097E-C4A6-4A19-890A-D9512F462D91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="796" xr2:uid="{788BFBD1-D930-4535-8A91-D85C56924796}"/>
+    <workbookView xWindow="-57720" yWindow="-3360" windowWidth="29040" windowHeight="17640" tabRatio="796" xr2:uid="{788BFBD1-D930-4535-8A91-D85C56924796}"/>
   </bookViews>
   <sheets>
     <sheet name="timeseries" sheetId="18" r:id="rId1"/>
@@ -787,7 +787,7 @@
   <dimension ref="A1:A48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2205,7 +2205,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/input_data/input_data.xlsx
+++ b/input_data/input_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dsdennis\HOPE\Predicer\Predicer\input_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BBA097E-C4A6-4A19-890A-D9512F462D91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04F5F1FB-53C3-4C42-9D35-A7A06F9EF485}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-57720" yWindow="-3360" windowWidth="29040" windowHeight="17640" tabRatio="796" xr2:uid="{788BFBD1-D930-4535-8A91-D85C56924796}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="796" activeTab="1" xr2:uid="{788BFBD1-D930-4535-8A91-D85C56924796}"/>
   </bookViews>
   <sheets>
     <sheet name="timeseries" sheetId="18" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="118">
   <si>
     <t>node</t>
   </si>
@@ -385,25 +385,25 @@
     <t>hp1,elc,s3</t>
   </si>
   <si>
+    <t>delay</t>
+  </si>
+  <si>
+    <t>parameter</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>alfa</t>
+  </si>
+  <si>
+    <t>beta</t>
+  </si>
+  <si>
+    <t>is_bid</t>
+  </si>
+  <si>
     <t>state_loss</t>
-  </si>
-  <si>
-    <t>delay</t>
-  </si>
-  <si>
-    <t>parameter</t>
-  </si>
-  <si>
-    <t>value</t>
-  </si>
-  <si>
-    <t>alfa</t>
-  </si>
-  <si>
-    <t>beta</t>
-  </si>
-  <si>
-    <t>is_bid</t>
   </si>
 </sst>
 </file>
@@ -784,10 +784,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39053E69-3A75-490E-847C-66A9CF6C1FC5}">
-  <dimension ref="A1:A48"/>
+  <dimension ref="A1:A49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -796,127 +796,129 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="8">
-        <v>44671</v>
+      <c r="A1" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="8">
-        <v>44671.041666666664</v>
+        <v>44671</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
-        <v>44671.08333321759</v>
+        <v>44671.041666666664</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
-        <v>44671.124999826388</v>
+        <v>44671.08333321759</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
-        <v>44671.166666435187</v>
+        <v>44671.124999826388</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
-        <v>44671.208333043978</v>
+        <v>44671.166666435187</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
-        <v>44671.249999652777</v>
+        <v>44671.208333043978</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
-        <v>44671.291666261575</v>
+        <v>44671.249999652777</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
-        <v>44671.333332870374</v>
+        <v>44671.291666261575</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
-        <v>44671.374999479165</v>
+        <v>44671.333332870374</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
-        <v>44671.416666087964</v>
+        <v>44671.374999479165</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
-        <v>44671.458332696762</v>
+        <v>44671.416666087964</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="8">
-        <v>44671.499999305554</v>
+        <v>44671.458332696762</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
-        <v>44671.541665914352</v>
+        <v>44671.499999305554</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="8">
-        <v>44671.583332523151</v>
+        <v>44671.541665914352</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="8">
-        <v>44671.624999131942</v>
+        <v>44671.583332523151</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="8">
-        <v>44671.66666574074</v>
+        <v>44671.624999131942</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="8">
-        <v>44671.708332349539</v>
+        <v>44671.66666574074</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="8">
-        <v>44671.74999895833</v>
+        <v>44671.708332349539</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="8">
-        <v>44671.791665567129</v>
+        <v>44671.74999895833</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="8">
-        <v>44671.833332175927</v>
+        <v>44671.791665567129</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="8">
-        <v>44671.874998784719</v>
+        <v>44671.833332175927</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="8">
-        <v>44671.916665393517</v>
+        <v>44671.874998784719</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="8">
+        <v>44671.916665393517</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="8">
         <v>44671.958332002316</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="8"/>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="8"/>
@@ -986,6 +988,9 @@
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" s="8"/>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1030,7 +1035,7 @@
         <v>88</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -1188,7 +1193,7 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="8">
-        <f>IF(timeseries!A1&lt;&gt;"",timeseries!A1,"")</f>
+        <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44671</v>
       </c>
       <c r="B2">
@@ -1230,7 +1235,7 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
-        <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
+        <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44671.041666666664</v>
       </c>
       <c r="B3">
@@ -1272,7 +1277,7 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
-        <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
+        <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44671.08333321759</v>
       </c>
       <c r="B4">
@@ -1314,7 +1319,7 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
-        <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
+        <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v>44671.124999826388</v>
       </c>
       <c r="B5">
@@ -1356,7 +1361,7 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
-        <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
+        <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v>44671.166666435187</v>
       </c>
       <c r="B6">
@@ -1398,7 +1403,7 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
-        <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
+        <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v>44671.208333043978</v>
       </c>
       <c r="B7">
@@ -1440,7 +1445,7 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
-        <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
+        <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v>44671.249999652777</v>
       </c>
       <c r="B8">
@@ -1482,7 +1487,7 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
-        <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
+        <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v>44671.291666261575</v>
       </c>
       <c r="B9">
@@ -1524,7 +1529,7 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
-        <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
+        <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v>44671.333332870374</v>
       </c>
       <c r="B10">
@@ -1566,7 +1571,7 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
-        <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
+        <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v>44671.374999479165</v>
       </c>
       <c r="B11">
@@ -1608,7 +1613,7 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
-        <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
+        <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v>44671.416666087964</v>
       </c>
       <c r="B12">
@@ -1650,7 +1655,7 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="8">
-        <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
+        <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v>44671.458332696762</v>
       </c>
       <c r="B13">
@@ -1692,7 +1697,7 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
-        <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
+        <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v>44671.499999305554</v>
       </c>
       <c r="B14">
@@ -1734,7 +1739,7 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="8">
-        <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
+        <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v>44671.541665914352</v>
       </c>
       <c r="B15">
@@ -1776,7 +1781,7 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="8">
-        <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
+        <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v>44671.583332523151</v>
       </c>
       <c r="B16">
@@ -1818,7 +1823,7 @@
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="8">
-        <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
+        <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v>44671.624999131942</v>
       </c>
       <c r="B17">
@@ -1860,7 +1865,7 @@
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="8">
-        <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
+        <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v>44671.66666574074</v>
       </c>
       <c r="B18">
@@ -1902,7 +1907,7 @@
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="8">
-        <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
+        <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v>44671.708332349539</v>
       </c>
       <c r="B19">
@@ -1944,7 +1949,7 @@
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="8">
-        <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
+        <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v>44671.74999895833</v>
       </c>
       <c r="B20">
@@ -1986,7 +1991,7 @@
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="8">
-        <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
+        <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v>44671.791665567129</v>
       </c>
       <c r="B21">
@@ -2028,7 +2033,7 @@
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="8">
-        <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
+        <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v>44671.833332175927</v>
       </c>
       <c r="B22">
@@ -2070,7 +2075,7 @@
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="8">
-        <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
+        <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v>44671.874998784719</v>
       </c>
       <c r="B23">
@@ -2112,7 +2117,7 @@
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="8">
-        <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
+        <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v>44671.916665393517</v>
       </c>
       <c r="B24">
@@ -2154,7 +2159,7 @@
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="8">
-        <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
+        <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v>44671.958332002316</v>
       </c>
       <c r="B25">
@@ -2215,15 +2220,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>113</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B2">
         <v>0.1</v>
@@ -2231,7 +2236,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B3">
         <v>0.2</v>
@@ -2309,152 +2314,152 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="8">
-        <f>IF(timeseries!A1&lt;&gt;"",timeseries!A1,"")</f>
+        <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44671</v>
       </c>
       <c r="B2" s="2"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
-        <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
+        <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44671.041666666664</v>
       </c>
       <c r="B3" s="2"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
-        <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
+        <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44671.08333321759</v>
       </c>
       <c r="B4" s="2"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
-        <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
+        <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v>44671.124999826388</v>
       </c>
       <c r="B5" s="2"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
-        <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
+        <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v>44671.166666435187</v>
       </c>
       <c r="B6" s="2"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
-        <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
+        <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v>44671.208333043978</v>
       </c>
       <c r="B7" s="2"/>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
-        <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
+        <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v>44671.249999652777</v>
       </c>
       <c r="B8" s="2"/>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
-        <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
+        <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v>44671.291666261575</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
-        <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
+        <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v>44671.333332870374</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
-        <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
+        <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v>44671.374999479165</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
-        <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
+        <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v>44671.416666087964</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="8">
-        <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
+        <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v>44671.458332696762</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
-        <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
+        <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v>44671.499999305554</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="8">
-        <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
+        <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v>44671.541665914352</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="8">
-        <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
+        <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v>44671.583332523151</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="8">
-        <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
+        <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v>44671.624999131942</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="8">
-        <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
+        <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v>44671.66666574074</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="8">
-        <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
+        <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v>44671.708332349539</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="8">
-        <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
+        <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v>44671.74999895833</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="8">
-        <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
+        <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v>44671.791665567129</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="8">
-        <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
+        <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v>44671.833332175927</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="8">
-        <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
+        <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v>44671.874998784719</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="8">
-        <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
+        <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v>44671.916665393517</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="8">
-        <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
+        <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v>44671.958332002316</v>
       </c>
     </row>
@@ -2492,7 +2497,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="8">
-        <f>IF(timeseries!A1&lt;&gt;"",timeseries!A1,"")</f>
+        <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44671</v>
       </c>
       <c r="B2">
@@ -2507,7 +2512,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
-        <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
+        <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44671.041666666664</v>
       </c>
       <c r="B3">
@@ -2522,7 +2527,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
-        <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
+        <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44671.08333321759</v>
       </c>
       <c r="B4">
@@ -2537,7 +2542,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
-        <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
+        <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v>44671.124999826388</v>
       </c>
       <c r="B5">
@@ -2552,7 +2557,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
-        <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
+        <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v>44671.166666435187</v>
       </c>
       <c r="B6">
@@ -2567,7 +2572,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
-        <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
+        <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v>44671.208333043978</v>
       </c>
       <c r="B7">
@@ -2582,7 +2587,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
-        <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
+        <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v>44671.249999652777</v>
       </c>
       <c r="B8">
@@ -2597,7 +2602,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
-        <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
+        <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v>44671.291666261575</v>
       </c>
       <c r="B9">
@@ -2612,7 +2617,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
-        <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
+        <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v>44671.333332870374</v>
       </c>
       <c r="B10">
@@ -2627,7 +2632,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
-        <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
+        <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v>44671.374999479165</v>
       </c>
       <c r="B11">
@@ -2642,7 +2647,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
-        <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
+        <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v>44671.416666087964</v>
       </c>
       <c r="B12">
@@ -2657,7 +2662,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="8">
-        <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
+        <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v>44671.458332696762</v>
       </c>
       <c r="B13">
@@ -2672,7 +2677,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
-        <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
+        <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v>44671.499999305554</v>
       </c>
       <c r="B14">
@@ -2687,7 +2692,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="8">
-        <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
+        <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v>44671.541665914352</v>
       </c>
       <c r="B15">
@@ -2702,7 +2707,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="8">
-        <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
+        <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v>44671.583332523151</v>
       </c>
       <c r="B16">
@@ -2717,7 +2722,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="8">
-        <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
+        <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v>44671.624999131942</v>
       </c>
       <c r="B17">
@@ -2732,7 +2737,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="8">
-        <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
+        <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v>44671.66666574074</v>
       </c>
       <c r="B18">
@@ -2747,7 +2752,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="8">
-        <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
+        <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v>44671.708332349539</v>
       </c>
       <c r="B19">
@@ -2762,7 +2767,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="8">
-        <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
+        <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v>44671.74999895833</v>
       </c>
       <c r="B20">
@@ -2777,7 +2782,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="8">
-        <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
+        <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v>44671.791665567129</v>
       </c>
       <c r="B21">
@@ -2792,7 +2797,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="8">
-        <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
+        <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v>44671.833332175927</v>
       </c>
       <c r="B22">
@@ -2807,7 +2812,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="8">
-        <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
+        <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v>44671.874998784719</v>
       </c>
       <c r="B23">
@@ -2822,7 +2827,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="8">
-        <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
+        <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v>44671.916665393517</v>
       </c>
       <c r="B24">
@@ -2837,7 +2842,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="8">
-        <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
+        <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v>44671.958332002316</v>
       </c>
       <c r="B25">
@@ -2934,7 +2939,7 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="8">
-        <f>IF(timeseries!A1&lt;&gt;"",timeseries!A1,"")</f>
+        <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44671</v>
       </c>
       <c r="B2">
@@ -2967,7 +2972,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
-        <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
+        <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44671.041666666664</v>
       </c>
       <c r="B3">
@@ -3000,7 +3005,7 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
-        <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
+        <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44671.08333321759</v>
       </c>
       <c r="B4">
@@ -3033,7 +3038,7 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
-        <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
+        <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v>44671.124999826388</v>
       </c>
       <c r="B5">
@@ -3066,7 +3071,7 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
-        <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
+        <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v>44671.166666435187</v>
       </c>
       <c r="B6">
@@ -3099,7 +3104,7 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
-        <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
+        <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v>44671.208333043978</v>
       </c>
       <c r="B7">
@@ -3132,7 +3137,7 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
-        <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
+        <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v>44671.249999652777</v>
       </c>
       <c r="B8">
@@ -3165,7 +3170,7 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
-        <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
+        <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v>44671.291666261575</v>
       </c>
       <c r="B9">
@@ -3198,7 +3203,7 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
-        <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
+        <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v>44671.333332870374</v>
       </c>
       <c r="B10">
@@ -3231,7 +3236,7 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
-        <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
+        <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v>44671.374999479165</v>
       </c>
       <c r="B11">
@@ -3264,7 +3269,7 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
-        <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
+        <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v>44671.416666087964</v>
       </c>
       <c r="B12">
@@ -3297,7 +3302,7 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="8">
-        <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
+        <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v>44671.458332696762</v>
       </c>
       <c r="B13">
@@ -3330,7 +3335,7 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
-        <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
+        <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v>44671.499999305554</v>
       </c>
       <c r="B14">
@@ -3363,7 +3368,7 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="8">
-        <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
+        <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v>44671.541665914352</v>
       </c>
       <c r="B15">
@@ -3396,7 +3401,7 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="8">
-        <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
+        <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v>44671.583332523151</v>
       </c>
       <c r="B16">
@@ -3429,7 +3434,7 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="8">
-        <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
+        <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v>44671.624999131942</v>
       </c>
       <c r="B17">
@@ -3462,7 +3467,7 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="8">
-        <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
+        <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v>44671.66666574074</v>
       </c>
       <c r="B18">
@@ -3495,7 +3500,7 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="8">
-        <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
+        <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v>44671.708332349539</v>
       </c>
       <c r="B19">
@@ -3528,7 +3533,7 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="8">
-        <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
+        <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v>44671.74999895833</v>
       </c>
       <c r="B20">
@@ -3561,7 +3566,7 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="8">
-        <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
+        <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v>44671.791665567129</v>
       </c>
       <c r="B21">
@@ -3594,7 +3599,7 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="8">
-        <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
+        <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v>44671.833332175927</v>
       </c>
       <c r="B22">
@@ -3627,7 +3632,7 @@
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="8">
-        <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
+        <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v>44671.874998784719</v>
       </c>
       <c r="B23">
@@ -3660,7 +3665,7 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="8">
-        <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
+        <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v>44671.916665393517</v>
       </c>
       <c r="B24">
@@ -3693,7 +3698,7 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="8">
-        <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
+        <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v>44671.958332002316</v>
       </c>
       <c r="B25">
@@ -3758,7 +3763,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="8">
-        <f>IF(timeseries!A1&lt;&gt;"",timeseries!A1,"")</f>
+        <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44671</v>
       </c>
       <c r="B2">
@@ -3773,7 +3778,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
-        <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
+        <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44671.041666666664</v>
       </c>
       <c r="B3">
@@ -3788,7 +3793,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
-        <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
+        <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44671.08333321759</v>
       </c>
       <c r="B4">
@@ -3803,7 +3808,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
-        <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
+        <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v>44671.124999826388</v>
       </c>
       <c r="B5">
@@ -3818,7 +3823,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
-        <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
+        <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v>44671.166666435187</v>
       </c>
       <c r="B6">
@@ -3833,7 +3838,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
-        <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
+        <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v>44671.208333043978</v>
       </c>
       <c r="B7">
@@ -3848,7 +3853,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
-        <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
+        <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v>44671.249999652777</v>
       </c>
       <c r="B8">
@@ -3863,7 +3868,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
-        <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
+        <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v>44671.291666261575</v>
       </c>
       <c r="B9">
@@ -3878,7 +3883,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
-        <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
+        <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v>44671.333332870374</v>
       </c>
       <c r="B10">
@@ -3893,7 +3898,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
-        <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
+        <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v>44671.374999479165</v>
       </c>
       <c r="B11">
@@ -3908,7 +3913,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
-        <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
+        <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v>44671.416666087964</v>
       </c>
       <c r="B12">
@@ -3923,7 +3928,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="8">
-        <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
+        <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v>44671.458332696762</v>
       </c>
       <c r="B13">
@@ -3938,7 +3943,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
-        <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
+        <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v>44671.499999305554</v>
       </c>
       <c r="B14">
@@ -3953,7 +3958,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="8">
-        <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
+        <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v>44671.541665914352</v>
       </c>
       <c r="B15">
@@ -3968,7 +3973,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="8">
-        <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
+        <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v>44671.583332523151</v>
       </c>
       <c r="B16">
@@ -3983,7 +3988,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="8">
-        <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
+        <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v>44671.624999131942</v>
       </c>
       <c r="B17">
@@ -3998,7 +4003,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="8">
-        <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
+        <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v>44671.66666574074</v>
       </c>
       <c r="B18">
@@ -4013,7 +4018,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="8">
-        <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
+        <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v>44671.708332349539</v>
       </c>
       <c r="B19">
@@ -4028,7 +4033,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="8">
-        <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
+        <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v>44671.74999895833</v>
       </c>
       <c r="B20">
@@ -4043,7 +4048,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="8">
-        <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
+        <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v>44671.791665567129</v>
       </c>
       <c r="B21">
@@ -4058,7 +4063,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="8">
-        <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
+        <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v>44671.833332175927</v>
       </c>
       <c r="B22">
@@ -4073,7 +4078,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="8">
-        <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
+        <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v>44671.874998784719</v>
       </c>
       <c r="B23">
@@ -4088,7 +4093,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="8">
-        <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
+        <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v>44671.916665393517</v>
       </c>
       <c r="B24">
@@ -4103,7 +4108,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="8">
-        <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
+        <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v>44671.958332002316</v>
       </c>
       <c r="B25">
@@ -4123,10 +4128,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04A1B16B-CDA9-46BD-BA51-731AA9327652}">
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:L7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4142,7 +4147,7 @@
     <col min="9" max="9" width="8.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -4174,10 +4179,10 @@
         <v>107</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -4211,8 +4216,9 @@
       <c r="K2" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L2" s="7"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -4246,8 +4252,9 @@
       <c r="K3" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L3" s="7"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -4281,8 +4288,9 @@
       <c r="K4">
         <v>1E-3</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L4" s="7"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -4316,8 +4324,9 @@
       <c r="K5" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L5" s="7"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>36</v>
       </c>
@@ -4351,8 +4360,9 @@
       <c r="K6" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L6" s="7"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -4386,6 +4396,7 @@
       <c r="K7" s="7">
         <v>0</v>
       </c>
+      <c r="L7" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4900,7 +4911,7 @@
         <v>21</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -5365,7 +5376,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="8">
-        <f>IF(timeseries!A1&lt;&gt;"",timeseries!A1,"")</f>
+        <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44671</v>
       </c>
       <c r="B2">
@@ -5394,7 +5405,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
-        <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
+        <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44671.041666666664</v>
       </c>
       <c r="B3">
@@ -5422,7 +5433,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
-        <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
+        <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44671.08333321759</v>
       </c>
       <c r="B4">
@@ -5450,7 +5461,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
-        <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
+        <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v>44671.124999826388</v>
       </c>
       <c r="B5">
@@ -5478,7 +5489,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
-        <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
+        <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v>44671.166666435187</v>
       </c>
       <c r="B6">
@@ -5506,7 +5517,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
-        <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
+        <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v>44671.208333043978</v>
       </c>
       <c r="B7">
@@ -5534,7 +5545,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
-        <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
+        <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v>44671.249999652777</v>
       </c>
       <c r="B8">
@@ -5562,7 +5573,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
-        <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
+        <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v>44671.291666261575</v>
       </c>
       <c r="B9">
@@ -5590,7 +5601,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
-        <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
+        <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v>44671.333332870374</v>
       </c>
       <c r="B10">
@@ -5618,7 +5629,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
-        <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
+        <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v>44671.374999479165</v>
       </c>
       <c r="B11">
@@ -5646,7 +5657,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
-        <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
+        <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v>44671.416666087964</v>
       </c>
       <c r="B12">
@@ -5674,7 +5685,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="8">
-        <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
+        <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v>44671.458332696762</v>
       </c>
       <c r="B13">
@@ -5702,7 +5713,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
-        <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
+        <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v>44671.499999305554</v>
       </c>
       <c r="B14">
@@ -5730,7 +5741,7 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="8">
-        <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
+        <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v>44671.541665914352</v>
       </c>
       <c r="B15">
@@ -5758,7 +5769,7 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="8">
-        <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
+        <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v>44671.583332523151</v>
       </c>
       <c r="B16">
@@ -5786,7 +5797,7 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="8">
-        <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
+        <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v>44671.624999131942</v>
       </c>
       <c r="B17">
@@ -5814,7 +5825,7 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="8">
-        <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
+        <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v>44671.66666574074</v>
       </c>
       <c r="B18">
@@ -5842,7 +5853,7 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="8">
-        <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
+        <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v>44671.708332349539</v>
       </c>
       <c r="B19">
@@ -5870,7 +5881,7 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="8">
-        <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
+        <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v>44671.74999895833</v>
       </c>
       <c r="B20">
@@ -5898,7 +5909,7 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="8">
-        <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
+        <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v>44671.791665567129</v>
       </c>
       <c r="B21">
@@ -5926,7 +5937,7 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="8">
-        <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
+        <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v>44671.833332175927</v>
       </c>
       <c r="B22">
@@ -5954,7 +5965,7 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="8">
-        <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
+        <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v>44671.874998784719</v>
       </c>
       <c r="B23">
@@ -5982,7 +5993,7 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="8">
-        <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
+        <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v>44671.916665393517</v>
       </c>
       <c r="B24">
@@ -6010,7 +6021,7 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="8">
-        <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
+        <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v>44671.958332002316</v>
       </c>
       <c r="B25">
@@ -6083,7 +6094,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="8">
-        <f>IF(timeseries!A1&lt;&gt;"",timeseries!A1,"")</f>
+        <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44671</v>
       </c>
       <c r="B2">
@@ -6110,7 +6121,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
-        <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
+        <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44671.041666666664</v>
       </c>
       <c r="B3">
@@ -6138,7 +6149,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
-        <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
+        <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44671.08333321759</v>
       </c>
       <c r="B4">
@@ -6166,7 +6177,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
-        <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
+        <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v>44671.124999826388</v>
       </c>
       <c r="B5">
@@ -6194,7 +6205,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
-        <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
+        <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v>44671.166666435187</v>
       </c>
       <c r="B6">
@@ -6222,7 +6233,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
-        <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
+        <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v>44671.208333043978</v>
       </c>
       <c r="B7">
@@ -6250,7 +6261,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
-        <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
+        <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v>44671.249999652777</v>
       </c>
       <c r="B8">
@@ -6278,7 +6289,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
-        <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
+        <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v>44671.291666261575</v>
       </c>
       <c r="B9">
@@ -6306,7 +6317,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
-        <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
+        <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v>44671.333332870374</v>
       </c>
       <c r="B10">
@@ -6334,7 +6345,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
-        <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
+        <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v>44671.374999479165</v>
       </c>
       <c r="B11">
@@ -6362,7 +6373,7 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
-        <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
+        <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v>44671.416666087964</v>
       </c>
       <c r="B12">
@@ -6390,7 +6401,7 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="8">
-        <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
+        <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v>44671.458332696762</v>
       </c>
       <c r="B13">
@@ -6418,7 +6429,7 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
-        <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
+        <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v>44671.499999305554</v>
       </c>
       <c r="B14">
@@ -6446,7 +6457,7 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="8">
-        <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
+        <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v>44671.541665914352</v>
       </c>
       <c r="B15">
@@ -6474,7 +6485,7 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="8">
-        <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
+        <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v>44671.583332523151</v>
       </c>
       <c r="B16">
@@ -6502,7 +6513,7 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="8">
-        <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
+        <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v>44671.624999131942</v>
       </c>
       <c r="B17">
@@ -6530,7 +6541,7 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="8">
-        <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
+        <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v>44671.66666574074</v>
       </c>
       <c r="B18">
@@ -6558,7 +6569,7 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="8">
-        <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
+        <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v>44671.708332349539</v>
       </c>
       <c r="B19">
@@ -6586,7 +6597,7 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="8">
-        <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
+        <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v>44671.74999895833</v>
       </c>
       <c r="B20">
@@ -6614,7 +6625,7 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="8">
-        <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
+        <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v>44671.791665567129</v>
       </c>
       <c r="B21">
@@ -6642,7 +6653,7 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="8">
-        <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
+        <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v>44671.833332175927</v>
       </c>
       <c r="B22">
@@ -6670,7 +6681,7 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="8">
-        <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
+        <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v>44671.874998784719</v>
       </c>
       <c r="B23">
@@ -6698,7 +6709,7 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="8">
-        <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
+        <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v>44671.916665393517</v>
       </c>
       <c r="B24">
@@ -6726,7 +6737,7 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="8">
-        <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
+        <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v>44671.958332002316</v>
       </c>
       <c r="B25">
@@ -6788,7 +6799,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="8">
-        <f>IF(timeseries!A1&lt;&gt;"",timeseries!A1,"")</f>
+        <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44671</v>
       </c>
       <c r="B2">
@@ -6803,7 +6814,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
-        <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
+        <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44671.041666666664</v>
       </c>
       <c r="B3">
@@ -6818,7 +6829,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
-        <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
+        <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44671.08333321759</v>
       </c>
       <c r="B4">
@@ -6833,7 +6844,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
-        <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
+        <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v>44671.124999826388</v>
       </c>
       <c r="B5">
@@ -6848,7 +6859,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
-        <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
+        <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v>44671.166666435187</v>
       </c>
       <c r="B6">
@@ -6863,7 +6874,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
-        <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
+        <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v>44671.208333043978</v>
       </c>
       <c r="B7">
@@ -6878,7 +6889,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
-        <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
+        <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v>44671.249999652777</v>
       </c>
       <c r="B8">
@@ -6893,7 +6904,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
-        <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
+        <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v>44671.291666261575</v>
       </c>
       <c r="B9">
@@ -6908,7 +6919,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
-        <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
+        <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v>44671.333332870374</v>
       </c>
       <c r="B10">
@@ -6923,7 +6934,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
-        <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
+        <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v>44671.374999479165</v>
       </c>
       <c r="B11">
@@ -6938,7 +6949,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
-        <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
+        <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v>44671.416666087964</v>
       </c>
       <c r="B12">
@@ -6953,7 +6964,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="8">
-        <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
+        <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v>44671.458332696762</v>
       </c>
       <c r="B13">
@@ -6968,7 +6979,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
-        <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
+        <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v>44671.499999305554</v>
       </c>
       <c r="B14">
@@ -6983,7 +6994,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="8">
-        <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
+        <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v>44671.541665914352</v>
       </c>
       <c r="B15">
@@ -6998,7 +7009,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="8">
-        <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
+        <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v>44671.583332523151</v>
       </c>
       <c r="B16">
@@ -7013,7 +7024,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="8">
-        <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
+        <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v>44671.624999131942</v>
       </c>
       <c r="B17">
@@ -7028,7 +7039,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="8">
-        <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
+        <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v>44671.66666574074</v>
       </c>
       <c r="B18">
@@ -7043,7 +7054,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="8">
-        <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
+        <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v>44671.708332349539</v>
       </c>
       <c r="B19">
@@ -7058,7 +7069,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="8">
-        <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
+        <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v>44671.74999895833</v>
       </c>
       <c r="B20">
@@ -7073,7 +7084,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="8">
-        <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
+        <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v>44671.791665567129</v>
       </c>
       <c r="B21">
@@ -7088,7 +7099,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="8">
-        <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
+        <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v>44671.833332175927</v>
       </c>
       <c r="B22">
@@ -7103,7 +7114,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="8">
-        <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
+        <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v>44671.874998784719</v>
       </c>
       <c r="B23">
@@ -7118,7 +7129,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="8">
-        <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
+        <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v>44671.916665393517</v>
       </c>
       <c r="B24">
@@ -7133,7 +7144,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="8">
-        <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
+        <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v>44671.958332002316</v>
       </c>
       <c r="B25">

--- a/input_data/input_data.xlsx
+++ b/input_data/input_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dsdennis\HOPE\Predicer\Predicer\input_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04F5F1FB-53C3-4C42-9D35-A7A06F9EF485}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1EC21E0-C1A8-4BAE-A489-428689C8CAC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="796" activeTab="1" xr2:uid="{788BFBD1-D930-4535-8A91-D85C56924796}"/>
   </bookViews>
@@ -403,7 +403,7 @@
     <t>is_bid</t>
   </si>
   <si>
-    <t>state_loss</t>
+    <t>state_loss_proportional</t>
   </si>
 </sst>
 </file>
@@ -4131,7 +4131,7 @@
   <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/input_data/input_data.xlsx
+++ b/input_data/input_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dsdennis\HOPE\Predicer\Predicer\input_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1EC21E0-C1A8-4BAE-A489-428689C8CAC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{639541A3-9B13-4CDF-A7F9-3FA28E4677D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="796" activeTab="1" xr2:uid="{788BFBD1-D930-4535-8A91-D85C56924796}"/>
+    <workbookView xWindow="-28920" yWindow="-3210" windowWidth="29040" windowHeight="17640" tabRatio="796" firstSheet="6" activeTab="8" xr2:uid="{788BFBD1-D930-4535-8A91-D85C56924796}"/>
   </bookViews>
   <sheets>
     <sheet name="timeseries" sheetId="18" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="134">
   <si>
     <t>node</t>
   </si>
@@ -235,15 +235,6 @@
     <t>h2,s3</t>
   </si>
   <si>
-    <t>ng,s1</t>
-  </si>
-  <si>
-    <t>ng,s2</t>
-  </si>
-  <si>
-    <t>ng,s3</t>
-  </si>
-  <si>
     <t>npe,s1</t>
   </si>
   <si>
@@ -404,6 +395,63 @@
   </si>
   <si>
     <t>state_loss_proportional</t>
+  </si>
+  <si>
+    <t>operator</t>
+  </si>
+  <si>
+    <t>is_limited</t>
+  </si>
+  <si>
+    <t>limited_by</t>
+  </si>
+  <si>
+    <t>c2</t>
+  </si>
+  <si>
+    <t>c3</t>
+  </si>
+  <si>
+    <t>gt</t>
+  </si>
+  <si>
+    <t>flow</t>
+  </si>
+  <si>
+    <t>state</t>
+  </si>
+  <si>
+    <t>constant_diff</t>
+  </si>
+  <si>
+    <t>flow_val</t>
+  </si>
+  <si>
+    <t>state_val</t>
+  </si>
+  <si>
+    <t>st</t>
+  </si>
+  <si>
+    <t>constant</t>
+  </si>
+  <si>
+    <t>timeseries</t>
+  </si>
+  <si>
+    <t>t1</t>
+  </si>
+  <si>
+    <t>t2</t>
+  </si>
+  <si>
+    <t>t3</t>
+  </si>
+  <si>
+    <t>c1, s1</t>
+  </si>
+  <si>
+    <t>ng, ALL</t>
   </si>
 </sst>
 </file>
@@ -1029,13 +1077,13 @@
         <v>44</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -1078,7 +1126,7 @@
         <v>0</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -1095,13 +1143,13 @@
         <v>8</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="E4" s="7">
         <v>0.2</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -1118,13 +1166,13 @@
         <v>8</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E5" s="7">
         <v>0.2</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -1155,40 +1203,40 @@
         <v>32</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>72</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
@@ -2220,15 +2268,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B2">
         <v>0.1</v>
@@ -2236,7 +2284,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B3">
         <v>0.2</v>
@@ -2486,13 +2534,13 @@
         <v>32</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -2863,15 +2911,19 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5704FC51-737E-45F9-9A9E-85A96AFE5439}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>47</v>
       </c>
@@ -2879,12 +2931,114 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B2" t="s">
-        <v>97</v>
+        <v>94</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B5" t="s">
+        <v>115</v>
+      </c>
+      <c r="C5" t="s">
+        <v>116</v>
+      </c>
+      <c r="D5" t="s">
+        <v>117</v>
+      </c>
+      <c r="E5" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>93</v>
+      </c>
+      <c r="B6" t="s">
+        <v>94</v>
+      </c>
+      <c r="C6" t="s">
+        <v>121</v>
+      </c>
+      <c r="D6" t="s">
+        <v>122</v>
+      </c>
+      <c r="E6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>118</v>
+      </c>
+      <c r="B7" t="s">
+        <v>120</v>
+      </c>
+      <c r="C7" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>119</v>
+      </c>
+      <c r="B8" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>124</v>
+      </c>
+      <c r="D9" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>125</v>
+      </c>
+      <c r="D10" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D12" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>131</v>
       </c>
     </row>
   </sheetData>
@@ -2896,8 +3050,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE12AB76-2BDA-4ACA-A128-8CFB9FB6C8F8}">
   <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2910,31 +3064,31 @@
         <v>32</v>
       </c>
       <c r="B1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E1" t="s">
         <v>98</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F1" t="s">
         <v>99</v>
       </c>
-      <c r="D1" t="s">
+      <c r="G1" t="s">
         <v>100</v>
       </c>
-      <c r="E1" t="s">
+      <c r="H1" t="s">
         <v>101</v>
       </c>
-      <c r="F1" t="s">
+      <c r="I1" t="s">
         <v>102</v>
       </c>
-      <c r="G1" t="s">
+      <c r="J1" t="s">
         <v>103</v>
-      </c>
-      <c r="H1" t="s">
-        <v>104</v>
-      </c>
-      <c r="I1" t="s">
-        <v>105</v>
-      </c>
-      <c r="J1" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -3752,13 +3906,13 @@
         <v>32</v>
       </c>
       <c r="B1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -4130,7 +4284,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04A1B16B-CDA9-46BD-BA51-731AA9327652}">
   <dimension ref="A1:L7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
@@ -4176,10 +4330,10 @@
         <v>5</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
@@ -4433,7 +4587,7 @@
         <v>14</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>15</v>
@@ -4454,16 +4608,16 @@
         <v>19</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
@@ -4636,7 +4790,7 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B6" s="7">
         <v>1</v>
@@ -4821,7 +4975,7 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B2">
         <v>0.4</v>
@@ -4841,7 +4995,7 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B3">
         <v>0.8</v>
@@ -4911,7 +5065,7 @@
         <v>21</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -5148,7 +5302,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>30</v>
@@ -5312,12 +5466,12 @@
         <v>39</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B2">
         <v>4</v>
@@ -5325,7 +5479,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -5364,13 +5518,13 @@
         <v>54</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="H1"/>
     </row>
@@ -6772,10 +6926,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02307C1F-427B-487D-B703-EBF512D7AC27}">
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:B25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6783,21 +6937,15 @@
     <col min="1" max="1" width="19.28515625" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>32</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="8">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44671</v>
@@ -6805,14 +6953,8 @@
       <c r="B2">
         <v>12</v>
       </c>
-      <c r="C2">
-        <v>12</v>
-      </c>
-      <c r="D2">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44671.041666666664</v>
@@ -6820,14 +6962,8 @@
       <c r="B3">
         <v>12</v>
       </c>
-      <c r="C3">
-        <v>12</v>
-      </c>
-      <c r="D3">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44671.08333321759</v>
@@ -6835,14 +6971,8 @@
       <c r="B4">
         <v>12</v>
       </c>
-      <c r="C4">
-        <v>12</v>
-      </c>
-      <c r="D4">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v>44671.124999826388</v>
@@ -6850,14 +6980,8 @@
       <c r="B5">
         <v>12</v>
       </c>
-      <c r="C5">
-        <v>12</v>
-      </c>
-      <c r="D5">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v>44671.166666435187</v>
@@ -6865,14 +6989,8 @@
       <c r="B6">
         <v>12</v>
       </c>
-      <c r="C6">
-        <v>12</v>
-      </c>
-      <c r="D6">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v>44671.208333043978</v>
@@ -6880,14 +6998,8 @@
       <c r="B7">
         <v>12</v>
       </c>
-      <c r="C7">
-        <v>12</v>
-      </c>
-      <c r="D7">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v>44671.249999652777</v>
@@ -6895,14 +7007,8 @@
       <c r="B8">
         <v>12</v>
       </c>
-      <c r="C8">
-        <v>12</v>
-      </c>
-      <c r="D8">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v>44671.291666261575</v>
@@ -6910,14 +7016,8 @@
       <c r="B9">
         <v>12</v>
       </c>
-      <c r="C9">
-        <v>12</v>
-      </c>
-      <c r="D9">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v>44671.333332870374</v>
@@ -6925,14 +7025,8 @@
       <c r="B10">
         <v>12</v>
       </c>
-      <c r="C10">
-        <v>12</v>
-      </c>
-      <c r="D10">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v>44671.374999479165</v>
@@ -6940,14 +7034,8 @@
       <c r="B11">
         <v>12</v>
       </c>
-      <c r="C11">
-        <v>12</v>
-      </c>
-      <c r="D11">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v>44671.416666087964</v>
@@ -6955,14 +7043,8 @@
       <c r="B12">
         <v>12</v>
       </c>
-      <c r="C12">
-        <v>12</v>
-      </c>
-      <c r="D12">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="8">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v>44671.458332696762</v>
@@ -6970,14 +7052,8 @@
       <c r="B13">
         <v>12</v>
       </c>
-      <c r="C13">
-        <v>12</v>
-      </c>
-      <c r="D13">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v>44671.499999305554</v>
@@ -6985,14 +7061,8 @@
       <c r="B14">
         <v>12</v>
       </c>
-      <c r="C14">
-        <v>12</v>
-      </c>
-      <c r="D14">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="8">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v>44671.541665914352</v>
@@ -7000,14 +7070,8 @@
       <c r="B15">
         <v>12</v>
       </c>
-      <c r="C15">
-        <v>12</v>
-      </c>
-      <c r="D15">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="8">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v>44671.583332523151</v>
@@ -7015,14 +7079,8 @@
       <c r="B16">
         <v>12</v>
       </c>
-      <c r="C16">
-        <v>12</v>
-      </c>
-      <c r="D16">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="8">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v>44671.624999131942</v>
@@ -7030,14 +7088,8 @@
       <c r="B17">
         <v>12</v>
       </c>
-      <c r="C17">
-        <v>12</v>
-      </c>
-      <c r="D17">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="8">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v>44671.66666574074</v>
@@ -7045,14 +7097,8 @@
       <c r="B18">
         <v>12</v>
       </c>
-      <c r="C18">
-        <v>12</v>
-      </c>
-      <c r="D18">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="8">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v>44671.708332349539</v>
@@ -7060,14 +7106,8 @@
       <c r="B19">
         <v>12</v>
       </c>
-      <c r="C19">
-        <v>12</v>
-      </c>
-      <c r="D19">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="8">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v>44671.74999895833</v>
@@ -7075,14 +7115,8 @@
       <c r="B20">
         <v>12</v>
       </c>
-      <c r="C20">
-        <v>12</v>
-      </c>
-      <c r="D20">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="8">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v>44671.791665567129</v>
@@ -7090,14 +7124,8 @@
       <c r="B21">
         <v>12</v>
       </c>
-      <c r="C21">
-        <v>12</v>
-      </c>
-      <c r="D21">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="8">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v>44671.833332175927</v>
@@ -7105,14 +7133,8 @@
       <c r="B22">
         <v>12</v>
       </c>
-      <c r="C22">
-        <v>12</v>
-      </c>
-      <c r="D22">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="8">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v>44671.874998784719</v>
@@ -7120,14 +7142,8 @@
       <c r="B23">
         <v>12</v>
       </c>
-      <c r="C23">
-        <v>12</v>
-      </c>
-      <c r="D23">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="8">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v>44671.916665393517</v>
@@ -7135,25 +7151,13 @@
       <c r="B24">
         <v>12</v>
       </c>
-      <c r="C24">
-        <v>12</v>
-      </c>
-      <c r="D24">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="8">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v>44671.958332002316</v>
       </c>
       <c r="B25">
-        <v>12</v>
-      </c>
-      <c r="C25">
-        <v>12</v>
-      </c>
-      <c r="D25">
         <v>12</v>
       </c>
     </row>

--- a/input_data/input_data.xlsx
+++ b/input_data/input_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dsdennis\HOPE\Predicer\Predicer\input_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{639541A3-9B13-4CDF-A7F9-3FA28E4677D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94084F68-772D-43D8-9564-7383FB110EBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-3210" windowWidth="29040" windowHeight="17640" tabRatio="796" firstSheet="6" activeTab="8" xr2:uid="{788BFBD1-D930-4535-8A91-D85C56924796}"/>
+    <workbookView xWindow="-28920" yWindow="-3210" windowWidth="29040" windowHeight="17640" tabRatio="796" activeTab="15" xr2:uid="{788BFBD1-D930-4535-8A91-D85C56924796}"/>
   </bookViews>
   <sheets>
     <sheet name="timeseries" sheetId="18" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="115">
   <si>
     <t>node</t>
   </si>
@@ -208,15 +208,6 @@
     <t>s3</t>
   </si>
   <si>
-    <t>pv1,s1</t>
-  </si>
-  <si>
-    <t>pv1,s2</t>
-  </si>
-  <si>
-    <t>pv1,s3</t>
-  </si>
-  <si>
     <t>dh2,s1</t>
   </si>
   <si>
@@ -400,58 +391,10 @@
     <t>operator</t>
   </si>
   <si>
-    <t>is_limited</t>
-  </si>
-  <si>
-    <t>limited_by</t>
-  </si>
-  <si>
-    <t>c2</t>
-  </si>
-  <si>
-    <t>c3</t>
-  </si>
-  <si>
-    <t>gt</t>
-  </si>
-  <si>
-    <t>flow</t>
-  </si>
-  <si>
-    <t>state</t>
-  </si>
-  <si>
-    <t>constant_diff</t>
-  </si>
-  <si>
-    <t>flow_val</t>
-  </si>
-  <si>
-    <t>state_val</t>
-  </si>
-  <si>
-    <t>st</t>
-  </si>
-  <si>
-    <t>constant</t>
-  </si>
-  <si>
-    <t>timeseries</t>
-  </si>
-  <si>
-    <t>t1</t>
-  </si>
-  <si>
-    <t>t2</t>
-  </si>
-  <si>
-    <t>t3</t>
-  </si>
-  <si>
-    <t>c1, s1</t>
-  </si>
-  <si>
     <t>ng, ALL</t>
+  </si>
+  <si>
+    <t>pv1,s1,s2,s3</t>
   </si>
 </sst>
 </file>
@@ -835,7 +778,7 @@
   <dimension ref="A1:A49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1077,13 +1020,13 @@
         <v>44</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -1126,7 +1069,7 @@
         <v>0</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -1143,13 +1086,13 @@
         <v>8</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="E4" s="7">
         <v>0.2</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -1166,13 +1109,13 @@
         <v>8</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E5" s="7">
         <v>0.2</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -1203,40 +1146,40 @@
         <v>32</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>69</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
@@ -2268,15 +2211,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B2">
         <v>0.1</v>
@@ -2284,7 +2227,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B3">
         <v>0.2</v>
@@ -2534,13 +2477,13 @@
         <v>32</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -2911,138 +2854,43 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5704FC51-737E-45F9-9A9E-85A96AFE5439}">
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:M9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>47</v>
       </c>
       <c r="B1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B2" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>47</v>
-      </c>
-      <c r="B5" t="s">
-        <v>115</v>
-      </c>
-      <c r="C5" t="s">
-        <v>116</v>
-      </c>
-      <c r="D5" t="s">
-        <v>117</v>
-      </c>
-      <c r="E5" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>93</v>
-      </c>
-      <c r="B6" t="s">
-        <v>94</v>
-      </c>
-      <c r="C6" t="s">
-        <v>121</v>
-      </c>
-      <c r="D6" t="s">
-        <v>122</v>
-      </c>
-      <c r="E6">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>118</v>
-      </c>
-      <c r="B7" t="s">
-        <v>120</v>
-      </c>
-      <c r="C7" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>119</v>
-      </c>
-      <c r="B8" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C9" t="s">
-        <v>124</v>
-      </c>
-      <c r="D9" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C10" t="s">
-        <v>125</v>
-      </c>
-      <c r="D10" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C11" t="s">
-        <v>38</v>
-      </c>
-      <c r="D11" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D12" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>131</v>
-      </c>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3051,12 +2899,13 @@
   <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.28515625" style="8" customWidth="1"/>
+    <col min="2" max="10" width="2.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -3064,31 +2913,31 @@
         <v>32</v>
       </c>
       <c r="B1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E1" t="s">
         <v>95</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F1" t="s">
         <v>96</v>
       </c>
-      <c r="D1" t="s">
+      <c r="G1" t="s">
         <v>97</v>
       </c>
-      <c r="E1" t="s">
+      <c r="H1" t="s">
         <v>98</v>
       </c>
-      <c r="F1" t="s">
+      <c r="I1" t="s">
         <v>99</v>
       </c>
-      <c r="G1" t="s">
+      <c r="J1" t="s">
         <v>100</v>
-      </c>
-      <c r="H1" t="s">
-        <v>101</v>
-      </c>
-      <c r="I1" t="s">
-        <v>102</v>
-      </c>
-      <c r="J1" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -3906,13 +3755,13 @@
         <v>32</v>
       </c>
       <c r="B1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -4285,7 +4134,7 @@
   <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4330,10 +4179,10 @@
         <v>5</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
@@ -4587,7 +4436,7 @@
         <v>14</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>15</v>
@@ -4608,16 +4457,16 @@
         <v>19</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
@@ -4790,7 +4639,7 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B6" s="7">
         <v>1</v>
@@ -4975,7 +4824,7 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B2">
         <v>0.4</v>
@@ -4995,7 +4844,7 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B3">
         <v>0.8</v>
@@ -5065,7 +4914,7 @@
         <v>21</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -5302,7 +5151,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>30</v>
@@ -5466,12 +5315,12 @@
         <v>39</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B2">
         <v>4</v>
@@ -5479,7 +5328,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -5492,43 +5341,38 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77A4637A-7829-48D6-AE54-2E654AB1A427}">
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:L25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.28515625" style="8" customWidth="1"/>
-    <col min="8" max="8" width="23.140625" customWidth="1"/>
+    <col min="6" max="6" width="23.140625" customWidth="1"/>
+    <col min="12" max="12" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>32</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>52</v>
+        <v>114</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>53</v>
+        <v>86</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>54</v>
+        <v>87</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="H1"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+      <c r="F1"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="8">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44671</v>
@@ -5537,27 +5381,20 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <f>1*B2</f>
         <v>0</v>
       </c>
       <c r="D2">
-        <f>1*B2</f>
+        <f>1*C2</f>
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <f>1*E2</f>
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <f>1*E2</f>
-        <v>0</v>
-      </c>
-      <c r="H2" s="8"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+        <f>1*C2</f>
+        <v>0</v>
+      </c>
+      <c r="F2" s="8"/>
+      <c r="L2" s="8"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44671.041666666664</v>
@@ -5566,26 +5403,18 @@
         <v>0.4</v>
       </c>
       <c r="C3">
-        <f t="shared" ref="C3:C25" si="0">1*B3</f>
         <v>0.4</v>
       </c>
       <c r="D3">
-        <f t="shared" ref="D3:D25" si="1">1*B3</f>
+        <f t="shared" ref="D3:D25" si="0">1*C3</f>
         <v>0.4</v>
       </c>
       <c r="E3">
+        <f t="shared" ref="E3:E25" si="1">1*C3</f>
         <v>0.4</v>
       </c>
-      <c r="F3">
-        <f t="shared" ref="F3:F25" si="2">1*E3</f>
-        <v>0.4</v>
-      </c>
-      <c r="G3">
-        <f t="shared" ref="G3:G25" si="3">1*E3</f>
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44671.08333321759</v>
@@ -5594,26 +5423,18 @@
         <v>0.5</v>
       </c>
       <c r="C4">
+        <v>0.5</v>
+      </c>
+      <c r="D4">
         <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
-      <c r="E4">
-        <v>0.5</v>
-      </c>
-      <c r="F4">
-        <f t="shared" si="2"/>
-        <v>0.5</v>
-      </c>
-      <c r="G4">
-        <f t="shared" si="3"/>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v>44671.124999826388</v>
@@ -5622,26 +5443,18 @@
         <v>0</v>
       </c>
       <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v>44671.166666435187</v>
@@ -5650,26 +5463,18 @@
         <v>0.8</v>
       </c>
       <c r="C6">
+        <v>0.8</v>
+      </c>
+      <c r="D6">
         <f t="shared" si="0"/>
         <v>0.8</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <f t="shared" si="1"/>
         <v>0.8</v>
       </c>
-      <c r="E6">
-        <v>0.8</v>
-      </c>
-      <c r="F6">
-        <f t="shared" si="2"/>
-        <v>0.8</v>
-      </c>
-      <c r="G6">
-        <f t="shared" si="3"/>
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v>44671.208333043978</v>
@@ -5678,26 +5483,18 @@
         <v>1</v>
       </c>
       <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v>44671.249999652777</v>
@@ -5706,26 +5503,18 @@
         <v>0.1</v>
       </c>
       <c r="C8">
+        <v>0.1</v>
+      </c>
+      <c r="D8">
         <f t="shared" si="0"/>
         <v>0.1</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <f t="shared" si="1"/>
         <v>0.1</v>
       </c>
-      <c r="E8">
-        <v>0.1</v>
-      </c>
-      <c r="F8">
-        <f t="shared" si="2"/>
-        <v>0.1</v>
-      </c>
-      <c r="G8">
-        <f t="shared" si="3"/>
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v>44671.291666261575</v>
@@ -5734,26 +5523,18 @@
         <v>0.6</v>
       </c>
       <c r="C9">
+        <v>0.6</v>
+      </c>
+      <c r="D9">
         <f t="shared" si="0"/>
         <v>0.6</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <f t="shared" si="1"/>
         <v>0.6</v>
       </c>
-      <c r="E9">
-        <v>0.6</v>
-      </c>
-      <c r="F9">
-        <f t="shared" si="2"/>
-        <v>0.6</v>
-      </c>
-      <c r="G9">
-        <f t="shared" si="3"/>
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v>44671.333332870374</v>
@@ -5762,26 +5543,18 @@
         <v>0.4</v>
       </c>
       <c r="C10">
+        <v>0.4</v>
+      </c>
+      <c r="D10">
         <f t="shared" si="0"/>
         <v>0.4</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <f t="shared" si="1"/>
         <v>0.4</v>
       </c>
-      <c r="E10">
-        <v>0.4</v>
-      </c>
-      <c r="F10">
-        <f t="shared" si="2"/>
-        <v>0.4</v>
-      </c>
-      <c r="G10">
-        <f t="shared" si="3"/>
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v>44671.374999479165</v>
@@ -5790,26 +5563,18 @@
         <v>0.6</v>
       </c>
       <c r="C11">
+        <v>0.6</v>
+      </c>
+      <c r="D11">
         <f t="shared" si="0"/>
         <v>0.6</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <f t="shared" si="1"/>
         <v>0.6</v>
       </c>
-      <c r="E11">
-        <v>0.6</v>
-      </c>
-      <c r="F11">
-        <f t="shared" si="2"/>
-        <v>0.6</v>
-      </c>
-      <c r="G11">
-        <f t="shared" si="3"/>
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v>44671.416666087964</v>
@@ -5818,26 +5583,18 @@
         <v>0.7</v>
       </c>
       <c r="C12">
+        <v>0.7</v>
+      </c>
+      <c r="D12">
         <f t="shared" si="0"/>
         <v>0.7</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <f t="shared" si="1"/>
         <v>0.7</v>
       </c>
-      <c r="E12">
-        <v>0.7</v>
-      </c>
-      <c r="F12">
-        <f t="shared" si="2"/>
-        <v>0.7</v>
-      </c>
-      <c r="G12">
-        <f t="shared" si="3"/>
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="8">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v>44671.458332696762</v>
@@ -5846,26 +5603,18 @@
         <v>0.1</v>
       </c>
       <c r="C13">
+        <v>0.1</v>
+      </c>
+      <c r="D13">
         <f t="shared" si="0"/>
         <v>0.1</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <f t="shared" si="1"/>
         <v>0.1</v>
       </c>
-      <c r="E13">
-        <v>0.1</v>
-      </c>
-      <c r="F13">
-        <f t="shared" si="2"/>
-        <v>0.1</v>
-      </c>
-      <c r="G13">
-        <f t="shared" si="3"/>
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v>44671.499999305554</v>
@@ -5874,26 +5623,18 @@
         <v>0.1</v>
       </c>
       <c r="C14">
+        <v>0.1</v>
+      </c>
+      <c r="D14">
         <f t="shared" si="0"/>
         <v>0.1</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <f t="shared" si="1"/>
         <v>0.1</v>
       </c>
-      <c r="E14">
-        <v>0.1</v>
-      </c>
-      <c r="F14">
-        <f t="shared" si="2"/>
-        <v>0.1</v>
-      </c>
-      <c r="G14">
-        <f t="shared" si="3"/>
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="8">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v>44671.541665914352</v>
@@ -5902,26 +5643,18 @@
         <v>0.8</v>
       </c>
       <c r="C15">
+        <v>0.8</v>
+      </c>
+      <c r="D15">
         <f t="shared" si="0"/>
         <v>0.8</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <f t="shared" si="1"/>
         <v>0.8</v>
       </c>
-      <c r="E15">
-        <v>0.8</v>
-      </c>
-      <c r="F15">
-        <f t="shared" si="2"/>
-        <v>0.8</v>
-      </c>
-      <c r="G15">
-        <f t="shared" si="3"/>
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="8">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v>44671.583332523151</v>
@@ -5930,26 +5663,18 @@
         <v>0.9</v>
       </c>
       <c r="C16">
+        <v>0.9</v>
+      </c>
+      <c r="D16">
         <f t="shared" si="0"/>
         <v>0.9</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <f t="shared" si="1"/>
         <v>0.9</v>
       </c>
-      <c r="E16">
-        <v>0.9</v>
-      </c>
-      <c r="F16">
-        <f t="shared" si="2"/>
-        <v>0.9</v>
-      </c>
-      <c r="G16">
-        <f t="shared" si="3"/>
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="8">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v>44671.624999131942</v>
@@ -5958,26 +5683,18 @@
         <v>0.2</v>
       </c>
       <c r="C17">
+        <v>0.2</v>
+      </c>
+      <c r="D17">
         <f t="shared" si="0"/>
         <v>0.2</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <f t="shared" si="1"/>
         <v>0.2</v>
       </c>
-      <c r="E17">
-        <v>0.2</v>
-      </c>
-      <c r="F17">
-        <f t="shared" si="2"/>
-        <v>0.2</v>
-      </c>
-      <c r="G17">
-        <f t="shared" si="3"/>
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="8">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v>44671.66666574074</v>
@@ -5986,26 +5703,18 @@
         <v>0.4</v>
       </c>
       <c r="C18">
+        <v>0.4</v>
+      </c>
+      <c r="D18">
         <f t="shared" si="0"/>
         <v>0.4</v>
       </c>
-      <c r="D18">
+      <c r="E18">
         <f t="shared" si="1"/>
         <v>0.4</v>
       </c>
-      <c r="E18">
-        <v>0.4</v>
-      </c>
-      <c r="F18">
-        <f t="shared" si="2"/>
-        <v>0.4</v>
-      </c>
-      <c r="G18">
-        <f t="shared" si="3"/>
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="8">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v>44671.708332349539</v>
@@ -6014,26 +5723,18 @@
         <v>0.6</v>
       </c>
       <c r="C19">
+        <v>0.6</v>
+      </c>
+      <c r="D19">
         <f t="shared" si="0"/>
         <v>0.6</v>
       </c>
-      <c r="D19">
+      <c r="E19">
         <f t="shared" si="1"/>
         <v>0.6</v>
       </c>
-      <c r="E19">
-        <v>0.6</v>
-      </c>
-      <c r="F19">
-        <f t="shared" si="2"/>
-        <v>0.6</v>
-      </c>
-      <c r="G19">
-        <f t="shared" si="3"/>
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="8">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v>44671.74999895833</v>
@@ -6042,26 +5743,18 @@
         <v>0.7</v>
       </c>
       <c r="C20">
+        <v>0.7</v>
+      </c>
+      <c r="D20">
         <f t="shared" si="0"/>
         <v>0.7</v>
       </c>
-      <c r="D20">
+      <c r="E20">
         <f t="shared" si="1"/>
         <v>0.7</v>
       </c>
-      <c r="E20">
-        <v>0.7</v>
-      </c>
-      <c r="F20">
-        <f t="shared" si="2"/>
-        <v>0.7</v>
-      </c>
-      <c r="G20">
-        <f t="shared" si="3"/>
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="8">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v>44671.791665567129</v>
@@ -6070,26 +5763,18 @@
         <v>0.7</v>
       </c>
       <c r="C21">
+        <v>0.7</v>
+      </c>
+      <c r="D21">
         <f t="shared" si="0"/>
         <v>0.7</v>
       </c>
-      <c r="D21">
+      <c r="E21">
         <f t="shared" si="1"/>
         <v>0.7</v>
       </c>
-      <c r="E21">
-        <v>0.7</v>
-      </c>
-      <c r="F21">
-        <f t="shared" si="2"/>
-        <v>0.7</v>
-      </c>
-      <c r="G21">
-        <f t="shared" si="3"/>
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="8">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v>44671.833332175927</v>
@@ -6098,26 +5783,18 @@
         <v>0.6</v>
       </c>
       <c r="C22">
+        <v>0.6</v>
+      </c>
+      <c r="D22">
         <f t="shared" si="0"/>
         <v>0.6</v>
       </c>
-      <c r="D22">
+      <c r="E22">
         <f t="shared" si="1"/>
         <v>0.6</v>
       </c>
-      <c r="E22">
-        <v>0.6</v>
-      </c>
-      <c r="F22">
-        <f t="shared" si="2"/>
-        <v>0.6</v>
-      </c>
-      <c r="G22">
-        <f t="shared" si="3"/>
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="8">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v>44671.874998784719</v>
@@ -6126,26 +5803,18 @@
         <v>0.7</v>
       </c>
       <c r="C23">
+        <v>0.7</v>
+      </c>
+      <c r="D23">
         <f t="shared" si="0"/>
         <v>0.7</v>
       </c>
-      <c r="D23">
+      <c r="E23">
         <f t="shared" si="1"/>
         <v>0.7</v>
       </c>
-      <c r="E23">
-        <v>0.7</v>
-      </c>
-      <c r="F23">
-        <f t="shared" si="2"/>
-        <v>0.7</v>
-      </c>
-      <c r="G23">
-        <f t="shared" si="3"/>
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="8">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v>44671.916665393517</v>
@@ -6154,26 +5823,18 @@
         <v>0.1</v>
       </c>
       <c r="C24">
+        <v>0.1</v>
+      </c>
+      <c r="D24">
         <f t="shared" si="0"/>
         <v>0.1</v>
       </c>
-      <c r="D24">
+      <c r="E24">
         <f t="shared" si="1"/>
         <v>0.1</v>
       </c>
-      <c r="E24">
-        <v>0.1</v>
-      </c>
-      <c r="F24">
-        <f t="shared" si="2"/>
-        <v>0.1</v>
-      </c>
-      <c r="G24">
-        <f t="shared" si="3"/>
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="8">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v>44671.958332002316</v>
@@ -6182,22 +5843,14 @@
         <v>0.6</v>
       </c>
       <c r="C25">
+        <v>0.6</v>
+      </c>
+      <c r="D25">
         <f t="shared" si="0"/>
         <v>0.6</v>
       </c>
-      <c r="D25">
+      <c r="E25">
         <f t="shared" si="1"/>
-        <v>0.6</v>
-      </c>
-      <c r="E25">
-        <v>0.6</v>
-      </c>
-      <c r="F25">
-        <f t="shared" si="2"/>
-        <v>0.6</v>
-      </c>
-      <c r="G25">
-        <f t="shared" si="3"/>
         <v>0.6</v>
       </c>
     </row>
@@ -6213,7 +5866,7 @@
   <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6228,22 +5881,22 @@
         <v>32</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>57</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -6928,7 +6581,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02307C1F-427B-487D-B703-EBF512D7AC27}">
   <dimension ref="A1:B25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -6942,7 +6595,7 @@
         <v>32</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>133</v>
+        <v>113</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">

--- a/input_data/input_data.xlsx
+++ b/input_data/input_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dsdennis\HOPE\Predicer\Predicer\input_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94084F68-772D-43D8-9564-7383FB110EBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BDF90C4-4951-4B86-BEF3-B6CC9900F6DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-3210" windowWidth="29040" windowHeight="17640" tabRatio="796" activeTab="15" xr2:uid="{788BFBD1-D930-4535-8A91-D85C56924796}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="796" activeTab="2" xr2:uid="{788BFBD1-D930-4535-8A91-D85C56924796}"/>
   </bookViews>
   <sheets>
     <sheet name="timeseries" sheetId="18" r:id="rId1"/>
@@ -2290,7 +2290,7 @@
   <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2856,7 +2856,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5704FC51-737E-45F9-9A9E-85A96AFE5439}">
   <dimension ref="A1:M9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
@@ -4134,7 +4134,7 @@
   <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4410,8 +4410,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB20090B-02A9-43B7-8D03-9C18D42920EB}">
   <dimension ref="A1:N8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/input_data/input_data.xlsx
+++ b/input_data/input_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dsdennis\HOPE\Predicer\Predicer\input_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BDF90C4-4951-4B86-BEF3-B6CC9900F6DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E27E139A-364B-4942-9AFD-1E9D13EDE797}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="796" activeTab="2" xr2:uid="{788BFBD1-D930-4535-8A91-D85C56924796}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="796" activeTab="1" xr2:uid="{788BFBD1-D930-4535-8A91-D85C56924796}"/>
   </bookViews>
   <sheets>
     <sheet name="timeseries" sheetId="18" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="116">
   <si>
     <t>node</t>
   </si>
@@ -395,6 +395,9 @@
   </si>
   <si>
     <t>pv1,s1,s2,s3</t>
+  </si>
+  <si>
+    <t>residual_value</t>
   </si>
 </sst>
 </file>
@@ -4133,8 +4136,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04A1B16B-CDA9-46BD-BA51-731AA9327652}">
   <dimension ref="A1:L7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P10" sqref="P10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4184,6 +4187,9 @@
       <c r="K1" s="3" t="s">
         <v>111</v>
       </c>
+      <c r="L1" s="3" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -4219,7 +4225,9 @@
       <c r="K2" s="7">
         <v>0</v>
       </c>
-      <c r="L2" s="7"/>
+      <c r="L2" s="7">
+        <v>0</v>
+      </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -4255,7 +4263,9 @@
       <c r="K3" s="7">
         <v>0</v>
       </c>
-      <c r="L3" s="7"/>
+      <c r="L3" s="7">
+        <v>0</v>
+      </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -4291,7 +4301,9 @@
       <c r="K4">
         <v>1E-3</v>
       </c>
-      <c r="L4" s="7"/>
+      <c r="L4" s="7">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -4327,7 +4339,9 @@
       <c r="K5" s="7">
         <v>0</v>
       </c>
-      <c r="L5" s="7"/>
+      <c r="L5" s="7">
+        <v>1000</v>
+      </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -4363,7 +4377,9 @@
       <c r="K6" s="7">
         <v>0</v>
       </c>
-      <c r="L6" s="7"/>
+      <c r="L6" s="7">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -4399,7 +4415,9 @@
       <c r="K7" s="7">
         <v>0</v>
       </c>
-      <c r="L7" s="7"/>
+      <c r="L7" s="7">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4410,7 +4428,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB20090B-02A9-43B7-8D03-9C18D42920EB}">
   <dimension ref="A1:N8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>

--- a/input_data/input_data.xlsx
+++ b/input_data/input_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dsdennis\HOPE\Predicer\Predicer\input_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E27E139A-364B-4942-9AFD-1E9D13EDE797}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6342B90-F8EE-4C3F-8710-409C3F73327A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="796" activeTab="1" xr2:uid="{788BFBD1-D930-4535-8A91-D85C56924796}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="796" firstSheet="2" activeTab="4" xr2:uid="{788BFBD1-D930-4535-8A91-D85C56924796}"/>
   </bookViews>
   <sheets>
     <sheet name="timeseries" sheetId="18" r:id="rId1"/>
@@ -18,19 +18,20 @@
     <sheet name="processes" sheetId="2" r:id="rId3"/>
     <sheet name="efficiencies" sheetId="10" r:id="rId4"/>
     <sheet name="process_topology" sheetId="6" r:id="rId5"/>
-    <sheet name="reserve_type" sheetId="13" r:id="rId6"/>
-    <sheet name="cf" sheetId="7" r:id="rId7"/>
-    <sheet name="inflow" sheetId="3" r:id="rId8"/>
-    <sheet name="price" sheetId="4" r:id="rId9"/>
-    <sheet name="markets" sheetId="5" r:id="rId10"/>
-    <sheet name="market_prices" sheetId="8" r:id="rId11"/>
-    <sheet name="risk" sheetId="17" r:id="rId12"/>
-    <sheet name="scenarios" sheetId="9" r:id="rId13"/>
-    <sheet name="fixed_ts" sheetId="11" r:id="rId14"/>
-    <sheet name="eff_ts" sheetId="12" r:id="rId15"/>
-    <sheet name="constraints" sheetId="14" r:id="rId16"/>
-    <sheet name="gen_constraint" sheetId="15" r:id="rId17"/>
-    <sheet name="cap_ts" sheetId="16" r:id="rId18"/>
+    <sheet name="node_history" sheetId="19" r:id="rId6"/>
+    <sheet name="reserve_type" sheetId="13" r:id="rId7"/>
+    <sheet name="cf" sheetId="7" r:id="rId8"/>
+    <sheet name="inflow" sheetId="3" r:id="rId9"/>
+    <sheet name="price" sheetId="4" r:id="rId10"/>
+    <sheet name="markets" sheetId="5" r:id="rId11"/>
+    <sheet name="market_prices" sheetId="8" r:id="rId12"/>
+    <sheet name="risk" sheetId="17" r:id="rId13"/>
+    <sheet name="scenarios" sheetId="9" r:id="rId14"/>
+    <sheet name="fixed_ts" sheetId="11" r:id="rId15"/>
+    <sheet name="eff_ts" sheetId="12" r:id="rId16"/>
+    <sheet name="constraints" sheetId="14" r:id="rId17"/>
+    <sheet name="gen_constraint" sheetId="15" r:id="rId18"/>
+    <sheet name="cap_ts" sheetId="16" r:id="rId19"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -50,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="116">
   <si>
     <t>node</t>
   </si>
@@ -781,7 +782,7 @@
   <dimension ref="A1:A49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -992,6 +993,248 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02307C1F-427B-487D-B703-EBF512D7AC27}">
+  <dimension ref="A1:B25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.28515625" style="8" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="8">
+        <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
+        <v>44671</v>
+      </c>
+      <c r="B2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="8">
+        <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
+        <v>44671.041666666664</v>
+      </c>
+      <c r="B3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="8">
+        <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
+        <v>44671.08333321759</v>
+      </c>
+      <c r="B4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="8">
+        <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
+        <v>44671.124999826388</v>
+      </c>
+      <c r="B5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="8">
+        <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
+        <v>44671.166666435187</v>
+      </c>
+      <c r="B6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="8">
+        <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
+        <v>44671.208333043978</v>
+      </c>
+      <c r="B7">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="8">
+        <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
+        <v>44671.249999652777</v>
+      </c>
+      <c r="B8">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="8">
+        <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
+        <v>44671.291666261575</v>
+      </c>
+      <c r="B9">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="8">
+        <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
+        <v>44671.333332870374</v>
+      </c>
+      <c r="B10">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="8">
+        <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
+        <v>44671.374999479165</v>
+      </c>
+      <c r="B11">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="8">
+        <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
+        <v>44671.416666087964</v>
+      </c>
+      <c r="B12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="8">
+        <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
+        <v>44671.458332696762</v>
+      </c>
+      <c r="B13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="8">
+        <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
+        <v>44671.499999305554</v>
+      </c>
+      <c r="B14">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="8">
+        <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
+        <v>44671.541665914352</v>
+      </c>
+      <c r="B15">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="8">
+        <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
+        <v>44671.583332523151</v>
+      </c>
+      <c r="B16">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="8">
+        <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
+        <v>44671.624999131942</v>
+      </c>
+      <c r="B17">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="8">
+        <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
+        <v>44671.66666574074</v>
+      </c>
+      <c r="B18">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="8">
+        <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
+        <v>44671.708332349539</v>
+      </c>
+      <c r="B19">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="8">
+        <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
+        <v>44671.74999895833</v>
+      </c>
+      <c r="B20">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="8">
+        <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
+        <v>44671.791665567129</v>
+      </c>
+      <c r="B21">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="8">
+        <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
+        <v>44671.833332175927</v>
+      </c>
+      <c r="B22">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="8">
+        <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
+        <v>44671.874998784719</v>
+      </c>
+      <c r="B23">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="8">
+        <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
+        <v>44671.916665393517</v>
+      </c>
+      <c r="B24">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="8">
+        <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
+        <v>44671.958332002316</v>
+      </c>
+      <c r="B25">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3788A93-7501-4F5D-9E8F-38D329CC85EC}">
   <dimension ref="A1:G5"/>
   <sheetViews>
@@ -1129,12 +1372,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF6DDD9A-EF34-4108-8532-230729E9C708}">
   <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2199,7 +2442,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9314D326-256A-435C-AAE3-3517FA836EAE}">
   <dimension ref="A1:B3"/>
   <sheetViews>
@@ -2241,7 +2484,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A87AD413-E614-48C1-80E1-F1E8236FCBC6}">
   <dimension ref="A1:B4"/>
   <sheetViews>
@@ -2288,7 +2531,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31679CA5-0AA2-4F6F-8223-14BF74917F04}">
   <dimension ref="A1:B25"/>
   <sheetViews>
@@ -2462,7 +2705,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD670E02-665B-45B8-BC4E-9596D2C1BC55}">
   <dimension ref="A1:D25"/>
   <sheetViews>
@@ -2855,7 +3098,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5704FC51-737E-45F9-9A9E-85A96AFE5439}">
   <dimension ref="A1:M9"/>
   <sheetViews>
@@ -2897,18 +3140,20 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE12AB76-2BDA-4ACA-A128-8CFB9FB6C8F8}">
   <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.28515625" style="8" customWidth="1"/>
-    <col min="2" max="10" width="2.28515625" customWidth="1"/>
+    <col min="2" max="4" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="5.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -3740,12 +3985,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7FEDBA5-B0F3-4E9D-9367-08D5F5FA8AEA}">
   <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4136,8 +4381,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04A1B16B-CDA9-46BD-BA51-731AA9327652}">
   <dimension ref="A1:L7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P10" sqref="P10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4340,7 +4585,7 @@
         <v>0</v>
       </c>
       <c r="L5" s="7">
-        <v>1000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -4429,7 +4674,7 @@
   <dimension ref="A1:N8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="G2" sqref="G2:G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4889,8 +5134,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A86A8A7-FD76-4891-A53C-CBB095359118}">
   <dimension ref="A1:I14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5319,6 +5564,179 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7AEF404-3743-47D7-AC45-7AE3A9FB796E}">
+  <dimension ref="A1:C25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.28515625" style="8" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="8">
+        <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
+        <v>44671</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="8">
+        <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
+        <v>44671.041666666664</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="8">
+        <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
+        <v>44671.08333321759</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="8">
+        <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
+        <v>44671.124999826388</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="8">
+        <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
+        <v>44671.166666435187</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="8">
+        <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
+        <v>44671.208333043978</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="8">
+        <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
+        <v>44671.249999652777</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="8">
+        <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
+        <v>44671.291666261575</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="8">
+        <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
+        <v>44671.333332870374</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="8">
+        <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
+        <v>44671.374999479165</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="8">
+        <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
+        <v>44671.416666087964</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="8">
+        <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
+        <v>44671.458332696762</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="8">
+        <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
+        <v>44671.499999305554</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="8">
+        <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
+        <v>44671.541665914352</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="8">
+        <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
+        <v>44671.583332523151</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="8">
+        <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
+        <v>44671.624999131942</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="8">
+        <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
+        <v>44671.66666574074</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="8">
+        <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
+        <v>44671.708332349539</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="8">
+        <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
+        <v>44671.74999895833</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="8">
+        <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
+        <v>44671.791665567129</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="8">
+        <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
+        <v>44671.833332175927</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="8">
+        <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
+        <v>44671.874998784719</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="8">
+        <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
+        <v>44671.916665393517</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="8">
+        <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
+        <v>44671.958332002316</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0532F8A-0FB4-47AD-98A1-4065D3376432}">
   <dimension ref="A1:B3"/>
   <sheetViews>
@@ -5357,7 +5775,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77A4637A-7829-48D6-AE54-2E654AB1A427}">
   <dimension ref="A1:L25"/>
   <sheetViews>
@@ -5879,12 +6297,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F87DD44-A1AD-4241-AED7-C48CC9DEE2E2}">
   <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6593,246 +7011,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02307C1F-427B-487D-B703-EBF512D7AC27}">
-  <dimension ref="A1:B25"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="19.28515625" style="8" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="8">
-        <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
-        <v>44671</v>
-      </c>
-      <c r="B2">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="8">
-        <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
-        <v>44671.041666666664</v>
-      </c>
-      <c r="B3">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="8">
-        <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
-        <v>44671.08333321759</v>
-      </c>
-      <c r="B4">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="8">
-        <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
-        <v>44671.124999826388</v>
-      </c>
-      <c r="B5">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="8">
-        <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
-        <v>44671.166666435187</v>
-      </c>
-      <c r="B6">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="8">
-        <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
-        <v>44671.208333043978</v>
-      </c>
-      <c r="B7">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="8">
-        <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
-        <v>44671.249999652777</v>
-      </c>
-      <c r="B8">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="8">
-        <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
-        <v>44671.291666261575</v>
-      </c>
-      <c r="B9">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="8">
-        <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
-        <v>44671.333332870374</v>
-      </c>
-      <c r="B10">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="8">
-        <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
-        <v>44671.374999479165</v>
-      </c>
-      <c r="B11">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="8">
-        <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
-        <v>44671.416666087964</v>
-      </c>
-      <c r="B12">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="8">
-        <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
-        <v>44671.458332696762</v>
-      </c>
-      <c r="B13">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="8">
-        <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
-        <v>44671.499999305554</v>
-      </c>
-      <c r="B14">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="8">
-        <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
-        <v>44671.541665914352</v>
-      </c>
-      <c r="B15">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="8">
-        <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
-        <v>44671.583332523151</v>
-      </c>
-      <c r="B16">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="8">
-        <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
-        <v>44671.624999131942</v>
-      </c>
-      <c r="B17">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="8">
-        <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
-        <v>44671.66666574074</v>
-      </c>
-      <c r="B18">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="8">
-        <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
-        <v>44671.708332349539</v>
-      </c>
-      <c r="B19">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="8">
-        <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
-        <v>44671.74999895833</v>
-      </c>
-      <c r="B20">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="8">
-        <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
-        <v>44671.791665567129</v>
-      </c>
-      <c r="B21">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="8">
-        <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
-        <v>44671.833332175927</v>
-      </c>
-      <c r="B22">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="8">
-        <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
-        <v>44671.874998784719</v>
-      </c>
-      <c r="B23">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="8">
-        <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
-        <v>44671.916665393517</v>
-      </c>
-      <c r="B24">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="8">
-        <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
-        <v>44671.958332002316</v>
-      </c>
-      <c r="B25">
-        <v>12</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/input_data/input_data.xlsx
+++ b/input_data/input_data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dsdennis\HOPE\Predicer\Predicer\input_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\data\Hope\Predicer_modified\Predicer\input_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6342B90-F8EE-4C3F-8710-409C3F73327A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C2C2BAF-61D2-41D5-B794-7A50136F7EBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="796" firstSheet="2" activeTab="4" xr2:uid="{788BFBD1-D930-4535-8A91-D85C56924796}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="796" firstSheet="2" activeTab="4" xr2:uid="{788BFBD1-D930-4535-8A91-D85C56924796}"/>
   </bookViews>
   <sheets>
     <sheet name="timeseries" sheetId="18" r:id="rId1"/>
@@ -25,13 +25,14 @@
     <sheet name="price" sheetId="4" r:id="rId10"/>
     <sheet name="markets" sheetId="5" r:id="rId11"/>
     <sheet name="market_prices" sheetId="8" r:id="rId12"/>
-    <sheet name="risk" sheetId="17" r:id="rId13"/>
-    <sheet name="scenarios" sheetId="9" r:id="rId14"/>
-    <sheet name="fixed_ts" sheetId="11" r:id="rId15"/>
-    <sheet name="eff_ts" sheetId="12" r:id="rId16"/>
-    <sheet name="constraints" sheetId="14" r:id="rId17"/>
-    <sheet name="gen_constraint" sheetId="15" r:id="rId18"/>
-    <sheet name="cap_ts" sheetId="16" r:id="rId19"/>
+    <sheet name="balance_prices" sheetId="20" r:id="rId13"/>
+    <sheet name="risk" sheetId="17" r:id="rId14"/>
+    <sheet name="scenarios" sheetId="9" r:id="rId15"/>
+    <sheet name="fixed_ts" sheetId="11" r:id="rId16"/>
+    <sheet name="eff_ts" sheetId="12" r:id="rId17"/>
+    <sheet name="constraints" sheetId="14" r:id="rId18"/>
+    <sheet name="gen_constraint" sheetId="15" r:id="rId19"/>
+    <sheet name="cap_ts" sheetId="16" r:id="rId20"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -51,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="122">
   <si>
     <t>node</t>
   </si>
@@ -399,6 +400,24 @@
   </si>
   <si>
     <t>residual_value</t>
+  </si>
+  <si>
+    <t>npe,up,s1</t>
+  </si>
+  <si>
+    <t>npe,up,s2</t>
+  </si>
+  <si>
+    <t>npe,up,s3</t>
+  </si>
+  <si>
+    <t>npe,dw,s1</t>
+  </si>
+  <si>
+    <t>npe,dw,s2</t>
+  </si>
+  <si>
+    <t>npe,dw,s3</t>
   </si>
 </sst>
 </file>
@@ -1377,7 +1396,7 @@
   <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection sqref="A1:B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2443,6 +2462,770 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{817FDE8F-BC70-48D0-8376-FB52E6946AF1}">
+  <dimension ref="A1:G25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="10.28515625" customWidth="1"/>
+    <col min="5" max="7" width="11.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="8">
+        <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
+        <v>44671</v>
+      </c>
+      <c r="B2">
+        <f>1.1*market_prices!B2</f>
+        <v>52.800000000000004</v>
+      </c>
+      <c r="C2">
+        <f>1.1*market_prices!F2</f>
+        <v>79.2</v>
+      </c>
+      <c r="D2">
+        <f>1.1*market_prices!J2</f>
+        <v>26.400000000000002</v>
+      </c>
+      <c r="E2">
+        <f>0.9*market_prices!B2</f>
+        <v>43.2</v>
+      </c>
+      <c r="F2">
+        <f>0.9*market_prices!F2</f>
+        <v>64.8</v>
+      </c>
+      <c r="G2">
+        <f>0.9*market_prices!J2</f>
+        <v>21.6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="8">
+        <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
+        <v>44671.041666666664</v>
+      </c>
+      <c r="B3">
+        <f>1.1*market_prices!B3</f>
+        <v>66</v>
+      </c>
+      <c r="C3">
+        <f>1.1*market_prices!F3</f>
+        <v>99.000000000000014</v>
+      </c>
+      <c r="D3">
+        <f>1.1*market_prices!J3</f>
+        <v>33</v>
+      </c>
+      <c r="E3">
+        <f>0.9*market_prices!B3</f>
+        <v>54</v>
+      </c>
+      <c r="F3">
+        <f>0.9*market_prices!F3</f>
+        <v>81</v>
+      </c>
+      <c r="G3">
+        <f>0.9*market_prices!J3</f>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="8">
+        <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
+        <v>44671.08333321759</v>
+      </c>
+      <c r="B4">
+        <f>1.1*market_prices!B4</f>
+        <v>63.800000000000004</v>
+      </c>
+      <c r="C4">
+        <f>1.1*market_prices!F4</f>
+        <v>95.7</v>
+      </c>
+      <c r="D4">
+        <f>1.1*market_prices!J4</f>
+        <v>31.900000000000002</v>
+      </c>
+      <c r="E4">
+        <f>0.9*market_prices!B4</f>
+        <v>52.2</v>
+      </c>
+      <c r="F4">
+        <f>0.9*market_prices!F4</f>
+        <v>78.3</v>
+      </c>
+      <c r="G4">
+        <f>0.9*market_prices!J4</f>
+        <v>26.1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="8">
+        <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
+        <v>44671.124999826388</v>
+      </c>
+      <c r="B5">
+        <f>1.1*market_prices!B5</f>
+        <v>56.1</v>
+      </c>
+      <c r="C5">
+        <f>1.1*market_prices!F5</f>
+        <v>84.15</v>
+      </c>
+      <c r="D5">
+        <f>1.1*market_prices!J5</f>
+        <v>28.05</v>
+      </c>
+      <c r="E5">
+        <f>0.9*market_prices!B5</f>
+        <v>45.9</v>
+      </c>
+      <c r="F5">
+        <f>0.9*market_prices!F5</f>
+        <v>68.850000000000009</v>
+      </c>
+      <c r="G5">
+        <f>0.9*market_prices!J5</f>
+        <v>22.95</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="8">
+        <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
+        <v>44671.166666435187</v>
+      </c>
+      <c r="B6">
+        <f>1.1*market_prices!B6</f>
+        <v>40.700000000000003</v>
+      </c>
+      <c r="C6">
+        <f>1.1*market_prices!F6</f>
+        <v>61.050000000000004</v>
+      </c>
+      <c r="D6">
+        <f>1.1*market_prices!J6</f>
+        <v>20.350000000000001</v>
+      </c>
+      <c r="E6">
+        <f>0.9*market_prices!B6</f>
+        <v>33.300000000000004</v>
+      </c>
+      <c r="F6">
+        <f>0.9*market_prices!F6</f>
+        <v>49.95</v>
+      </c>
+      <c r="G6">
+        <f>0.9*market_prices!J6</f>
+        <v>16.650000000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="8">
+        <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
+        <v>44671.208333043978</v>
+      </c>
+      <c r="B7">
+        <f>1.1*market_prices!B7</f>
+        <v>37.400000000000006</v>
+      </c>
+      <c r="C7">
+        <f>1.1*market_prices!F7</f>
+        <v>56.1</v>
+      </c>
+      <c r="D7">
+        <f>1.1*market_prices!J7</f>
+        <v>18.700000000000003</v>
+      </c>
+      <c r="E7">
+        <f>0.9*market_prices!B7</f>
+        <v>30.6</v>
+      </c>
+      <c r="F7">
+        <f>0.9*market_prices!F7</f>
+        <v>45.9</v>
+      </c>
+      <c r="G7">
+        <f>0.9*market_prices!J7</f>
+        <v>15.3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="8">
+        <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
+        <v>44671.249999652777</v>
+      </c>
+      <c r="B8">
+        <f>1.1*market_prices!B8</f>
+        <v>49.500000000000007</v>
+      </c>
+      <c r="C8">
+        <f>1.1*market_prices!F8</f>
+        <v>74.25</v>
+      </c>
+      <c r="D8">
+        <f>1.1*market_prices!J8</f>
+        <v>24.750000000000004</v>
+      </c>
+      <c r="E8">
+        <f>0.9*market_prices!B8</f>
+        <v>40.5</v>
+      </c>
+      <c r="F8">
+        <f>0.9*market_prices!F8</f>
+        <v>60.75</v>
+      </c>
+      <c r="G8">
+        <f>0.9*market_prices!J8</f>
+        <v>20.25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="8">
+        <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
+        <v>44671.291666261575</v>
+      </c>
+      <c r="B9">
+        <f>1.1*market_prices!B9</f>
+        <v>45.1</v>
+      </c>
+      <c r="C9">
+        <f>1.1*market_prices!F9</f>
+        <v>67.650000000000006</v>
+      </c>
+      <c r="D9">
+        <f>1.1*market_prices!J9</f>
+        <v>22.55</v>
+      </c>
+      <c r="E9">
+        <f>0.9*market_prices!B9</f>
+        <v>36.9</v>
+      </c>
+      <c r="F9">
+        <f>0.9*market_prices!F9</f>
+        <v>55.35</v>
+      </c>
+      <c r="G9">
+        <f>0.9*market_prices!J9</f>
+        <v>18.45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="8">
+        <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
+        <v>44671.333332870374</v>
+      </c>
+      <c r="B10">
+        <f>1.1*market_prices!B10</f>
+        <v>60.500000000000007</v>
+      </c>
+      <c r="C10">
+        <f>1.1*market_prices!F10</f>
+        <v>90.750000000000014</v>
+      </c>
+      <c r="D10">
+        <f>1.1*market_prices!J10</f>
+        <v>30.250000000000004</v>
+      </c>
+      <c r="E10">
+        <f>0.9*market_prices!B10</f>
+        <v>49.5</v>
+      </c>
+      <c r="F10">
+        <f>0.9*market_prices!F10</f>
+        <v>74.25</v>
+      </c>
+      <c r="G10">
+        <f>0.9*market_prices!J10</f>
+        <v>24.75</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="8">
+        <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
+        <v>44671.374999479165</v>
+      </c>
+      <c r="B11">
+        <f>1.1*market_prices!B11</f>
+        <v>64.900000000000006</v>
+      </c>
+      <c r="C11">
+        <f>1.1*market_prices!F11</f>
+        <v>97.350000000000009</v>
+      </c>
+      <c r="D11">
+        <f>1.1*market_prices!J11</f>
+        <v>32.450000000000003</v>
+      </c>
+      <c r="E11">
+        <f>0.9*market_prices!B11</f>
+        <v>53.1</v>
+      </c>
+      <c r="F11">
+        <f>0.9*market_prices!F11</f>
+        <v>79.650000000000006</v>
+      </c>
+      <c r="G11">
+        <f>0.9*market_prices!J11</f>
+        <v>26.55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="8">
+        <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
+        <v>44671.416666087964</v>
+      </c>
+      <c r="B12">
+        <f>1.1*market_prices!B12</f>
+        <v>66</v>
+      </c>
+      <c r="C12">
+        <f>1.1*market_prices!F12</f>
+        <v>99.000000000000014</v>
+      </c>
+      <c r="D12">
+        <f>1.1*market_prices!J12</f>
+        <v>33</v>
+      </c>
+      <c r="E12">
+        <f>0.9*market_prices!B12</f>
+        <v>54</v>
+      </c>
+      <c r="F12">
+        <f>0.9*market_prices!F12</f>
+        <v>81</v>
+      </c>
+      <c r="G12">
+        <f>0.9*market_prices!J12</f>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="8">
+        <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
+        <v>44671.458332696762</v>
+      </c>
+      <c r="B13">
+        <f>1.1*market_prices!B13</f>
+        <v>45.1</v>
+      </c>
+      <c r="C13">
+        <f>1.1*market_prices!F13</f>
+        <v>67.650000000000006</v>
+      </c>
+      <c r="D13">
+        <f>1.1*market_prices!J13</f>
+        <v>22.55</v>
+      </c>
+      <c r="E13">
+        <f>0.9*market_prices!B13</f>
+        <v>36.9</v>
+      </c>
+      <c r="F13">
+        <f>0.9*market_prices!F13</f>
+        <v>55.35</v>
+      </c>
+      <c r="G13">
+        <f>0.9*market_prices!J13</f>
+        <v>18.45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="8">
+        <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
+        <v>44671.499999305554</v>
+      </c>
+      <c r="B14">
+        <f>1.1*market_prices!B14</f>
+        <v>50.6</v>
+      </c>
+      <c r="C14">
+        <f>1.1*market_prices!F14</f>
+        <v>75.900000000000006</v>
+      </c>
+      <c r="D14">
+        <f>1.1*market_prices!J14</f>
+        <v>25.3</v>
+      </c>
+      <c r="E14">
+        <f>0.9*market_prices!B14</f>
+        <v>41.4</v>
+      </c>
+      <c r="F14">
+        <f>0.9*market_prices!F14</f>
+        <v>62.1</v>
+      </c>
+      <c r="G14">
+        <f>0.9*market_prices!J14</f>
+        <v>20.7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="8">
+        <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
+        <v>44671.541665914352</v>
+      </c>
+      <c r="B15">
+        <f>1.1*market_prices!B15</f>
+        <v>41.800000000000004</v>
+      </c>
+      <c r="C15">
+        <f>1.1*market_prices!F15</f>
+        <v>62.7</v>
+      </c>
+      <c r="D15">
+        <f>1.1*market_prices!J15</f>
+        <v>20.900000000000002</v>
+      </c>
+      <c r="E15">
+        <f>0.9*market_prices!B15</f>
+        <v>34.200000000000003</v>
+      </c>
+      <c r="F15">
+        <f>0.9*market_prices!F15</f>
+        <v>51.300000000000004</v>
+      </c>
+      <c r="G15">
+        <f>0.9*market_prices!J15</f>
+        <v>17.100000000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="8">
+        <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
+        <v>44671.583332523151</v>
+      </c>
+      <c r="B16">
+        <f>1.1*market_prices!B16</f>
+        <v>50.6</v>
+      </c>
+      <c r="C16">
+        <f>1.1*market_prices!F16</f>
+        <v>75.900000000000006</v>
+      </c>
+      <c r="D16">
+        <f>1.1*market_prices!J16</f>
+        <v>25.3</v>
+      </c>
+      <c r="E16">
+        <f>0.9*market_prices!B16</f>
+        <v>41.4</v>
+      </c>
+      <c r="F16">
+        <f>0.9*market_prices!F16</f>
+        <v>62.1</v>
+      </c>
+      <c r="G16">
+        <f>0.9*market_prices!J16</f>
+        <v>20.7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="8">
+        <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
+        <v>44671.624999131942</v>
+      </c>
+      <c r="B17">
+        <f>1.1*market_prices!B17</f>
+        <v>49.500000000000007</v>
+      </c>
+      <c r="C17">
+        <f>1.1*market_prices!F17</f>
+        <v>74.25</v>
+      </c>
+      <c r="D17">
+        <f>1.1*market_prices!J17</f>
+        <v>24.750000000000004</v>
+      </c>
+      <c r="E17">
+        <f>0.9*market_prices!B17</f>
+        <v>40.5</v>
+      </c>
+      <c r="F17">
+        <f>0.9*market_prices!F17</f>
+        <v>60.75</v>
+      </c>
+      <c r="G17">
+        <f>0.9*market_prices!J17</f>
+        <v>20.25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="8">
+        <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
+        <v>44671.66666574074</v>
+      </c>
+      <c r="B18">
+        <f>1.1*market_prices!B18</f>
+        <v>45.1</v>
+      </c>
+      <c r="C18">
+        <f>1.1*market_prices!F18</f>
+        <v>67.650000000000006</v>
+      </c>
+      <c r="D18">
+        <f>1.1*market_prices!J18</f>
+        <v>22.55</v>
+      </c>
+      <c r="E18">
+        <f>0.9*market_prices!B18</f>
+        <v>36.9</v>
+      </c>
+      <c r="F18">
+        <f>0.9*market_prices!F18</f>
+        <v>55.35</v>
+      </c>
+      <c r="G18">
+        <f>0.9*market_prices!J18</f>
+        <v>18.45</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="8">
+        <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
+        <v>44671.708332349539</v>
+      </c>
+      <c r="B19">
+        <f>1.1*market_prices!B19</f>
+        <v>50.6</v>
+      </c>
+      <c r="C19">
+        <f>1.1*market_prices!F19</f>
+        <v>75.900000000000006</v>
+      </c>
+      <c r="D19">
+        <f>1.1*market_prices!J19</f>
+        <v>25.3</v>
+      </c>
+      <c r="E19">
+        <f>0.9*market_prices!B19</f>
+        <v>41.4</v>
+      </c>
+      <c r="F19">
+        <f>0.9*market_prices!F19</f>
+        <v>62.1</v>
+      </c>
+      <c r="G19">
+        <f>0.9*market_prices!J19</f>
+        <v>20.7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="8">
+        <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
+        <v>44671.74999895833</v>
+      </c>
+      <c r="B20">
+        <f>1.1*market_prices!B20</f>
+        <v>57.2</v>
+      </c>
+      <c r="C20">
+        <f>1.1*market_prices!F20</f>
+        <v>85.800000000000011</v>
+      </c>
+      <c r="D20">
+        <f>1.1*market_prices!J20</f>
+        <v>28.6</v>
+      </c>
+      <c r="E20">
+        <f>0.9*market_prices!B20</f>
+        <v>46.800000000000004</v>
+      </c>
+      <c r="F20">
+        <f>0.9*market_prices!F20</f>
+        <v>70.2</v>
+      </c>
+      <c r="G20">
+        <f>0.9*market_prices!J20</f>
+        <v>23.400000000000002</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="8">
+        <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
+        <v>44671.791665567129</v>
+      </c>
+      <c r="B21">
+        <f>1.1*market_prices!B21</f>
+        <v>61.600000000000009</v>
+      </c>
+      <c r="C21">
+        <f>1.1*market_prices!F21</f>
+        <v>92.4</v>
+      </c>
+      <c r="D21">
+        <f>1.1*market_prices!J21</f>
+        <v>30.800000000000004</v>
+      </c>
+      <c r="E21">
+        <f>0.9*market_prices!B21</f>
+        <v>50.4</v>
+      </c>
+      <c r="F21">
+        <f>0.9*market_prices!F21</f>
+        <v>75.600000000000009</v>
+      </c>
+      <c r="G21">
+        <f>0.9*market_prices!J21</f>
+        <v>25.2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="8">
+        <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
+        <v>44671.833332175927</v>
+      </c>
+      <c r="B22">
+        <f>1.1*market_prices!B22</f>
+        <v>36.300000000000004</v>
+      </c>
+      <c r="C22">
+        <f>1.1*market_prices!F22</f>
+        <v>54.45</v>
+      </c>
+      <c r="D22">
+        <f>1.1*market_prices!J22</f>
+        <v>18.150000000000002</v>
+      </c>
+      <c r="E22">
+        <f>0.9*market_prices!B22</f>
+        <v>29.7</v>
+      </c>
+      <c r="F22">
+        <f>0.9*market_prices!F22</f>
+        <v>44.550000000000004</v>
+      </c>
+      <c r="G22">
+        <f>0.9*market_prices!J22</f>
+        <v>14.85</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="8">
+        <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
+        <v>44671.874998784719</v>
+      </c>
+      <c r="B23">
+        <f>1.1*market_prices!B23</f>
+        <v>47.300000000000004</v>
+      </c>
+      <c r="C23">
+        <f>1.1*market_prices!F23</f>
+        <v>70.95</v>
+      </c>
+      <c r="D23">
+        <f>1.1*market_prices!J23</f>
+        <v>23.650000000000002</v>
+      </c>
+      <c r="E23">
+        <f>0.9*market_prices!B23</f>
+        <v>38.700000000000003</v>
+      </c>
+      <c r="F23">
+        <f>0.9*market_prices!F23</f>
+        <v>58.050000000000004</v>
+      </c>
+      <c r="G23">
+        <f>0.9*market_prices!J23</f>
+        <v>19.350000000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="8">
+        <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
+        <v>44671.916665393517</v>
+      </c>
+      <c r="B24">
+        <f>1.1*market_prices!B24</f>
+        <v>62.7</v>
+      </c>
+      <c r="C24">
+        <f>1.1*market_prices!F24</f>
+        <v>94.050000000000011</v>
+      </c>
+      <c r="D24">
+        <f>1.1*market_prices!J24</f>
+        <v>31.35</v>
+      </c>
+      <c r="E24">
+        <f>0.9*market_prices!B24</f>
+        <v>51.300000000000004</v>
+      </c>
+      <c r="F24">
+        <f>0.9*market_prices!F24</f>
+        <v>76.95</v>
+      </c>
+      <c r="G24">
+        <f>0.9*market_prices!J24</f>
+        <v>25.650000000000002</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="8">
+        <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
+        <v>44671.958332002316</v>
+      </c>
+      <c r="B25">
+        <f>1.1*market_prices!B25</f>
+        <v>35.200000000000003</v>
+      </c>
+      <c r="C25">
+        <f>1.1*market_prices!F25</f>
+        <v>52.800000000000004</v>
+      </c>
+      <c r="D25">
+        <f>1.1*market_prices!J25</f>
+        <v>17.600000000000001</v>
+      </c>
+      <c r="E25">
+        <f>0.9*market_prices!B25</f>
+        <v>28.8</v>
+      </c>
+      <c r="F25">
+        <f>0.9*market_prices!F25</f>
+        <v>43.2</v>
+      </c>
+      <c r="G25">
+        <f>0.9*market_prices!J25</f>
+        <v>14.4</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9314D326-256A-435C-AAE3-3517FA836EAE}">
   <dimension ref="A1:B3"/>
   <sheetViews>
@@ -2484,7 +3267,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A87AD413-E614-48C1-80E1-F1E8236FCBC6}">
   <dimension ref="A1:B4"/>
   <sheetViews>
@@ -2531,12 +3314,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31679CA5-0AA2-4F6F-8223-14BF74917F04}">
   <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="L31" sqref="L31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2705,7 +3488,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD670E02-665B-45B8-BC4E-9596D2C1BC55}">
   <dimension ref="A1:D25"/>
   <sheetViews>
@@ -3098,7 +3881,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5704FC51-737E-45F9-9A9E-85A96AFE5439}">
   <dimension ref="A1:M9"/>
   <sheetViews>
@@ -3140,7 +3923,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE12AB76-2BDA-4ACA-A128-8CFB9FB6C8F8}">
   <dimension ref="A1:J25"/>
   <sheetViews>
@@ -3978,398 +4761,6 @@
       </c>
       <c r="J25">
         <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7FEDBA5-B0F3-4E9D-9367-08D5F5FA8AEA}">
-  <dimension ref="A1:D25"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="19.28515625" style="8" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B1" t="s">
-        <v>102</v>
-      </c>
-      <c r="C1" t="s">
-        <v>103</v>
-      </c>
-      <c r="D1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="8">
-        <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
-        <v>44671</v>
-      </c>
-      <c r="B2">
-        <v>5</v>
-      </c>
-      <c r="C2">
-        <v>5</v>
-      </c>
-      <c r="D2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="8">
-        <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
-        <v>44671.041666666664</v>
-      </c>
-      <c r="B3">
-        <v>4.2857142857142856</v>
-      </c>
-      <c r="C3">
-        <v>4.2857142857142856</v>
-      </c>
-      <c r="D3">
-        <v>4.2857142857142856</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="8">
-        <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
-        <v>44671.08333321759</v>
-      </c>
-      <c r="B4">
-        <v>4.2857142857142856</v>
-      </c>
-      <c r="C4">
-        <v>4.2857142857142856</v>
-      </c>
-      <c r="D4">
-        <v>4.2857142857142856</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="8">
-        <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
-        <v>44671.124999826388</v>
-      </c>
-      <c r="B5">
-        <v>4.4117647058823533</v>
-      </c>
-      <c r="C5">
-        <v>4.4117647058823533</v>
-      </c>
-      <c r="D5">
-        <v>4.4117647058823533</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="8">
-        <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
-        <v>44671.166666435187</v>
-      </c>
-      <c r="B6">
-        <v>4.5454545454545459</v>
-      </c>
-      <c r="C6">
-        <v>4.5454545454545459</v>
-      </c>
-      <c r="D6">
-        <v>4.5454545454545459</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="8">
-        <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
-        <v>44671.208333043978</v>
-      </c>
-      <c r="B7">
-        <v>4.6875</v>
-      </c>
-      <c r="C7">
-        <v>4.6875</v>
-      </c>
-      <c r="D7">
-        <v>4.6875</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="8">
-        <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
-        <v>44671.249999652777</v>
-      </c>
-      <c r="B8">
-        <v>4.838709677419355</v>
-      </c>
-      <c r="C8">
-        <v>4.838709677419355</v>
-      </c>
-      <c r="D8">
-        <v>4.838709677419355</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="8">
-        <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
-        <v>44671.291666261575</v>
-      </c>
-      <c r="B9">
-        <v>5</v>
-      </c>
-      <c r="C9">
-        <v>5</v>
-      </c>
-      <c r="D9">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="8">
-        <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
-        <v>44671.333332870374</v>
-      </c>
-      <c r="B10">
-        <v>6</v>
-      </c>
-      <c r="C10">
-        <v>6</v>
-      </c>
-      <c r="D10">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="8">
-        <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
-        <v>44671.374999479165</v>
-      </c>
-      <c r="B11">
-        <v>6</v>
-      </c>
-      <c r="C11">
-        <v>6</v>
-      </c>
-      <c r="D11">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="8">
-        <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
-        <v>44671.416666087964</v>
-      </c>
-      <c r="B12">
-        <v>6</v>
-      </c>
-      <c r="C12">
-        <v>6</v>
-      </c>
-      <c r="D12">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="8">
-        <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
-        <v>44671.458332696762</v>
-      </c>
-      <c r="B13">
-        <v>6</v>
-      </c>
-      <c r="C13">
-        <v>6</v>
-      </c>
-      <c r="D13">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="8">
-        <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
-        <v>44671.499999305554</v>
-      </c>
-      <c r="B14">
-        <v>6</v>
-      </c>
-      <c r="C14">
-        <v>6</v>
-      </c>
-      <c r="D14">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="8">
-        <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
-        <v>44671.541665914352</v>
-      </c>
-      <c r="B15">
-        <v>6</v>
-      </c>
-      <c r="C15">
-        <v>6</v>
-      </c>
-      <c r="D15">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="8">
-        <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
-        <v>44671.583332523151</v>
-      </c>
-      <c r="B16">
-        <v>6</v>
-      </c>
-      <c r="C16">
-        <v>6</v>
-      </c>
-      <c r="D16">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="8">
-        <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
-        <v>44671.624999131942</v>
-      </c>
-      <c r="B17">
-        <v>6</v>
-      </c>
-      <c r="C17">
-        <v>6</v>
-      </c>
-      <c r="D17">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="8">
-        <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
-        <v>44671.66666574074</v>
-      </c>
-      <c r="B18">
-        <v>6</v>
-      </c>
-      <c r="C18">
-        <v>6</v>
-      </c>
-      <c r="D18">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="8">
-        <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
-        <v>44671.708332349539</v>
-      </c>
-      <c r="B19">
-        <v>3.75</v>
-      </c>
-      <c r="C19">
-        <v>3.75</v>
-      </c>
-      <c r="D19">
-        <v>3.75</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="8">
-        <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
-        <v>44671.74999895833</v>
-      </c>
-      <c r="B20">
-        <v>3.75</v>
-      </c>
-      <c r="C20">
-        <v>3.75</v>
-      </c>
-      <c r="D20">
-        <v>3.75</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="8">
-        <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
-        <v>44671.791665567129</v>
-      </c>
-      <c r="B21">
-        <v>3.75</v>
-      </c>
-      <c r="C21">
-        <v>3.75</v>
-      </c>
-      <c r="D21">
-        <v>3.75</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="8">
-        <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
-        <v>44671.833332175927</v>
-      </c>
-      <c r="B22">
-        <v>3.75</v>
-      </c>
-      <c r="C22">
-        <v>3.75</v>
-      </c>
-      <c r="D22">
-        <v>3.75</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="8">
-        <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
-        <v>44671.874998784719</v>
-      </c>
-      <c r="B23">
-        <v>4.2857142857142856</v>
-      </c>
-      <c r="C23">
-        <v>4.2857142857142856</v>
-      </c>
-      <c r="D23">
-        <v>4.2857142857142856</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="8">
-        <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
-        <v>44671.916665393517</v>
-      </c>
-      <c r="B24">
-        <v>4.2857142857142856</v>
-      </c>
-      <c r="C24">
-        <v>4.2857142857142856</v>
-      </c>
-      <c r="D24">
-        <v>4.2857142857142856</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="8">
-        <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
-        <v>44671.958332002316</v>
-      </c>
-      <c r="B25">
-        <v>4.2857142857142856</v>
-      </c>
-      <c r="C25">
-        <v>4.2857142857142856</v>
-      </c>
-      <c r="D25">
-        <v>4.2857142857142856</v>
       </c>
     </row>
   </sheetData>
@@ -4662,6 +5053,398 @@
       </c>
       <c r="L7" s="7">
         <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7FEDBA5-B0F3-4E9D-9367-08D5F5FA8AEA}">
+  <dimension ref="A1:D25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.28515625" style="8" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="8">
+        <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
+        <v>44671</v>
+      </c>
+      <c r="B2">
+        <v>5</v>
+      </c>
+      <c r="C2">
+        <v>5</v>
+      </c>
+      <c r="D2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="8">
+        <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
+        <v>44671.041666666664</v>
+      </c>
+      <c r="B3">
+        <v>4.2857142857142856</v>
+      </c>
+      <c r="C3">
+        <v>4.2857142857142856</v>
+      </c>
+      <c r="D3">
+        <v>4.2857142857142856</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="8">
+        <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
+        <v>44671.08333321759</v>
+      </c>
+      <c r="B4">
+        <v>4.2857142857142856</v>
+      </c>
+      <c r="C4">
+        <v>4.2857142857142856</v>
+      </c>
+      <c r="D4">
+        <v>4.2857142857142856</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="8">
+        <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
+        <v>44671.124999826388</v>
+      </c>
+      <c r="B5">
+        <v>4.4117647058823533</v>
+      </c>
+      <c r="C5">
+        <v>4.4117647058823533</v>
+      </c>
+      <c r="D5">
+        <v>4.4117647058823533</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="8">
+        <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
+        <v>44671.166666435187</v>
+      </c>
+      <c r="B6">
+        <v>4.5454545454545459</v>
+      </c>
+      <c r="C6">
+        <v>4.5454545454545459</v>
+      </c>
+      <c r="D6">
+        <v>4.5454545454545459</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="8">
+        <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
+        <v>44671.208333043978</v>
+      </c>
+      <c r="B7">
+        <v>4.6875</v>
+      </c>
+      <c r="C7">
+        <v>4.6875</v>
+      </c>
+      <c r="D7">
+        <v>4.6875</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="8">
+        <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
+        <v>44671.249999652777</v>
+      </c>
+      <c r="B8">
+        <v>4.838709677419355</v>
+      </c>
+      <c r="C8">
+        <v>4.838709677419355</v>
+      </c>
+      <c r="D8">
+        <v>4.838709677419355</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="8">
+        <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
+        <v>44671.291666261575</v>
+      </c>
+      <c r="B9">
+        <v>5</v>
+      </c>
+      <c r="C9">
+        <v>5</v>
+      </c>
+      <c r="D9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="8">
+        <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
+        <v>44671.333332870374</v>
+      </c>
+      <c r="B10">
+        <v>6</v>
+      </c>
+      <c r="C10">
+        <v>6</v>
+      </c>
+      <c r="D10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="8">
+        <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
+        <v>44671.374999479165</v>
+      </c>
+      <c r="B11">
+        <v>6</v>
+      </c>
+      <c r="C11">
+        <v>6</v>
+      </c>
+      <c r="D11">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="8">
+        <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
+        <v>44671.416666087964</v>
+      </c>
+      <c r="B12">
+        <v>6</v>
+      </c>
+      <c r="C12">
+        <v>6</v>
+      </c>
+      <c r="D12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="8">
+        <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
+        <v>44671.458332696762</v>
+      </c>
+      <c r="B13">
+        <v>6</v>
+      </c>
+      <c r="C13">
+        <v>6</v>
+      </c>
+      <c r="D13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="8">
+        <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
+        <v>44671.499999305554</v>
+      </c>
+      <c r="B14">
+        <v>6</v>
+      </c>
+      <c r="C14">
+        <v>6</v>
+      </c>
+      <c r="D14">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="8">
+        <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
+        <v>44671.541665914352</v>
+      </c>
+      <c r="B15">
+        <v>6</v>
+      </c>
+      <c r="C15">
+        <v>6</v>
+      </c>
+      <c r="D15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="8">
+        <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
+        <v>44671.583332523151</v>
+      </c>
+      <c r="B16">
+        <v>6</v>
+      </c>
+      <c r="C16">
+        <v>6</v>
+      </c>
+      <c r="D16">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="8">
+        <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
+        <v>44671.624999131942</v>
+      </c>
+      <c r="B17">
+        <v>6</v>
+      </c>
+      <c r="C17">
+        <v>6</v>
+      </c>
+      <c r="D17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="8">
+        <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
+        <v>44671.66666574074</v>
+      </c>
+      <c r="B18">
+        <v>6</v>
+      </c>
+      <c r="C18">
+        <v>6</v>
+      </c>
+      <c r="D18">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="8">
+        <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
+        <v>44671.708332349539</v>
+      </c>
+      <c r="B19">
+        <v>3.75</v>
+      </c>
+      <c r="C19">
+        <v>3.75</v>
+      </c>
+      <c r="D19">
+        <v>3.75</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="8">
+        <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
+        <v>44671.74999895833</v>
+      </c>
+      <c r="B20">
+        <v>3.75</v>
+      </c>
+      <c r="C20">
+        <v>3.75</v>
+      </c>
+      <c r="D20">
+        <v>3.75</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="8">
+        <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
+        <v>44671.791665567129</v>
+      </c>
+      <c r="B21">
+        <v>3.75</v>
+      </c>
+      <c r="C21">
+        <v>3.75</v>
+      </c>
+      <c r="D21">
+        <v>3.75</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="8">
+        <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
+        <v>44671.833332175927</v>
+      </c>
+      <c r="B22">
+        <v>3.75</v>
+      </c>
+      <c r="C22">
+        <v>3.75</v>
+      </c>
+      <c r="D22">
+        <v>3.75</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="8">
+        <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
+        <v>44671.874998784719</v>
+      </c>
+      <c r="B23">
+        <v>4.2857142857142856</v>
+      </c>
+      <c r="C23">
+        <v>4.2857142857142856</v>
+      </c>
+      <c r="D23">
+        <v>4.2857142857142856</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="8">
+        <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
+        <v>44671.916665393517</v>
+      </c>
+      <c r="B24">
+        <v>4.2857142857142856</v>
+      </c>
+      <c r="C24">
+        <v>4.2857142857142856</v>
+      </c>
+      <c r="D24">
+        <v>4.2857142857142856</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="8">
+        <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
+        <v>44671.958332002316</v>
+      </c>
+      <c r="B25">
+        <v>4.2857142857142856</v>
+      </c>
+      <c r="C25">
+        <v>4.2857142857142856</v>
+      </c>
+      <c r="D25">
+        <v>4.2857142857142856</v>
       </c>
     </row>
   </sheetData>
@@ -5135,7 +5918,7 @@
   <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="N30" sqref="N30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5545,7 +6328,7 @@
         <v>0</v>
       </c>
       <c r="F14" s="5">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G14" s="5">
         <v>1</v>

--- a/input_data/input_data.xlsx
+++ b/input_data/input_data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\data\Hope\Predicer_modified\Predicer\input_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dsdennis\HOPE\Predicer\input_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C2C2BAF-61D2-41D5-B794-7A50136F7EBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{253483F0-6DED-4DE5-B58F-3DE617FDF60B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="796" firstSheet="2" activeTab="4" xr2:uid="{788BFBD1-D930-4535-8A91-D85C56924796}"/>
+    <workbookView xWindow="-28920" yWindow="-1920" windowWidth="29040" windowHeight="17640" tabRatio="796" activeTab="2" xr2:uid="{788BFBD1-D930-4535-8A91-D85C56924796}"/>
   </bookViews>
   <sheets>
     <sheet name="timeseries" sheetId="18" r:id="rId1"/>
@@ -804,206 +804,206 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="8">
         <v>44671</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="8">
         <v>44671.041666666664</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" s="8">
         <v>44671.08333321759</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" s="8">
         <v>44671.124999826388</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" s="8">
         <v>44671.166666435187</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" s="8">
         <v>44671.208333043978</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" s="8">
         <v>44671.249999652777</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" s="8">
         <v>44671.291666261575</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" s="8">
         <v>44671.333332870374</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" s="8">
         <v>44671.374999479165</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" s="8">
         <v>44671.416666087964</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" s="8">
         <v>44671.458332696762</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" s="8">
         <v>44671.499999305554</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" s="8">
         <v>44671.541665914352</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" s="8">
         <v>44671.583332523151</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="8">
         <v>44671.624999131942</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="8">
         <v>44671.66666574074</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="8">
         <v>44671.708332349539</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="8">
         <v>44671.74999895833</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="8">
         <v>44671.791665567129</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" s="8">
         <v>44671.833332175927</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" s="8">
         <v>44671.874998784719</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" s="8">
         <v>44671.916665393517</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" s="8">
         <v>44671.958332002316</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" s="8"/>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" s="8"/>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28" s="8"/>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" s="8"/>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30" s="8"/>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" s="8"/>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A32" s="8"/>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" s="8"/>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" s="8"/>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" s="8"/>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36" s="8"/>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" s="8"/>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A38" s="8"/>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A39" s="8"/>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A40" s="8"/>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A41" s="8"/>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A42" s="8"/>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A43" s="8"/>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A44" s="8"/>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A45" s="8"/>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A46" s="8"/>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A47" s="8"/>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A48" s="8"/>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" s="8"/>
     </row>
   </sheetData>
@@ -1019,12 +1019,12 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" style="8" customWidth="1"/>
+    <col min="1" max="1" width="19.33203125" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>32</v>
       </c>
@@ -1032,7 +1032,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="8">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44671</v>
@@ -1041,7 +1041,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="8">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44671.041666666664</v>
@@ -1050,7 +1050,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="8">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44671.08333321759</v>
@@ -1059,7 +1059,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="8">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v>44671.124999826388</v>
@@ -1068,7 +1068,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="8">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v>44671.166666435187</v>
@@ -1077,7 +1077,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="8">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v>44671.208333043978</v>
@@ -1086,7 +1086,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="8">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v>44671.249999652777</v>
@@ -1095,7 +1095,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="8">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v>44671.291666261575</v>
@@ -1104,7 +1104,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="8">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v>44671.333332870374</v>
@@ -1113,7 +1113,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="8">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v>44671.374999479165</v>
@@ -1122,7 +1122,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="8">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v>44671.416666087964</v>
@@ -1131,7 +1131,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="8">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v>44671.458332696762</v>
@@ -1140,7 +1140,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="8">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v>44671.499999305554</v>
@@ -1149,7 +1149,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="8">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v>44671.541665914352</v>
@@ -1158,7 +1158,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="8">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v>44671.583332523151</v>
@@ -1167,7 +1167,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="8">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v>44671.624999131942</v>
@@ -1176,7 +1176,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="8">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v>44671.66666574074</v>
@@ -1185,7 +1185,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="8">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v>44671.708332349539</v>
@@ -1194,7 +1194,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="8">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v>44671.74999895833</v>
@@ -1203,7 +1203,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="8">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v>44671.791665567129</v>
@@ -1212,7 +1212,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="8">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v>44671.833332175927</v>
@@ -1221,7 +1221,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="8">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v>44671.874998784719</v>
@@ -1230,7 +1230,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="8">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v>44671.916665393517</v>
@@ -1239,7 +1239,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="8">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v>44671.958332002316</v>
@@ -1258,20 +1258,20 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.42578125" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.44140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>33</v>
       </c>
@@ -1294,7 +1294,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>12</v>
       </c>
@@ -1317,7 +1317,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>41</v>
       </c>
@@ -1340,7 +1340,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>42</v>
       </c>
@@ -1363,7 +1363,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>43</v>
       </c>
@@ -1396,17 +1396,17 @@
   <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B25"/>
+      <selection activeCell="M2" sqref="M2:M25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" style="8" customWidth="1"/>
-    <col min="2" max="5" width="11.42578125" customWidth="1"/>
-    <col min="6" max="13" width="11.140625" customWidth="1"/>
+    <col min="1" max="1" width="19.33203125" style="8" customWidth="1"/>
+    <col min="2" max="5" width="11.44140625" customWidth="1"/>
+    <col min="6" max="13" width="11.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>32</v>
       </c>
@@ -1447,7 +1447,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="8">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44671</v>
@@ -1489,7 +1489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="8">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44671.041666666664</v>
@@ -1531,7 +1531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="8">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44671.08333321759</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="8">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v>44671.124999826388</v>
@@ -1615,7 +1615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="8">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v>44671.166666435187</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="8">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v>44671.208333043978</v>
@@ -1699,7 +1699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="8">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v>44671.249999652777</v>
@@ -1741,7 +1741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="8">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v>44671.291666261575</v>
@@ -1783,7 +1783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="8">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v>44671.333332870374</v>
@@ -1825,7 +1825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="8">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v>44671.374999479165</v>
@@ -1867,7 +1867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="8">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v>44671.416666087964</v>
@@ -1909,7 +1909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="8">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v>44671.458332696762</v>
@@ -1951,7 +1951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="8">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v>44671.499999305554</v>
@@ -1993,7 +1993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="8">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v>44671.541665914352</v>
@@ -2035,7 +2035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="8">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v>44671.583332523151</v>
@@ -2077,7 +2077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" s="8">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v>44671.624999131942</v>
@@ -2119,7 +2119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" s="8">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v>44671.66666574074</v>
@@ -2161,7 +2161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" s="8">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v>44671.708332349539</v>
@@ -2203,7 +2203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" s="8">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v>44671.74999895833</v>
@@ -2245,7 +2245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" s="8">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v>44671.791665567129</v>
@@ -2287,7 +2287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" s="8">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v>44671.833332175927</v>
@@ -2329,7 +2329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" s="8">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v>44671.874998784719</v>
@@ -2371,7 +2371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" s="8">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v>44671.916665393517</v>
@@ -2413,7 +2413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" s="8">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v>44671.958332002316</v>
@@ -2469,14 +2469,14 @@
       <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="10.28515625" customWidth="1"/>
-    <col min="5" max="7" width="11.7109375" customWidth="1"/>
+    <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="10.33203125" customWidth="1"/>
+    <col min="5" max="7" width="11.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>32</v>
       </c>
@@ -2499,7 +2499,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="8">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44671</v>
@@ -2529,7 +2529,7 @@
         <v>21.6</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="8">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44671.041666666664</v>
@@ -2559,7 +2559,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="8">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44671.08333321759</v>
@@ -2589,7 +2589,7 @@
         <v>26.1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="8">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v>44671.124999826388</v>
@@ -2619,7 +2619,7 @@
         <v>22.95</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="8">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v>44671.166666435187</v>
@@ -2649,7 +2649,7 @@
         <v>16.650000000000002</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="8">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v>44671.208333043978</v>
@@ -2679,7 +2679,7 @@
         <v>15.3</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="8">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v>44671.249999652777</v>
@@ -2709,7 +2709,7 @@
         <v>20.25</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="8">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v>44671.291666261575</v>
@@ -2739,7 +2739,7 @@
         <v>18.45</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="8">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v>44671.333332870374</v>
@@ -2769,7 +2769,7 @@
         <v>24.75</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="8">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v>44671.374999479165</v>
@@ -2799,7 +2799,7 @@
         <v>26.55</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="8">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v>44671.416666087964</v>
@@ -2829,7 +2829,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="8">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v>44671.458332696762</v>
@@ -2859,7 +2859,7 @@
         <v>18.45</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="8">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v>44671.499999305554</v>
@@ -2889,7 +2889,7 @@
         <v>20.7</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="8">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v>44671.541665914352</v>
@@ -2919,7 +2919,7 @@
         <v>17.100000000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="8">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v>44671.583332523151</v>
@@ -2949,7 +2949,7 @@
         <v>20.7</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="8">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v>44671.624999131942</v>
@@ -2979,7 +2979,7 @@
         <v>20.25</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="8">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v>44671.66666574074</v>
@@ -3009,7 +3009,7 @@
         <v>18.45</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="8">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v>44671.708332349539</v>
@@ -3039,7 +3039,7 @@
         <v>20.7</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="8">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v>44671.74999895833</v>
@@ -3069,7 +3069,7 @@
         <v>23.400000000000002</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="8">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v>44671.791665567129</v>
@@ -3099,7 +3099,7 @@
         <v>25.2</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="8">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v>44671.833332175927</v>
@@ -3129,7 +3129,7 @@
         <v>14.85</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="8">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v>44671.874998784719</v>
@@ -3159,7 +3159,7 @@
         <v>19.350000000000001</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="8">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v>44671.916665393517</v>
@@ -3189,7 +3189,7 @@
         <v>25.650000000000002</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="8">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v>44671.958332002316</v>
@@ -3233,12 +3233,12 @@
       <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>106</v>
       </c>
@@ -3246,7 +3246,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>108</v>
       </c>
@@ -3254,7 +3254,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>109</v>
       </c>
@@ -3275,9 +3275,9 @@
       <selection activeCell="B2" sqref="B2:B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>47</v>
       </c>
@@ -3285,7 +3285,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>49</v>
       </c>
@@ -3293,7 +3293,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>50</v>
       </c>
@@ -3301,7 +3301,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>51</v>
       </c>
@@ -3322,162 +3322,162 @@
       <selection activeCell="L31" sqref="L31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" style="8" customWidth="1"/>
+    <col min="1" max="1" width="19.33203125" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="8">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44671</v>
       </c>
       <c r="B2" s="2"/>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="8">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44671.041666666664</v>
       </c>
       <c r="B3" s="2"/>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="8">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44671.08333321759</v>
       </c>
       <c r="B4" s="2"/>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="8">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v>44671.124999826388</v>
       </c>
       <c r="B5" s="2"/>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="8">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v>44671.166666435187</v>
       </c>
       <c r="B6" s="2"/>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="8">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v>44671.208333043978</v>
       </c>
       <c r="B7" s="2"/>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="8">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v>44671.249999652777</v>
       </c>
       <c r="B8" s="2"/>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="8">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v>44671.291666261575</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="8">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v>44671.333332870374</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="8">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v>44671.374999479165</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="8">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v>44671.416666087964</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="8">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v>44671.458332696762</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="8">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v>44671.499999305554</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="8">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v>44671.541665914352</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="8">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v>44671.583332523151</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="8">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v>44671.624999131942</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="8">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v>44671.66666574074</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="8">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v>44671.708332349539</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="8">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v>44671.74999895833</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="8">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v>44671.791665567129</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" s="8">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v>44671.833332175927</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" s="8">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v>44671.874998784719</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" s="8">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v>44671.916665393517</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" s="8">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v>44671.958332002316</v>
@@ -3496,12 +3496,12 @@
       <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" style="8" customWidth="1"/>
+    <col min="1" max="1" width="19.33203125" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>32</v>
       </c>
@@ -3515,7 +3515,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="8">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44671</v>
@@ -3530,7 +3530,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="8">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44671.041666666664</v>
@@ -3545,7 +3545,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="8">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44671.08333321759</v>
@@ -3560,7 +3560,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="8">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v>44671.124999826388</v>
@@ -3575,7 +3575,7 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="8">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v>44671.166666435187</v>
@@ -3590,7 +3590,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="8">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v>44671.208333043978</v>
@@ -3605,7 +3605,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="8">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v>44671.249999652777</v>
@@ -3620,7 +3620,7 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="8">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v>44671.291666261575</v>
@@ -3635,7 +3635,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="8">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v>44671.333332870374</v>
@@ -3650,7 +3650,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="8">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v>44671.374999479165</v>
@@ -3665,7 +3665,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="8">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v>44671.416666087964</v>
@@ -3680,7 +3680,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="8">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v>44671.458332696762</v>
@@ -3695,7 +3695,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="8">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v>44671.499999305554</v>
@@ -3710,7 +3710,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="8">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v>44671.541665914352</v>
@@ -3725,7 +3725,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="8">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v>44671.583332523151</v>
@@ -3740,7 +3740,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="8">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v>44671.624999131942</v>
@@ -3755,7 +3755,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="8">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v>44671.66666574074</v>
@@ -3770,7 +3770,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="8">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v>44671.708332349539</v>
@@ -3785,7 +3785,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="8">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v>44671.74999895833</v>
@@ -3800,7 +3800,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="8">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v>44671.791665567129</v>
@@ -3815,7 +3815,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="8">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v>44671.833332175927</v>
@@ -3830,7 +3830,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="8">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v>44671.874998784719</v>
@@ -3845,7 +3845,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="8">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v>44671.916665393517</v>
@@ -3860,7 +3860,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="8">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v>44671.958332002316</v>
@@ -3889,14 +3889,14 @@
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>47</v>
       </c>
@@ -3904,7 +3904,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>90</v>
       </c>
@@ -3912,7 +3912,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
@@ -3931,15 +3931,15 @@
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" style="8" customWidth="1"/>
-    <col min="2" max="4" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.33203125" style="8" customWidth="1"/>
+    <col min="2" max="4" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="5.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>32</v>
       </c>
@@ -3971,7 +3971,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="8">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44671</v>
@@ -4004,7 +4004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="8">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44671.041666666664</v>
@@ -4037,7 +4037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="8">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44671.08333321759</v>
@@ -4070,7 +4070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="8">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v>44671.124999826388</v>
@@ -4103,7 +4103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="8">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v>44671.166666435187</v>
@@ -4136,7 +4136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="8">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v>44671.208333043978</v>
@@ -4169,7 +4169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="8">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v>44671.249999652777</v>
@@ -4202,7 +4202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="8">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v>44671.291666261575</v>
@@ -4235,7 +4235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="8">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v>44671.333332870374</v>
@@ -4268,7 +4268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="8">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v>44671.374999479165</v>
@@ -4301,7 +4301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="8">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v>44671.416666087964</v>
@@ -4334,7 +4334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="8">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v>44671.458332696762</v>
@@ -4367,7 +4367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="8">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v>44671.499999305554</v>
@@ -4400,7 +4400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="8">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v>44671.541665914352</v>
@@ -4433,7 +4433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="8">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v>44671.583332523151</v>
@@ -4466,7 +4466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="8">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v>44671.624999131942</v>
@@ -4499,7 +4499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="8">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v>44671.66666574074</v>
@@ -4532,7 +4532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="8">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v>44671.708332349539</v>
@@ -4565,7 +4565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="8">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v>44671.74999895833</v>
@@ -4598,7 +4598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="8">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v>44671.791665567129</v>
@@ -4631,7 +4631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="8">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v>44671.833332175927</v>
@@ -4664,7 +4664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="8">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v>44671.874998784719</v>
@@ -4697,7 +4697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="8">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v>44671.916665393517</v>
@@ -4730,7 +4730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="8">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v>44671.958332002316</v>
@@ -4776,20 +4776,20 @@
       <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -4827,7 +4827,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -4865,7 +4865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -4903,7 +4903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -4941,7 +4941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -4979,7 +4979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>36</v>
       </c>
@@ -5017,7 +5017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -5068,12 +5068,12 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" style="8" customWidth="1"/>
+    <col min="1" max="1" width="19.33203125" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>32</v>
       </c>
@@ -5087,7 +5087,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="8">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44671</v>
@@ -5102,7 +5102,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="8">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44671.041666666664</v>
@@ -5117,7 +5117,7 @@
         <v>4.2857142857142856</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="8">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44671.08333321759</v>
@@ -5132,7 +5132,7 @@
         <v>4.2857142857142856</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="8">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v>44671.124999826388</v>
@@ -5147,7 +5147,7 @@
         <v>4.4117647058823533</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="8">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v>44671.166666435187</v>
@@ -5162,7 +5162,7 @@
         <v>4.5454545454545459</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="8">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v>44671.208333043978</v>
@@ -5177,7 +5177,7 @@
         <v>4.6875</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="8">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v>44671.249999652777</v>
@@ -5192,7 +5192,7 @@
         <v>4.838709677419355</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="8">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v>44671.291666261575</v>
@@ -5207,7 +5207,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="8">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v>44671.333332870374</v>
@@ -5222,7 +5222,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="8">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v>44671.374999479165</v>
@@ -5237,7 +5237,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="8">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v>44671.416666087964</v>
@@ -5252,7 +5252,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="8">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v>44671.458332696762</v>
@@ -5267,7 +5267,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="8">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v>44671.499999305554</v>
@@ -5282,7 +5282,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="8">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v>44671.541665914352</v>
@@ -5297,7 +5297,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="8">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v>44671.583332523151</v>
@@ -5312,7 +5312,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="8">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v>44671.624999131942</v>
@@ -5327,7 +5327,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="8">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v>44671.66666574074</v>
@@ -5342,7 +5342,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="8">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v>44671.708332349539</v>
@@ -5357,7 +5357,7 @@
         <v>3.75</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="8">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v>44671.74999895833</v>
@@ -5372,7 +5372,7 @@
         <v>3.75</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="8">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v>44671.791665567129</v>
@@ -5387,7 +5387,7 @@
         <v>3.75</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="8">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v>44671.833332175927</v>
@@ -5402,7 +5402,7 @@
         <v>3.75</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="8">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v>44671.874998784719</v>
@@ -5417,7 +5417,7 @@
         <v>4.2857142857142856</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="8">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v>44671.916665393517</v>
@@ -5432,7 +5432,7 @@
         <v>4.2857142857142856</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="8">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v>44671.958332002316</v>
@@ -5456,25 +5456,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB20090B-02A9-43B7-8D03-9C18D42920EB}">
   <dimension ref="A1:N8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" customWidth="1"/>
     <col min="2" max="2" width="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.7109375" customWidth="1"/>
+    <col min="3" max="3" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.6640625" customWidth="1"/>
     <col min="7" max="7" width="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>13</v>
       </c>
@@ -5514,8 +5514,11 @@
       <c r="M1" s="3" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N1" s="3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>23</v>
       </c>
@@ -5555,9 +5558,11 @@
       <c r="M2" s="7">
         <v>1</v>
       </c>
-      <c r="N2" s="7"/>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N2" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>24</v>
       </c>
@@ -5597,9 +5602,11 @@
       <c r="M3" s="7">
         <v>0</v>
       </c>
-      <c r="N3" s="7"/>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N3" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>25</v>
       </c>
@@ -5639,9 +5646,11 @@
       <c r="M4" s="7">
         <v>0</v>
       </c>
-      <c r="N4" s="7"/>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N4" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -5681,9 +5690,11 @@
       <c r="M5" s="7">
         <v>0</v>
       </c>
-      <c r="N5" s="7"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N5" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>85</v>
       </c>
@@ -5723,9 +5734,11 @@
       <c r="M6" s="7">
         <v>0</v>
       </c>
-      <c r="N6" s="7"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N6" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>37</v>
       </c>
@@ -5765,9 +5778,11 @@
       <c r="M7" s="7">
         <v>0</v>
       </c>
-      <c r="N7" s="7"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N7" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>27</v>
       </c>
@@ -5807,7 +5822,9 @@
       <c r="M8" s="7">
         <v>0</v>
       </c>
-      <c r="N8" s="7"/>
+      <c r="N8" s="7">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5822,9 +5839,9 @@
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>13</v>
       </c>
@@ -5868,7 +5885,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>77</v>
       </c>
@@ -5888,7 +5905,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>78</v>
       </c>
@@ -5915,26 +5932,26 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A86A8A7-FD76-4891-A53C-CBB095359118}">
-  <dimension ref="A1:I14"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N30" sqref="N30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I1" sqref="I1:I1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="5"/>
+    <col min="1" max="1" width="7.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.44140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.5546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.44140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.88671875" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.5546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.109375" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>13</v>
       </c>
@@ -5959,11 +5976,8 @@
       <c r="H1" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="4" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>23</v>
       </c>
@@ -5988,11 +6002,8 @@
       <c r="H2" s="5">
         <v>0.5</v>
       </c>
-      <c r="I2" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>23</v>
       </c>
@@ -6017,11 +6028,8 @@
       <c r="H3" s="5">
         <v>0.5</v>
       </c>
-      <c r="I3" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>23</v>
       </c>
@@ -6046,11 +6054,8 @@
       <c r="H4" s="5">
         <v>0.5</v>
       </c>
-      <c r="I4" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>24</v>
       </c>
@@ -6075,11 +6080,8 @@
       <c r="H5" s="5">
         <v>0.5</v>
       </c>
-      <c r="I5" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>24</v>
       </c>
@@ -6104,11 +6106,8 @@
       <c r="H6" s="5">
         <v>0.5</v>
       </c>
-      <c r="I6" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>25</v>
       </c>
@@ -6133,11 +6132,8 @@
       <c r="H7" s="5">
         <v>1</v>
       </c>
-      <c r="I7" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>25</v>
       </c>
@@ -6162,11 +6158,8 @@
       <c r="H8" s="5">
         <v>1</v>
       </c>
-      <c r="I8" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>26</v>
       </c>
@@ -6191,11 +6184,8 @@
       <c r="H9" s="5">
         <v>1</v>
       </c>
-      <c r="I9" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>85</v>
       </c>
@@ -6220,11 +6210,8 @@
       <c r="H10" s="5">
         <v>1</v>
       </c>
-      <c r="I10" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>37</v>
       </c>
@@ -6249,11 +6236,8 @@
       <c r="H11" s="5">
         <v>1</v>
       </c>
-      <c r="I11" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>37</v>
       </c>
@@ -6278,11 +6262,8 @@
       <c r="H12" s="5">
         <v>1</v>
       </c>
-      <c r="I12" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>27</v>
       </c>
@@ -6307,11 +6288,8 @@
       <c r="H13" s="5">
         <v>1</v>
       </c>
-      <c r="I13" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>27</v>
       </c>
@@ -6335,9 +6313,6 @@
       </c>
       <c r="H14" s="5">
         <v>1</v>
-      </c>
-      <c r="I14" s="5">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -6354,12 +6329,12 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" style="8" customWidth="1"/>
+    <col min="1" max="1" width="19.33203125" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>32</v>
       </c>
@@ -6370,145 +6345,145 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="8">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44671</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="8">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44671.041666666664</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="8">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44671.08333321759</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="8">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v>44671.124999826388</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="8">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v>44671.166666435187</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="8">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v>44671.208333043978</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="8">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v>44671.249999652777</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="8">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v>44671.291666261575</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="8">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v>44671.333332870374</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="8">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v>44671.374999479165</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="8">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v>44671.416666087964</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="8">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v>44671.458332696762</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="8">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v>44671.499999305554</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="8">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v>44671.541665914352</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="8">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v>44671.583332523151</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="8">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v>44671.624999131942</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="8">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v>44671.66666574074</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="8">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v>44671.708332349539</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="8">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v>44671.74999895833</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="8">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v>44671.791665567129</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" s="8">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v>44671.833332175927</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" s="8">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v>44671.874998784719</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" s="8">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v>44671.916665393517</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" s="8">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v>44671.958332002316</v>
@@ -6527,9 +6502,9 @@
       <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>39</v>
       </c>
@@ -6537,7 +6512,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>80</v>
       </c>
@@ -6545,7 +6520,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>81</v>
       </c>
@@ -6566,14 +6541,14 @@
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" style="8" customWidth="1"/>
-    <col min="6" max="6" width="23.140625" customWidth="1"/>
-    <col min="12" max="12" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.33203125" style="8" customWidth="1"/>
+    <col min="6" max="6" width="23.109375" customWidth="1"/>
+    <col min="12" max="12" width="12.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>32</v>
       </c>
@@ -6591,7 +6566,7 @@
       </c>
       <c r="F1"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="8">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44671</v>
@@ -6613,7 +6588,7 @@
       <c r="F2" s="8"/>
       <c r="L2" s="8"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="8">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44671.041666666664</v>
@@ -6633,7 +6608,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="8">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44671.08333321759</v>
@@ -6653,7 +6628,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="8">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v>44671.124999826388</v>
@@ -6673,7 +6648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="8">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v>44671.166666435187</v>
@@ -6693,7 +6668,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="8">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v>44671.208333043978</v>
@@ -6713,7 +6688,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="8">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v>44671.249999652777</v>
@@ -6733,7 +6708,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="8">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v>44671.291666261575</v>
@@ -6753,7 +6728,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="8">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v>44671.333332870374</v>
@@ -6773,7 +6748,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="8">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v>44671.374999479165</v>
@@ -6793,7 +6768,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="8">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v>44671.416666087964</v>
@@ -6813,7 +6788,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="8">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v>44671.458332696762</v>
@@ -6833,7 +6808,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="8">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v>44671.499999305554</v>
@@ -6853,7 +6828,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="8">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v>44671.541665914352</v>
@@ -6873,7 +6848,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="8">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v>44671.583332523151</v>
@@ -6893,7 +6868,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="8">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v>44671.624999131942</v>
@@ -6913,7 +6888,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="8">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v>44671.66666574074</v>
@@ -6933,7 +6908,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="8">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v>44671.708332349539</v>
@@ -6953,7 +6928,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="8">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v>44671.74999895833</v>
@@ -6973,7 +6948,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="8">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v>44671.791665567129</v>
@@ -6993,7 +6968,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="8">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v>44671.833332175927</v>
@@ -7013,7 +6988,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="8">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v>44671.874998784719</v>
@@ -7033,7 +7008,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="8">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v>44671.916665393517</v>
@@ -7053,7 +7028,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="8">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v>44671.958332002316</v>
@@ -7088,14 +7063,14 @@
       <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" style="8" customWidth="1"/>
-    <col min="4" max="6" width="10.42578125" customWidth="1"/>
-    <col min="7" max="7" width="10.42578125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="19.33203125" style="8" customWidth="1"/>
+    <col min="4" max="6" width="10.44140625" customWidth="1"/>
+    <col min="7" max="7" width="10.44140625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>32</v>
       </c>
@@ -7118,7 +7093,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="8">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44671</v>
@@ -7145,7 +7120,7 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="8">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44671.041666666664</v>
@@ -7173,7 +7148,7 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="8">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44671.08333321759</v>
@@ -7201,7 +7176,7 @@
         <v>-6</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="8">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v>44671.124999826388</v>
@@ -7229,7 +7204,7 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="8">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v>44671.166666435187</v>
@@ -7257,7 +7232,7 @@
         <v>-4</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="8">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v>44671.208333043978</v>
@@ -7285,7 +7260,7 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="8">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v>44671.249999652777</v>
@@ -7313,7 +7288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="8">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v>44671.291666261575</v>
@@ -7341,7 +7316,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="8">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v>44671.333332870374</v>
@@ -7369,7 +7344,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="8">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v>44671.374999479165</v>
@@ -7397,7 +7372,7 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="8">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v>44671.416666087964</v>
@@ -7425,7 +7400,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="8">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v>44671.458332696762</v>
@@ -7453,7 +7428,7 @@
         <v>-6</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="8">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v>44671.499999305554</v>
@@ -7481,7 +7456,7 @@
         <v>-4</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="8">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v>44671.541665914352</v>
@@ -7509,7 +7484,7 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="8">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v>44671.583332523151</v>
@@ -7537,7 +7512,7 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="8">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v>44671.624999131942</v>
@@ -7565,7 +7540,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="8">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v>44671.66666574074</v>
@@ -7593,7 +7568,7 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="8">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v>44671.708332349539</v>
@@ -7621,7 +7596,7 @@
         <v>-4</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="8">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v>44671.74999895833</v>
@@ -7649,7 +7624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="8">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v>44671.791665567129</v>
@@ -7677,7 +7652,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="8">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v>44671.833332175927</v>
@@ -7705,7 +7680,7 @@
         <v>-4</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="8">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v>44671.874998784719</v>
@@ -7733,7 +7708,7 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="8">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v>44671.916665393517</v>
@@ -7761,7 +7736,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="8">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v>44671.958332002316</v>

--- a/input_data/input_data.xlsx
+++ b/input_data/input_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dsdennis\HOPE\Predicer\input_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{253483F0-6DED-4DE5-B58F-3DE617FDF60B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A4CC0F0-015F-4206-A7B8-98400E5BF38F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-1920" windowWidth="29040" windowHeight="17640" tabRatio="796" activeTab="2" xr2:uid="{788BFBD1-D930-4535-8A91-D85C56924796}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="18240" windowHeight="28440" tabRatio="796" activeTab="2" xr2:uid="{788BFBD1-D930-4535-8A91-D85C56924796}"/>
   </bookViews>
   <sheets>
     <sheet name="timeseries" sheetId="18" r:id="rId1"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="124">
   <si>
     <t>node</t>
   </si>
@@ -418,6 +418,12 @@
   </si>
   <si>
     <t>npe,dw,s3</t>
+  </si>
+  <si>
+    <t>max_online</t>
+  </si>
+  <si>
+    <t>max_offline</t>
   </si>
 </sst>
 </file>
@@ -804,206 +810,206 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="8">
         <v>44671</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <v>44671.041666666664</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <v>44671.08333321759</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <v>44671.124999826388</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <v>44671.166666435187</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <v>44671.208333043978</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <v>44671.249999652777</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <v>44671.291666261575</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <v>44671.333332870374</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <v>44671.374999479165</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
         <v>44671.416666087964</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="8">
         <v>44671.458332696762</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
         <v>44671.499999305554</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="8">
         <v>44671.541665914352</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="8">
         <v>44671.583332523151</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="8">
         <v>44671.624999131942</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="8">
         <v>44671.66666574074</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="8">
         <v>44671.708332349539</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="8">
         <v>44671.74999895833</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="8">
         <v>44671.791665567129</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="8">
         <v>44671.833332175927</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="8">
         <v>44671.874998784719</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="8">
         <v>44671.916665393517</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="8">
         <v>44671.958332002316</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="8"/>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="8"/>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="8"/>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" s="8"/>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" s="8"/>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" s="8"/>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" s="8"/>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="8"/>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="8"/>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" s="8"/>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" s="8"/>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" s="8"/>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" s="8"/>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" s="8"/>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" s="8"/>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" s="8"/>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" s="8"/>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" s="8"/>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" s="8"/>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" s="8"/>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" s="8"/>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" s="8"/>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" s="8"/>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" s="8"/>
     </row>
   </sheetData>
@@ -1019,12 +1025,12 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" style="8" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>32</v>
       </c>
@@ -1032,7 +1038,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="8">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44671</v>
@@ -1041,7 +1047,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44671.041666666664</v>
@@ -1050,7 +1056,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44671.08333321759</v>
@@ -1059,7 +1065,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v>44671.124999826388</v>
@@ -1068,7 +1074,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v>44671.166666435187</v>
@@ -1077,7 +1083,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v>44671.208333043978</v>
@@ -1086,7 +1092,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v>44671.249999652777</v>
@@ -1095,7 +1101,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v>44671.291666261575</v>
@@ -1104,7 +1110,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v>44671.333332870374</v>
@@ -1113,7 +1119,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v>44671.374999479165</v>
@@ -1122,7 +1128,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v>44671.416666087964</v>
@@ -1131,7 +1137,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="8">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v>44671.458332696762</v>
@@ -1140,7 +1146,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v>44671.499999305554</v>
@@ -1149,7 +1155,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="8">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v>44671.541665914352</v>
@@ -1158,7 +1164,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="8">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v>44671.583332523151</v>
@@ -1167,7 +1173,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="8">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v>44671.624999131942</v>
@@ -1176,7 +1182,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="8">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v>44671.66666574074</v>
@@ -1185,7 +1191,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="8">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v>44671.708332349539</v>
@@ -1194,7 +1200,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="8">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v>44671.74999895833</v>
@@ -1203,7 +1209,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="8">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v>44671.791665567129</v>
@@ -1212,7 +1218,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="8">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v>44671.833332175927</v>
@@ -1221,7 +1227,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="8">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v>44671.874998784719</v>
@@ -1230,7 +1236,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="8">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v>44671.916665393517</v>
@@ -1239,7 +1245,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="8">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v>44671.958332002316</v>
@@ -1261,17 +1267,17 @@
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.44140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>33</v>
       </c>
@@ -1294,7 +1300,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>12</v>
       </c>
@@ -1317,7 +1323,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>41</v>
       </c>
@@ -1340,7 +1346,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>42</v>
       </c>
@@ -1363,7 +1369,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>43</v>
       </c>
@@ -1399,14 +1405,14 @@
       <selection activeCell="M2" sqref="M2:M25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" style="8" customWidth="1"/>
-    <col min="2" max="5" width="11.44140625" customWidth="1"/>
-    <col min="6" max="13" width="11.109375" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" style="8" customWidth="1"/>
+    <col min="2" max="5" width="11.42578125" customWidth="1"/>
+    <col min="6" max="13" width="11.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>32</v>
       </c>
@@ -1447,7 +1453,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="8">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44671</v>
@@ -1489,7 +1495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44671.041666666664</v>
@@ -1531,7 +1537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44671.08333321759</v>
@@ -1573,7 +1579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v>44671.124999826388</v>
@@ -1615,7 +1621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v>44671.166666435187</v>
@@ -1657,7 +1663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v>44671.208333043978</v>
@@ -1699,7 +1705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v>44671.249999652777</v>
@@ -1741,7 +1747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v>44671.291666261575</v>
@@ -1783,7 +1789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v>44671.333332870374</v>
@@ -1825,7 +1831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v>44671.374999479165</v>
@@ -1867,7 +1873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v>44671.416666087964</v>
@@ -1909,7 +1915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="8">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v>44671.458332696762</v>
@@ -1951,7 +1957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v>44671.499999305554</v>
@@ -1993,7 +1999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="8">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v>44671.541665914352</v>
@@ -2035,7 +2041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="8">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v>44671.583332523151</v>
@@ -2077,7 +2083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="8">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v>44671.624999131942</v>
@@ -2119,7 +2125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="8">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v>44671.66666574074</v>
@@ -2161,7 +2167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="8">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v>44671.708332349539</v>
@@ -2203,7 +2209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="8">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v>44671.74999895833</v>
@@ -2245,7 +2251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="8">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v>44671.791665567129</v>
@@ -2287,7 +2293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="8">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v>44671.833332175927</v>
@@ -2329,7 +2335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="8">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v>44671.874998784719</v>
@@ -2371,7 +2377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="8">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v>44671.916665393517</v>
@@ -2413,7 +2419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="8">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v>44671.958332002316</v>
@@ -2469,14 +2475,14 @@
       <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="10.33203125" customWidth="1"/>
-    <col min="5" max="7" width="11.6640625" customWidth="1"/>
+    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="10.28515625" customWidth="1"/>
+    <col min="5" max="7" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>32</v>
       </c>
@@ -2499,7 +2505,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="8">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44671</v>
@@ -2529,7 +2535,7 @@
         <v>21.6</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44671.041666666664</v>
@@ -2559,7 +2565,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44671.08333321759</v>
@@ -2589,7 +2595,7 @@
         <v>26.1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v>44671.124999826388</v>
@@ -2619,7 +2625,7 @@
         <v>22.95</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v>44671.166666435187</v>
@@ -2649,7 +2655,7 @@
         <v>16.650000000000002</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v>44671.208333043978</v>
@@ -2679,7 +2685,7 @@
         <v>15.3</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v>44671.249999652777</v>
@@ -2709,7 +2715,7 @@
         <v>20.25</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v>44671.291666261575</v>
@@ -2739,7 +2745,7 @@
         <v>18.45</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v>44671.333332870374</v>
@@ -2769,7 +2775,7 @@
         <v>24.75</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v>44671.374999479165</v>
@@ -2799,7 +2805,7 @@
         <v>26.55</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v>44671.416666087964</v>
@@ -2829,7 +2835,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="8">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v>44671.458332696762</v>
@@ -2859,7 +2865,7 @@
         <v>18.45</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v>44671.499999305554</v>
@@ -2889,7 +2895,7 @@
         <v>20.7</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="8">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v>44671.541665914352</v>
@@ -2919,7 +2925,7 @@
         <v>17.100000000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="8">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v>44671.583332523151</v>
@@ -2949,7 +2955,7 @@
         <v>20.7</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="8">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v>44671.624999131942</v>
@@ -2979,7 +2985,7 @@
         <v>20.25</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="8">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v>44671.66666574074</v>
@@ -3009,7 +3015,7 @@
         <v>18.45</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="8">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v>44671.708332349539</v>
@@ -3039,7 +3045,7 @@
         <v>20.7</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="8">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v>44671.74999895833</v>
@@ -3069,7 +3075,7 @@
         <v>23.400000000000002</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="8">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v>44671.791665567129</v>
@@ -3099,7 +3105,7 @@
         <v>25.2</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="8">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v>44671.833332175927</v>
@@ -3129,7 +3135,7 @@
         <v>14.85</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="8">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v>44671.874998784719</v>
@@ -3159,7 +3165,7 @@
         <v>19.350000000000001</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="8">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v>44671.916665393517</v>
@@ -3189,7 +3195,7 @@
         <v>25.650000000000002</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="8">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v>44671.958332002316</v>
@@ -3233,12 +3239,12 @@
       <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>106</v>
       </c>
@@ -3246,7 +3252,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>108</v>
       </c>
@@ -3254,7 +3260,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>109</v>
       </c>
@@ -3275,9 +3281,9 @@
       <selection activeCell="B2" sqref="B2:B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>47</v>
       </c>
@@ -3285,7 +3291,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>49</v>
       </c>
@@ -3293,7 +3299,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>50</v>
       </c>
@@ -3301,7 +3307,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>51</v>
       </c>
@@ -3322,162 +3328,162 @@
       <selection activeCell="L31" sqref="L31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" style="8" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="8">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44671</v>
       </c>
       <c r="B2" s="2"/>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44671.041666666664</v>
       </c>
       <c r="B3" s="2"/>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44671.08333321759</v>
       </c>
       <c r="B4" s="2"/>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v>44671.124999826388</v>
       </c>
       <c r="B5" s="2"/>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v>44671.166666435187</v>
       </c>
       <c r="B6" s="2"/>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v>44671.208333043978</v>
       </c>
       <c r="B7" s="2"/>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v>44671.249999652777</v>
       </c>
       <c r="B8" s="2"/>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v>44671.291666261575</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v>44671.333332870374</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v>44671.374999479165</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v>44671.416666087964</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="8">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v>44671.458332696762</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v>44671.499999305554</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="8">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v>44671.541665914352</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="8">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v>44671.583332523151</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="8">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v>44671.624999131942</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="8">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v>44671.66666574074</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="8">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v>44671.708332349539</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="8">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v>44671.74999895833</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="8">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v>44671.791665567129</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="8">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v>44671.833332175927</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="8">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v>44671.874998784719</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="8">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v>44671.916665393517</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="8">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v>44671.958332002316</v>
@@ -3496,12 +3502,12 @@
       <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" style="8" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>32</v>
       </c>
@@ -3515,7 +3521,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="8">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44671</v>
@@ -3530,7 +3536,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44671.041666666664</v>
@@ -3545,7 +3551,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44671.08333321759</v>
@@ -3560,7 +3566,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v>44671.124999826388</v>
@@ -3575,7 +3581,7 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v>44671.166666435187</v>
@@ -3590,7 +3596,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v>44671.208333043978</v>
@@ -3605,7 +3611,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v>44671.249999652777</v>
@@ -3620,7 +3626,7 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v>44671.291666261575</v>
@@ -3635,7 +3641,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v>44671.333332870374</v>
@@ -3650,7 +3656,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v>44671.374999479165</v>
@@ -3665,7 +3671,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v>44671.416666087964</v>
@@ -3680,7 +3686,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="8">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v>44671.458332696762</v>
@@ -3695,7 +3701,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v>44671.499999305554</v>
@@ -3710,7 +3716,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="8">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v>44671.541665914352</v>
@@ -3725,7 +3731,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="8">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v>44671.583332523151</v>
@@ -3740,7 +3746,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="8">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v>44671.624999131942</v>
@@ -3755,7 +3761,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="8">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v>44671.66666574074</v>
@@ -3770,7 +3776,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="8">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v>44671.708332349539</v>
@@ -3785,7 +3791,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="8">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v>44671.74999895833</v>
@@ -3800,7 +3806,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="8">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v>44671.791665567129</v>
@@ -3815,7 +3821,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="8">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v>44671.833332175927</v>
@@ -3830,7 +3836,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="8">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v>44671.874998784719</v>
@@ -3845,7 +3851,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="8">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v>44671.916665393517</v>
@@ -3860,7 +3866,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="8">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v>44671.958332002316</v>
@@ -3889,14 +3895,14 @@
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>47</v>
       </c>
@@ -3904,7 +3910,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>90</v>
       </c>
@@ -3912,7 +3918,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
@@ -3931,15 +3937,15 @@
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" style="8" customWidth="1"/>
-    <col min="2" max="4" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" style="8" customWidth="1"/>
+    <col min="2" max="4" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="5.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>32</v>
       </c>
@@ -3971,7 +3977,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="8">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44671</v>
@@ -4004,7 +4010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44671.041666666664</v>
@@ -4037,7 +4043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44671.08333321759</v>
@@ -4070,7 +4076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v>44671.124999826388</v>
@@ -4103,7 +4109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v>44671.166666435187</v>
@@ -4136,7 +4142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v>44671.208333043978</v>
@@ -4169,7 +4175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v>44671.249999652777</v>
@@ -4202,7 +4208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v>44671.291666261575</v>
@@ -4235,7 +4241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v>44671.333332870374</v>
@@ -4268,7 +4274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v>44671.374999479165</v>
@@ -4301,7 +4307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v>44671.416666087964</v>
@@ -4334,7 +4340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="8">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v>44671.458332696762</v>
@@ -4367,7 +4373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v>44671.499999305554</v>
@@ -4400,7 +4406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="8">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v>44671.541665914352</v>
@@ -4433,7 +4439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="8">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v>44671.583332523151</v>
@@ -4466,7 +4472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="8">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v>44671.624999131942</v>
@@ -4499,7 +4505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="8">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v>44671.66666574074</v>
@@ -4532,7 +4538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="8">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v>44671.708332349539</v>
@@ -4565,7 +4571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="8">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v>44671.74999895833</v>
@@ -4598,7 +4604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="8">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v>44671.791665567129</v>
@@ -4631,7 +4637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="8">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v>44671.833332175927</v>
@@ -4664,7 +4670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="8">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v>44671.874998784719</v>
@@ -4697,7 +4703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="8">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v>44671.916665393517</v>
@@ -4730,7 +4736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="8">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v>44671.958332002316</v>
@@ -4776,20 +4782,20 @@
       <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -4827,7 +4833,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -4865,7 +4871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -4903,7 +4909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -4941,7 +4947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -4979,7 +4985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>36</v>
       </c>
@@ -5017,7 +5023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -5068,12 +5074,12 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" style="8" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>32</v>
       </c>
@@ -5087,7 +5093,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="8">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44671</v>
@@ -5102,7 +5108,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44671.041666666664</v>
@@ -5117,7 +5123,7 @@
         <v>4.2857142857142856</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44671.08333321759</v>
@@ -5132,7 +5138,7 @@
         <v>4.2857142857142856</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v>44671.124999826388</v>
@@ -5147,7 +5153,7 @@
         <v>4.4117647058823533</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v>44671.166666435187</v>
@@ -5162,7 +5168,7 @@
         <v>4.5454545454545459</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v>44671.208333043978</v>
@@ -5177,7 +5183,7 @@
         <v>4.6875</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v>44671.249999652777</v>
@@ -5192,7 +5198,7 @@
         <v>4.838709677419355</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v>44671.291666261575</v>
@@ -5207,7 +5213,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v>44671.333332870374</v>
@@ -5222,7 +5228,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v>44671.374999479165</v>
@@ -5237,7 +5243,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v>44671.416666087964</v>
@@ -5252,7 +5258,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="8">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v>44671.458332696762</v>
@@ -5267,7 +5273,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v>44671.499999305554</v>
@@ -5282,7 +5288,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="8">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v>44671.541665914352</v>
@@ -5297,7 +5303,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="8">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v>44671.583332523151</v>
@@ -5312,7 +5318,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="8">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v>44671.624999131942</v>
@@ -5327,7 +5333,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="8">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v>44671.66666574074</v>
@@ -5342,7 +5348,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="8">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v>44671.708332349539</v>
@@ -5357,7 +5363,7 @@
         <v>3.75</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="8">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v>44671.74999895833</v>
@@ -5372,7 +5378,7 @@
         <v>3.75</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="8">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v>44671.791665567129</v>
@@ -5387,7 +5393,7 @@
         <v>3.75</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="8">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v>44671.833332175927</v>
@@ -5402,7 +5408,7 @@
         <v>3.75</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="8">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v>44671.874998784719</v>
@@ -5417,7 +5423,7 @@
         <v>4.2857142857142856</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="8">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v>44671.916665393517</v>
@@ -5432,7 +5438,7 @@
         <v>4.2857142857142856</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="8">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v>44671.958332002316</v>
@@ -5454,27 +5460,28 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB20090B-02A9-43B7-8D03-9C18D42920EB}">
-  <dimension ref="A1:N8"/>
+  <dimension ref="A1:P8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+      <selection activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.6640625" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" customWidth="1"/>
     <col min="2" max="2" width="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.6640625" customWidth="1"/>
+    <col min="3" max="3" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" customWidth="1"/>
     <col min="7" max="7" width="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>13</v>
       </c>
@@ -5512,13 +5519,19 @@
         <v>76</v>
       </c>
       <c r="M1" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="O1" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>23</v>
       </c>
@@ -5556,13 +5569,19 @@
         <v>3</v>
       </c>
       <c r="M2" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N2" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O2" s="7">
+        <v>1</v>
+      </c>
+      <c r="P2" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>24</v>
       </c>
@@ -5605,8 +5624,14 @@
       <c r="N3" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O3" s="7">
+        <v>0</v>
+      </c>
+      <c r="P3" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>25</v>
       </c>
@@ -5649,8 +5674,14 @@
       <c r="N4" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O4" s="7">
+        <v>0</v>
+      </c>
+      <c r="P4" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -5693,8 +5724,14 @@
       <c r="N5" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O5" s="7">
+        <v>0</v>
+      </c>
+      <c r="P5" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>85</v>
       </c>
@@ -5737,8 +5774,14 @@
       <c r="N6" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O6" s="7">
+        <v>0</v>
+      </c>
+      <c r="P6" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>37</v>
       </c>
@@ -5781,8 +5824,14 @@
       <c r="N7" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O7" s="7">
+        <v>0</v>
+      </c>
+      <c r="P7" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>27</v>
       </c>
@@ -5823,6 +5872,12 @@
         <v>0</v>
       </c>
       <c r="N8" s="7">
+        <v>0</v>
+      </c>
+      <c r="O8" s="7">
+        <v>0</v>
+      </c>
+      <c r="P8" s="7">
         <v>0</v>
       </c>
     </row>
@@ -5839,9 +5894,9 @@
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>13</v>
       </c>
@@ -5885,7 +5940,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>77</v>
       </c>
@@ -5905,7 +5960,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>78</v>
       </c>
@@ -5938,20 +5993,20 @@
       <selection activeCell="I1" sqref="I1:I1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.44140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.5546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.44140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.88671875" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.5546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.109375" style="5"/>
+    <col min="1" max="1" width="7.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>13</v>
       </c>
@@ -5977,7 +6032,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>23</v>
       </c>
@@ -6003,7 +6058,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>23</v>
       </c>
@@ -6029,7 +6084,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>23</v>
       </c>
@@ -6055,7 +6110,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>24</v>
       </c>
@@ -6081,7 +6136,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>24</v>
       </c>
@@ -6107,7 +6162,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>25</v>
       </c>
@@ -6133,7 +6188,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>25</v>
       </c>
@@ -6159,7 +6214,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>26</v>
       </c>
@@ -6185,7 +6240,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>85</v>
       </c>
@@ -6211,7 +6266,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>37</v>
       </c>
@@ -6237,7 +6292,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>37</v>
       </c>
@@ -6263,7 +6318,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>27</v>
       </c>
@@ -6289,7 +6344,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>27</v>
       </c>
@@ -6329,12 +6384,12 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" style="8" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>32</v>
       </c>
@@ -6345,145 +6400,145 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="8">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44671</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44671.041666666664</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44671.08333321759</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v>44671.124999826388</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v>44671.166666435187</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v>44671.208333043978</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v>44671.249999652777</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v>44671.291666261575</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v>44671.333332870374</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v>44671.374999479165</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v>44671.416666087964</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="8">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v>44671.458332696762</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v>44671.499999305554</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="8">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v>44671.541665914352</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="8">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v>44671.583332523151</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="8">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v>44671.624999131942</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="8">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v>44671.66666574074</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="8">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v>44671.708332349539</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="8">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v>44671.74999895833</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="8">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v>44671.791665567129</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="8">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v>44671.833332175927</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="8">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v>44671.874998784719</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="8">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v>44671.916665393517</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="8">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v>44671.958332002316</v>
@@ -6502,9 +6557,9 @@
       <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>39</v>
       </c>
@@ -6512,7 +6567,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>80</v>
       </c>
@@ -6520,7 +6575,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>81</v>
       </c>
@@ -6541,14 +6596,14 @@
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" style="8" customWidth="1"/>
-    <col min="6" max="6" width="23.109375" customWidth="1"/>
-    <col min="12" max="12" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" style="8" customWidth="1"/>
+    <col min="6" max="6" width="23.140625" customWidth="1"/>
+    <col min="12" max="12" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>32</v>
       </c>
@@ -6566,7 +6621,7 @@
       </c>
       <c r="F1"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="8">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44671</v>
@@ -6588,7 +6643,7 @@
       <c r="F2" s="8"/>
       <c r="L2" s="8"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44671.041666666664</v>
@@ -6608,7 +6663,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44671.08333321759</v>
@@ -6628,7 +6683,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v>44671.124999826388</v>
@@ -6648,7 +6703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v>44671.166666435187</v>
@@ -6668,7 +6723,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v>44671.208333043978</v>
@@ -6688,7 +6743,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v>44671.249999652777</v>
@@ -6708,7 +6763,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v>44671.291666261575</v>
@@ -6728,7 +6783,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v>44671.333332870374</v>
@@ -6748,7 +6803,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v>44671.374999479165</v>
@@ -6768,7 +6823,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v>44671.416666087964</v>
@@ -6788,7 +6843,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="8">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v>44671.458332696762</v>
@@ -6808,7 +6863,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v>44671.499999305554</v>
@@ -6828,7 +6883,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="8">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v>44671.541665914352</v>
@@ -6848,7 +6903,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="8">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v>44671.583332523151</v>
@@ -6868,7 +6923,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="8">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v>44671.624999131942</v>
@@ -6888,7 +6943,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="8">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v>44671.66666574074</v>
@@ -6908,7 +6963,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="8">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v>44671.708332349539</v>
@@ -6928,7 +6983,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="8">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v>44671.74999895833</v>
@@ -6948,7 +7003,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="8">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v>44671.791665567129</v>
@@ -6968,7 +7023,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="8">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v>44671.833332175927</v>
@@ -6988,7 +7043,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="8">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v>44671.874998784719</v>
@@ -7008,7 +7063,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="8">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v>44671.916665393517</v>
@@ -7028,7 +7083,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="8">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v>44671.958332002316</v>
@@ -7063,14 +7118,14 @@
       <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" style="8" customWidth="1"/>
-    <col min="4" max="6" width="10.44140625" customWidth="1"/>
-    <col min="7" max="7" width="10.44140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" style="8" customWidth="1"/>
+    <col min="4" max="6" width="10.42578125" customWidth="1"/>
+    <col min="7" max="7" width="10.42578125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>32</v>
       </c>
@@ -7093,7 +7148,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="8">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44671</v>
@@ -7120,7 +7175,7 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44671.041666666664</v>
@@ -7148,7 +7203,7 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44671.08333321759</v>
@@ -7176,7 +7231,7 @@
         <v>-6</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v>44671.124999826388</v>
@@ -7204,7 +7259,7 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v>44671.166666435187</v>
@@ -7232,7 +7287,7 @@
         <v>-4</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v>44671.208333043978</v>
@@ -7260,7 +7315,7 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v>44671.249999652777</v>
@@ -7288,7 +7343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v>44671.291666261575</v>
@@ -7316,7 +7371,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v>44671.333332870374</v>
@@ -7344,7 +7399,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v>44671.374999479165</v>
@@ -7372,7 +7427,7 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v>44671.416666087964</v>
@@ -7400,7 +7455,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="8">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v>44671.458332696762</v>
@@ -7428,7 +7483,7 @@
         <v>-6</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v>44671.499999305554</v>
@@ -7456,7 +7511,7 @@
         <v>-4</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="8">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v>44671.541665914352</v>
@@ -7484,7 +7539,7 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="8">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v>44671.583332523151</v>
@@ -7512,7 +7567,7 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="8">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v>44671.624999131942</v>
@@ -7540,7 +7595,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="8">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v>44671.66666574074</v>
@@ -7568,7 +7623,7 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="8">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v>44671.708332349539</v>
@@ -7596,7 +7651,7 @@
         <v>-4</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="8">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v>44671.74999895833</v>
@@ -7624,7 +7679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="8">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v>44671.791665567129</v>
@@ -7652,7 +7707,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="8">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v>44671.833332175927</v>
@@ -7680,7 +7735,7 @@
         <v>-4</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="8">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v>44671.874998784719</v>
@@ -7708,7 +7763,7 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="8">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v>44671.916665393517</v>
@@ -7736,7 +7791,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="8">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v>44671.958332002316</v>

--- a/input_data/input_data.xlsx
+++ b/input_data/input_data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dsdennis\HOPE\Predicer\input_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dsdennis\HOPE\Predicer_dev\Predicer\input_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A4CC0F0-015F-4206-A7B8-98400E5BF38F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B7CF88A-3306-4F10-ACF8-6F461F9F8EC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="18240" windowHeight="28440" tabRatio="796" activeTab="2" xr2:uid="{788BFBD1-D930-4535-8A91-D85C56924796}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="796" activeTab="4" xr2:uid="{788BFBD1-D930-4535-8A91-D85C56924796}"/>
   </bookViews>
   <sheets>
     <sheet name="timeseries" sheetId="18" r:id="rId1"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="123">
   <si>
     <t>node</t>
   </si>
@@ -133,9 +133,6 @@
   </si>
   <si>
     <t>pv1</t>
-  </si>
-  <si>
-    <t>spot</t>
   </si>
   <si>
     <t>source</t>
@@ -810,206 +807,206 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="8">
         <v>44671</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="8">
         <v>44671.041666666664</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" s="8">
         <v>44671.08333321759</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" s="8">
         <v>44671.124999826388</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" s="8">
         <v>44671.166666435187</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" s="8">
         <v>44671.208333043978</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" s="8">
         <v>44671.249999652777</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" s="8">
         <v>44671.291666261575</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" s="8">
         <v>44671.333332870374</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" s="8">
         <v>44671.374999479165</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" s="8">
         <v>44671.416666087964</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" s="8">
         <v>44671.458332696762</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" s="8">
         <v>44671.499999305554</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" s="8">
         <v>44671.541665914352</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" s="8">
         <v>44671.583332523151</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="8">
         <v>44671.624999131942</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="8">
         <v>44671.66666574074</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="8">
         <v>44671.708332349539</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="8">
         <v>44671.74999895833</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="8">
         <v>44671.791665567129</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" s="8">
         <v>44671.833332175927</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" s="8">
         <v>44671.874998784719</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" s="8">
         <v>44671.916665393517</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" s="8">
         <v>44671.958332002316</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" s="8"/>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" s="8"/>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28" s="8"/>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" s="8"/>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30" s="8"/>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" s="8"/>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A32" s="8"/>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" s="8"/>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" s="8"/>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" s="8"/>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36" s="8"/>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" s="8"/>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A38" s="8"/>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A39" s="8"/>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A40" s="8"/>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A41" s="8"/>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A42" s="8"/>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A43" s="8"/>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A44" s="8"/>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A45" s="8"/>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A46" s="8"/>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A47" s="8"/>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A48" s="8"/>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" s="8"/>
     </row>
   </sheetData>
@@ -1025,20 +1022,20 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" style="8" customWidth="1"/>
+    <col min="1" max="1" width="19.33203125" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="8">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44671</v>
@@ -1047,7 +1044,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="8">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44671.041666666664</v>
@@ -1056,7 +1053,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="8">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44671.08333321759</v>
@@ -1065,7 +1062,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="8">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v>44671.124999826388</v>
@@ -1074,7 +1071,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="8">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v>44671.166666435187</v>
@@ -1083,7 +1080,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="8">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v>44671.208333043978</v>
@@ -1092,7 +1089,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="8">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v>44671.249999652777</v>
@@ -1101,7 +1098,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="8">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v>44671.291666261575</v>
@@ -1110,7 +1107,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="8">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v>44671.333332870374</v>
@@ -1119,7 +1116,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="8">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v>44671.374999479165</v>
@@ -1128,7 +1125,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="8">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v>44671.416666087964</v>
@@ -1137,7 +1134,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="8">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v>44671.458332696762</v>
@@ -1146,7 +1143,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="8">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v>44671.499999305554</v>
@@ -1155,7 +1152,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="8">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v>44671.541665914352</v>
@@ -1164,7 +1161,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="8">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v>44671.583332523151</v>
@@ -1173,7 +1170,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="8">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v>44671.624999131942</v>
@@ -1182,7 +1179,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="8">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v>44671.66666574074</v>
@@ -1191,7 +1188,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="8">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v>44671.708332349539</v>
@@ -1200,7 +1197,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="8">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v>44671.74999895833</v>
@@ -1209,7 +1206,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="8">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v>44671.791665567129</v>
@@ -1218,7 +1215,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="8">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v>44671.833332175927</v>
@@ -1227,7 +1224,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="8">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v>44671.874998784719</v>
@@ -1236,7 +1233,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="8">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v>44671.916665393517</v>
@@ -1245,7 +1242,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="8">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v>44671.958332002316</v>
@@ -1264,129 +1261,129 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.42578125" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.44140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>12</v>
       </c>
       <c r="B2" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="E2" s="7">
+        <v>0</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="C2" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="E2" s="7">
-        <v>0</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="G2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>41</v>
-      </c>
       <c r="B3" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>8</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E3" s="7">
         <v>0</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>8</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E4" s="7">
         <v>0.2</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>8</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E5" s="7">
         <v>0.2</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -1405,55 +1402,55 @@
       <selection activeCell="M2" sqref="M2:M25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" style="8" customWidth="1"/>
-    <col min="2" max="5" width="11.42578125" customWidth="1"/>
-    <col min="6" max="13" width="11.140625" customWidth="1"/>
+    <col min="1" max="1" width="19.33203125" style="8" customWidth="1"/>
+    <col min="2" max="5" width="11.44140625" customWidth="1"/>
+    <col min="6" max="13" width="11.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="M1" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="8">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44671</v>
@@ -1495,7 +1492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="8">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44671.041666666664</v>
@@ -1537,7 +1534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="8">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44671.08333321759</v>
@@ -1579,7 +1576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="8">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v>44671.124999826388</v>
@@ -1621,7 +1618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="8">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v>44671.166666435187</v>
@@ -1663,7 +1660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="8">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v>44671.208333043978</v>
@@ -1705,7 +1702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="8">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v>44671.249999652777</v>
@@ -1747,7 +1744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="8">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v>44671.291666261575</v>
@@ -1789,7 +1786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="8">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v>44671.333332870374</v>
@@ -1831,7 +1828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="8">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v>44671.374999479165</v>
@@ -1873,7 +1870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="8">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v>44671.416666087964</v>
@@ -1915,7 +1912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="8">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v>44671.458332696762</v>
@@ -1957,7 +1954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="8">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v>44671.499999305554</v>
@@ -1999,7 +1996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="8">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v>44671.541665914352</v>
@@ -2041,7 +2038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="8">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v>44671.583332523151</v>
@@ -2083,7 +2080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" s="8">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v>44671.624999131942</v>
@@ -2125,7 +2122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" s="8">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v>44671.66666574074</v>
@@ -2167,7 +2164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" s="8">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v>44671.708332349539</v>
@@ -2209,7 +2206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" s="8">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v>44671.74999895833</v>
@@ -2251,7 +2248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" s="8">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v>44671.791665567129</v>
@@ -2293,7 +2290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" s="8">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v>44671.833332175927</v>
@@ -2335,7 +2332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" s="8">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v>44671.874998784719</v>
@@ -2377,7 +2374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" s="8">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v>44671.916665393517</v>
@@ -2419,7 +2416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" s="8">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v>44671.958332002316</v>
@@ -2475,37 +2472,37 @@
       <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="10.28515625" customWidth="1"/>
-    <col min="5" max="7" width="11.7109375" customWidth="1"/>
+    <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="10.33203125" customWidth="1"/>
+    <col min="5" max="7" width="11.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="G1" s="3" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="8">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44671</v>
@@ -2535,7 +2532,7 @@
         <v>21.6</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="8">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44671.041666666664</v>
@@ -2565,7 +2562,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="8">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44671.08333321759</v>
@@ -2595,7 +2592,7 @@
         <v>26.1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="8">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v>44671.124999826388</v>
@@ -2625,7 +2622,7 @@
         <v>22.95</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="8">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v>44671.166666435187</v>
@@ -2655,7 +2652,7 @@
         <v>16.650000000000002</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="8">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v>44671.208333043978</v>
@@ -2685,7 +2682,7 @@
         <v>15.3</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="8">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v>44671.249999652777</v>
@@ -2715,7 +2712,7 @@
         <v>20.25</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="8">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v>44671.291666261575</v>
@@ -2745,7 +2742,7 @@
         <v>18.45</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="8">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v>44671.333332870374</v>
@@ -2775,7 +2772,7 @@
         <v>24.75</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="8">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v>44671.374999479165</v>
@@ -2805,7 +2802,7 @@
         <v>26.55</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="8">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v>44671.416666087964</v>
@@ -2835,7 +2832,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="8">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v>44671.458332696762</v>
@@ -2865,7 +2862,7 @@
         <v>18.45</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="8">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v>44671.499999305554</v>
@@ -2895,7 +2892,7 @@
         <v>20.7</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="8">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v>44671.541665914352</v>
@@ -2925,7 +2922,7 @@
         <v>17.100000000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="8">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v>44671.583332523151</v>
@@ -2955,7 +2952,7 @@
         <v>20.7</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="8">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v>44671.624999131942</v>
@@ -2985,7 +2982,7 @@
         <v>20.25</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="8">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v>44671.66666574074</v>
@@ -3015,7 +3012,7 @@
         <v>18.45</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="8">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v>44671.708332349539</v>
@@ -3045,7 +3042,7 @@
         <v>20.7</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="8">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v>44671.74999895833</v>
@@ -3075,7 +3072,7 @@
         <v>23.400000000000002</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="8">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v>44671.791665567129</v>
@@ -3105,7 +3102,7 @@
         <v>25.2</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="8">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v>44671.833332175927</v>
@@ -3135,7 +3132,7 @@
         <v>14.85</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="8">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v>44671.874998784719</v>
@@ -3165,7 +3162,7 @@
         <v>19.350000000000001</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="8">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v>44671.916665393517</v>
@@ -3195,7 +3192,7 @@
         <v>25.650000000000002</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="8">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v>44671.958332002316</v>
@@ -3239,30 +3236,30 @@
       <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="B1" s="3" t="s">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>107</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>108</v>
       </c>
       <c r="B2">
         <v>0.1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B3">
         <v>0.2</v>
@@ -3281,35 +3278,35 @@
       <selection activeCell="B2" sqref="B2:B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="3" t="s">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>48</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>49</v>
       </c>
       <c r="B2">
         <v>0.3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B3">
         <v>0.5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B4">
         <v>0.2</v>
@@ -3328,162 +3325,162 @@
       <selection activeCell="L31" sqref="L31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" style="8" customWidth="1"/>
+    <col min="1" max="1" width="19.33203125" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="8">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44671</v>
       </c>
       <c r="B2" s="2"/>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="8">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44671.041666666664</v>
       </c>
       <c r="B3" s="2"/>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="8">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44671.08333321759</v>
       </c>
       <c r="B4" s="2"/>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="8">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v>44671.124999826388</v>
       </c>
       <c r="B5" s="2"/>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="8">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v>44671.166666435187</v>
       </c>
       <c r="B6" s="2"/>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="8">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v>44671.208333043978</v>
       </c>
       <c r="B7" s="2"/>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="8">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v>44671.249999652777</v>
       </c>
       <c r="B8" s="2"/>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="8">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v>44671.291666261575</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="8">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v>44671.333332870374</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="8">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v>44671.374999479165</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="8">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v>44671.416666087964</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="8">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v>44671.458332696762</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="8">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v>44671.499999305554</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="8">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v>44671.541665914352</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="8">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v>44671.583332523151</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="8">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v>44671.624999131942</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="8">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v>44671.66666574074</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="8">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v>44671.708332349539</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="8">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v>44671.74999895833</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="8">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v>44671.791665567129</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" s="8">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v>44671.833332175927</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" s="8">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v>44671.874998784719</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" s="8">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v>44671.916665393517</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" s="8">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v>44671.958332002316</v>
@@ -3502,26 +3499,26 @@
       <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" style="8" customWidth="1"/>
+    <col min="1" max="1" width="19.33203125" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="8">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44671</v>
@@ -3536,7 +3533,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="8">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44671.041666666664</v>
@@ -3551,7 +3548,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="8">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44671.08333321759</v>
@@ -3566,7 +3563,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="8">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v>44671.124999826388</v>
@@ -3581,7 +3578,7 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="8">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v>44671.166666435187</v>
@@ -3596,7 +3593,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="8">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v>44671.208333043978</v>
@@ -3611,7 +3608,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="8">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v>44671.249999652777</v>
@@ -3626,7 +3623,7 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="8">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v>44671.291666261575</v>
@@ -3641,7 +3638,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="8">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v>44671.333332870374</v>
@@ -3656,7 +3653,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="8">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v>44671.374999479165</v>
@@ -3671,7 +3668,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="8">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v>44671.416666087964</v>
@@ -3686,7 +3683,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="8">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v>44671.458332696762</v>
@@ -3701,7 +3698,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="8">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v>44671.499999305554</v>
@@ -3716,7 +3713,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="8">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v>44671.541665914352</v>
@@ -3731,7 +3728,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="8">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v>44671.583332523151</v>
@@ -3746,7 +3743,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="8">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v>44671.624999131942</v>
@@ -3761,7 +3758,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="8">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v>44671.66666574074</v>
@@ -3776,7 +3773,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="8">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v>44671.708332349539</v>
@@ -3791,7 +3788,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="8">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v>44671.74999895833</v>
@@ -3806,7 +3803,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="8">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v>44671.791665567129</v>
@@ -3821,7 +3818,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="8">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v>44671.833332175927</v>
@@ -3836,7 +3833,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="8">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v>44671.874998784719</v>
@@ -3851,7 +3848,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="8">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v>44671.916665393517</v>
@@ -3866,7 +3863,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="8">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v>44671.958332002316</v>
@@ -3895,30 +3892,30 @@
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B2" t="s">
         <v>90</v>
       </c>
-      <c r="B2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
@@ -3937,47 +3934,47 @@
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" style="8" customWidth="1"/>
-    <col min="2" max="4" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.33203125" style="8" customWidth="1"/>
+    <col min="2" max="4" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="5.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C1" t="s">
         <v>92</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>93</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>94</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>95</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>96</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>97</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>98</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>99</v>
       </c>
-      <c r="J1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="8">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44671</v>
@@ -4010,7 +4007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="8">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44671.041666666664</v>
@@ -4043,7 +4040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="8">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44671.08333321759</v>
@@ -4076,7 +4073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="8">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v>44671.124999826388</v>
@@ -4109,7 +4106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="8">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v>44671.166666435187</v>
@@ -4142,7 +4139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="8">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v>44671.208333043978</v>
@@ -4175,7 +4172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="8">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v>44671.249999652777</v>
@@ -4208,7 +4205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="8">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v>44671.291666261575</v>
@@ -4241,7 +4238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="8">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v>44671.333332870374</v>
@@ -4274,7 +4271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="8">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v>44671.374999479165</v>
@@ -4307,7 +4304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="8">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v>44671.416666087964</v>
@@ -4340,7 +4337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="8">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v>44671.458332696762</v>
@@ -4373,7 +4370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="8">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v>44671.499999305554</v>
@@ -4406,7 +4403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="8">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v>44671.541665914352</v>
@@ -4439,7 +4436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="8">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v>44671.583332523151</v>
@@ -4472,7 +4469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="8">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v>44671.624999131942</v>
@@ -4505,7 +4502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="8">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v>44671.66666574074</v>
@@ -4538,7 +4535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="8">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v>44671.708332349539</v>
@@ -4571,7 +4568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="8">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v>44671.74999895833</v>
@@ -4604,7 +4601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="8">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v>44671.791665567129</v>
@@ -4637,7 +4634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="8">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v>44671.833332175927</v>
@@ -4670,7 +4667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="8">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v>44671.874998784719</v>
@@ -4703,7 +4700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="8">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v>44671.916665393517</v>
@@ -4736,7 +4733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="8">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v>44671.958332002316</v>
@@ -4779,23 +4776,23 @@
   <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+      <selection activeCell="A7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -4806,7 +4803,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>6</v>
@@ -4824,16 +4821,16 @@
         <v>5</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -4871,7 +4868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -4909,7 +4906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -4947,7 +4944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -4985,9 +4982,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B6" s="7">
         <v>0</v>
@@ -5023,43 +5020,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="7">
-        <v>0</v>
-      </c>
-      <c r="C7" s="7">
-        <v>0</v>
-      </c>
-      <c r="D7" s="7">
-        <v>0</v>
-      </c>
-      <c r="E7" s="7">
-        <v>1</v>
-      </c>
-      <c r="F7" s="7">
-        <v>0</v>
-      </c>
-      <c r="G7" s="7">
-        <v>0</v>
-      </c>
-      <c r="H7" s="7">
-        <v>0</v>
-      </c>
-      <c r="I7" s="7">
-        <v>0</v>
-      </c>
-      <c r="J7" s="7">
-        <v>0</v>
-      </c>
-      <c r="K7" s="7">
-        <v>0</v>
-      </c>
-      <c r="L7" s="7">
-        <v>0</v>
-      </c>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5074,26 +5046,26 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" style="8" customWidth="1"/>
+    <col min="1" max="1" width="19.33203125" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C1" t="s">
         <v>102</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>103</v>
       </c>
-      <c r="D1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="8">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44671</v>
@@ -5108,7 +5080,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="8">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44671.041666666664</v>
@@ -5123,7 +5095,7 @@
         <v>4.2857142857142856</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="8">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44671.08333321759</v>
@@ -5138,7 +5110,7 @@
         <v>4.2857142857142856</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="8">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v>44671.124999826388</v>
@@ -5153,7 +5125,7 @@
         <v>4.4117647058823533</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="8">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v>44671.166666435187</v>
@@ -5168,7 +5140,7 @@
         <v>4.5454545454545459</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="8">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v>44671.208333043978</v>
@@ -5183,7 +5155,7 @@
         <v>4.6875</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="8">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v>44671.249999652777</v>
@@ -5198,7 +5170,7 @@
         <v>4.838709677419355</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="8">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v>44671.291666261575</v>
@@ -5213,7 +5185,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="8">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v>44671.333332870374</v>
@@ -5228,7 +5200,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="8">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v>44671.374999479165</v>
@@ -5243,7 +5215,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="8">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v>44671.416666087964</v>
@@ -5258,7 +5230,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="8">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v>44671.458332696762</v>
@@ -5273,7 +5245,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="8">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v>44671.499999305554</v>
@@ -5288,7 +5260,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="8">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v>44671.541665914352</v>
@@ -5303,7 +5275,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="8">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v>44671.583332523151</v>
@@ -5318,7 +5290,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="8">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v>44671.624999131942</v>
@@ -5333,7 +5305,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="8">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v>44671.66666574074</v>
@@ -5348,7 +5320,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="8">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v>44671.708332349539</v>
@@ -5363,7 +5335,7 @@
         <v>3.75</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="8">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v>44671.74999895833</v>
@@ -5378,7 +5350,7 @@
         <v>3.75</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="8">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v>44671.791665567129</v>
@@ -5393,7 +5365,7 @@
         <v>3.75</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="8">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v>44671.833332175927</v>
@@ -5408,7 +5380,7 @@
         <v>3.75</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="8">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v>44671.874998784719</v>
@@ -5423,7 +5395,7 @@
         <v>4.2857142857142856</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="8">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v>44671.916665393517</v>
@@ -5438,7 +5410,7 @@
         <v>4.2857142857142856</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="8">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v>44671.958332002316</v>
@@ -5462,26 +5434,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB20090B-02A9-43B7-8D03-9C18D42920EB}">
   <dimension ref="A1:P8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N3" sqref="N3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:XFD8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" customWidth="1"/>
     <col min="2" max="2" width="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.7109375" customWidth="1"/>
+    <col min="3" max="3" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.6640625" customWidth="1"/>
     <col min="7" max="7" width="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="11.42578125" customWidth="1"/>
+    <col min="8" max="8" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="11.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>13</v>
       </c>
@@ -5489,13 +5461,13 @@
         <v>14</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>15</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>18</v>
@@ -5510,28 +5482,28 @@
         <v>19</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K1" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="L1" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="L1" s="3" t="s">
-        <v>76</v>
-      </c>
       <c r="M1" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="N1" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="N1" s="3" t="s">
-        <v>123</v>
-      </c>
       <c r="O1" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="P1" s="3" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>23</v>
       </c>
@@ -5581,7 +5553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>24</v>
       </c>
@@ -5631,7 +5603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>25</v>
       </c>
@@ -5681,7 +5653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -5731,9 +5703,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B6" s="7">
         <v>1</v>
@@ -5781,9 +5753,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B7" s="7">
         <v>0</v>
@@ -5831,55 +5803,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>27</v>
-      </c>
-      <c r="B8" s="7">
-        <v>0</v>
-      </c>
-      <c r="C8" s="7">
-        <v>0</v>
-      </c>
-      <c r="D8" s="7">
-        <v>0</v>
-      </c>
-      <c r="E8" s="7">
-        <v>0</v>
-      </c>
-      <c r="F8" s="7">
-        <v>3</v>
-      </c>
-      <c r="G8" s="7">
-        <v>1</v>
-      </c>
-      <c r="H8" s="7">
-        <v>0</v>
-      </c>
-      <c r="I8" s="7">
-        <v>1</v>
-      </c>
-      <c r="J8" s="7">
-        <v>0</v>
-      </c>
-      <c r="K8" s="7">
-        <v>0</v>
-      </c>
-      <c r="L8" s="7">
-        <v>0</v>
-      </c>
-      <c r="M8" s="7">
-        <v>0</v>
-      </c>
-      <c r="N8" s="7">
-        <v>0</v>
-      </c>
-      <c r="O8" s="7">
-        <v>0</v>
-      </c>
-      <c r="P8" s="7">
-        <v>0</v>
-      </c>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="7"/>
+      <c r="P8" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5894,9 +5833,9 @@
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>13</v>
       </c>
@@ -5940,9 +5879,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B2">
         <v>0.4</v>
@@ -5960,9 +5899,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B3">
         <v>0.8</v>
@@ -5987,43 +5926,43 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A86A8A7-FD76-4891-A53C-CBB095359118}">
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:I1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="5"/>
+    <col min="1" max="1" width="7.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.44140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.5546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.44140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.88671875" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.5546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.109375" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>13</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>16</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>22</v>
@@ -6032,12 +5971,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>23</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>7</v>
@@ -6058,12 +5997,12 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>23</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>9</v>
@@ -6084,12 +6023,12 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>23</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>8</v>
@@ -6110,12 +6049,12 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>24</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>8</v>
@@ -6136,12 +6075,12 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>24</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>9</v>
@@ -6162,12 +6101,12 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>25</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>8</v>
@@ -6188,12 +6127,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>25</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>11</v>
@@ -6214,12 +6153,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>26</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>8</v>
@@ -6240,12 +6179,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>8</v>
@@ -6266,12 +6205,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>9</v>
@@ -6292,15 +6231,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D12" s="5">
         <v>1</v>
@@ -6315,58 +6254,6 @@
         <v>1</v>
       </c>
       <c r="H12" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D13" s="5">
-        <v>1</v>
-      </c>
-      <c r="E13" s="5">
-        <v>0</v>
-      </c>
-      <c r="F13" s="5">
-        <v>0</v>
-      </c>
-      <c r="G13" s="5">
-        <v>1</v>
-      </c>
-      <c r="H13" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D14" s="5">
-        <v>1</v>
-      </c>
-      <c r="E14" s="5">
-        <v>0</v>
-      </c>
-      <c r="F14" s="5">
-        <v>5</v>
-      </c>
-      <c r="G14" s="5">
-        <v>1</v>
-      </c>
-      <c r="H14" s="5">
         <v>1</v>
       </c>
     </row>
@@ -6384,161 +6271,161 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" style="8" customWidth="1"/>
+    <col min="1" max="1" width="19.33203125" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B1" t="s">
         <v>9</v>
       </c>
       <c r="C1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="8">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44671</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="8">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44671.041666666664</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="8">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44671.08333321759</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="8">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v>44671.124999826388</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="8">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v>44671.166666435187</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="8">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v>44671.208333043978</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="8">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v>44671.249999652777</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="8">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v>44671.291666261575</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="8">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v>44671.333332870374</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="8">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v>44671.374999479165</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="8">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v>44671.416666087964</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="8">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v>44671.458332696762</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="8">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v>44671.499999305554</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="8">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v>44671.541665914352</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="8">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v>44671.583332523151</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="8">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v>44671.624999131942</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="8">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v>44671.66666574074</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="8">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v>44671.708332349539</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="8">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v>44671.74999895833</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="8">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v>44671.791665567129</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" s="8">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v>44671.833332175927</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" s="8">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v>44671.874998784719</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" s="8">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v>44671.916665393517</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" s="8">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v>44671.958332002316</v>
@@ -6557,27 +6444,27 @@
       <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>79</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>80</v>
       </c>
       <c r="B2">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -6596,32 +6483,32 @@
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" style="8" customWidth="1"/>
-    <col min="6" max="6" width="23.140625" customWidth="1"/>
-    <col min="12" max="12" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.33203125" style="8" customWidth="1"/>
+    <col min="6" max="6" width="23.109375" customWidth="1"/>
+    <col min="12" max="12" width="12.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>88</v>
-      </c>
       <c r="F1"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="8">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44671</v>
@@ -6643,7 +6530,7 @@
       <c r="F2" s="8"/>
       <c r="L2" s="8"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="8">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44671.041666666664</v>
@@ -6663,7 +6550,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="8">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44671.08333321759</v>
@@ -6683,7 +6570,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="8">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v>44671.124999826388</v>
@@ -6703,7 +6590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="8">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v>44671.166666435187</v>
@@ -6723,7 +6610,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="8">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v>44671.208333043978</v>
@@ -6743,7 +6630,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="8">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v>44671.249999652777</v>
@@ -6763,7 +6650,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="8">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v>44671.291666261575</v>
@@ -6783,7 +6670,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="8">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v>44671.333332870374</v>
@@ -6803,7 +6690,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="8">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v>44671.374999479165</v>
@@ -6823,7 +6710,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="8">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v>44671.416666087964</v>
@@ -6843,7 +6730,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="8">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v>44671.458332696762</v>
@@ -6863,7 +6750,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="8">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v>44671.499999305554</v>
@@ -6883,7 +6770,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="8">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v>44671.541665914352</v>
@@ -6903,7 +6790,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="8">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v>44671.583332523151</v>
@@ -6923,7 +6810,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="8">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v>44671.624999131942</v>
@@ -6943,7 +6830,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="8">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v>44671.66666574074</v>
@@ -6963,7 +6850,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="8">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v>44671.708332349539</v>
@@ -6983,7 +6870,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="8">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v>44671.74999895833</v>
@@ -7003,7 +6890,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="8">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v>44671.791665567129</v>
@@ -7023,7 +6910,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="8">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v>44671.833332175927</v>
@@ -7043,7 +6930,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="8">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v>44671.874998784719</v>
@@ -7063,7 +6950,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="8">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v>44671.916665393517</v>
@@ -7083,7 +6970,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="8">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v>44671.958332002316</v>
@@ -7118,37 +7005,37 @@
       <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" style="8" customWidth="1"/>
-    <col min="4" max="6" width="10.42578125" customWidth="1"/>
-    <col min="7" max="7" width="10.42578125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="19.33203125" style="8" customWidth="1"/>
+    <col min="4" max="6" width="10.44140625" customWidth="1"/>
+    <col min="7" max="7" width="10.44140625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="G1" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="8">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44671</v>
@@ -7175,7 +7062,7 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="8">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44671.041666666664</v>
@@ -7203,7 +7090,7 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="8">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44671.08333321759</v>
@@ -7231,7 +7118,7 @@
         <v>-6</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="8">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v>44671.124999826388</v>
@@ -7259,7 +7146,7 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="8">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v>44671.166666435187</v>
@@ -7287,7 +7174,7 @@
         <v>-4</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="8">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v>44671.208333043978</v>
@@ -7315,7 +7202,7 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="8">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v>44671.249999652777</v>
@@ -7343,7 +7230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="8">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v>44671.291666261575</v>
@@ -7371,7 +7258,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="8">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v>44671.333332870374</v>
@@ -7399,7 +7286,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="8">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v>44671.374999479165</v>
@@ -7427,7 +7314,7 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="8">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v>44671.416666087964</v>
@@ -7455,7 +7342,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="8">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v>44671.458332696762</v>
@@ -7483,7 +7370,7 @@
         <v>-6</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="8">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v>44671.499999305554</v>
@@ -7511,7 +7398,7 @@
         <v>-4</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="8">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v>44671.541665914352</v>
@@ -7539,7 +7426,7 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="8">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v>44671.583332523151</v>
@@ -7567,7 +7454,7 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="8">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v>44671.624999131942</v>
@@ -7595,7 +7482,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="8">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v>44671.66666574074</v>
@@ -7623,7 +7510,7 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="8">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v>44671.708332349539</v>
@@ -7651,7 +7538,7 @@
         <v>-4</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="8">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v>44671.74999895833</v>
@@ -7679,7 +7566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="8">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v>44671.791665567129</v>
@@ -7707,7 +7594,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="8">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v>44671.833332175927</v>
@@ -7735,7 +7622,7 @@
         <v>-4</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="8">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v>44671.874998784719</v>
@@ -7763,7 +7650,7 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="8">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v>44671.916665393517</v>
@@ -7791,7 +7678,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="8">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v>44671.958332002316</v>

--- a/input_data/input_data.xlsx
+++ b/input_data/input_data.xlsx
@@ -8,31 +8,32 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dsdennis\HOPE\Predicer_dev\Predicer\input_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B7CF88A-3306-4F10-ACF8-6F461F9F8EC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CF8CAA3-BC30-4A3C-A055-D270806D81A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="796" activeTab="4" xr2:uid="{788BFBD1-D930-4535-8A91-D85C56924796}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="796" activeTab="3" xr2:uid="{788BFBD1-D930-4535-8A91-D85C56924796}"/>
   </bookViews>
   <sheets>
     <sheet name="timeseries" sheetId="18" r:id="rId1"/>
     <sheet name="nodes" sheetId="1" r:id="rId2"/>
     <sheet name="processes" sheetId="2" r:id="rId3"/>
-    <sheet name="efficiencies" sheetId="10" r:id="rId4"/>
-    <sheet name="process_topology" sheetId="6" r:id="rId5"/>
-    <sheet name="node_history" sheetId="19" r:id="rId6"/>
-    <sheet name="reserve_type" sheetId="13" r:id="rId7"/>
-    <sheet name="cf" sheetId="7" r:id="rId8"/>
-    <sheet name="inflow" sheetId="3" r:id="rId9"/>
-    <sheet name="price" sheetId="4" r:id="rId10"/>
-    <sheet name="markets" sheetId="5" r:id="rId11"/>
-    <sheet name="market_prices" sheetId="8" r:id="rId12"/>
-    <sheet name="balance_prices" sheetId="20" r:id="rId13"/>
-    <sheet name="risk" sheetId="17" r:id="rId14"/>
-    <sheet name="scenarios" sheetId="9" r:id="rId15"/>
-    <sheet name="fixed_ts" sheetId="11" r:id="rId16"/>
-    <sheet name="eff_ts" sheetId="12" r:id="rId17"/>
-    <sheet name="constraints" sheetId="14" r:id="rId18"/>
-    <sheet name="gen_constraint" sheetId="15" r:id="rId19"/>
-    <sheet name="cap_ts" sheetId="16" r:id="rId20"/>
+    <sheet name="groups" sheetId="21" r:id="rId4"/>
+    <sheet name="efficiencies" sheetId="10" r:id="rId5"/>
+    <sheet name="process_topology" sheetId="6" r:id="rId6"/>
+    <sheet name="node_history" sheetId="19" r:id="rId7"/>
+    <sheet name="reserve_type" sheetId="13" r:id="rId8"/>
+    <sheet name="cf" sheetId="7" r:id="rId9"/>
+    <sheet name="inflow" sheetId="3" r:id="rId10"/>
+    <sheet name="price" sheetId="4" r:id="rId11"/>
+    <sheet name="markets" sheetId="5" r:id="rId12"/>
+    <sheet name="market_prices" sheetId="8" r:id="rId13"/>
+    <sheet name="balance_prices" sheetId="20" r:id="rId14"/>
+    <sheet name="risk" sheetId="17" r:id="rId15"/>
+    <sheet name="scenarios" sheetId="9" r:id="rId16"/>
+    <sheet name="fixed_ts" sheetId="11" r:id="rId17"/>
+    <sheet name="eff_ts" sheetId="12" r:id="rId18"/>
+    <sheet name="constraints" sheetId="14" r:id="rId19"/>
+    <sheet name="gen_constraint" sheetId="15" r:id="rId20"/>
+    <sheet name="cap_ts" sheetId="16" r:id="rId21"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -52,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="125">
   <si>
     <t>node</t>
   </si>
@@ -421,6 +422,12 @@
   </si>
   <si>
     <t>max_offline</t>
+  </si>
+  <si>
+    <t>entity</t>
+  </si>
+  <si>
+    <t>group</t>
   </si>
 </sst>
 </file>
@@ -1015,6 +1022,722 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F87DD44-A1AD-4241-AED7-C48CC9DEE2E2}">
+  <dimension ref="A1:G25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="19.33203125" style="8" customWidth="1"/>
+    <col min="4" max="6" width="10.44140625" customWidth="1"/>
+    <col min="7" max="7" width="10.44140625" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="8">
+        <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
+        <v>44671</v>
+      </c>
+      <c r="B2">
+        <v>-5</v>
+      </c>
+      <c r="C2">
+        <v>-5</v>
+      </c>
+      <c r="D2">
+        <v>-5</v>
+      </c>
+      <c r="E2">
+        <f>1*C2</f>
+        <v>-5</v>
+      </c>
+      <c r="F2" s="2">
+        <f>1*B2</f>
+        <v>-5</v>
+      </c>
+      <c r="G2" s="2">
+        <f>1*C2</f>
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="8">
+        <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
+        <v>44671.041666666664</v>
+      </c>
+      <c r="B3">
+        <v>-5</v>
+      </c>
+      <c r="C3">
+        <v>-5</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ref="D3:D25" si="0">1*B3</f>
+        <v>-5</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E25" si="1">1*C3</f>
+        <v>-5</v>
+      </c>
+      <c r="F3" s="2">
+        <f t="shared" ref="F3:F25" si="2">1*B3</f>
+        <v>-5</v>
+      </c>
+      <c r="G3" s="2">
+        <f t="shared" ref="G3:G25" si="3">1*C3</f>
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="8">
+        <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
+        <v>44671.08333321759</v>
+      </c>
+      <c r="B4">
+        <v>-4</v>
+      </c>
+      <c r="C4">
+        <v>-6</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="0"/>
+        <v>-4</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="1"/>
+        <v>-6</v>
+      </c>
+      <c r="F4" s="2">
+        <f t="shared" si="2"/>
+        <v>-4</v>
+      </c>
+      <c r="G4" s="2">
+        <f t="shared" si="3"/>
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="8">
+        <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
+        <v>44671.124999826388</v>
+      </c>
+      <c r="B5">
+        <v>-2</v>
+      </c>
+      <c r="C5">
+        <v>-3</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>-2</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="1"/>
+        <v>-3</v>
+      </c>
+      <c r="F5" s="2">
+        <f t="shared" si="2"/>
+        <v>-2</v>
+      </c>
+      <c r="G5" s="2">
+        <f t="shared" si="3"/>
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="8">
+        <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
+        <v>44671.166666435187</v>
+      </c>
+      <c r="B6">
+        <v>-7</v>
+      </c>
+      <c r="C6">
+        <v>-4</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>-7</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="1"/>
+        <v>-4</v>
+      </c>
+      <c r="F6" s="2">
+        <f t="shared" si="2"/>
+        <v>-7</v>
+      </c>
+      <c r="G6" s="2">
+        <f t="shared" si="3"/>
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="8">
+        <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
+        <v>44671.208333043978</v>
+      </c>
+      <c r="B7">
+        <v>-5</v>
+      </c>
+      <c r="C7">
+        <v>-5</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>-5</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="1"/>
+        <v>-5</v>
+      </c>
+      <c r="F7" s="2">
+        <f t="shared" si="2"/>
+        <v>-5</v>
+      </c>
+      <c r="G7" s="2">
+        <f t="shared" si="3"/>
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="8">
+        <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
+        <v>44671.249999652777</v>
+      </c>
+      <c r="B8">
+        <v>-14</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>-14</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F8" s="2">
+        <f t="shared" si="2"/>
+        <v>-14</v>
+      </c>
+      <c r="G8" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="8">
+        <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
+        <v>44671.291666261575</v>
+      </c>
+      <c r="B9">
+        <v>-20</v>
+      </c>
+      <c r="C9">
+        <v>-2</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>-20</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="1"/>
+        <v>-2</v>
+      </c>
+      <c r="F9" s="2">
+        <f t="shared" si="2"/>
+        <v>-20</v>
+      </c>
+      <c r="G9" s="2">
+        <f t="shared" si="3"/>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="8">
+        <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
+        <v>44671.333332870374</v>
+      </c>
+      <c r="B10">
+        <v>-13</v>
+      </c>
+      <c r="C10">
+        <v>-2</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>-13</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="1"/>
+        <v>-2</v>
+      </c>
+      <c r="F10" s="2">
+        <f t="shared" si="2"/>
+        <v>-13</v>
+      </c>
+      <c r="G10" s="2">
+        <f t="shared" si="3"/>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="8">
+        <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
+        <v>44671.374999479165</v>
+      </c>
+      <c r="B11">
+        <v>-12</v>
+      </c>
+      <c r="C11">
+        <v>-5</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>-12</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="1"/>
+        <v>-5</v>
+      </c>
+      <c r="F11" s="2">
+        <f t="shared" si="2"/>
+        <v>-12</v>
+      </c>
+      <c r="G11" s="2">
+        <f t="shared" si="3"/>
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="8">
+        <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
+        <v>44671.416666087964</v>
+      </c>
+      <c r="B12">
+        <v>-13</v>
+      </c>
+      <c r="C12">
+        <v>-2</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>-13</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="1"/>
+        <v>-2</v>
+      </c>
+      <c r="F12" s="2">
+        <f t="shared" si="2"/>
+        <v>-13</v>
+      </c>
+      <c r="G12" s="2">
+        <f t="shared" si="3"/>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="8">
+        <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
+        <v>44671.458332696762</v>
+      </c>
+      <c r="B13">
+        <v>-14</v>
+      </c>
+      <c r="C13">
+        <v>-6</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="0"/>
+        <v>-14</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="1"/>
+        <v>-6</v>
+      </c>
+      <c r="F13" s="2">
+        <f t="shared" si="2"/>
+        <v>-14</v>
+      </c>
+      <c r="G13" s="2">
+        <f t="shared" si="3"/>
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="8">
+        <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
+        <v>44671.499999305554</v>
+      </c>
+      <c r="B14">
+        <v>-18</v>
+      </c>
+      <c r="C14">
+        <v>-4</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="0"/>
+        <v>-18</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="1"/>
+        <v>-4</v>
+      </c>
+      <c r="F14" s="2">
+        <f t="shared" si="2"/>
+        <v>-18</v>
+      </c>
+      <c r="G14" s="2">
+        <f t="shared" si="3"/>
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="8">
+        <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
+        <v>44671.541665914352</v>
+      </c>
+      <c r="B15">
+        <v>-14</v>
+      </c>
+      <c r="C15">
+        <v>-3</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="0"/>
+        <v>-14</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="1"/>
+        <v>-3</v>
+      </c>
+      <c r="F15" s="2">
+        <f t="shared" si="2"/>
+        <v>-14</v>
+      </c>
+      <c r="G15" s="2">
+        <f t="shared" si="3"/>
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="8">
+        <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
+        <v>44671.583332523151</v>
+      </c>
+      <c r="B16">
+        <v>-15</v>
+      </c>
+      <c r="C16">
+        <v>-5</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="0"/>
+        <v>-15</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="1"/>
+        <v>-5</v>
+      </c>
+      <c r="F16" s="2">
+        <f t="shared" si="2"/>
+        <v>-15</v>
+      </c>
+      <c r="G16" s="2">
+        <f t="shared" si="3"/>
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="8">
+        <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
+        <v>44671.624999131942</v>
+      </c>
+      <c r="B17">
+        <v>-14</v>
+      </c>
+      <c r="C17">
+        <v>-1</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="0"/>
+        <v>-14</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="F17" s="2">
+        <f t="shared" si="2"/>
+        <v>-14</v>
+      </c>
+      <c r="G17" s="2">
+        <f t="shared" si="3"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="8">
+        <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
+        <v>44671.66666574074</v>
+      </c>
+      <c r="B18">
+        <v>-20</v>
+      </c>
+      <c r="C18">
+        <v>-5</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="0"/>
+        <v>-20</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="1"/>
+        <v>-5</v>
+      </c>
+      <c r="F18" s="2">
+        <f t="shared" si="2"/>
+        <v>-20</v>
+      </c>
+      <c r="G18" s="2">
+        <f t="shared" si="3"/>
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="8">
+        <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
+        <v>44671.708332349539</v>
+      </c>
+      <c r="B19">
+        <v>-20</v>
+      </c>
+      <c r="C19">
+        <v>-4</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="0"/>
+        <v>-20</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="1"/>
+        <v>-4</v>
+      </c>
+      <c r="F19" s="2">
+        <f t="shared" si="2"/>
+        <v>-20</v>
+      </c>
+      <c r="G19" s="2">
+        <f t="shared" si="3"/>
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="8">
+        <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
+        <v>44671.74999895833</v>
+      </c>
+      <c r="B20">
+        <v>-20</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="0"/>
+        <v>-20</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F20" s="2">
+        <f t="shared" si="2"/>
+        <v>-20</v>
+      </c>
+      <c r="G20" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" s="8">
+        <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
+        <v>44671.791665567129</v>
+      </c>
+      <c r="B21">
+        <v>-20</v>
+      </c>
+      <c r="C21">
+        <v>-1</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="0"/>
+        <v>-20</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="F21" s="2">
+        <f t="shared" si="2"/>
+        <v>-20</v>
+      </c>
+      <c r="G21" s="2">
+        <f t="shared" si="3"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" s="8">
+        <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
+        <v>44671.833332175927</v>
+      </c>
+      <c r="B22">
+        <v>-16</v>
+      </c>
+      <c r="C22">
+        <v>-4</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="0"/>
+        <v>-16</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="1"/>
+        <v>-4</v>
+      </c>
+      <c r="F22" s="2">
+        <f t="shared" si="2"/>
+        <v>-16</v>
+      </c>
+      <c r="G22" s="2">
+        <f t="shared" si="3"/>
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" s="8">
+        <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
+        <v>44671.874998784719</v>
+      </c>
+      <c r="B23">
+        <v>-14</v>
+      </c>
+      <c r="C23">
+        <v>-5</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="0"/>
+        <v>-14</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="1"/>
+        <v>-5</v>
+      </c>
+      <c r="F23" s="2">
+        <f t="shared" si="2"/>
+        <v>-14</v>
+      </c>
+      <c r="G23" s="2">
+        <f t="shared" si="3"/>
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" s="8">
+        <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
+        <v>44671.916665393517</v>
+      </c>
+      <c r="B24">
+        <v>-11</v>
+      </c>
+      <c r="C24">
+        <v>-1</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="0"/>
+        <v>-11</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="F24" s="2">
+        <f t="shared" si="2"/>
+        <v>-11</v>
+      </c>
+      <c r="G24" s="2">
+        <f t="shared" si="3"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" s="8">
+        <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
+        <v>44671.958332002316</v>
+      </c>
+      <c r="B25">
+        <v>-9</v>
+      </c>
+      <c r="C25">
+        <v>-3</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="0"/>
+        <v>-9</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="1"/>
+        <v>-3</v>
+      </c>
+      <c r="F25" s="2">
+        <f t="shared" si="2"/>
+        <v>-9</v>
+      </c>
+      <c r="G25" s="2">
+        <f t="shared" si="3"/>
+        <v>-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02307C1F-427B-487D-B703-EBF512D7AC27}">
   <dimension ref="A1:B25"/>
   <sheetViews>
@@ -1256,7 +1979,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3788A93-7501-4F5D-9E8F-38D329CC85EC}">
   <dimension ref="A1:G5"/>
   <sheetViews>
@@ -1394,7 +2117,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF6DDD9A-EF34-4108-8532-230729E9C708}">
   <dimension ref="A1:M25"/>
   <sheetViews>
@@ -2464,7 +3187,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{817FDE8F-BC70-48D0-8376-FB52E6946AF1}">
   <dimension ref="A1:G25"/>
   <sheetViews>
@@ -3228,7 +3951,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9314D326-256A-435C-AAE3-3517FA836EAE}">
   <dimension ref="A1:B3"/>
   <sheetViews>
@@ -3270,7 +3993,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A87AD413-E614-48C1-80E1-F1E8236FCBC6}">
   <dimension ref="A1:B4"/>
   <sheetViews>
@@ -3317,7 +4040,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31679CA5-0AA2-4F6F-8223-14BF74917F04}">
   <dimension ref="A1:B25"/>
   <sheetViews>
@@ -3491,7 +4214,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD670E02-665B-45B8-BC4E-9596D2C1BC55}">
   <dimension ref="A1:D25"/>
   <sheetViews>
@@ -3884,7 +4607,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5704FC51-737E-45F9-9A9E-85A96AFE5439}">
   <dimension ref="A1:M9"/>
   <sheetViews>
@@ -3923,851 +4646,6 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE12AB76-2BDA-4ACA-A128-8CFB9FB6C8F8}">
-  <dimension ref="A1:J25"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="19.33203125" style="8" customWidth="1"/>
-    <col min="2" max="4" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="5.33203125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D1" t="s">
-        <v>93</v>
-      </c>
-      <c r="E1" t="s">
-        <v>94</v>
-      </c>
-      <c r="F1" t="s">
-        <v>95</v>
-      </c>
-      <c r="G1" t="s">
-        <v>96</v>
-      </c>
-      <c r="H1" t="s">
-        <v>97</v>
-      </c>
-      <c r="I1" t="s">
-        <v>98</v>
-      </c>
-      <c r="J1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="8">
-        <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
-        <v>44671</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2">
-        <v>-0.8</v>
-      </c>
-      <c r="F2">
-        <v>-0.8</v>
-      </c>
-      <c r="G2">
-        <v>-0.8</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="8">
-        <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
-        <v>44671.041666666664</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3">
-        <v>-0.8</v>
-      </c>
-      <c r="F3">
-        <v>-0.8</v>
-      </c>
-      <c r="G3">
-        <v>-0.8</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="8">
-        <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
-        <v>44671.08333321759</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4">
-        <v>-0.8</v>
-      </c>
-      <c r="F4">
-        <v>-0.8</v>
-      </c>
-      <c r="G4">
-        <v>-0.8</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="8">
-        <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
-        <v>44671.124999826388</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5">
-        <v>-0.8</v>
-      </c>
-      <c r="F5">
-        <v>-0.8</v>
-      </c>
-      <c r="G5">
-        <v>-0.8</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="8">
-        <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
-        <v>44671.166666435187</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6">
-        <v>-0.8</v>
-      </c>
-      <c r="F6">
-        <v>-0.8</v>
-      </c>
-      <c r="G6">
-        <v>-0.8</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="8">
-        <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
-        <v>44671.208333043978</v>
-      </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="E7">
-        <v>-0.8</v>
-      </c>
-      <c r="F7">
-        <v>-0.8</v>
-      </c>
-      <c r="G7">
-        <v>-0.8</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="8">
-        <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
-        <v>44671.249999652777</v>
-      </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-      <c r="E8">
-        <v>-0.8</v>
-      </c>
-      <c r="F8">
-        <v>-0.8</v>
-      </c>
-      <c r="G8">
-        <v>-0.8</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="8">
-        <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
-        <v>44671.291666261575</v>
-      </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-      <c r="E9">
-        <v>-0.8</v>
-      </c>
-      <c r="F9">
-        <v>-0.8</v>
-      </c>
-      <c r="G9">
-        <v>-0.8</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="8">
-        <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
-        <v>44671.333332870374</v>
-      </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-      <c r="E10">
-        <v>-0.8</v>
-      </c>
-      <c r="F10">
-        <v>-0.8</v>
-      </c>
-      <c r="G10">
-        <v>-0.8</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="8">
-        <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
-        <v>44671.374999479165</v>
-      </c>
-      <c r="B11">
-        <v>1</v>
-      </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="D11">
-        <v>1</v>
-      </c>
-      <c r="E11">
-        <v>-0.8</v>
-      </c>
-      <c r="F11">
-        <v>-0.8</v>
-      </c>
-      <c r="G11">
-        <v>-0.8</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="I11">
-        <v>0</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="8">
-        <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
-        <v>44671.416666087964</v>
-      </c>
-      <c r="B12">
-        <v>1</v>
-      </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
-      <c r="D12">
-        <v>1</v>
-      </c>
-      <c r="E12">
-        <v>-0.8</v>
-      </c>
-      <c r="F12">
-        <v>-0.8</v>
-      </c>
-      <c r="G12">
-        <v>-0.8</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
-      </c>
-      <c r="I12">
-        <v>0</v>
-      </c>
-      <c r="J12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="8">
-        <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
-        <v>44671.458332696762</v>
-      </c>
-      <c r="B13">
-        <v>1</v>
-      </c>
-      <c r="C13">
-        <v>1</v>
-      </c>
-      <c r="D13">
-        <v>1</v>
-      </c>
-      <c r="E13">
-        <v>-0.8</v>
-      </c>
-      <c r="F13">
-        <v>-0.8</v>
-      </c>
-      <c r="G13">
-        <v>-0.8</v>
-      </c>
-      <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="I13">
-        <v>0</v>
-      </c>
-      <c r="J13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="8">
-        <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
-        <v>44671.499999305554</v>
-      </c>
-      <c r="B14">
-        <v>1</v>
-      </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
-      <c r="D14">
-        <v>1</v>
-      </c>
-      <c r="E14">
-        <v>-0.8</v>
-      </c>
-      <c r="F14">
-        <v>-0.8</v>
-      </c>
-      <c r="G14">
-        <v>-0.8</v>
-      </c>
-      <c r="H14">
-        <v>0</v>
-      </c>
-      <c r="I14">
-        <v>0</v>
-      </c>
-      <c r="J14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="8">
-        <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
-        <v>44671.541665914352</v>
-      </c>
-      <c r="B15">
-        <v>1</v>
-      </c>
-      <c r="C15">
-        <v>1</v>
-      </c>
-      <c r="D15">
-        <v>1</v>
-      </c>
-      <c r="E15">
-        <v>-0.8</v>
-      </c>
-      <c r="F15">
-        <v>-0.8</v>
-      </c>
-      <c r="G15">
-        <v>-0.8</v>
-      </c>
-      <c r="H15">
-        <v>0</v>
-      </c>
-      <c r="I15">
-        <v>0</v>
-      </c>
-      <c r="J15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="8">
-        <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
-        <v>44671.583332523151</v>
-      </c>
-      <c r="B16">
-        <v>1</v>
-      </c>
-      <c r="C16">
-        <v>1</v>
-      </c>
-      <c r="D16">
-        <v>1</v>
-      </c>
-      <c r="E16">
-        <v>-0.8</v>
-      </c>
-      <c r="F16">
-        <v>-0.8</v>
-      </c>
-      <c r="G16">
-        <v>-0.8</v>
-      </c>
-      <c r="H16">
-        <v>0</v>
-      </c>
-      <c r="I16">
-        <v>0</v>
-      </c>
-      <c r="J16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" s="8">
-        <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
-        <v>44671.624999131942</v>
-      </c>
-      <c r="B17">
-        <v>1</v>
-      </c>
-      <c r="C17">
-        <v>1</v>
-      </c>
-      <c r="D17">
-        <v>1</v>
-      </c>
-      <c r="E17">
-        <v>-0.8</v>
-      </c>
-      <c r="F17">
-        <v>-0.8</v>
-      </c>
-      <c r="G17">
-        <v>-0.8</v>
-      </c>
-      <c r="H17">
-        <v>0</v>
-      </c>
-      <c r="I17">
-        <v>0</v>
-      </c>
-      <c r="J17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18" s="8">
-        <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
-        <v>44671.66666574074</v>
-      </c>
-      <c r="B18">
-        <v>1</v>
-      </c>
-      <c r="C18">
-        <v>1</v>
-      </c>
-      <c r="D18">
-        <v>1</v>
-      </c>
-      <c r="E18">
-        <v>-0.8</v>
-      </c>
-      <c r="F18">
-        <v>-0.8</v>
-      </c>
-      <c r="G18">
-        <v>-0.8</v>
-      </c>
-      <c r="H18">
-        <v>0</v>
-      </c>
-      <c r="I18">
-        <v>0</v>
-      </c>
-      <c r="J18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19" s="8">
-        <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
-        <v>44671.708332349539</v>
-      </c>
-      <c r="B19">
-        <v>1</v>
-      </c>
-      <c r="C19">
-        <v>1</v>
-      </c>
-      <c r="D19">
-        <v>1</v>
-      </c>
-      <c r="E19">
-        <v>-0.8</v>
-      </c>
-      <c r="F19">
-        <v>-0.8</v>
-      </c>
-      <c r="G19">
-        <v>-0.8</v>
-      </c>
-      <c r="H19">
-        <v>0</v>
-      </c>
-      <c r="I19">
-        <v>0</v>
-      </c>
-      <c r="J19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A20" s="8">
-        <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
-        <v>44671.74999895833</v>
-      </c>
-      <c r="B20">
-        <v>1</v>
-      </c>
-      <c r="C20">
-        <v>1</v>
-      </c>
-      <c r="D20">
-        <v>1</v>
-      </c>
-      <c r="E20">
-        <v>-0.8</v>
-      </c>
-      <c r="F20">
-        <v>-0.8</v>
-      </c>
-      <c r="G20">
-        <v>-0.8</v>
-      </c>
-      <c r="H20">
-        <v>0</v>
-      </c>
-      <c r="I20">
-        <v>0</v>
-      </c>
-      <c r="J20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A21" s="8">
-        <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
-        <v>44671.791665567129</v>
-      </c>
-      <c r="B21">
-        <v>1</v>
-      </c>
-      <c r="C21">
-        <v>1</v>
-      </c>
-      <c r="D21">
-        <v>1</v>
-      </c>
-      <c r="E21">
-        <v>-0.8</v>
-      </c>
-      <c r="F21">
-        <v>-0.8</v>
-      </c>
-      <c r="G21">
-        <v>-0.8</v>
-      </c>
-      <c r="H21">
-        <v>0</v>
-      </c>
-      <c r="I21">
-        <v>0</v>
-      </c>
-      <c r="J21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A22" s="8">
-        <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
-        <v>44671.833332175927</v>
-      </c>
-      <c r="B22">
-        <v>1</v>
-      </c>
-      <c r="C22">
-        <v>1</v>
-      </c>
-      <c r="D22">
-        <v>1</v>
-      </c>
-      <c r="E22">
-        <v>-0.8</v>
-      </c>
-      <c r="F22">
-        <v>-0.8</v>
-      </c>
-      <c r="G22">
-        <v>-0.8</v>
-      </c>
-      <c r="H22">
-        <v>0</v>
-      </c>
-      <c r="I22">
-        <v>0</v>
-      </c>
-      <c r="J22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A23" s="8">
-        <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
-        <v>44671.874998784719</v>
-      </c>
-      <c r="B23">
-        <v>1</v>
-      </c>
-      <c r="C23">
-        <v>1</v>
-      </c>
-      <c r="D23">
-        <v>1</v>
-      </c>
-      <c r="E23">
-        <v>-0.8</v>
-      </c>
-      <c r="F23">
-        <v>-0.8</v>
-      </c>
-      <c r="G23">
-        <v>-0.8</v>
-      </c>
-      <c r="H23">
-        <v>0</v>
-      </c>
-      <c r="I23">
-        <v>0</v>
-      </c>
-      <c r="J23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A24" s="8">
-        <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
-        <v>44671.916665393517</v>
-      </c>
-      <c r="B24">
-        <v>1</v>
-      </c>
-      <c r="C24">
-        <v>1</v>
-      </c>
-      <c r="D24">
-        <v>1</v>
-      </c>
-      <c r="E24">
-        <v>-0.8</v>
-      </c>
-      <c r="F24">
-        <v>-0.8</v>
-      </c>
-      <c r="G24">
-        <v>-0.8</v>
-      </c>
-      <c r="H24">
-        <v>0</v>
-      </c>
-      <c r="I24">
-        <v>0</v>
-      </c>
-      <c r="J24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A25" s="8">
-        <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
-        <v>44671.958332002316</v>
-      </c>
-      <c r="B25">
-        <v>1</v>
-      </c>
-      <c r="C25">
-        <v>1</v>
-      </c>
-      <c r="D25">
-        <v>1</v>
-      </c>
-      <c r="E25">
-        <v>-0.8</v>
-      </c>
-      <c r="F25">
-        <v>-0.8</v>
-      </c>
-      <c r="G25">
-        <v>-0.8</v>
-      </c>
-      <c r="H25">
-        <v>0</v>
-      </c>
-      <c r="I25">
-        <v>0</v>
-      </c>
-      <c r="J25">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -5039,6 +4917,851 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE12AB76-2BDA-4ACA-A128-8CFB9FB6C8F8}">
+  <dimension ref="A1:J25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="19.33203125" style="8" customWidth="1"/>
+    <col min="2" max="4" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="5.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G1" t="s">
+        <v>96</v>
+      </c>
+      <c r="H1" t="s">
+        <v>97</v>
+      </c>
+      <c r="I1" t="s">
+        <v>98</v>
+      </c>
+      <c r="J1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="8">
+        <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
+        <v>44671</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>-0.8</v>
+      </c>
+      <c r="F2">
+        <v>-0.8</v>
+      </c>
+      <c r="G2">
+        <v>-0.8</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="8">
+        <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
+        <v>44671.041666666664</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>-0.8</v>
+      </c>
+      <c r="F3">
+        <v>-0.8</v>
+      </c>
+      <c r="G3">
+        <v>-0.8</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="8">
+        <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
+        <v>44671.08333321759</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>-0.8</v>
+      </c>
+      <c r="F4">
+        <v>-0.8</v>
+      </c>
+      <c r="G4">
+        <v>-0.8</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="8">
+        <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
+        <v>44671.124999826388</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>-0.8</v>
+      </c>
+      <c r="F5">
+        <v>-0.8</v>
+      </c>
+      <c r="G5">
+        <v>-0.8</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="8">
+        <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
+        <v>44671.166666435187</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>-0.8</v>
+      </c>
+      <c r="F6">
+        <v>-0.8</v>
+      </c>
+      <c r="G6">
+        <v>-0.8</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="8">
+        <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
+        <v>44671.208333043978</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>-0.8</v>
+      </c>
+      <c r="F7">
+        <v>-0.8</v>
+      </c>
+      <c r="G7">
+        <v>-0.8</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="8">
+        <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
+        <v>44671.249999652777</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>-0.8</v>
+      </c>
+      <c r="F8">
+        <v>-0.8</v>
+      </c>
+      <c r="G8">
+        <v>-0.8</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="8">
+        <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
+        <v>44671.291666261575</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>-0.8</v>
+      </c>
+      <c r="F9">
+        <v>-0.8</v>
+      </c>
+      <c r="G9">
+        <v>-0.8</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" s="8">
+        <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
+        <v>44671.333332870374</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>-0.8</v>
+      </c>
+      <c r="F10">
+        <v>-0.8</v>
+      </c>
+      <c r="G10">
+        <v>-0.8</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" s="8">
+        <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
+        <v>44671.374999479165</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>-0.8</v>
+      </c>
+      <c r="F11">
+        <v>-0.8</v>
+      </c>
+      <c r="G11">
+        <v>-0.8</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" s="8">
+        <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
+        <v>44671.416666087964</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>-0.8</v>
+      </c>
+      <c r="F12">
+        <v>-0.8</v>
+      </c>
+      <c r="G12">
+        <v>-0.8</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" s="8">
+        <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
+        <v>44671.458332696762</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>-0.8</v>
+      </c>
+      <c r="F13">
+        <v>-0.8</v>
+      </c>
+      <c r="G13">
+        <v>-0.8</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" s="8">
+        <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
+        <v>44671.499999305554</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>-0.8</v>
+      </c>
+      <c r="F14">
+        <v>-0.8</v>
+      </c>
+      <c r="G14">
+        <v>-0.8</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" s="8">
+        <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
+        <v>44671.541665914352</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>-0.8</v>
+      </c>
+      <c r="F15">
+        <v>-0.8</v>
+      </c>
+      <c r="G15">
+        <v>-0.8</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" s="8">
+        <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
+        <v>44671.583332523151</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>-0.8</v>
+      </c>
+      <c r="F16">
+        <v>-0.8</v>
+      </c>
+      <c r="G16">
+        <v>-0.8</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17" s="8">
+        <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
+        <v>44671.624999131942</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>-0.8</v>
+      </c>
+      <c r="F17">
+        <v>-0.8</v>
+      </c>
+      <c r="G17">
+        <v>-0.8</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A18" s="8">
+        <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
+        <v>44671.66666574074</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <v>-0.8</v>
+      </c>
+      <c r="F18">
+        <v>-0.8</v>
+      </c>
+      <c r="G18">
+        <v>-0.8</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A19" s="8">
+        <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
+        <v>44671.708332349539</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <v>-0.8</v>
+      </c>
+      <c r="F19">
+        <v>-0.8</v>
+      </c>
+      <c r="G19">
+        <v>-0.8</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A20" s="8">
+        <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
+        <v>44671.74999895833</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <v>-0.8</v>
+      </c>
+      <c r="F20">
+        <v>-0.8</v>
+      </c>
+      <c r="G20">
+        <v>-0.8</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A21" s="8">
+        <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
+        <v>44671.791665567129</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21">
+        <v>-0.8</v>
+      </c>
+      <c r="F21">
+        <v>-0.8</v>
+      </c>
+      <c r="G21">
+        <v>-0.8</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A22" s="8">
+        <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
+        <v>44671.833332175927</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22">
+        <v>-0.8</v>
+      </c>
+      <c r="F22">
+        <v>-0.8</v>
+      </c>
+      <c r="G22">
+        <v>-0.8</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A23" s="8">
+        <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
+        <v>44671.874998784719</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23">
+        <v>-0.8</v>
+      </c>
+      <c r="F23">
+        <v>-0.8</v>
+      </c>
+      <c r="G23">
+        <v>-0.8</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A24" s="8">
+        <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
+        <v>44671.916665393517</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24">
+        <v>-0.8</v>
+      </c>
+      <c r="F24">
+        <v>-0.8</v>
+      </c>
+      <c r="G24">
+        <v>-0.8</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A25" s="8">
+        <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
+        <v>44671.958332002316</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25">
+        <v>-0.8</v>
+      </c>
+      <c r="F25">
+        <v>-0.8</v>
+      </c>
+      <c r="G25">
+        <v>-0.8</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7FEDBA5-B0F3-4E9D-9367-08D5F5FA8AEA}">
   <dimension ref="A1:D25"/>
   <sheetViews>
@@ -5826,6 +6549,32 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6007B83A-95ED-43FB-AC05-C8A15D3323E5}">
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>124</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAB1106B-D567-41FC-8E91-2B4CC5EC9B59}">
   <dimension ref="A1:K3"/>
   <sheetViews>
@@ -5924,11 +6673,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A86A8A7-FD76-4891-A53C-CBB095359118}">
   <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
@@ -6263,7 +7012,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7AEF404-3743-47D7-AC45-7AE3A9FB796E}">
   <dimension ref="A1:C25"/>
   <sheetViews>
@@ -6436,7 +7185,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0532F8A-0FB4-47AD-98A1-4065D3376432}">
   <dimension ref="A1:B3"/>
   <sheetViews>
@@ -6475,7 +7224,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77A4637A-7829-48D6-AE54-2E654AB1A427}">
   <dimension ref="A1:L25"/>
   <sheetViews>
@@ -6995,720 +7744,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F87DD44-A1AD-4241-AED7-C48CC9DEE2E2}">
-  <dimension ref="A1:G25"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="19.33203125" style="8" customWidth="1"/>
-    <col min="4" max="6" width="10.44140625" customWidth="1"/>
-    <col min="7" max="7" width="10.44140625" style="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="8">
-        <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
-        <v>44671</v>
-      </c>
-      <c r="B2">
-        <v>-5</v>
-      </c>
-      <c r="C2">
-        <v>-5</v>
-      </c>
-      <c r="D2">
-        <v>-5</v>
-      </c>
-      <c r="E2">
-        <f>1*C2</f>
-        <v>-5</v>
-      </c>
-      <c r="F2" s="2">
-        <f>1*B2</f>
-        <v>-5</v>
-      </c>
-      <c r="G2" s="2">
-        <f>1*C2</f>
-        <v>-5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="8">
-        <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
-        <v>44671.041666666664</v>
-      </c>
-      <c r="B3">
-        <v>-5</v>
-      </c>
-      <c r="C3">
-        <v>-5</v>
-      </c>
-      <c r="D3">
-        <f t="shared" ref="D3:D25" si="0">1*B3</f>
-        <v>-5</v>
-      </c>
-      <c r="E3">
-        <f t="shared" ref="E3:E25" si="1">1*C3</f>
-        <v>-5</v>
-      </c>
-      <c r="F3" s="2">
-        <f t="shared" ref="F3:F25" si="2">1*B3</f>
-        <v>-5</v>
-      </c>
-      <c r="G3" s="2">
-        <f t="shared" ref="G3:G25" si="3">1*C3</f>
-        <v>-5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="8">
-        <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
-        <v>44671.08333321759</v>
-      </c>
-      <c r="B4">
-        <v>-4</v>
-      </c>
-      <c r="C4">
-        <v>-6</v>
-      </c>
-      <c r="D4">
-        <f t="shared" si="0"/>
-        <v>-4</v>
-      </c>
-      <c r="E4">
-        <f t="shared" si="1"/>
-        <v>-6</v>
-      </c>
-      <c r="F4" s="2">
-        <f t="shared" si="2"/>
-        <v>-4</v>
-      </c>
-      <c r="G4" s="2">
-        <f t="shared" si="3"/>
-        <v>-6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="8">
-        <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
-        <v>44671.124999826388</v>
-      </c>
-      <c r="B5">
-        <v>-2</v>
-      </c>
-      <c r="C5">
-        <v>-3</v>
-      </c>
-      <c r="D5">
-        <f t="shared" si="0"/>
-        <v>-2</v>
-      </c>
-      <c r="E5">
-        <f t="shared" si="1"/>
-        <v>-3</v>
-      </c>
-      <c r="F5" s="2">
-        <f t="shared" si="2"/>
-        <v>-2</v>
-      </c>
-      <c r="G5" s="2">
-        <f t="shared" si="3"/>
-        <v>-3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="8">
-        <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
-        <v>44671.166666435187</v>
-      </c>
-      <c r="B6">
-        <v>-7</v>
-      </c>
-      <c r="C6">
-        <v>-4</v>
-      </c>
-      <c r="D6">
-        <f t="shared" si="0"/>
-        <v>-7</v>
-      </c>
-      <c r="E6">
-        <f t="shared" si="1"/>
-        <v>-4</v>
-      </c>
-      <c r="F6" s="2">
-        <f t="shared" si="2"/>
-        <v>-7</v>
-      </c>
-      <c r="G6" s="2">
-        <f t="shared" si="3"/>
-        <v>-4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="8">
-        <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
-        <v>44671.208333043978</v>
-      </c>
-      <c r="B7">
-        <v>-5</v>
-      </c>
-      <c r="C7">
-        <v>-5</v>
-      </c>
-      <c r="D7">
-        <f t="shared" si="0"/>
-        <v>-5</v>
-      </c>
-      <c r="E7">
-        <f t="shared" si="1"/>
-        <v>-5</v>
-      </c>
-      <c r="F7" s="2">
-        <f t="shared" si="2"/>
-        <v>-5</v>
-      </c>
-      <c r="G7" s="2">
-        <f t="shared" si="3"/>
-        <v>-5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="8">
-        <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
-        <v>44671.249999652777</v>
-      </c>
-      <c r="B8">
-        <v>-14</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <f t="shared" si="0"/>
-        <v>-14</v>
-      </c>
-      <c r="E8">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F8" s="2">
-        <f t="shared" si="2"/>
-        <v>-14</v>
-      </c>
-      <c r="G8" s="2">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="8">
-        <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
-        <v>44671.291666261575</v>
-      </c>
-      <c r="B9">
-        <v>-20</v>
-      </c>
-      <c r="C9">
-        <v>-2</v>
-      </c>
-      <c r="D9">
-        <f t="shared" si="0"/>
-        <v>-20</v>
-      </c>
-      <c r="E9">
-        <f t="shared" si="1"/>
-        <v>-2</v>
-      </c>
-      <c r="F9" s="2">
-        <f t="shared" si="2"/>
-        <v>-20</v>
-      </c>
-      <c r="G9" s="2">
-        <f t="shared" si="3"/>
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="8">
-        <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
-        <v>44671.333332870374</v>
-      </c>
-      <c r="B10">
-        <v>-13</v>
-      </c>
-      <c r="C10">
-        <v>-2</v>
-      </c>
-      <c r="D10">
-        <f t="shared" si="0"/>
-        <v>-13</v>
-      </c>
-      <c r="E10">
-        <f t="shared" si="1"/>
-        <v>-2</v>
-      </c>
-      <c r="F10" s="2">
-        <f t="shared" si="2"/>
-        <v>-13</v>
-      </c>
-      <c r="G10" s="2">
-        <f t="shared" si="3"/>
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="8">
-        <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
-        <v>44671.374999479165</v>
-      </c>
-      <c r="B11">
-        <v>-12</v>
-      </c>
-      <c r="C11">
-        <v>-5</v>
-      </c>
-      <c r="D11">
-        <f t="shared" si="0"/>
-        <v>-12</v>
-      </c>
-      <c r="E11">
-        <f t="shared" si="1"/>
-        <v>-5</v>
-      </c>
-      <c r="F11" s="2">
-        <f t="shared" si="2"/>
-        <v>-12</v>
-      </c>
-      <c r="G11" s="2">
-        <f t="shared" si="3"/>
-        <v>-5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="8">
-        <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
-        <v>44671.416666087964</v>
-      </c>
-      <c r="B12">
-        <v>-13</v>
-      </c>
-      <c r="C12">
-        <v>-2</v>
-      </c>
-      <c r="D12">
-        <f t="shared" si="0"/>
-        <v>-13</v>
-      </c>
-      <c r="E12">
-        <f t="shared" si="1"/>
-        <v>-2</v>
-      </c>
-      <c r="F12" s="2">
-        <f t="shared" si="2"/>
-        <v>-13</v>
-      </c>
-      <c r="G12" s="2">
-        <f t="shared" si="3"/>
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="8">
-        <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
-        <v>44671.458332696762</v>
-      </c>
-      <c r="B13">
-        <v>-14</v>
-      </c>
-      <c r="C13">
-        <v>-6</v>
-      </c>
-      <c r="D13">
-        <f t="shared" si="0"/>
-        <v>-14</v>
-      </c>
-      <c r="E13">
-        <f t="shared" si="1"/>
-        <v>-6</v>
-      </c>
-      <c r="F13" s="2">
-        <f t="shared" si="2"/>
-        <v>-14</v>
-      </c>
-      <c r="G13" s="2">
-        <f t="shared" si="3"/>
-        <v>-6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="8">
-        <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
-        <v>44671.499999305554</v>
-      </c>
-      <c r="B14">
-        <v>-18</v>
-      </c>
-      <c r="C14">
-        <v>-4</v>
-      </c>
-      <c r="D14">
-        <f t="shared" si="0"/>
-        <v>-18</v>
-      </c>
-      <c r="E14">
-        <f t="shared" si="1"/>
-        <v>-4</v>
-      </c>
-      <c r="F14" s="2">
-        <f t="shared" si="2"/>
-        <v>-18</v>
-      </c>
-      <c r="G14" s="2">
-        <f t="shared" si="3"/>
-        <v>-4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="8">
-        <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
-        <v>44671.541665914352</v>
-      </c>
-      <c r="B15">
-        <v>-14</v>
-      </c>
-      <c r="C15">
-        <v>-3</v>
-      </c>
-      <c r="D15">
-        <f t="shared" si="0"/>
-        <v>-14</v>
-      </c>
-      <c r="E15">
-        <f t="shared" si="1"/>
-        <v>-3</v>
-      </c>
-      <c r="F15" s="2">
-        <f t="shared" si="2"/>
-        <v>-14</v>
-      </c>
-      <c r="G15" s="2">
-        <f t="shared" si="3"/>
-        <v>-3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="8">
-        <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
-        <v>44671.583332523151</v>
-      </c>
-      <c r="B16">
-        <v>-15</v>
-      </c>
-      <c r="C16">
-        <v>-5</v>
-      </c>
-      <c r="D16">
-        <f t="shared" si="0"/>
-        <v>-15</v>
-      </c>
-      <c r="E16">
-        <f t="shared" si="1"/>
-        <v>-5</v>
-      </c>
-      <c r="F16" s="2">
-        <f t="shared" si="2"/>
-        <v>-15</v>
-      </c>
-      <c r="G16" s="2">
-        <f t="shared" si="3"/>
-        <v>-5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="8">
-        <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
-        <v>44671.624999131942</v>
-      </c>
-      <c r="B17">
-        <v>-14</v>
-      </c>
-      <c r="C17">
-        <v>-1</v>
-      </c>
-      <c r="D17">
-        <f t="shared" si="0"/>
-        <v>-14</v>
-      </c>
-      <c r="E17">
-        <f t="shared" si="1"/>
-        <v>-1</v>
-      </c>
-      <c r="F17" s="2">
-        <f t="shared" si="2"/>
-        <v>-14</v>
-      </c>
-      <c r="G17" s="2">
-        <f t="shared" si="3"/>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="8">
-        <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
-        <v>44671.66666574074</v>
-      </c>
-      <c r="B18">
-        <v>-20</v>
-      </c>
-      <c r="C18">
-        <v>-5</v>
-      </c>
-      <c r="D18">
-        <f t="shared" si="0"/>
-        <v>-20</v>
-      </c>
-      <c r="E18">
-        <f t="shared" si="1"/>
-        <v>-5</v>
-      </c>
-      <c r="F18" s="2">
-        <f t="shared" si="2"/>
-        <v>-20</v>
-      </c>
-      <c r="G18" s="2">
-        <f t="shared" si="3"/>
-        <v>-5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="8">
-        <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
-        <v>44671.708332349539</v>
-      </c>
-      <c r="B19">
-        <v>-20</v>
-      </c>
-      <c r="C19">
-        <v>-4</v>
-      </c>
-      <c r="D19">
-        <f t="shared" si="0"/>
-        <v>-20</v>
-      </c>
-      <c r="E19">
-        <f t="shared" si="1"/>
-        <v>-4</v>
-      </c>
-      <c r="F19" s="2">
-        <f t="shared" si="2"/>
-        <v>-20</v>
-      </c>
-      <c r="G19" s="2">
-        <f t="shared" si="3"/>
-        <v>-4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="8">
-        <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
-        <v>44671.74999895833</v>
-      </c>
-      <c r="B20">
-        <v>-20</v>
-      </c>
-      <c r="C20">
-        <v>0</v>
-      </c>
-      <c r="D20">
-        <f t="shared" si="0"/>
-        <v>-20</v>
-      </c>
-      <c r="E20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F20" s="2">
-        <f t="shared" si="2"/>
-        <v>-20</v>
-      </c>
-      <c r="G20" s="2">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="8">
-        <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
-        <v>44671.791665567129</v>
-      </c>
-      <c r="B21">
-        <v>-20</v>
-      </c>
-      <c r="C21">
-        <v>-1</v>
-      </c>
-      <c r="D21">
-        <f t="shared" si="0"/>
-        <v>-20</v>
-      </c>
-      <c r="E21">
-        <f t="shared" si="1"/>
-        <v>-1</v>
-      </c>
-      <c r="F21" s="2">
-        <f t="shared" si="2"/>
-        <v>-20</v>
-      </c>
-      <c r="G21" s="2">
-        <f t="shared" si="3"/>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="8">
-        <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
-        <v>44671.833332175927</v>
-      </c>
-      <c r="B22">
-        <v>-16</v>
-      </c>
-      <c r="C22">
-        <v>-4</v>
-      </c>
-      <c r="D22">
-        <f t="shared" si="0"/>
-        <v>-16</v>
-      </c>
-      <c r="E22">
-        <f t="shared" si="1"/>
-        <v>-4</v>
-      </c>
-      <c r="F22" s="2">
-        <f t="shared" si="2"/>
-        <v>-16</v>
-      </c>
-      <c r="G22" s="2">
-        <f t="shared" si="3"/>
-        <v>-4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="8">
-        <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
-        <v>44671.874998784719</v>
-      </c>
-      <c r="B23">
-        <v>-14</v>
-      </c>
-      <c r="C23">
-        <v>-5</v>
-      </c>
-      <c r="D23">
-        <f t="shared" si="0"/>
-        <v>-14</v>
-      </c>
-      <c r="E23">
-        <f t="shared" si="1"/>
-        <v>-5</v>
-      </c>
-      <c r="F23" s="2">
-        <f t="shared" si="2"/>
-        <v>-14</v>
-      </c>
-      <c r="G23" s="2">
-        <f t="shared" si="3"/>
-        <v>-5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="8">
-        <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
-        <v>44671.916665393517</v>
-      </c>
-      <c r="B24">
-        <v>-11</v>
-      </c>
-      <c r="C24">
-        <v>-1</v>
-      </c>
-      <c r="D24">
-        <f t="shared" si="0"/>
-        <v>-11</v>
-      </c>
-      <c r="E24">
-        <f t="shared" si="1"/>
-        <v>-1</v>
-      </c>
-      <c r="F24" s="2">
-        <f t="shared" si="2"/>
-        <v>-11</v>
-      </c>
-      <c r="G24" s="2">
-        <f t="shared" si="3"/>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="8">
-        <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
-        <v>44671.958332002316</v>
-      </c>
-      <c r="B25">
-        <v>-9</v>
-      </c>
-      <c r="C25">
-        <v>-3</v>
-      </c>
-      <c r="D25">
-        <f t="shared" si="0"/>
-        <v>-9</v>
-      </c>
-      <c r="E25">
-        <f t="shared" si="1"/>
-        <v>-3</v>
-      </c>
-      <c r="F25" s="2">
-        <f t="shared" si="2"/>
-        <v>-9</v>
-      </c>
-      <c r="G25" s="2">
-        <f t="shared" si="3"/>
-        <v>-3</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/input_data/input_data.xlsx
+++ b/input_data/input_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dsdennis\HOPE\Predicer_dev\Predicer\input_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CF8CAA3-BC30-4A3C-A055-D270806D81A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D0114E0-2273-4633-AC8D-B91C07AA5871}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="796" activeTab="3" xr2:uid="{788BFBD1-D930-4535-8A91-D85C56924796}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="796" activeTab="4" xr2:uid="{788BFBD1-D930-4535-8A91-D85C56924796}"/>
   </bookViews>
   <sheets>
     <sheet name="timeseries" sheetId="18" r:id="rId1"/>
@@ -814,206 +814,206 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="8">
         <v>44671</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <v>44671.041666666664</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <v>44671.08333321759</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <v>44671.124999826388</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <v>44671.166666435187</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <v>44671.208333043978</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <v>44671.249999652777</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <v>44671.291666261575</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <v>44671.333332870374</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <v>44671.374999479165</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
         <v>44671.416666087964</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="8">
         <v>44671.458332696762</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
         <v>44671.499999305554</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="8">
         <v>44671.541665914352</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="8">
         <v>44671.583332523151</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="8">
         <v>44671.624999131942</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="8">
         <v>44671.66666574074</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="8">
         <v>44671.708332349539</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="8">
         <v>44671.74999895833</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="8">
         <v>44671.791665567129</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="8">
         <v>44671.833332175927</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="8">
         <v>44671.874998784719</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="8">
         <v>44671.916665393517</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="8">
         <v>44671.958332002316</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="8"/>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="8"/>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="8"/>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" s="8"/>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" s="8"/>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" s="8"/>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" s="8"/>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="8"/>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="8"/>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" s="8"/>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" s="8"/>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" s="8"/>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" s="8"/>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" s="8"/>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" s="8"/>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" s="8"/>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" s="8"/>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" s="8"/>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" s="8"/>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" s="8"/>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" s="8"/>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" s="8"/>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" s="8"/>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" s="8"/>
     </row>
   </sheetData>
@@ -1029,14 +1029,14 @@
       <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" style="8" customWidth="1"/>
-    <col min="4" max="6" width="10.44140625" customWidth="1"/>
-    <col min="7" max="7" width="10.44140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" style="8" customWidth="1"/>
+    <col min="4" max="6" width="10.42578125" customWidth="1"/>
+    <col min="7" max="7" width="10.42578125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>31</v>
       </c>
@@ -1059,7 +1059,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="8">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44671</v>
@@ -1086,7 +1086,7 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44671.041666666664</v>
@@ -1114,7 +1114,7 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44671.08333321759</v>
@@ -1142,7 +1142,7 @@
         <v>-6</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v>44671.124999826388</v>
@@ -1170,7 +1170,7 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v>44671.166666435187</v>
@@ -1198,7 +1198,7 @@
         <v>-4</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v>44671.208333043978</v>
@@ -1226,7 +1226,7 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v>44671.249999652777</v>
@@ -1254,7 +1254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v>44671.291666261575</v>
@@ -1282,7 +1282,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v>44671.333332870374</v>
@@ -1310,7 +1310,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v>44671.374999479165</v>
@@ -1338,7 +1338,7 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v>44671.416666087964</v>
@@ -1366,7 +1366,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="8">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v>44671.458332696762</v>
@@ -1394,7 +1394,7 @@
         <v>-6</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v>44671.499999305554</v>
@@ -1422,7 +1422,7 @@
         <v>-4</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="8">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v>44671.541665914352</v>
@@ -1450,7 +1450,7 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="8">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v>44671.583332523151</v>
@@ -1478,7 +1478,7 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="8">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v>44671.624999131942</v>
@@ -1506,7 +1506,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="8">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v>44671.66666574074</v>
@@ -1534,7 +1534,7 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="8">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v>44671.708332349539</v>
@@ -1562,7 +1562,7 @@
         <v>-4</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="8">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v>44671.74999895833</v>
@@ -1590,7 +1590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="8">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v>44671.791665567129</v>
@@ -1618,7 +1618,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="8">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v>44671.833332175927</v>
@@ -1646,7 +1646,7 @@
         <v>-4</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="8">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v>44671.874998784719</v>
@@ -1674,7 +1674,7 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="8">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v>44671.916665393517</v>
@@ -1702,7 +1702,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="8">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v>44671.958332002316</v>
@@ -1745,12 +1745,12 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" style="8" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>31</v>
       </c>
@@ -1758,7 +1758,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="8">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44671</v>
@@ -1767,7 +1767,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44671.041666666664</v>
@@ -1776,7 +1776,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44671.08333321759</v>
@@ -1785,7 +1785,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v>44671.124999826388</v>
@@ -1794,7 +1794,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v>44671.166666435187</v>
@@ -1803,7 +1803,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v>44671.208333043978</v>
@@ -1812,7 +1812,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v>44671.249999652777</v>
@@ -1821,7 +1821,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v>44671.291666261575</v>
@@ -1830,7 +1830,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v>44671.333332870374</v>
@@ -1839,7 +1839,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v>44671.374999479165</v>
@@ -1848,7 +1848,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v>44671.416666087964</v>
@@ -1857,7 +1857,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="8">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v>44671.458332696762</v>
@@ -1866,7 +1866,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v>44671.499999305554</v>
@@ -1875,7 +1875,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="8">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v>44671.541665914352</v>
@@ -1884,7 +1884,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="8">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v>44671.583332523151</v>
@@ -1893,7 +1893,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="8">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v>44671.624999131942</v>
@@ -1902,7 +1902,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="8">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v>44671.66666574074</v>
@@ -1911,7 +1911,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="8">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v>44671.708332349539</v>
@@ -1920,7 +1920,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="8">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v>44671.74999895833</v>
@@ -1929,7 +1929,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="8">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v>44671.791665567129</v>
@@ -1938,7 +1938,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="8">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v>44671.833332175927</v>
@@ -1947,7 +1947,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="8">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v>44671.874998784719</v>
@@ -1956,7 +1956,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="8">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v>44671.916665393517</v>
@@ -1965,7 +1965,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="8">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v>44671.958332002316</v>
@@ -1987,17 +1987,17 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.44140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>32</v>
       </c>
@@ -2020,7 +2020,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>12</v>
       </c>
@@ -2043,7 +2043,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>40</v>
       </c>
@@ -2066,7 +2066,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>41</v>
       </c>
@@ -2089,7 +2089,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>42</v>
       </c>
@@ -2125,14 +2125,14 @@
       <selection activeCell="M2" sqref="M2:M25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" style="8" customWidth="1"/>
-    <col min="2" max="5" width="11.44140625" customWidth="1"/>
-    <col min="6" max="13" width="11.109375" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" style="8" customWidth="1"/>
+    <col min="2" max="5" width="11.42578125" customWidth="1"/>
+    <col min="6" max="13" width="11.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>31</v>
       </c>
@@ -2173,7 +2173,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="8">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44671</v>
@@ -2215,7 +2215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44671.041666666664</v>
@@ -2257,7 +2257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44671.08333321759</v>
@@ -2299,7 +2299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v>44671.124999826388</v>
@@ -2341,7 +2341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v>44671.166666435187</v>
@@ -2383,7 +2383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v>44671.208333043978</v>
@@ -2425,7 +2425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v>44671.249999652777</v>
@@ -2467,7 +2467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v>44671.291666261575</v>
@@ -2509,7 +2509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v>44671.333332870374</v>
@@ -2551,7 +2551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v>44671.374999479165</v>
@@ -2593,7 +2593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v>44671.416666087964</v>
@@ -2635,7 +2635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="8">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v>44671.458332696762</v>
@@ -2677,7 +2677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v>44671.499999305554</v>
@@ -2719,7 +2719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="8">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v>44671.541665914352</v>
@@ -2761,7 +2761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="8">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v>44671.583332523151</v>
@@ -2803,7 +2803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="8">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v>44671.624999131942</v>
@@ -2845,7 +2845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="8">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v>44671.66666574074</v>
@@ -2887,7 +2887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="8">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v>44671.708332349539</v>
@@ -2929,7 +2929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="8">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v>44671.74999895833</v>
@@ -2971,7 +2971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="8">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v>44671.791665567129</v>
@@ -3013,7 +3013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="8">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v>44671.833332175927</v>
@@ -3055,7 +3055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="8">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v>44671.874998784719</v>
@@ -3097,7 +3097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="8">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v>44671.916665393517</v>
@@ -3139,7 +3139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="8">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v>44671.958332002316</v>
@@ -3195,14 +3195,14 @@
       <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="10.33203125" customWidth="1"/>
-    <col min="5" max="7" width="11.6640625" customWidth="1"/>
+    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="10.28515625" customWidth="1"/>
+    <col min="5" max="7" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>31</v>
       </c>
@@ -3225,7 +3225,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="8">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44671</v>
@@ -3255,7 +3255,7 @@
         <v>21.6</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44671.041666666664</v>
@@ -3285,7 +3285,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44671.08333321759</v>
@@ -3315,7 +3315,7 @@
         <v>26.1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v>44671.124999826388</v>
@@ -3345,7 +3345,7 @@
         <v>22.95</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v>44671.166666435187</v>
@@ -3375,7 +3375,7 @@
         <v>16.650000000000002</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v>44671.208333043978</v>
@@ -3405,7 +3405,7 @@
         <v>15.3</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v>44671.249999652777</v>
@@ -3435,7 +3435,7 @@
         <v>20.25</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v>44671.291666261575</v>
@@ -3465,7 +3465,7 @@
         <v>18.45</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v>44671.333332870374</v>
@@ -3495,7 +3495,7 @@
         <v>24.75</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v>44671.374999479165</v>
@@ -3525,7 +3525,7 @@
         <v>26.55</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v>44671.416666087964</v>
@@ -3555,7 +3555,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="8">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v>44671.458332696762</v>
@@ -3585,7 +3585,7 @@
         <v>18.45</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v>44671.499999305554</v>
@@ -3615,7 +3615,7 @@
         <v>20.7</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="8">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v>44671.541665914352</v>
@@ -3645,7 +3645,7 @@
         <v>17.100000000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="8">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v>44671.583332523151</v>
@@ -3675,7 +3675,7 @@
         <v>20.7</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="8">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v>44671.624999131942</v>
@@ -3705,7 +3705,7 @@
         <v>20.25</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="8">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v>44671.66666574074</v>
@@ -3735,7 +3735,7 @@
         <v>18.45</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="8">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v>44671.708332349539</v>
@@ -3765,7 +3765,7 @@
         <v>20.7</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="8">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v>44671.74999895833</v>
@@ -3795,7 +3795,7 @@
         <v>23.400000000000002</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="8">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v>44671.791665567129</v>
@@ -3825,7 +3825,7 @@
         <v>25.2</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="8">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v>44671.833332175927</v>
@@ -3855,7 +3855,7 @@
         <v>14.85</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="8">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v>44671.874998784719</v>
@@ -3885,7 +3885,7 @@
         <v>19.350000000000001</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="8">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v>44671.916665393517</v>
@@ -3915,7 +3915,7 @@
         <v>25.650000000000002</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="8">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v>44671.958332002316</v>
@@ -3959,12 +3959,12 @@
       <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>105</v>
       </c>
@@ -3972,7 +3972,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>107</v>
       </c>
@@ -3980,7 +3980,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>108</v>
       </c>
@@ -4001,9 +4001,9 @@
       <selection activeCell="B2" sqref="B2:B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>46</v>
       </c>
@@ -4011,7 +4011,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>48</v>
       </c>
@@ -4019,7 +4019,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>49</v>
       </c>
@@ -4027,7 +4027,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>50</v>
       </c>
@@ -4048,162 +4048,162 @@
       <selection activeCell="L31" sqref="L31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" style="8" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="8">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44671</v>
       </c>
       <c r="B2" s="2"/>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44671.041666666664</v>
       </c>
       <c r="B3" s="2"/>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44671.08333321759</v>
       </c>
       <c r="B4" s="2"/>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v>44671.124999826388</v>
       </c>
       <c r="B5" s="2"/>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v>44671.166666435187</v>
       </c>
       <c r="B6" s="2"/>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v>44671.208333043978</v>
       </c>
       <c r="B7" s="2"/>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v>44671.249999652777</v>
       </c>
       <c r="B8" s="2"/>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v>44671.291666261575</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v>44671.333332870374</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v>44671.374999479165</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v>44671.416666087964</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="8">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v>44671.458332696762</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v>44671.499999305554</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="8">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v>44671.541665914352</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="8">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v>44671.583332523151</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="8">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v>44671.624999131942</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="8">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v>44671.66666574074</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="8">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v>44671.708332349539</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="8">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v>44671.74999895833</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="8">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v>44671.791665567129</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="8">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v>44671.833332175927</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="8">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v>44671.874998784719</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="8">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v>44671.916665393517</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="8">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v>44671.958332002316</v>
@@ -4222,12 +4222,12 @@
       <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" style="8" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>31</v>
       </c>
@@ -4241,7 +4241,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="8">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44671</v>
@@ -4256,7 +4256,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44671.041666666664</v>
@@ -4271,7 +4271,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44671.08333321759</v>
@@ -4286,7 +4286,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v>44671.124999826388</v>
@@ -4301,7 +4301,7 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v>44671.166666435187</v>
@@ -4316,7 +4316,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v>44671.208333043978</v>
@@ -4331,7 +4331,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v>44671.249999652777</v>
@@ -4346,7 +4346,7 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v>44671.291666261575</v>
@@ -4361,7 +4361,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v>44671.333332870374</v>
@@ -4376,7 +4376,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v>44671.374999479165</v>
@@ -4391,7 +4391,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v>44671.416666087964</v>
@@ -4406,7 +4406,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="8">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v>44671.458332696762</v>
@@ -4421,7 +4421,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v>44671.499999305554</v>
@@ -4436,7 +4436,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="8">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v>44671.541665914352</v>
@@ -4451,7 +4451,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="8">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v>44671.583332523151</v>
@@ -4466,7 +4466,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="8">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v>44671.624999131942</v>
@@ -4481,7 +4481,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="8">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v>44671.66666574074</v>
@@ -4496,7 +4496,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="8">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v>44671.708332349539</v>
@@ -4511,7 +4511,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="8">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v>44671.74999895833</v>
@@ -4526,7 +4526,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="8">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v>44671.791665567129</v>
@@ -4541,7 +4541,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="8">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v>44671.833332175927</v>
@@ -4556,7 +4556,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="8">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v>44671.874998784719</v>
@@ -4571,7 +4571,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="8">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v>44671.916665393517</v>
@@ -4586,7 +4586,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="8">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v>44671.958332002316</v>
@@ -4615,14 +4615,14 @@
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>46</v>
       </c>
@@ -4630,7 +4630,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>89</v>
       </c>
@@ -4638,7 +4638,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
@@ -4657,20 +4657,20 @@
       <selection activeCell="A7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -4708,7 +4708,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -4746,7 +4746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -4784,7 +4784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -4822,7 +4822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -4860,7 +4860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>35</v>
       </c>
@@ -4898,7 +4898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
@@ -4924,15 +4924,15 @@
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" style="8" customWidth="1"/>
-    <col min="2" max="4" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" style="8" customWidth="1"/>
+    <col min="2" max="4" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="5.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>31</v>
       </c>
@@ -4964,7 +4964,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="8">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44671</v>
@@ -4997,7 +4997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44671.041666666664</v>
@@ -5030,7 +5030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44671.08333321759</v>
@@ -5063,7 +5063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v>44671.124999826388</v>
@@ -5096,7 +5096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v>44671.166666435187</v>
@@ -5129,7 +5129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v>44671.208333043978</v>
@@ -5162,7 +5162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v>44671.249999652777</v>
@@ -5195,7 +5195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v>44671.291666261575</v>
@@ -5228,7 +5228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v>44671.333332870374</v>
@@ -5261,7 +5261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v>44671.374999479165</v>
@@ -5294,7 +5294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v>44671.416666087964</v>
@@ -5327,7 +5327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="8">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v>44671.458332696762</v>
@@ -5360,7 +5360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v>44671.499999305554</v>
@@ -5393,7 +5393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="8">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v>44671.541665914352</v>
@@ -5426,7 +5426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="8">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v>44671.583332523151</v>
@@ -5459,7 +5459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="8">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v>44671.624999131942</v>
@@ -5492,7 +5492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="8">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v>44671.66666574074</v>
@@ -5525,7 +5525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="8">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v>44671.708332349539</v>
@@ -5558,7 +5558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="8">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v>44671.74999895833</v>
@@ -5591,7 +5591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="8">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v>44671.791665567129</v>
@@ -5624,7 +5624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="8">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v>44671.833332175927</v>
@@ -5657,7 +5657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="8">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v>44671.874998784719</v>
@@ -5690,7 +5690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="8">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v>44671.916665393517</v>
@@ -5723,7 +5723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="8">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v>44671.958332002316</v>
@@ -5769,12 +5769,12 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" style="8" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>31</v>
       </c>
@@ -5788,7 +5788,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="8">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44671</v>
@@ -5803,7 +5803,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44671.041666666664</v>
@@ -5818,7 +5818,7 @@
         <v>4.2857142857142856</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44671.08333321759</v>
@@ -5833,7 +5833,7 @@
         <v>4.2857142857142856</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v>44671.124999826388</v>
@@ -5848,7 +5848,7 @@
         <v>4.4117647058823533</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v>44671.166666435187</v>
@@ -5863,7 +5863,7 @@
         <v>4.5454545454545459</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v>44671.208333043978</v>
@@ -5878,7 +5878,7 @@
         <v>4.6875</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v>44671.249999652777</v>
@@ -5893,7 +5893,7 @@
         <v>4.838709677419355</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v>44671.291666261575</v>
@@ -5908,7 +5908,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v>44671.333332870374</v>
@@ -5923,7 +5923,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v>44671.374999479165</v>
@@ -5938,7 +5938,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v>44671.416666087964</v>
@@ -5953,7 +5953,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="8">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v>44671.458332696762</v>
@@ -5968,7 +5968,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v>44671.499999305554</v>
@@ -5983,7 +5983,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="8">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v>44671.541665914352</v>
@@ -5998,7 +5998,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="8">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v>44671.583332523151</v>
@@ -6013,7 +6013,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="8">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v>44671.624999131942</v>
@@ -6028,7 +6028,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="8">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v>44671.66666574074</v>
@@ -6043,7 +6043,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="8">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v>44671.708332349539</v>
@@ -6058,7 +6058,7 @@
         <v>3.75</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="8">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v>44671.74999895833</v>
@@ -6073,7 +6073,7 @@
         <v>3.75</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="8">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v>44671.791665567129</v>
@@ -6088,7 +6088,7 @@
         <v>3.75</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="8">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v>44671.833332175927</v>
@@ -6103,7 +6103,7 @@
         <v>3.75</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="8">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v>44671.874998784719</v>
@@ -6118,7 +6118,7 @@
         <v>4.2857142857142856</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="8">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v>44671.916665393517</v>
@@ -6133,7 +6133,7 @@
         <v>4.2857142857142856</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="8">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v>44671.958332002316</v>
@@ -6158,25 +6158,25 @@
   <dimension ref="A1:P8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:XFD8"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.6640625" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" customWidth="1"/>
     <col min="2" max="2" width="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.6640625" customWidth="1"/>
+    <col min="3" max="3" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" customWidth="1"/>
     <col min="7" max="7" width="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="11.44140625" customWidth="1"/>
+    <col min="8" max="8" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>13</v>
       </c>
@@ -6226,7 +6226,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>23</v>
       </c>
@@ -6276,7 +6276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>24</v>
       </c>
@@ -6326,7 +6326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>25</v>
       </c>
@@ -6376,7 +6376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -6426,7 +6426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>84</v>
       </c>
@@ -6476,7 +6476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>36</v>
       </c>
@@ -6526,7 +6526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
@@ -6552,13 +6552,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6007B83A-95ED-43FB-AC05-C8A15D3323E5}">
   <dimension ref="A1:C1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>38</v>
       </c>
@@ -6578,13 +6578,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAB1106B-D567-41FC-8E91-2B4CC5EC9B59}">
   <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F5:F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>13</v>
       </c>
@@ -6628,7 +6628,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>76</v>
       </c>
@@ -6648,7 +6648,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>77</v>
       </c>
@@ -6681,20 +6681,20 @@
       <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.44140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.5546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.44140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.88671875" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.5546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.109375" style="5"/>
+    <col min="1" max="1" width="7.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>13</v>
       </c>
@@ -6720,7 +6720,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>23</v>
       </c>
@@ -6746,7 +6746,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>23</v>
       </c>
@@ -6772,7 +6772,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>23</v>
       </c>
@@ -6798,7 +6798,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>24</v>
       </c>
@@ -6824,7 +6824,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>24</v>
       </c>
@@ -6850,7 +6850,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>25</v>
       </c>
@@ -6876,7 +6876,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>25</v>
       </c>
@@ -6902,7 +6902,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>26</v>
       </c>
@@ -6928,7 +6928,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>84</v>
       </c>
@@ -6954,7 +6954,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>36</v>
       </c>
@@ -6980,7 +6980,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>36</v>
       </c>
@@ -7020,12 +7020,12 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" style="8" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>31</v>
       </c>
@@ -7036,145 +7036,145 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="8">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44671</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44671.041666666664</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44671.08333321759</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v>44671.124999826388</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v>44671.166666435187</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v>44671.208333043978</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v>44671.249999652777</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v>44671.291666261575</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v>44671.333332870374</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v>44671.374999479165</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v>44671.416666087964</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="8">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v>44671.458332696762</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v>44671.499999305554</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="8">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v>44671.541665914352</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="8">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v>44671.583332523151</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="8">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v>44671.624999131942</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="8">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v>44671.66666574074</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="8">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v>44671.708332349539</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="8">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v>44671.74999895833</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="8">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v>44671.791665567129</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="8">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v>44671.833332175927</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="8">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v>44671.874998784719</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="8">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v>44671.916665393517</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="8">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v>44671.958332002316</v>
@@ -7193,9 +7193,9 @@
       <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>38</v>
       </c>
@@ -7203,7 +7203,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>79</v>
       </c>
@@ -7211,7 +7211,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>80</v>
       </c>
@@ -7232,14 +7232,14 @@
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" style="8" customWidth="1"/>
-    <col min="6" max="6" width="23.109375" customWidth="1"/>
-    <col min="12" max="12" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" style="8" customWidth="1"/>
+    <col min="6" max="6" width="23.140625" customWidth="1"/>
+    <col min="12" max="12" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>31</v>
       </c>
@@ -7257,7 +7257,7 @@
       </c>
       <c r="F1"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="8">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44671</v>
@@ -7279,7 +7279,7 @@
       <c r="F2" s="8"/>
       <c r="L2" s="8"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44671.041666666664</v>
@@ -7299,7 +7299,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44671.08333321759</v>
@@ -7319,7 +7319,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v>44671.124999826388</v>
@@ -7339,7 +7339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v>44671.166666435187</v>
@@ -7359,7 +7359,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v>44671.208333043978</v>
@@ -7379,7 +7379,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v>44671.249999652777</v>
@@ -7399,7 +7399,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v>44671.291666261575</v>
@@ -7419,7 +7419,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v>44671.333332870374</v>
@@ -7439,7 +7439,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v>44671.374999479165</v>
@@ -7459,7 +7459,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v>44671.416666087964</v>
@@ -7479,7 +7479,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="8">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v>44671.458332696762</v>
@@ -7499,7 +7499,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v>44671.499999305554</v>
@@ -7519,7 +7519,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="8">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v>44671.541665914352</v>
@@ -7539,7 +7539,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="8">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v>44671.583332523151</v>
@@ -7559,7 +7559,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="8">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v>44671.624999131942</v>
@@ -7579,7 +7579,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="8">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v>44671.66666574074</v>
@@ -7599,7 +7599,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="8">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v>44671.708332349539</v>
@@ -7619,7 +7619,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="8">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v>44671.74999895833</v>
@@ -7639,7 +7639,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="8">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v>44671.791665567129</v>
@@ -7659,7 +7659,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="8">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v>44671.833332175927</v>
@@ -7679,7 +7679,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="8">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v>44671.874998784719</v>
@@ -7699,7 +7699,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="8">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v>44671.916665393517</v>
@@ -7719,7 +7719,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="8">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v>44671.958332002316</v>

--- a/input_data/input_data.xlsx
+++ b/input_data/input_data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dsdennis\HOPE\Predicer_dev\Predicer\input_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\data\Hope\Predicer_modified\Predicer\input_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CF8CAA3-BC30-4A3C-A055-D270806D81A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E834511E-1FBB-4948-96F6-B2B9E99CCF76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="796" activeTab="3" xr2:uid="{788BFBD1-D930-4535-8A91-D85C56924796}"/>
+    <workbookView xWindow="3900" yWindow="3900" windowWidth="28800" windowHeight="15435" tabRatio="796" activeTab="11" xr2:uid="{788BFBD1-D930-4535-8A91-D85C56924796}"/>
   </bookViews>
   <sheets>
     <sheet name="timeseries" sheetId="18" r:id="rId1"/>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="129">
   <si>
     <t>node</t>
   </si>
@@ -428,6 +428,18 @@
   </si>
   <si>
     <t>group</t>
+  </si>
+  <si>
+    <t>is_limited</t>
+  </si>
+  <si>
+    <t>fee</t>
+  </si>
+  <si>
+    <t>min_bid</t>
+  </si>
+  <si>
+    <t>max_bid</t>
   </si>
 </sst>
 </file>
@@ -814,206 +826,206 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="8">
         <v>44671</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <v>44671.041666666664</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <v>44671.08333321759</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <v>44671.124999826388</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <v>44671.166666435187</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <v>44671.208333043978</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <v>44671.249999652777</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <v>44671.291666261575</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <v>44671.333332870374</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <v>44671.374999479165</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
         <v>44671.416666087964</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="8">
         <v>44671.458332696762</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
         <v>44671.499999305554</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="8">
         <v>44671.541665914352</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="8">
         <v>44671.583332523151</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="8">
         <v>44671.624999131942</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="8">
         <v>44671.66666574074</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="8">
         <v>44671.708332349539</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="8">
         <v>44671.74999895833</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="8">
         <v>44671.791665567129</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="8">
         <v>44671.833332175927</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="8">
         <v>44671.874998784719</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="8">
         <v>44671.916665393517</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="8">
         <v>44671.958332002316</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="8"/>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="8"/>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="8"/>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" s="8"/>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" s="8"/>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" s="8"/>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" s="8"/>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="8"/>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="8"/>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" s="8"/>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" s="8"/>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" s="8"/>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" s="8"/>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" s="8"/>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" s="8"/>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" s="8"/>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" s="8"/>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" s="8"/>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" s="8"/>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" s="8"/>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" s="8"/>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" s="8"/>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" s="8"/>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" s="8"/>
     </row>
   </sheetData>
@@ -1029,14 +1041,14 @@
       <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" style="8" customWidth="1"/>
-    <col min="4" max="6" width="10.44140625" customWidth="1"/>
-    <col min="7" max="7" width="10.44140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" style="8" customWidth="1"/>
+    <col min="4" max="6" width="10.42578125" customWidth="1"/>
+    <col min="7" max="7" width="10.42578125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>31</v>
       </c>
@@ -1059,7 +1071,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="8">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44671</v>
@@ -1086,7 +1098,7 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44671.041666666664</v>
@@ -1114,7 +1126,7 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44671.08333321759</v>
@@ -1142,7 +1154,7 @@
         <v>-6</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v>44671.124999826388</v>
@@ -1170,7 +1182,7 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v>44671.166666435187</v>
@@ -1198,7 +1210,7 @@
         <v>-4</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v>44671.208333043978</v>
@@ -1226,7 +1238,7 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v>44671.249999652777</v>
@@ -1254,7 +1266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v>44671.291666261575</v>
@@ -1282,7 +1294,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v>44671.333332870374</v>
@@ -1310,7 +1322,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v>44671.374999479165</v>
@@ -1338,7 +1350,7 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v>44671.416666087964</v>
@@ -1366,7 +1378,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="8">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v>44671.458332696762</v>
@@ -1394,7 +1406,7 @@
         <v>-6</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v>44671.499999305554</v>
@@ -1422,7 +1434,7 @@
         <v>-4</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="8">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v>44671.541665914352</v>
@@ -1450,7 +1462,7 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="8">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v>44671.583332523151</v>
@@ -1478,7 +1490,7 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="8">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v>44671.624999131942</v>
@@ -1506,7 +1518,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="8">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v>44671.66666574074</v>
@@ -1534,7 +1546,7 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="8">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v>44671.708332349539</v>
@@ -1562,7 +1574,7 @@
         <v>-4</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="8">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v>44671.74999895833</v>
@@ -1590,7 +1602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="8">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v>44671.791665567129</v>
@@ -1618,7 +1630,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="8">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v>44671.833332175927</v>
@@ -1646,7 +1658,7 @@
         <v>-4</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="8">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v>44671.874998784719</v>
@@ -1674,7 +1686,7 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="8">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v>44671.916665393517</v>
@@ -1702,7 +1714,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="8">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v>44671.958332002316</v>
@@ -1745,12 +1757,12 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" style="8" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>31</v>
       </c>
@@ -1758,7 +1770,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="8">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44671</v>
@@ -1767,7 +1779,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44671.041666666664</v>
@@ -1776,7 +1788,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44671.08333321759</v>
@@ -1785,7 +1797,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v>44671.124999826388</v>
@@ -1794,7 +1806,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v>44671.166666435187</v>
@@ -1803,7 +1815,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v>44671.208333043978</v>
@@ -1812,7 +1824,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v>44671.249999652777</v>
@@ -1821,7 +1833,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v>44671.291666261575</v>
@@ -1830,7 +1842,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v>44671.333332870374</v>
@@ -1839,7 +1851,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v>44671.374999479165</v>
@@ -1848,7 +1860,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v>44671.416666087964</v>
@@ -1857,7 +1869,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="8">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v>44671.458332696762</v>
@@ -1866,7 +1878,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v>44671.499999305554</v>
@@ -1875,7 +1887,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="8">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v>44671.541665914352</v>
@@ -1884,7 +1896,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="8">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v>44671.583332523151</v>
@@ -1893,7 +1905,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="8">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v>44671.624999131942</v>
@@ -1902,7 +1914,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="8">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v>44671.66666574074</v>
@@ -1911,7 +1923,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="8">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v>44671.708332349539</v>
@@ -1920,7 +1932,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="8">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v>44671.74999895833</v>
@@ -1929,7 +1941,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="8">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v>44671.791665567129</v>
@@ -1938,7 +1950,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="8">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v>44671.833332175927</v>
@@ -1947,7 +1959,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="8">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v>44671.874998784719</v>
@@ -1956,7 +1968,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="8">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v>44671.916665393517</v>
@@ -1965,7 +1977,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="8">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v>44671.958332002316</v>
@@ -1981,23 +1993,23 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3788A93-7501-4F5D-9E8F-38D329CC85EC}">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.44140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>32</v>
       </c>
@@ -2019,8 +2031,20 @@
       <c r="G1" s="3" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>12</v>
       </c>
@@ -2042,8 +2066,20 @@
       <c r="G2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2" s="7">
+        <v>0</v>
+      </c>
+      <c r="J2" s="7">
+        <v>0</v>
+      </c>
+      <c r="K2" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>40</v>
       </c>
@@ -2065,8 +2101,20 @@
       <c r="G3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3" s="7">
+        <v>1</v>
+      </c>
+      <c r="J3" s="7">
+        <v>10</v>
+      </c>
+      <c r="K3" s="7">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>41</v>
       </c>
@@ -2088,8 +2136,20 @@
       <c r="G4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4" s="7">
+        <v>0</v>
+      </c>
+      <c r="J4" s="7">
+        <v>0</v>
+      </c>
+      <c r="K4" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>42</v>
       </c>
@@ -2110,6 +2170,18 @@
       </c>
       <c r="G5">
         <v>1</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5" s="7">
+        <v>1</v>
+      </c>
+      <c r="J5" s="7">
+        <v>5</v>
+      </c>
+      <c r="K5" s="7">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -2122,17 +2194,17 @@
   <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M2" sqref="M2:M25"/>
+      <selection activeCell="P16" sqref="P16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" style="8" customWidth="1"/>
-    <col min="2" max="5" width="11.44140625" customWidth="1"/>
-    <col min="6" max="13" width="11.109375" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" style="8" customWidth="1"/>
+    <col min="2" max="5" width="11.42578125" customWidth="1"/>
+    <col min="6" max="13" width="11.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>31</v>
       </c>
@@ -2173,7 +2245,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="8">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44671</v>
@@ -2215,7 +2287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44671.041666666664</v>
@@ -2257,7 +2329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44671.08333321759</v>
@@ -2299,7 +2371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v>44671.124999826388</v>
@@ -2341,7 +2413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v>44671.166666435187</v>
@@ -2383,7 +2455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v>44671.208333043978</v>
@@ -2425,7 +2497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v>44671.249999652777</v>
@@ -2467,7 +2539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v>44671.291666261575</v>
@@ -2509,7 +2581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v>44671.333332870374</v>
@@ -2551,7 +2623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v>44671.374999479165</v>
@@ -2593,7 +2665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v>44671.416666087964</v>
@@ -2635,7 +2707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="8">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v>44671.458332696762</v>
@@ -2677,7 +2749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v>44671.499999305554</v>
@@ -2719,7 +2791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="8">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v>44671.541665914352</v>
@@ -2761,7 +2833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="8">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v>44671.583332523151</v>
@@ -2803,7 +2875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="8">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v>44671.624999131942</v>
@@ -2845,7 +2917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="8">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v>44671.66666574074</v>
@@ -2887,7 +2959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="8">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v>44671.708332349539</v>
@@ -2929,7 +3001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="8">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v>44671.74999895833</v>
@@ -2971,7 +3043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="8">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v>44671.791665567129</v>
@@ -3013,7 +3085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="8">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v>44671.833332175927</v>
@@ -3055,7 +3127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="8">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v>44671.874998784719</v>
@@ -3097,7 +3169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="8">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v>44671.916665393517</v>
@@ -3139,7 +3211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="8">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v>44671.958332002316</v>
@@ -3195,14 +3267,14 @@
       <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="10.33203125" customWidth="1"/>
-    <col min="5" max="7" width="11.6640625" customWidth="1"/>
+    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="10.28515625" customWidth="1"/>
+    <col min="5" max="7" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>31</v>
       </c>
@@ -3225,7 +3297,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="8">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44671</v>
@@ -3255,7 +3327,7 @@
         <v>21.6</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44671.041666666664</v>
@@ -3285,7 +3357,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44671.08333321759</v>
@@ -3315,7 +3387,7 @@
         <v>26.1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v>44671.124999826388</v>
@@ -3345,7 +3417,7 @@
         <v>22.95</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v>44671.166666435187</v>
@@ -3375,7 +3447,7 @@
         <v>16.650000000000002</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v>44671.208333043978</v>
@@ -3405,7 +3477,7 @@
         <v>15.3</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v>44671.249999652777</v>
@@ -3435,7 +3507,7 @@
         <v>20.25</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v>44671.291666261575</v>
@@ -3465,7 +3537,7 @@
         <v>18.45</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v>44671.333332870374</v>
@@ -3495,7 +3567,7 @@
         <v>24.75</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v>44671.374999479165</v>
@@ -3525,7 +3597,7 @@
         <v>26.55</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v>44671.416666087964</v>
@@ -3555,7 +3627,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="8">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v>44671.458332696762</v>
@@ -3585,7 +3657,7 @@
         <v>18.45</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v>44671.499999305554</v>
@@ -3615,7 +3687,7 @@
         <v>20.7</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="8">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v>44671.541665914352</v>
@@ -3645,7 +3717,7 @@
         <v>17.100000000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="8">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v>44671.583332523151</v>
@@ -3675,7 +3747,7 @@
         <v>20.7</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="8">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v>44671.624999131942</v>
@@ -3705,7 +3777,7 @@
         <v>20.25</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="8">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v>44671.66666574074</v>
@@ -3735,7 +3807,7 @@
         <v>18.45</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="8">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v>44671.708332349539</v>
@@ -3765,7 +3837,7 @@
         <v>20.7</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="8">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v>44671.74999895833</v>
@@ -3795,7 +3867,7 @@
         <v>23.400000000000002</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="8">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v>44671.791665567129</v>
@@ -3825,7 +3897,7 @@
         <v>25.2</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="8">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v>44671.833332175927</v>
@@ -3855,7 +3927,7 @@
         <v>14.85</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="8">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v>44671.874998784719</v>
@@ -3885,7 +3957,7 @@
         <v>19.350000000000001</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="8">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v>44671.916665393517</v>
@@ -3915,7 +3987,7 @@
         <v>25.650000000000002</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="8">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v>44671.958332002316</v>
@@ -3959,12 +4031,12 @@
       <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>105</v>
       </c>
@@ -3972,7 +4044,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>107</v>
       </c>
@@ -3980,7 +4052,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>108</v>
       </c>
@@ -4001,9 +4073,9 @@
       <selection activeCell="B2" sqref="B2:B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>46</v>
       </c>
@@ -4011,7 +4083,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>48</v>
       </c>
@@ -4019,7 +4091,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>49</v>
       </c>
@@ -4027,7 +4099,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>50</v>
       </c>
@@ -4048,162 +4120,162 @@
       <selection activeCell="L31" sqref="L31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" style="8" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="8">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44671</v>
       </c>
       <c r="B2" s="2"/>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44671.041666666664</v>
       </c>
       <c r="B3" s="2"/>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44671.08333321759</v>
       </c>
       <c r="B4" s="2"/>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v>44671.124999826388</v>
       </c>
       <c r="B5" s="2"/>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v>44671.166666435187</v>
       </c>
       <c r="B6" s="2"/>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v>44671.208333043978</v>
       </c>
       <c r="B7" s="2"/>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v>44671.249999652777</v>
       </c>
       <c r="B8" s="2"/>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v>44671.291666261575</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v>44671.333332870374</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v>44671.374999479165</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v>44671.416666087964</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="8">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v>44671.458332696762</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v>44671.499999305554</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="8">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v>44671.541665914352</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="8">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v>44671.583332523151</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="8">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v>44671.624999131942</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="8">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v>44671.66666574074</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="8">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v>44671.708332349539</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="8">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v>44671.74999895833</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="8">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v>44671.791665567129</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="8">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v>44671.833332175927</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="8">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v>44671.874998784719</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="8">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v>44671.916665393517</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="8">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v>44671.958332002316</v>
@@ -4222,12 +4294,12 @@
       <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" style="8" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>31</v>
       </c>
@@ -4241,7 +4313,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="8">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44671</v>
@@ -4256,7 +4328,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44671.041666666664</v>
@@ -4271,7 +4343,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44671.08333321759</v>
@@ -4286,7 +4358,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v>44671.124999826388</v>
@@ -4301,7 +4373,7 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v>44671.166666435187</v>
@@ -4316,7 +4388,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v>44671.208333043978</v>
@@ -4331,7 +4403,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v>44671.249999652777</v>
@@ -4346,7 +4418,7 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v>44671.291666261575</v>
@@ -4361,7 +4433,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v>44671.333332870374</v>
@@ -4376,7 +4448,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v>44671.374999479165</v>
@@ -4391,7 +4463,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v>44671.416666087964</v>
@@ -4406,7 +4478,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="8">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v>44671.458332696762</v>
@@ -4421,7 +4493,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v>44671.499999305554</v>
@@ -4436,7 +4508,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="8">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v>44671.541665914352</v>
@@ -4451,7 +4523,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="8">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v>44671.583332523151</v>
@@ -4466,7 +4538,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="8">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v>44671.624999131942</v>
@@ -4481,7 +4553,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="8">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v>44671.66666574074</v>
@@ -4496,7 +4568,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="8">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v>44671.708332349539</v>
@@ -4511,7 +4583,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="8">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v>44671.74999895833</v>
@@ -4526,7 +4598,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="8">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v>44671.791665567129</v>
@@ -4541,7 +4613,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="8">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v>44671.833332175927</v>
@@ -4556,7 +4628,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="8">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v>44671.874998784719</v>
@@ -4571,7 +4643,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="8">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v>44671.916665393517</v>
@@ -4586,7 +4658,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="8">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v>44671.958332002316</v>
@@ -4615,14 +4687,14 @@
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>46</v>
       </c>
@@ -4630,7 +4702,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>89</v>
       </c>
@@ -4638,7 +4710,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
@@ -4657,20 +4729,20 @@
       <selection activeCell="A7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -4708,7 +4780,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -4746,7 +4818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -4784,7 +4856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -4822,7 +4894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -4860,7 +4932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>35</v>
       </c>
@@ -4898,7 +4970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
@@ -4924,15 +4996,15 @@
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" style="8" customWidth="1"/>
-    <col min="2" max="4" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" style="8" customWidth="1"/>
+    <col min="2" max="4" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="5.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>31</v>
       </c>
@@ -4964,7 +5036,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="8">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44671</v>
@@ -4997,7 +5069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44671.041666666664</v>
@@ -5030,7 +5102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44671.08333321759</v>
@@ -5063,7 +5135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v>44671.124999826388</v>
@@ -5096,7 +5168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v>44671.166666435187</v>
@@ -5129,7 +5201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v>44671.208333043978</v>
@@ -5162,7 +5234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v>44671.249999652777</v>
@@ -5195,7 +5267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v>44671.291666261575</v>
@@ -5228,7 +5300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v>44671.333332870374</v>
@@ -5261,7 +5333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v>44671.374999479165</v>
@@ -5294,7 +5366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v>44671.416666087964</v>
@@ -5327,7 +5399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="8">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v>44671.458332696762</v>
@@ -5360,7 +5432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v>44671.499999305554</v>
@@ -5393,7 +5465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="8">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v>44671.541665914352</v>
@@ -5426,7 +5498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="8">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v>44671.583332523151</v>
@@ -5459,7 +5531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="8">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v>44671.624999131942</v>
@@ -5492,7 +5564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="8">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v>44671.66666574074</v>
@@ -5525,7 +5597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="8">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v>44671.708332349539</v>
@@ -5558,7 +5630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="8">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v>44671.74999895833</v>
@@ -5591,7 +5663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="8">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v>44671.791665567129</v>
@@ -5624,7 +5696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="8">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v>44671.833332175927</v>
@@ -5657,7 +5729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="8">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v>44671.874998784719</v>
@@ -5690,7 +5762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="8">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v>44671.916665393517</v>
@@ -5723,7 +5795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="8">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v>44671.958332002316</v>
@@ -5769,12 +5841,12 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" style="8" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>31</v>
       </c>
@@ -5788,7 +5860,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="8">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44671</v>
@@ -5803,7 +5875,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44671.041666666664</v>
@@ -5818,7 +5890,7 @@
         <v>4.2857142857142856</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44671.08333321759</v>
@@ -5833,7 +5905,7 @@
         <v>4.2857142857142856</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v>44671.124999826388</v>
@@ -5848,7 +5920,7 @@
         <v>4.4117647058823533</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v>44671.166666435187</v>
@@ -5863,7 +5935,7 @@
         <v>4.5454545454545459</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v>44671.208333043978</v>
@@ -5878,7 +5950,7 @@
         <v>4.6875</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v>44671.249999652777</v>
@@ -5893,7 +5965,7 @@
         <v>4.838709677419355</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v>44671.291666261575</v>
@@ -5908,7 +5980,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v>44671.333332870374</v>
@@ -5923,7 +5995,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v>44671.374999479165</v>
@@ -5938,7 +6010,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v>44671.416666087964</v>
@@ -5953,7 +6025,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="8">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v>44671.458332696762</v>
@@ -5968,7 +6040,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v>44671.499999305554</v>
@@ -5983,7 +6055,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="8">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v>44671.541665914352</v>
@@ -5998,7 +6070,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="8">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v>44671.583332523151</v>
@@ -6013,7 +6085,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="8">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v>44671.624999131942</v>
@@ -6028,7 +6100,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="8">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v>44671.66666574074</v>
@@ -6043,7 +6115,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="8">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v>44671.708332349539</v>
@@ -6058,7 +6130,7 @@
         <v>3.75</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="8">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v>44671.74999895833</v>
@@ -6073,7 +6145,7 @@
         <v>3.75</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="8">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v>44671.791665567129</v>
@@ -6088,7 +6160,7 @@
         <v>3.75</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="8">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v>44671.833332175927</v>
@@ -6103,7 +6175,7 @@
         <v>3.75</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="8">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v>44671.874998784719</v>
@@ -6118,7 +6190,7 @@
         <v>4.2857142857142856</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="8">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v>44671.916665393517</v>
@@ -6133,7 +6205,7 @@
         <v>4.2857142857142856</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="8">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v>44671.958332002316</v>
@@ -6161,22 +6233,22 @@
       <selection activeCell="A8" sqref="A8:XFD8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.6640625" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" customWidth="1"/>
     <col min="2" max="2" width="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.6640625" customWidth="1"/>
+    <col min="3" max="3" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" customWidth="1"/>
     <col min="7" max="7" width="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="11.44140625" customWidth="1"/>
+    <col min="8" max="8" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>13</v>
       </c>
@@ -6226,7 +6298,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>23</v>
       </c>
@@ -6276,7 +6348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>24</v>
       </c>
@@ -6326,7 +6398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>25</v>
       </c>
@@ -6376,7 +6448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -6426,7 +6498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>84</v>
       </c>
@@ -6476,7 +6548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>36</v>
       </c>
@@ -6526,7 +6598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
@@ -6552,13 +6624,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6007B83A-95ED-43FB-AC05-C8A15D3323E5}">
   <dimension ref="A1:C1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>38</v>
       </c>
@@ -6582,9 +6654,9 @@
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>13</v>
       </c>
@@ -6628,7 +6700,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>76</v>
       </c>
@@ -6648,7 +6720,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>77</v>
       </c>
@@ -6681,20 +6753,20 @@
       <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.44140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.5546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.44140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.88671875" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.5546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.109375" style="5"/>
+    <col min="1" max="1" width="7.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>13</v>
       </c>
@@ -6720,7 +6792,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>23</v>
       </c>
@@ -6746,7 +6818,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>23</v>
       </c>
@@ -6772,7 +6844,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>23</v>
       </c>
@@ -6798,7 +6870,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>24</v>
       </c>
@@ -6824,7 +6896,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>24</v>
       </c>
@@ -6850,7 +6922,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>25</v>
       </c>
@@ -6876,7 +6948,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>25</v>
       </c>
@@ -6902,7 +6974,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>26</v>
       </c>
@@ -6928,7 +7000,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>84</v>
       </c>
@@ -6954,7 +7026,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>36</v>
       </c>
@@ -6980,7 +7052,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>36</v>
       </c>
@@ -7020,12 +7092,12 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" style="8" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>31</v>
       </c>
@@ -7036,145 +7108,145 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="8">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44671</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44671.041666666664</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44671.08333321759</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v>44671.124999826388</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v>44671.166666435187</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v>44671.208333043978</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v>44671.249999652777</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v>44671.291666261575</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v>44671.333332870374</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v>44671.374999479165</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v>44671.416666087964</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="8">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v>44671.458332696762</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v>44671.499999305554</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="8">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v>44671.541665914352</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="8">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v>44671.583332523151</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="8">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v>44671.624999131942</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="8">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v>44671.66666574074</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="8">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v>44671.708332349539</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="8">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v>44671.74999895833</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="8">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v>44671.791665567129</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="8">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v>44671.833332175927</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="8">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v>44671.874998784719</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="8">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v>44671.916665393517</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="8">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v>44671.958332002316</v>
@@ -7193,9 +7265,9 @@
       <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>38</v>
       </c>
@@ -7203,7 +7275,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>79</v>
       </c>
@@ -7211,7 +7283,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>80</v>
       </c>
@@ -7232,14 +7304,14 @@
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" style="8" customWidth="1"/>
-    <col min="6" max="6" width="23.109375" customWidth="1"/>
-    <col min="12" max="12" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" style="8" customWidth="1"/>
+    <col min="6" max="6" width="23.140625" customWidth="1"/>
+    <col min="12" max="12" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>31</v>
       </c>
@@ -7257,7 +7329,7 @@
       </c>
       <c r="F1"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="8">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44671</v>
@@ -7279,7 +7351,7 @@
       <c r="F2" s="8"/>
       <c r="L2" s="8"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44671.041666666664</v>
@@ -7299,7 +7371,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44671.08333321759</v>
@@ -7319,7 +7391,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v>44671.124999826388</v>
@@ -7339,7 +7411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v>44671.166666435187</v>
@@ -7359,7 +7431,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v>44671.208333043978</v>
@@ -7379,7 +7451,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v>44671.249999652777</v>
@@ -7399,7 +7471,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v>44671.291666261575</v>
@@ -7419,7 +7491,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v>44671.333332870374</v>
@@ -7439,7 +7511,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v>44671.374999479165</v>
@@ -7459,7 +7531,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v>44671.416666087964</v>
@@ -7479,7 +7551,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="8">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v>44671.458332696762</v>
@@ -7499,7 +7571,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v>44671.499999305554</v>
@@ -7519,7 +7591,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="8">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v>44671.541665914352</v>
@@ -7539,7 +7611,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="8">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v>44671.583332523151</v>
@@ -7559,7 +7631,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="8">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v>44671.624999131942</v>
@@ -7579,7 +7651,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="8">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v>44671.66666574074</v>
@@ -7599,7 +7671,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="8">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v>44671.708332349539</v>
@@ -7619,7 +7691,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="8">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v>44671.74999895833</v>
@@ -7639,7 +7711,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="8">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v>44671.791665567129</v>
@@ -7659,7 +7731,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="8">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v>44671.833332175927</v>
@@ -7679,7 +7751,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="8">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v>44671.874998784719</v>
@@ -7699,7 +7771,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="8">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v>44671.916665393517</v>
@@ -7719,7 +7791,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="8">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v>44671.958332002316</v>

--- a/input_data/input_data.xlsx
+++ b/input_data/input_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\data\Hope\Predicer_modified\Predicer\input_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E834511E-1FBB-4948-96F6-B2B9E99CCF76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92C16BEB-8303-4798-83A6-45485590E84E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3900" yWindow="3900" windowWidth="28800" windowHeight="15435" tabRatio="796" activeTab="11" xr2:uid="{788BFBD1-D930-4535-8A91-D85C56924796}"/>
+    <workbookView xWindow="-57720" yWindow="-7440" windowWidth="29040" windowHeight="17640" tabRatio="796" activeTab="11" xr2:uid="{788BFBD1-D930-4535-8A91-D85C56924796}"/>
   </bookViews>
   <sheets>
     <sheet name="timeseries" sheetId="18" r:id="rId1"/>
@@ -1996,7 +1996,7 @@
   <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2105,7 +2105,7 @@
         <v>1</v>
       </c>
       <c r="I3" s="7">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="J3" s="7">
         <v>10</v>
@@ -2175,7 +2175,7 @@
         <v>1</v>
       </c>
       <c r="I5" s="7">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="J5" s="7">
         <v>5</v>
@@ -4726,7 +4726,7 @@
   <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:XFD7"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/input_data/input_data.xlsx
+++ b/input_data/input_data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\data\Hope\Predicer_modified\Predicer\input_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dsdennis\HOPE\Predicer\input_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92C16BEB-8303-4798-83A6-45485590E84E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25B54ABA-4D11-4137-95C8-06662D48C8CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-57720" yWindow="-7440" windowWidth="29040" windowHeight="17640" tabRatio="796" activeTab="11" xr2:uid="{788BFBD1-D930-4535-8A91-D85C56924796}"/>
+    <workbookView xWindow="1884" yWindow="1884" windowWidth="17280" windowHeight="8964" tabRatio="796" firstSheet="10" activeTab="18" xr2:uid="{788BFBD1-D930-4535-8A91-D85C56924796}"/>
   </bookViews>
   <sheets>
     <sheet name="timeseries" sheetId="18" r:id="rId1"/>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="131">
   <si>
     <t>node</t>
   </si>
@@ -440,6 +440,12 @@
   </si>
   <si>
     <t>max_bid</t>
+  </si>
+  <si>
+    <t>is_setpoint</t>
+  </si>
+  <si>
+    <t>penalty</t>
   </si>
 </sst>
 </file>
@@ -826,206 +832,206 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="8">
         <v>44671</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="8">
         <v>44671.041666666664</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" s="8">
         <v>44671.08333321759</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" s="8">
         <v>44671.124999826388</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" s="8">
         <v>44671.166666435187</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" s="8">
         <v>44671.208333043978</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" s="8">
         <v>44671.249999652777</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" s="8">
         <v>44671.291666261575</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" s="8">
         <v>44671.333332870374</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" s="8">
         <v>44671.374999479165</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" s="8">
         <v>44671.416666087964</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" s="8">
         <v>44671.458332696762</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" s="8">
         <v>44671.499999305554</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" s="8">
         <v>44671.541665914352</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" s="8">
         <v>44671.583332523151</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="8">
         <v>44671.624999131942</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="8">
         <v>44671.66666574074</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="8">
         <v>44671.708332349539</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="8">
         <v>44671.74999895833</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="8">
         <v>44671.791665567129</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" s="8">
         <v>44671.833332175927</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" s="8">
         <v>44671.874998784719</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" s="8">
         <v>44671.916665393517</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" s="8">
         <v>44671.958332002316</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" s="8"/>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" s="8"/>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28" s="8"/>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" s="8"/>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30" s="8"/>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" s="8"/>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A32" s="8"/>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" s="8"/>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" s="8"/>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" s="8"/>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36" s="8"/>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" s="8"/>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A38" s="8"/>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A39" s="8"/>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A40" s="8"/>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A41" s="8"/>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A42" s="8"/>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A43" s="8"/>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A44" s="8"/>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A45" s="8"/>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A46" s="8"/>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A47" s="8"/>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A48" s="8"/>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" s="8"/>
     </row>
   </sheetData>
@@ -1041,14 +1047,14 @@
       <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" style="8" customWidth="1"/>
-    <col min="4" max="6" width="10.42578125" customWidth="1"/>
-    <col min="7" max="7" width="10.42578125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="19.33203125" style="8" customWidth="1"/>
+    <col min="4" max="6" width="10.44140625" customWidth="1"/>
+    <col min="7" max="7" width="10.44140625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>31</v>
       </c>
@@ -1071,7 +1077,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="8">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44671</v>
@@ -1098,7 +1104,7 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="8">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44671.041666666664</v>
@@ -1126,7 +1132,7 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="8">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44671.08333321759</v>
@@ -1154,7 +1160,7 @@
         <v>-6</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="8">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v>44671.124999826388</v>
@@ -1182,7 +1188,7 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="8">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v>44671.166666435187</v>
@@ -1210,7 +1216,7 @@
         <v>-4</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="8">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v>44671.208333043978</v>
@@ -1238,7 +1244,7 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="8">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v>44671.249999652777</v>
@@ -1266,7 +1272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="8">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v>44671.291666261575</v>
@@ -1294,7 +1300,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="8">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v>44671.333332870374</v>
@@ -1322,7 +1328,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="8">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v>44671.374999479165</v>
@@ -1350,7 +1356,7 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="8">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v>44671.416666087964</v>
@@ -1378,7 +1384,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="8">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v>44671.458332696762</v>
@@ -1406,7 +1412,7 @@
         <v>-6</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="8">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v>44671.499999305554</v>
@@ -1434,7 +1440,7 @@
         <v>-4</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="8">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v>44671.541665914352</v>
@@ -1462,7 +1468,7 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="8">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v>44671.583332523151</v>
@@ -1490,7 +1496,7 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="8">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v>44671.624999131942</v>
@@ -1518,7 +1524,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="8">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v>44671.66666574074</v>
@@ -1546,7 +1552,7 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="8">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v>44671.708332349539</v>
@@ -1574,7 +1580,7 @@
         <v>-4</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="8">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v>44671.74999895833</v>
@@ -1602,7 +1608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="8">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v>44671.791665567129</v>
@@ -1630,7 +1636,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="8">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v>44671.833332175927</v>
@@ -1658,7 +1664,7 @@
         <v>-4</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="8">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v>44671.874998784719</v>
@@ -1686,7 +1692,7 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="8">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v>44671.916665393517</v>
@@ -1714,7 +1720,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="8">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v>44671.958332002316</v>
@@ -1757,12 +1763,12 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" style="8" customWidth="1"/>
+    <col min="1" max="1" width="19.33203125" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>31</v>
       </c>
@@ -1770,7 +1776,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="8">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44671</v>
@@ -1779,7 +1785,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="8">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44671.041666666664</v>
@@ -1788,7 +1794,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="8">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44671.08333321759</v>
@@ -1797,7 +1803,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="8">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v>44671.124999826388</v>
@@ -1806,7 +1812,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="8">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v>44671.166666435187</v>
@@ -1815,7 +1821,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="8">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v>44671.208333043978</v>
@@ -1824,7 +1830,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="8">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v>44671.249999652777</v>
@@ -1833,7 +1839,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="8">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v>44671.291666261575</v>
@@ -1842,7 +1848,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="8">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v>44671.333332870374</v>
@@ -1851,7 +1857,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="8">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v>44671.374999479165</v>
@@ -1860,7 +1866,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="8">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v>44671.416666087964</v>
@@ -1869,7 +1875,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="8">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v>44671.458332696762</v>
@@ -1878,7 +1884,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="8">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v>44671.499999305554</v>
@@ -1887,7 +1893,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="8">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v>44671.541665914352</v>
@@ -1896,7 +1902,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="8">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v>44671.583332523151</v>
@@ -1905,7 +1911,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="8">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v>44671.624999131942</v>
@@ -1914,7 +1920,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="8">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v>44671.66666574074</v>
@@ -1923,7 +1929,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="8">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v>44671.708332349539</v>
@@ -1932,7 +1938,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="8">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v>44671.74999895833</v>
@@ -1941,7 +1947,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="8">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v>44671.791665567129</v>
@@ -1950,7 +1956,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="8">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v>44671.833332175927</v>
@@ -1959,7 +1965,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="8">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v>44671.874998784719</v>
@@ -1968,7 +1974,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="8">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v>44671.916665393517</v>
@@ -1977,7 +1983,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="8">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v>44671.958332002316</v>
@@ -1995,21 +2001,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3788A93-7501-4F5D-9E8F-38D329CC85EC}">
   <dimension ref="A1:K5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.42578125" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.44140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>32</v>
       </c>
@@ -2044,7 +2050,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>12</v>
       </c>
@@ -2079,7 +2085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>40</v>
       </c>
@@ -2114,7 +2120,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>41</v>
       </c>
@@ -2149,7 +2155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>42</v>
       </c>
@@ -2197,14 +2203,14 @@
       <selection activeCell="P16" sqref="P16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" style="8" customWidth="1"/>
-    <col min="2" max="5" width="11.42578125" customWidth="1"/>
-    <col min="6" max="13" width="11.140625" customWidth="1"/>
+    <col min="1" max="1" width="19.33203125" style="8" customWidth="1"/>
+    <col min="2" max="5" width="11.44140625" customWidth="1"/>
+    <col min="6" max="13" width="11.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>31</v>
       </c>
@@ -2245,7 +2251,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="8">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44671</v>
@@ -2287,7 +2293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="8">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44671.041666666664</v>
@@ -2329,7 +2335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="8">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44671.08333321759</v>
@@ -2371,7 +2377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="8">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v>44671.124999826388</v>
@@ -2413,7 +2419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="8">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v>44671.166666435187</v>
@@ -2455,7 +2461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="8">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v>44671.208333043978</v>
@@ -2497,7 +2503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="8">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v>44671.249999652777</v>
@@ -2539,7 +2545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="8">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v>44671.291666261575</v>
@@ -2581,7 +2587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="8">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v>44671.333332870374</v>
@@ -2623,7 +2629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="8">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v>44671.374999479165</v>
@@ -2665,7 +2671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="8">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v>44671.416666087964</v>
@@ -2707,7 +2713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="8">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v>44671.458332696762</v>
@@ -2749,7 +2755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="8">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v>44671.499999305554</v>
@@ -2791,7 +2797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="8">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v>44671.541665914352</v>
@@ -2833,7 +2839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="8">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v>44671.583332523151</v>
@@ -2875,7 +2881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" s="8">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v>44671.624999131942</v>
@@ -2917,7 +2923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" s="8">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v>44671.66666574074</v>
@@ -2959,7 +2965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" s="8">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v>44671.708332349539</v>
@@ -3001,7 +3007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" s="8">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v>44671.74999895833</v>
@@ -3043,7 +3049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" s="8">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v>44671.791665567129</v>
@@ -3085,7 +3091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" s="8">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v>44671.833332175927</v>
@@ -3127,7 +3133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" s="8">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v>44671.874998784719</v>
@@ -3169,7 +3175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" s="8">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v>44671.916665393517</v>
@@ -3211,7 +3217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" s="8">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v>44671.958332002316</v>
@@ -3267,14 +3273,14 @@
       <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="10.28515625" customWidth="1"/>
-    <col min="5" max="7" width="11.7109375" customWidth="1"/>
+    <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="10.33203125" customWidth="1"/>
+    <col min="5" max="7" width="11.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>31</v>
       </c>
@@ -3297,7 +3303,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="8">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44671</v>
@@ -3327,7 +3333,7 @@
         <v>21.6</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="8">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44671.041666666664</v>
@@ -3357,7 +3363,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="8">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44671.08333321759</v>
@@ -3387,7 +3393,7 @@
         <v>26.1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="8">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v>44671.124999826388</v>
@@ -3417,7 +3423,7 @@
         <v>22.95</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="8">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v>44671.166666435187</v>
@@ -3447,7 +3453,7 @@
         <v>16.650000000000002</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="8">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v>44671.208333043978</v>
@@ -3477,7 +3483,7 @@
         <v>15.3</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="8">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v>44671.249999652777</v>
@@ -3507,7 +3513,7 @@
         <v>20.25</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="8">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v>44671.291666261575</v>
@@ -3537,7 +3543,7 @@
         <v>18.45</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="8">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v>44671.333332870374</v>
@@ -3567,7 +3573,7 @@
         <v>24.75</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="8">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v>44671.374999479165</v>
@@ -3597,7 +3603,7 @@
         <v>26.55</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="8">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v>44671.416666087964</v>
@@ -3627,7 +3633,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="8">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v>44671.458332696762</v>
@@ -3657,7 +3663,7 @@
         <v>18.45</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="8">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v>44671.499999305554</v>
@@ -3687,7 +3693,7 @@
         <v>20.7</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="8">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v>44671.541665914352</v>
@@ -3717,7 +3723,7 @@
         <v>17.100000000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="8">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v>44671.583332523151</v>
@@ -3747,7 +3753,7 @@
         <v>20.7</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="8">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v>44671.624999131942</v>
@@ -3777,7 +3783,7 @@
         <v>20.25</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="8">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v>44671.66666574074</v>
@@ -3807,7 +3813,7 @@
         <v>18.45</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="8">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v>44671.708332349539</v>
@@ -3837,7 +3843,7 @@
         <v>20.7</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="8">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v>44671.74999895833</v>
@@ -3867,7 +3873,7 @@
         <v>23.400000000000002</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="8">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v>44671.791665567129</v>
@@ -3897,7 +3903,7 @@
         <v>25.2</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="8">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v>44671.833332175927</v>
@@ -3927,7 +3933,7 @@
         <v>14.85</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="8">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v>44671.874998784719</v>
@@ -3957,7 +3963,7 @@
         <v>19.350000000000001</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="8">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v>44671.916665393517</v>
@@ -3987,7 +3993,7 @@
         <v>25.650000000000002</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="8">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v>44671.958332002316</v>
@@ -4031,12 +4037,12 @@
       <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>105</v>
       </c>
@@ -4044,7 +4050,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>107</v>
       </c>
@@ -4052,7 +4058,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>108</v>
       </c>
@@ -4073,9 +4079,9 @@
       <selection activeCell="B2" sqref="B2:B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>46</v>
       </c>
@@ -4083,7 +4089,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>48</v>
       </c>
@@ -4091,7 +4097,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>49</v>
       </c>
@@ -4099,7 +4105,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>50</v>
       </c>
@@ -4120,162 +4126,162 @@
       <selection activeCell="L31" sqref="L31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" style="8" customWidth="1"/>
+    <col min="1" max="1" width="19.33203125" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="8">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44671</v>
       </c>
       <c r="B2" s="2"/>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="8">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44671.041666666664</v>
       </c>
       <c r="B3" s="2"/>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="8">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44671.08333321759</v>
       </c>
       <c r="B4" s="2"/>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="8">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v>44671.124999826388</v>
       </c>
       <c r="B5" s="2"/>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="8">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v>44671.166666435187</v>
       </c>
       <c r="B6" s="2"/>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="8">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v>44671.208333043978</v>
       </c>
       <c r="B7" s="2"/>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="8">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v>44671.249999652777</v>
       </c>
       <c r="B8" s="2"/>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="8">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v>44671.291666261575</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="8">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v>44671.333332870374</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="8">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v>44671.374999479165</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="8">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v>44671.416666087964</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="8">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v>44671.458332696762</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="8">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v>44671.499999305554</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="8">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v>44671.541665914352</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="8">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v>44671.583332523151</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="8">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v>44671.624999131942</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="8">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v>44671.66666574074</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="8">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v>44671.708332349539</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="8">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v>44671.74999895833</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="8">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v>44671.791665567129</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" s="8">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v>44671.833332175927</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" s="8">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v>44671.874998784719</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" s="8">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v>44671.916665393517</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" s="8">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v>44671.958332002316</v>
@@ -4294,12 +4300,12 @@
       <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" style="8" customWidth="1"/>
+    <col min="1" max="1" width="19.33203125" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>31</v>
       </c>
@@ -4313,7 +4319,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="8">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44671</v>
@@ -4328,7 +4334,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="8">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44671.041666666664</v>
@@ -4343,7 +4349,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="8">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44671.08333321759</v>
@@ -4358,7 +4364,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="8">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v>44671.124999826388</v>
@@ -4373,7 +4379,7 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="8">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v>44671.166666435187</v>
@@ -4388,7 +4394,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="8">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v>44671.208333043978</v>
@@ -4403,7 +4409,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="8">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v>44671.249999652777</v>
@@ -4418,7 +4424,7 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="8">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v>44671.291666261575</v>
@@ -4433,7 +4439,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="8">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v>44671.333332870374</v>
@@ -4448,7 +4454,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="8">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v>44671.374999479165</v>
@@ -4463,7 +4469,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="8">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v>44671.416666087964</v>
@@ -4478,7 +4484,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="8">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v>44671.458332696762</v>
@@ -4493,7 +4499,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="8">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v>44671.499999305554</v>
@@ -4508,7 +4514,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="8">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v>44671.541665914352</v>
@@ -4523,7 +4529,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="8">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v>44671.583332523151</v>
@@ -4538,7 +4544,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="8">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v>44671.624999131942</v>
@@ -4553,7 +4559,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="8">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v>44671.66666574074</v>
@@ -4568,7 +4574,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="8">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v>44671.708332349539</v>
@@ -4583,7 +4589,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="8">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v>44671.74999895833</v>
@@ -4598,7 +4604,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="8">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v>44671.791665567129</v>
@@ -4613,7 +4619,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="8">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v>44671.833332175927</v>
@@ -4628,7 +4634,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="8">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v>44671.874998784719</v>
@@ -4643,7 +4649,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="8">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v>44671.916665393517</v>
@@ -4658,7 +4664,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="8">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v>44671.958332002316</v>
@@ -4683,34 +4689,46 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5704FC51-737E-45F9-9A9E-85A96AFE5439}">
   <dimension ref="A1:M9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>46</v>
       </c>
       <c r="B1" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>89</v>
       </c>
       <c r="B2" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
@@ -4729,20 +4747,20 @@
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -4780,7 +4798,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -4818,7 +4836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -4856,7 +4874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -4894,7 +4912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -4932,7 +4950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>35</v>
       </c>
@@ -4970,7 +4988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
@@ -4996,15 +5014,15 @@
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" style="8" customWidth="1"/>
-    <col min="2" max="4" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.33203125" style="8" customWidth="1"/>
+    <col min="2" max="4" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="5.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>31</v>
       </c>
@@ -5036,7 +5054,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="8">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44671</v>
@@ -5069,7 +5087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="8">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44671.041666666664</v>
@@ -5102,7 +5120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="8">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44671.08333321759</v>
@@ -5135,7 +5153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="8">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v>44671.124999826388</v>
@@ -5168,7 +5186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="8">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v>44671.166666435187</v>
@@ -5201,7 +5219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="8">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v>44671.208333043978</v>
@@ -5234,7 +5252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="8">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v>44671.249999652777</v>
@@ -5267,7 +5285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="8">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v>44671.291666261575</v>
@@ -5300,7 +5318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="8">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v>44671.333332870374</v>
@@ -5333,7 +5351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="8">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v>44671.374999479165</v>
@@ -5366,7 +5384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="8">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v>44671.416666087964</v>
@@ -5399,7 +5417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="8">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v>44671.458332696762</v>
@@ -5432,7 +5450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="8">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v>44671.499999305554</v>
@@ -5465,7 +5483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="8">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v>44671.541665914352</v>
@@ -5498,7 +5516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="8">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v>44671.583332523151</v>
@@ -5531,7 +5549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="8">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v>44671.624999131942</v>
@@ -5564,7 +5582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="8">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v>44671.66666574074</v>
@@ -5597,7 +5615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="8">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v>44671.708332349539</v>
@@ -5630,7 +5648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="8">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v>44671.74999895833</v>
@@ -5663,7 +5681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="8">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v>44671.791665567129</v>
@@ -5696,7 +5714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="8">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v>44671.833332175927</v>
@@ -5729,7 +5747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="8">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v>44671.874998784719</v>
@@ -5762,7 +5780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="8">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v>44671.916665393517</v>
@@ -5795,7 +5813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="8">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v>44671.958332002316</v>
@@ -5841,12 +5859,12 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" style="8" customWidth="1"/>
+    <col min="1" max="1" width="19.33203125" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>31</v>
       </c>
@@ -5860,7 +5878,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="8">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44671</v>
@@ -5875,7 +5893,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="8">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44671.041666666664</v>
@@ -5890,7 +5908,7 @@
         <v>4.2857142857142856</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="8">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44671.08333321759</v>
@@ -5905,7 +5923,7 @@
         <v>4.2857142857142856</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="8">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v>44671.124999826388</v>
@@ -5920,7 +5938,7 @@
         <v>4.4117647058823533</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="8">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v>44671.166666435187</v>
@@ -5935,7 +5953,7 @@
         <v>4.5454545454545459</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="8">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v>44671.208333043978</v>
@@ -5950,7 +5968,7 @@
         <v>4.6875</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="8">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v>44671.249999652777</v>
@@ -5965,7 +5983,7 @@
         <v>4.838709677419355</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="8">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v>44671.291666261575</v>
@@ -5980,7 +5998,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="8">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v>44671.333332870374</v>
@@ -5995,7 +6013,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="8">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v>44671.374999479165</v>
@@ -6010,7 +6028,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="8">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v>44671.416666087964</v>
@@ -6025,7 +6043,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="8">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v>44671.458332696762</v>
@@ -6040,7 +6058,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="8">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v>44671.499999305554</v>
@@ -6055,7 +6073,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="8">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v>44671.541665914352</v>
@@ -6070,7 +6088,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="8">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v>44671.583332523151</v>
@@ -6085,7 +6103,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="8">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v>44671.624999131942</v>
@@ -6100,7 +6118,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="8">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v>44671.66666574074</v>
@@ -6115,7 +6133,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="8">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v>44671.708332349539</v>
@@ -6130,7 +6148,7 @@
         <v>3.75</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="8">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v>44671.74999895833</v>
@@ -6145,7 +6163,7 @@
         <v>3.75</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="8">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v>44671.791665567129</v>
@@ -6160,7 +6178,7 @@
         <v>3.75</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="8">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v>44671.833332175927</v>
@@ -6175,7 +6193,7 @@
         <v>3.75</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="8">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v>44671.874998784719</v>
@@ -6190,7 +6208,7 @@
         <v>4.2857142857142856</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="8">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v>44671.916665393517</v>
@@ -6205,7 +6223,7 @@
         <v>4.2857142857142856</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="8">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v>44671.958332002316</v>
@@ -6233,22 +6251,22 @@
       <selection activeCell="A8" sqref="A8:XFD8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" customWidth="1"/>
     <col min="2" max="2" width="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.7109375" customWidth="1"/>
+    <col min="3" max="3" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.6640625" customWidth="1"/>
     <col min="7" max="7" width="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="11.42578125" customWidth="1"/>
+    <col min="8" max="8" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="11.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>13</v>
       </c>
@@ -6298,7 +6316,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>23</v>
       </c>
@@ -6348,7 +6366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>24</v>
       </c>
@@ -6398,7 +6416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>25</v>
       </c>
@@ -6448,7 +6466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -6498,7 +6516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>84</v>
       </c>
@@ -6548,7 +6566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>36</v>
       </c>
@@ -6598,7 +6616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
@@ -6628,9 +6646,9 @@
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>38</v>
       </c>
@@ -6654,9 +6672,9 @@
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>13</v>
       </c>
@@ -6700,7 +6718,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>76</v>
       </c>
@@ -6720,7 +6738,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>77</v>
       </c>
@@ -6753,20 +6771,20 @@
       <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="5"/>
+    <col min="1" max="1" width="7.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.44140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.5546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.44140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.88671875" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.5546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.109375" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>13</v>
       </c>
@@ -6792,7 +6810,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>23</v>
       </c>
@@ -6818,7 +6836,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>23</v>
       </c>
@@ -6844,7 +6862,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>23</v>
       </c>
@@ -6870,7 +6888,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>24</v>
       </c>
@@ -6896,7 +6914,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>24</v>
       </c>
@@ -6922,7 +6940,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>25</v>
       </c>
@@ -6948,7 +6966,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>25</v>
       </c>
@@ -6974,7 +6992,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>26</v>
       </c>
@@ -7000,7 +7018,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>84</v>
       </c>
@@ -7026,7 +7044,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>36</v>
       </c>
@@ -7052,7 +7070,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>36</v>
       </c>
@@ -7092,12 +7110,12 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" style="8" customWidth="1"/>
+    <col min="1" max="1" width="19.33203125" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>31</v>
       </c>
@@ -7108,145 +7126,145 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="8">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44671</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="8">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44671.041666666664</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="8">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44671.08333321759</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="8">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v>44671.124999826388</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="8">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v>44671.166666435187</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="8">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v>44671.208333043978</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="8">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v>44671.249999652777</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="8">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v>44671.291666261575</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="8">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v>44671.333332870374</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="8">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v>44671.374999479165</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="8">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v>44671.416666087964</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="8">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v>44671.458332696762</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="8">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v>44671.499999305554</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="8">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v>44671.541665914352</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="8">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v>44671.583332523151</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="8">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v>44671.624999131942</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="8">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v>44671.66666574074</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="8">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v>44671.708332349539</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="8">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v>44671.74999895833</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="8">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v>44671.791665567129</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" s="8">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v>44671.833332175927</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" s="8">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v>44671.874998784719</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" s="8">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v>44671.916665393517</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" s="8">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v>44671.958332002316</v>
@@ -7265,9 +7283,9 @@
       <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>38</v>
       </c>
@@ -7275,7 +7293,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>79</v>
       </c>
@@ -7283,7 +7301,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>80</v>
       </c>
@@ -7304,14 +7322,14 @@
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" style="8" customWidth="1"/>
-    <col min="6" max="6" width="23.140625" customWidth="1"/>
-    <col min="12" max="12" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.33203125" style="8" customWidth="1"/>
+    <col min="6" max="6" width="23.109375" customWidth="1"/>
+    <col min="12" max="12" width="12.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>31</v>
       </c>
@@ -7329,7 +7347,7 @@
       </c>
       <c r="F1"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="8">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44671</v>
@@ -7351,7 +7369,7 @@
       <c r="F2" s="8"/>
       <c r="L2" s="8"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="8">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44671.041666666664</v>
@@ -7371,7 +7389,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="8">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44671.08333321759</v>
@@ -7391,7 +7409,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="8">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v>44671.124999826388</v>
@@ -7411,7 +7429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="8">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v>44671.166666435187</v>
@@ -7431,7 +7449,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="8">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v>44671.208333043978</v>
@@ -7451,7 +7469,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="8">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v>44671.249999652777</v>
@@ -7471,7 +7489,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="8">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v>44671.291666261575</v>
@@ -7491,7 +7509,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="8">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v>44671.333332870374</v>
@@ -7511,7 +7529,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="8">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v>44671.374999479165</v>
@@ -7531,7 +7549,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="8">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v>44671.416666087964</v>
@@ -7551,7 +7569,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="8">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v>44671.458332696762</v>
@@ -7571,7 +7589,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="8">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v>44671.499999305554</v>
@@ -7591,7 +7609,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="8">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v>44671.541665914352</v>
@@ -7611,7 +7629,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="8">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v>44671.583332523151</v>
@@ -7631,7 +7649,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="8">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v>44671.624999131942</v>
@@ -7651,7 +7669,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="8">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v>44671.66666574074</v>
@@ -7671,7 +7689,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="8">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v>44671.708332349539</v>
@@ -7691,7 +7709,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="8">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v>44671.74999895833</v>
@@ -7711,7 +7729,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="8">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v>44671.791665567129</v>
@@ -7731,7 +7749,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="8">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v>44671.833332175927</v>
@@ -7751,7 +7769,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="8">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v>44671.874998784719</v>
@@ -7771,7 +7789,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="8">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v>44671.916665393517</v>
@@ -7791,7 +7809,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="8">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v>44671.958332002316</v>

--- a/input_data/input_data.xlsx
+++ b/input_data/input_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dsdennis\HOPE\Predicer\input_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25B54ABA-4D11-4137-95C8-06662D48C8CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B0AFD53-F350-43FC-8D75-74F8B8AE7B08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1884" yWindow="1884" windowWidth="17280" windowHeight="8964" tabRatio="796" firstSheet="10" activeTab="18" xr2:uid="{788BFBD1-D930-4535-8A91-D85C56924796}"/>
+    <workbookView xWindow="2928" yWindow="2928" windowWidth="17280" windowHeight="8964" tabRatio="796" firstSheet="10" activeTab="10" xr2:uid="{788BFBD1-D930-4535-8A91-D85C56924796}"/>
   </bookViews>
   <sheets>
     <sheet name="timeseries" sheetId="18" r:id="rId1"/>
@@ -23,17 +23,18 @@
     <sheet name="reserve_type" sheetId="13" r:id="rId8"/>
     <sheet name="cf" sheetId="7" r:id="rId9"/>
     <sheet name="inflow" sheetId="3" r:id="rId10"/>
-    <sheet name="price" sheetId="4" r:id="rId11"/>
-    <sheet name="markets" sheetId="5" r:id="rId12"/>
-    <sheet name="market_prices" sheetId="8" r:id="rId13"/>
-    <sheet name="balance_prices" sheetId="20" r:id="rId14"/>
-    <sheet name="risk" sheetId="17" r:id="rId15"/>
-    <sheet name="scenarios" sheetId="9" r:id="rId16"/>
-    <sheet name="fixed_ts" sheetId="11" r:id="rId17"/>
-    <sheet name="eff_ts" sheetId="12" r:id="rId18"/>
-    <sheet name="constraints" sheetId="14" r:id="rId19"/>
-    <sheet name="gen_constraint" sheetId="15" r:id="rId20"/>
-    <sheet name="cap_ts" sheetId="16" r:id="rId21"/>
+    <sheet name="inflow_blocks" sheetId="22" r:id="rId11"/>
+    <sheet name="price" sheetId="4" r:id="rId12"/>
+    <sheet name="markets" sheetId="5" r:id="rId13"/>
+    <sheet name="market_prices" sheetId="8" r:id="rId14"/>
+    <sheet name="balance_prices" sheetId="20" r:id="rId15"/>
+    <sheet name="risk" sheetId="17" r:id="rId16"/>
+    <sheet name="scenarios" sheetId="9" r:id="rId17"/>
+    <sheet name="fixed_ts" sheetId="11" r:id="rId18"/>
+    <sheet name="eff_ts" sheetId="12" r:id="rId19"/>
+    <sheet name="constraints" sheetId="14" r:id="rId20"/>
+    <sheet name="gen_constraint" sheetId="15" r:id="rId21"/>
+    <sheet name="cap_ts" sheetId="16" r:id="rId22"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -53,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="131">
   <si>
     <t>node</t>
   </si>
@@ -1756,6 +1757,100 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{098BD40C-3F1E-4DCA-B153-EDE213641CC0}">
+  <dimension ref="A1:F17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="6" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="8"/>
+      <c r="E2" s="8"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="C3" s="8"/>
+      <c r="E3" s="8"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="C4" s="8"/>
+      <c r="E4" s="8"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="C5" s="8"/>
+      <c r="E5" s="8"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+    </row>
+    <row r="17" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02307C1F-427B-487D-B703-EBF512D7AC27}">
   <dimension ref="A1:B25"/>
   <sheetViews>
@@ -1997,7 +2092,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3788A93-7501-4F5D-9E8F-38D329CC85EC}">
   <dimension ref="A1:K5"/>
   <sheetViews>
@@ -2195,7 +2290,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF6DDD9A-EF34-4108-8532-230729E9C708}">
   <dimension ref="A1:M25"/>
   <sheetViews>
@@ -3265,7 +3360,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{817FDE8F-BC70-48D0-8376-FB52E6946AF1}">
   <dimension ref="A1:G25"/>
   <sheetViews>
@@ -4029,7 +4124,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9314D326-256A-435C-AAE3-3517FA836EAE}">
   <dimension ref="A1:B3"/>
   <sheetViews>
@@ -4071,7 +4166,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A87AD413-E614-48C1-80E1-F1E8236FCBC6}">
   <dimension ref="A1:B4"/>
   <sheetViews>
@@ -4118,7 +4213,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31679CA5-0AA2-4F6F-8223-14BF74917F04}">
   <dimension ref="A1:B25"/>
   <sheetViews>
@@ -4292,7 +4387,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD670E02-665B-45B8-BC4E-9596D2C1BC55}">
   <dimension ref="A1:D25"/>
   <sheetViews>
@@ -4682,60 +4777,6 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5704FC51-737E-45F9-9A9E-85A96AFE5439}">
-  <dimension ref="A1:M9"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:D2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.6640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B1" t="s">
-        <v>111</v>
-      </c>
-      <c r="C1" t="s">
-        <v>129</v>
-      </c>
-      <c r="D1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>89</v>
-      </c>
-      <c r="B2" t="s">
-        <v>90</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5007,6 +5048,60 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5704FC51-737E-45F9-9A9E-85A96AFE5439}">
+  <dimension ref="A1:M9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE12AB76-2BDA-4ACA-A128-8CFB9FB6C8F8}">
   <dimension ref="A1:J25"/>
   <sheetViews>
@@ -5851,7 +5946,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7FEDBA5-B0F3-4E9D-9367-08D5F5FA8AEA}">
   <dimension ref="A1:D25"/>
   <sheetViews>

--- a/input_data/input_data.xlsx
+++ b/input_data/input_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dsdennis\HOPE\Predicer\input_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B0AFD53-F350-43FC-8D75-74F8B8AE7B08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A80E1FD-47D8-4606-A109-FB7EF5E01512}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2928" yWindow="2928" windowWidth="17280" windowHeight="8964" tabRatio="796" firstSheet="10" activeTab="10" xr2:uid="{788BFBD1-D930-4535-8A91-D85C56924796}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="796" activeTab="12" xr2:uid="{788BFBD1-D930-4535-8A91-D85C56924796}"/>
   </bookViews>
   <sheets>
     <sheet name="timeseries" sheetId="18" r:id="rId1"/>
@@ -26,15 +26,16 @@
     <sheet name="inflow_blocks" sheetId="22" r:id="rId11"/>
     <sheet name="price" sheetId="4" r:id="rId12"/>
     <sheet name="markets" sheetId="5" r:id="rId13"/>
-    <sheet name="market_prices" sheetId="8" r:id="rId14"/>
-    <sheet name="balance_prices" sheetId="20" r:id="rId15"/>
-    <sheet name="risk" sheetId="17" r:id="rId16"/>
-    <sheet name="scenarios" sheetId="9" r:id="rId17"/>
-    <sheet name="fixed_ts" sheetId="11" r:id="rId18"/>
-    <sheet name="eff_ts" sheetId="12" r:id="rId19"/>
-    <sheet name="constraints" sheetId="14" r:id="rId20"/>
-    <sheet name="gen_constraint" sheetId="15" r:id="rId21"/>
-    <sheet name="cap_ts" sheetId="16" r:id="rId22"/>
+    <sheet name="reserve_realisation" sheetId="23" r:id="rId14"/>
+    <sheet name="market_prices" sheetId="8" r:id="rId15"/>
+    <sheet name="balance_prices" sheetId="20" r:id="rId16"/>
+    <sheet name="risk" sheetId="17" r:id="rId17"/>
+    <sheet name="scenarios" sheetId="9" r:id="rId18"/>
+    <sheet name="fixed_ts" sheetId="11" r:id="rId19"/>
+    <sheet name="eff_ts" sheetId="12" r:id="rId20"/>
+    <sheet name="constraints" sheetId="14" r:id="rId21"/>
+    <sheet name="gen_constraint" sheetId="15" r:id="rId22"/>
+    <sheet name="cap_ts" sheetId="16" r:id="rId23"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -54,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="134">
   <si>
     <t>node</t>
   </si>
@@ -266,9 +267,6 @@
     <t>start_cost</t>
   </si>
   <si>
-    <t>realisation</t>
-  </si>
-  <si>
     <t>hp1,s1</t>
   </si>
   <si>
@@ -447,6 +445,18 @@
   </si>
   <si>
     <t>penalty</t>
+  </si>
+  <si>
+    <t>reserve_product</t>
+  </si>
+  <si>
+    <t>processgroup</t>
+  </si>
+  <si>
+    <t>p1</t>
+  </si>
+  <si>
+    <t>elc_res</t>
   </si>
 </sst>
 </file>
@@ -506,13 +516,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -844,196 +854,196 @@
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" s="8">
+      <c r="A2" s="7">
         <v>44671</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" s="8">
+      <c r="A3" s="7">
         <v>44671.041666666664</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" s="8">
+      <c r="A4" s="7">
         <v>44671.08333321759</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5" s="8">
+      <c r="A5" s="7">
         <v>44671.124999826388</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A6" s="8">
+      <c r="A6" s="7">
         <v>44671.166666435187</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A7" s="8">
+      <c r="A7" s="7">
         <v>44671.208333043978</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A8" s="8">
+      <c r="A8" s="7">
         <v>44671.249999652777</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A9" s="8">
+      <c r="A9" s="7">
         <v>44671.291666261575</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A10" s="8">
+      <c r="A10" s="7">
         <v>44671.333332870374</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A11" s="8">
+      <c r="A11" s="7">
         <v>44671.374999479165</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A12" s="8">
+      <c r="A12" s="7">
         <v>44671.416666087964</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A13" s="8">
+      <c r="A13" s="7">
         <v>44671.458332696762</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A14" s="8">
+      <c r="A14" s="7">
         <v>44671.499999305554</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A15" s="8">
+      <c r="A15" s="7">
         <v>44671.541665914352</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A16" s="8">
+      <c r="A16" s="7">
         <v>44671.583332523151</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" s="8">
+      <c r="A17" s="7">
         <v>44671.624999131942</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" s="8">
+      <c r="A18" s="7">
         <v>44671.66666574074</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19" s="8">
+      <c r="A19" s="7">
         <v>44671.708332349539</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" s="8">
+      <c r="A20" s="7">
         <v>44671.74999895833</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A21" s="8">
+      <c r="A21" s="7">
         <v>44671.791665567129</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A22" s="8">
+      <c r="A22" s="7">
         <v>44671.833332175927</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A23" s="8">
+      <c r="A23" s="7">
         <v>44671.874998784719</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A24" s="8">
+      <c r="A24" s="7">
         <v>44671.916665393517</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A25" s="8">
+      <c r="A25" s="7">
         <v>44671.958332002316</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A26" s="8"/>
+      <c r="A26" s="7"/>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A27" s="8"/>
+      <c r="A27" s="7"/>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A28" s="8"/>
+      <c r="A28" s="7"/>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A29" s="8"/>
+      <c r="A29" s="7"/>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A30" s="8"/>
+      <c r="A30" s="7"/>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A31" s="8"/>
+      <c r="A31" s="7"/>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A32" s="8"/>
+      <c r="A32" s="7"/>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A33" s="8"/>
+      <c r="A33" s="7"/>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A34" s="8"/>
+      <c r="A34" s="7"/>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A35" s="8"/>
+      <c r="A35" s="7"/>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A36" s="8"/>
+      <c r="A36" s="7"/>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A37" s="8"/>
+      <c r="A37" s="7"/>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A38" s="8"/>
+      <c r="A38" s="7"/>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A39" s="8"/>
+      <c r="A39" s="7"/>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A40" s="8"/>
+      <c r="A40" s="7"/>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A41" s="8"/>
+      <c r="A41" s="7"/>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A42" s="8"/>
+      <c r="A42" s="7"/>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A43" s="8"/>
+      <c r="A43" s="7"/>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A44" s="8"/>
+      <c r="A44" s="7"/>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A45" s="8"/>
+      <c r="A45" s="7"/>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A46" s="8"/>
+      <c r="A46" s="7"/>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A47" s="8"/>
+      <c r="A47" s="7"/>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A48" s="8"/>
+      <c r="A48" s="7"/>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A49" s="8"/>
+      <c r="A49" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1050,7 +1060,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" style="8" customWidth="1"/>
+    <col min="1" max="1" width="19.33203125" style="7" customWidth="1"/>
     <col min="4" max="6" width="10.44140625" customWidth="1"/>
     <col min="7" max="7" width="10.44140625" style="1" customWidth="1"/>
   </cols>
@@ -1079,7 +1089,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="8">
+      <c r="A2" s="7">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44671</v>
       </c>
@@ -1106,7 +1116,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="8">
+      <c r="A3" s="7">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44671.041666666664</v>
       </c>
@@ -1134,7 +1144,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="8">
+      <c r="A4" s="7">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44671.08333321759</v>
       </c>
@@ -1162,7 +1172,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="8">
+      <c r="A5" s="7">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v>44671.124999826388</v>
       </c>
@@ -1190,7 +1200,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="8">
+      <c r="A6" s="7">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v>44671.166666435187</v>
       </c>
@@ -1218,7 +1228,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="8">
+      <c r="A7" s="7">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v>44671.208333043978</v>
       </c>
@@ -1246,7 +1256,7 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="8">
+      <c r="A8" s="7">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v>44671.249999652777</v>
       </c>
@@ -1274,7 +1284,7 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="8">
+      <c r="A9" s="7">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v>44671.291666261575</v>
       </c>
@@ -1302,7 +1312,7 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="8">
+      <c r="A10" s="7">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v>44671.333332870374</v>
       </c>
@@ -1330,7 +1340,7 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="8">
+      <c r="A11" s="7">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v>44671.374999479165</v>
       </c>
@@ -1358,7 +1368,7 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="8">
+      <c r="A12" s="7">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v>44671.416666087964</v>
       </c>
@@ -1386,7 +1396,7 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="8">
+      <c r="A13" s="7">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v>44671.458332696762</v>
       </c>
@@ -1414,7 +1424,7 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="8">
+      <c r="A14" s="7">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v>44671.499999305554</v>
       </c>
@@ -1442,7 +1452,7 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="8">
+      <c r="A15" s="7">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v>44671.541665914352</v>
       </c>
@@ -1470,7 +1480,7 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="8">
+      <c r="A16" s="7">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v>44671.583332523151</v>
       </c>
@@ -1498,7 +1508,7 @@
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="8">
+      <c r="A17" s="7">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v>44671.624999131942</v>
       </c>
@@ -1526,7 +1536,7 @@
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="8">
+      <c r="A18" s="7">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v>44671.66666574074</v>
       </c>
@@ -1554,7 +1564,7 @@
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="8">
+      <c r="A19" s="7">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v>44671.708332349539</v>
       </c>
@@ -1582,7 +1592,7 @@
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="8">
+      <c r="A20" s="7">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v>44671.74999895833</v>
       </c>
@@ -1610,7 +1620,7 @@
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="8">
+      <c r="A21" s="7">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v>44671.791665567129</v>
       </c>
@@ -1638,7 +1648,7 @@
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="8">
+      <c r="A22" s="7">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v>44671.833332175927</v>
       </c>
@@ -1666,7 +1676,7 @@
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="8">
+      <c r="A23" s="7">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v>44671.874998784719</v>
       </c>
@@ -1694,7 +1704,7 @@
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="8">
+      <c r="A24" s="7">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v>44671.916665393517</v>
       </c>
@@ -1722,7 +1732,7 @@
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="8">
+      <c r="A25" s="7">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v>44671.958332002316</v>
       </c>
@@ -1760,13 +1770,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{098BD40C-3F1E-4DCA-B153-EDE213641CC0}">
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="6" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="13.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.6640625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1779,29 +1789,29 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="C2" s="8"/>
-      <c r="E2" s="8"/>
+      <c r="C2" s="7"/>
+      <c r="E2" s="7"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="C3" s="8"/>
-      <c r="E3" s="8"/>
+      <c r="C3" s="7"/>
+      <c r="E3" s="7"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="C4" s="8"/>
-      <c r="E4" s="8"/>
+      <c r="C4" s="7"/>
+      <c r="E4" s="7"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="C5" s="8"/>
-      <c r="E5" s="8"/>
+      <c r="C5" s="7"/>
+      <c r="E5" s="7"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
@@ -1834,16 +1844,16 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
     </row>
     <row r="17" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1860,7 +1870,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" style="8" customWidth="1"/>
+    <col min="1" max="1" width="19.33203125" style="7" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -1868,11 +1878,11 @@
         <v>31</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="8">
+      <c r="A2" s="7">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44671</v>
       </c>
@@ -1881,7 +1891,7 @@
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="8">
+      <c r="A3" s="7">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44671.041666666664</v>
       </c>
@@ -1890,7 +1900,7 @@
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="8">
+      <c r="A4" s="7">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44671.08333321759</v>
       </c>
@@ -1899,7 +1909,7 @@
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="8">
+      <c r="A5" s="7">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v>44671.124999826388</v>
       </c>
@@ -1908,7 +1918,7 @@
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="8">
+      <c r="A6" s="7">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v>44671.166666435187</v>
       </c>
@@ -1917,7 +1927,7 @@
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="8">
+      <c r="A7" s="7">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v>44671.208333043978</v>
       </c>
@@ -1926,7 +1936,7 @@
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="8">
+      <c r="A8" s="7">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v>44671.249999652777</v>
       </c>
@@ -1935,7 +1945,7 @@
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="8">
+      <c r="A9" s="7">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v>44671.291666261575</v>
       </c>
@@ -1944,7 +1954,7 @@
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="8">
+      <c r="A10" s="7">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v>44671.333332870374</v>
       </c>
@@ -1953,7 +1963,7 @@
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="8">
+      <c r="A11" s="7">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v>44671.374999479165</v>
       </c>
@@ -1962,7 +1972,7 @@
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="8">
+      <c r="A12" s="7">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v>44671.416666087964</v>
       </c>
@@ -1971,7 +1981,7 @@
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="8">
+      <c r="A13" s="7">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v>44671.458332696762</v>
       </c>
@@ -1980,7 +1990,7 @@
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" s="8">
+      <c r="A14" s="7">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v>44671.499999305554</v>
       </c>
@@ -1989,7 +1999,7 @@
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" s="8">
+      <c r="A15" s="7">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v>44671.541665914352</v>
       </c>
@@ -1998,7 +2008,7 @@
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" s="8">
+      <c r="A16" s="7">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v>44671.583332523151</v>
       </c>
@@ -2007,7 +2017,7 @@
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="8">
+      <c r="A17" s="7">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v>44671.624999131942</v>
       </c>
@@ -2016,7 +2026,7 @@
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="8">
+      <c r="A18" s="7">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v>44671.66666574074</v>
       </c>
@@ -2025,7 +2035,7 @@
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" s="8">
+      <c r="A19" s="7">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v>44671.708332349539</v>
       </c>
@@ -2034,7 +2044,7 @@
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" s="8">
+      <c r="A20" s="7">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v>44671.74999895833</v>
       </c>
@@ -2043,7 +2053,7 @@
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" s="8">
+      <c r="A21" s="7">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v>44671.791665567129</v>
       </c>
@@ -2052,7 +2062,7 @@
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" s="8">
+      <c r="A22" s="7">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v>44671.833332175927</v>
       </c>
@@ -2061,7 +2071,7 @@
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" s="8">
+      <c r="A23" s="7">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v>44671.874998784719</v>
       </c>
@@ -2070,7 +2080,7 @@
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" s="8">
+      <c r="A24" s="7">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v>44671.916665393517</v>
       </c>
@@ -2079,7 +2089,7 @@
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" s="8">
+      <c r="A25" s="7">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v>44671.958332002316</v>
       </c>
@@ -2096,17 +2106,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3788A93-7501-4F5D-9E8F-38D329CC85EC}">
   <dimension ref="A1:K5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="7.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.44140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2121,167 +2131,167 @@
         <v>0</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="E1" s="6" t="s">
-        <v>70</v>
-      </c>
       <c r="F1" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2" s="6">
+        <v>0</v>
+      </c>
+      <c r="J2" s="6">
+        <v>0</v>
+      </c>
+      <c r="K2" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="J3" s="6">
+        <v>10</v>
+      </c>
+      <c r="K3" s="6">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="E4" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="G1" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="E2" s="7">
-        <v>0</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="G2">
-        <v>1</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2" s="7">
-        <v>0</v>
-      </c>
-      <c r="J2" s="7">
-        <v>0</v>
-      </c>
-      <c r="K2" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="B3" s="7" t="s">
+      <c r="F4" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4" s="6">
+        <v>0</v>
+      </c>
+      <c r="J4" s="6">
+        <v>0</v>
+      </c>
+      <c r="K4" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="C3" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="E3" s="7">
-        <v>0</v>
-      </c>
-      <c r="F3" s="7" t="s">
+      <c r="C5" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="F5" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="G3">
-        <v>1</v>
-      </c>
-      <c r="H3">
-        <v>1</v>
-      </c>
-      <c r="I3" s="7">
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5" s="6">
         <v>0.5</v>
       </c>
-      <c r="J3" s="7">
-        <v>10</v>
-      </c>
-      <c r="K3" s="7">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="E4" s="7">
-        <v>0.2</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="G4">
-        <v>1</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7">
-        <v>0</v>
-      </c>
-      <c r="J4" s="7">
-        <v>0</v>
-      </c>
-      <c r="K4" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="E5" s="7">
-        <v>0.2</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="G5">
-        <v>1</v>
-      </c>
-      <c r="H5">
-        <v>1</v>
-      </c>
-      <c r="I5" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="J5" s="7">
+      <c r="J5" s="6">
         <v>5</v>
       </c>
-      <c r="K5" s="7">
+      <c r="K5" s="6">
         <v>50</v>
       </c>
     </row>
@@ -2291,6 +2301,81 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E21372C5-DB60-4318-868D-D4FA20FECD5D}">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="13.44140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="6.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="B1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2">
+        <v>0.2</v>
+      </c>
+      <c r="C2">
+        <v>0.3</v>
+      </c>
+      <c r="D2">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3">
+        <v>0.2</v>
+      </c>
+      <c r="C3">
+        <v>0.3</v>
+      </c>
+      <c r="D3">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4">
+        <v>0.2</v>
+      </c>
+      <c r="C4">
+        <v>0.3</v>
+      </c>
+      <c r="D4">
+        <v>0.2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF6DDD9A-EF34-4108-8532-230729E9C708}">
   <dimension ref="A1:M25"/>
   <sheetViews>
@@ -2300,7 +2385,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" style="8" customWidth="1"/>
+    <col min="1" max="1" width="19.33203125" style="7" customWidth="1"/>
     <col min="2" max="5" width="11.44140625" customWidth="1"/>
     <col min="6" max="13" width="11.109375" customWidth="1"/>
   </cols>
@@ -2347,7 +2432,7 @@
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A2" s="8">
+      <c r="A2" s="7">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44671</v>
       </c>
@@ -2389,7 +2474,7 @@
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A3" s="8">
+      <c r="A3" s="7">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44671.041666666664</v>
       </c>
@@ -2431,7 +2516,7 @@
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A4" s="8">
+      <c r="A4" s="7">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44671.08333321759</v>
       </c>
@@ -2473,7 +2558,7 @@
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A5" s="8">
+      <c r="A5" s="7">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v>44671.124999826388</v>
       </c>
@@ -2515,7 +2600,7 @@
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A6" s="8">
+      <c r="A6" s="7">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v>44671.166666435187</v>
       </c>
@@ -2557,7 +2642,7 @@
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A7" s="8">
+      <c r="A7" s="7">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v>44671.208333043978</v>
       </c>
@@ -2599,7 +2684,7 @@
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A8" s="8">
+      <c r="A8" s="7">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v>44671.249999652777</v>
       </c>
@@ -2641,7 +2726,7 @@
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A9" s="8">
+      <c r="A9" s="7">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v>44671.291666261575</v>
       </c>
@@ -2683,7 +2768,7 @@
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A10" s="8">
+      <c r="A10" s="7">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v>44671.333332870374</v>
       </c>
@@ -2725,7 +2810,7 @@
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A11" s="8">
+      <c r="A11" s="7">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v>44671.374999479165</v>
       </c>
@@ -2767,7 +2852,7 @@
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A12" s="8">
+      <c r="A12" s="7">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v>44671.416666087964</v>
       </c>
@@ -2809,7 +2894,7 @@
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A13" s="8">
+      <c r="A13" s="7">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v>44671.458332696762</v>
       </c>
@@ -2851,7 +2936,7 @@
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A14" s="8">
+      <c r="A14" s="7">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v>44671.499999305554</v>
       </c>
@@ -2893,7 +2978,7 @@
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A15" s="8">
+      <c r="A15" s="7">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v>44671.541665914352</v>
       </c>
@@ -2935,7 +3020,7 @@
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A16" s="8">
+      <c r="A16" s="7">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v>44671.583332523151</v>
       </c>
@@ -2977,7 +3062,7 @@
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A17" s="8">
+      <c r="A17" s="7">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v>44671.624999131942</v>
       </c>
@@ -3019,7 +3104,7 @@
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A18" s="8">
+      <c r="A18" s="7">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v>44671.66666574074</v>
       </c>
@@ -3061,7 +3146,7 @@
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A19" s="8">
+      <c r="A19" s="7">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v>44671.708332349539</v>
       </c>
@@ -3103,7 +3188,7 @@
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A20" s="8">
+      <c r="A20" s="7">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v>44671.74999895833</v>
       </c>
@@ -3145,7 +3230,7 @@
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A21" s="8">
+      <c r="A21" s="7">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v>44671.791665567129</v>
       </c>
@@ -3187,7 +3272,7 @@
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A22" s="8">
+      <c r="A22" s="7">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v>44671.833332175927</v>
       </c>
@@ -3229,7 +3314,7 @@
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A23" s="8">
+      <c r="A23" s="7">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v>44671.874998784719</v>
       </c>
@@ -3271,7 +3356,7 @@
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A24" s="8">
+      <c r="A24" s="7">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v>44671.916665393517</v>
       </c>
@@ -3313,7 +3398,7 @@
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A25" s="8">
+      <c r="A25" s="7">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v>44671.958332002316</v>
       </c>
@@ -3360,7 +3445,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{817FDE8F-BC70-48D0-8376-FB52E6946AF1}">
   <dimension ref="A1:G25"/>
   <sheetViews>
@@ -3380,26 +3465,26 @@
         <v>31</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="G1" s="3" t="s">
-        <v>120</v>
-      </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="8">
+      <c r="A2" s="7">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44671</v>
       </c>
@@ -3429,7 +3514,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="8">
+      <c r="A3" s="7">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44671.041666666664</v>
       </c>
@@ -3459,7 +3544,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="8">
+      <c r="A4" s="7">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44671.08333321759</v>
       </c>
@@ -3489,7 +3574,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="8">
+      <c r="A5" s="7">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v>44671.124999826388</v>
       </c>
@@ -3519,7 +3604,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="8">
+      <c r="A6" s="7">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v>44671.166666435187</v>
       </c>
@@ -3549,7 +3634,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="8">
+      <c r="A7" s="7">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v>44671.208333043978</v>
       </c>
@@ -3579,7 +3664,7 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="8">
+      <c r="A8" s="7">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v>44671.249999652777</v>
       </c>
@@ -3609,7 +3694,7 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="8">
+      <c r="A9" s="7">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v>44671.291666261575</v>
       </c>
@@ -3639,7 +3724,7 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="8">
+      <c r="A10" s="7">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v>44671.333332870374</v>
       </c>
@@ -3669,7 +3754,7 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="8">
+      <c r="A11" s="7">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v>44671.374999479165</v>
       </c>
@@ -3699,7 +3784,7 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="8">
+      <c r="A12" s="7">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v>44671.416666087964</v>
       </c>
@@ -3729,7 +3814,7 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="8">
+      <c r="A13" s="7">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v>44671.458332696762</v>
       </c>
@@ -3759,7 +3844,7 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="8">
+      <c r="A14" s="7">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v>44671.499999305554</v>
       </c>
@@ -3789,7 +3874,7 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="8">
+      <c r="A15" s="7">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v>44671.541665914352</v>
       </c>
@@ -3819,7 +3904,7 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="8">
+      <c r="A16" s="7">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v>44671.583332523151</v>
       </c>
@@ -3849,7 +3934,7 @@
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="8">
+      <c r="A17" s="7">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v>44671.624999131942</v>
       </c>
@@ -3879,7 +3964,7 @@
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="8">
+      <c r="A18" s="7">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v>44671.66666574074</v>
       </c>
@@ -3909,7 +3994,7 @@
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="8">
+      <c r="A19" s="7">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v>44671.708332349539</v>
       </c>
@@ -3939,7 +4024,7 @@
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="8">
+      <c r="A20" s="7">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v>44671.74999895833</v>
       </c>
@@ -3969,7 +4054,7 @@
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="8">
+      <c r="A21" s="7">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v>44671.791665567129</v>
       </c>
@@ -3999,7 +4084,7 @@
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="8">
+      <c r="A22" s="7">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v>44671.833332175927</v>
       </c>
@@ -4029,7 +4114,7 @@
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="8">
+      <c r="A23" s="7">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v>44671.874998784719</v>
       </c>
@@ -4059,7 +4144,7 @@
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="8">
+      <c r="A24" s="7">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v>44671.916665393517</v>
       </c>
@@ -4089,7 +4174,7 @@
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="8">
+      <c r="A25" s="7">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v>44671.958332002316</v>
       </c>
@@ -4124,7 +4209,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9314D326-256A-435C-AAE3-3517FA836EAE}">
   <dimension ref="A1:B3"/>
   <sheetViews>
@@ -4139,15 +4224,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>105</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B2">
         <v>0.1</v>
@@ -4155,7 +4240,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B3">
         <v>0.2</v>
@@ -4166,7 +4251,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A87AD413-E614-48C1-80E1-F1E8236FCBC6}">
   <dimension ref="A1:B4"/>
   <sheetViews>
@@ -4213,7 +4298,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31679CA5-0AA2-4F6F-8223-14BF74917F04}">
   <dimension ref="A1:B25"/>
   <sheetViews>
@@ -4223,7 +4308,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" style="8" customWidth="1"/>
+    <col min="1" max="1" width="19.33203125" style="7" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -4232,550 +4317,157 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="8">
+      <c r="A2" s="7">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44671</v>
       </c>
       <c r="B2" s="2"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="8">
+      <c r="A3" s="7">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44671.041666666664</v>
       </c>
       <c r="B3" s="2"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="8">
+      <c r="A4" s="7">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44671.08333321759</v>
       </c>
       <c r="B4" s="2"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="8">
+      <c r="A5" s="7">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v>44671.124999826388</v>
       </c>
       <c r="B5" s="2"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="8">
+      <c r="A6" s="7">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v>44671.166666435187</v>
       </c>
       <c r="B6" s="2"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="8">
+      <c r="A7" s="7">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v>44671.208333043978</v>
       </c>
       <c r="B7" s="2"/>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="8">
+      <c r="A8" s="7">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v>44671.249999652777</v>
       </c>
       <c r="B8" s="2"/>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="8">
+      <c r="A9" s="7">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v>44671.291666261575</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="8">
+      <c r="A10" s="7">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v>44671.333332870374</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="8">
+      <c r="A11" s="7">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v>44671.374999479165</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="8">
+      <c r="A12" s="7">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v>44671.416666087964</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="8">
+      <c r="A13" s="7">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v>44671.458332696762</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" s="8">
+      <c r="A14" s="7">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v>44671.499999305554</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" s="8">
+      <c r="A15" s="7">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v>44671.541665914352</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" s="8">
+      <c r="A16" s="7">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v>44671.583332523151</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" s="8">
+      <c r="A17" s="7">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v>44671.624999131942</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" s="8">
+      <c r="A18" s="7">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v>44671.66666574074</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19" s="8">
+      <c r="A19" s="7">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v>44671.708332349539</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" s="8">
+      <c r="A20" s="7">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v>44671.74999895833</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A21" s="8">
+      <c r="A21" s="7">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v>44671.791665567129</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A22" s="8">
+      <c r="A22" s="7">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v>44671.833332175927</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A23" s="8">
+      <c r="A23" s="7">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v>44671.874998784719</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A24" s="8">
+      <c r="A24" s="7">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v>44671.916665393517</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A25" s="8">
+      <c r="A25" s="7">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v>44671.958332002316</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD670E02-665B-45B8-BC4E-9596D2C1BC55}">
-  <dimension ref="A1:D25"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="19.33203125" style="8" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="8">
-        <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
-        <v>44671</v>
-      </c>
-      <c r="B2">
-        <v>3</v>
-      </c>
-      <c r="C2">
-        <v>3</v>
-      </c>
-      <c r="D2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="8">
-        <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
-        <v>44671.041666666664</v>
-      </c>
-      <c r="B3">
-        <v>3.5</v>
-      </c>
-      <c r="C3">
-        <v>3.5</v>
-      </c>
-      <c r="D3">
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="8">
-        <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
-        <v>44671.08333321759</v>
-      </c>
-      <c r="B4">
-        <v>3.5</v>
-      </c>
-      <c r="C4">
-        <v>3.5</v>
-      </c>
-      <c r="D4">
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="8">
-        <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
-        <v>44671.124999826388</v>
-      </c>
-      <c r="B5">
-        <v>3.4</v>
-      </c>
-      <c r="C5">
-        <v>3.4</v>
-      </c>
-      <c r="D5">
-        <v>3.4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="8">
-        <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
-        <v>44671.166666435187</v>
-      </c>
-      <c r="B6">
-        <v>3.3</v>
-      </c>
-      <c r="C6">
-        <v>3.3</v>
-      </c>
-      <c r="D6">
-        <v>3.3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="8">
-        <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
-        <v>44671.208333043978</v>
-      </c>
-      <c r="B7">
-        <v>3.2</v>
-      </c>
-      <c r="C7">
-        <v>3.2</v>
-      </c>
-      <c r="D7">
-        <v>3.2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="8">
-        <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
-        <v>44671.249999652777</v>
-      </c>
-      <c r="B8">
-        <v>3.1</v>
-      </c>
-      <c r="C8">
-        <v>3.1</v>
-      </c>
-      <c r="D8">
-        <v>3.1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="8">
-        <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
-        <v>44671.291666261575</v>
-      </c>
-      <c r="B9">
-        <v>3</v>
-      </c>
-      <c r="C9">
-        <v>3</v>
-      </c>
-      <c r="D9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="8">
-        <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
-        <v>44671.333332870374</v>
-      </c>
-      <c r="B10">
-        <v>2.5</v>
-      </c>
-      <c r="C10">
-        <v>2.5</v>
-      </c>
-      <c r="D10">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="8">
-        <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
-        <v>44671.374999479165</v>
-      </c>
-      <c r="B11">
-        <v>2.5</v>
-      </c>
-      <c r="C11">
-        <v>2.5</v>
-      </c>
-      <c r="D11">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="8">
-        <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
-        <v>44671.416666087964</v>
-      </c>
-      <c r="B12">
-        <v>2.5</v>
-      </c>
-      <c r="C12">
-        <v>2.5</v>
-      </c>
-      <c r="D12">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="8">
-        <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
-        <v>44671.458332696762</v>
-      </c>
-      <c r="B13">
-        <v>2.5</v>
-      </c>
-      <c r="C13">
-        <v>2.5</v>
-      </c>
-      <c r="D13">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="8">
-        <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
-        <v>44671.499999305554</v>
-      </c>
-      <c r="B14">
-        <v>2.5</v>
-      </c>
-      <c r="C14">
-        <v>2.5</v>
-      </c>
-      <c r="D14">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="8">
-        <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
-        <v>44671.541665914352</v>
-      </c>
-      <c r="B15">
-        <v>2.5</v>
-      </c>
-      <c r="C15">
-        <v>2.5</v>
-      </c>
-      <c r="D15">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="8">
-        <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
-        <v>44671.583332523151</v>
-      </c>
-      <c r="B16">
-        <v>2.5</v>
-      </c>
-      <c r="C16">
-        <v>2.5</v>
-      </c>
-      <c r="D16">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="8">
-        <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
-        <v>44671.624999131942</v>
-      </c>
-      <c r="B17">
-        <v>2.5</v>
-      </c>
-      <c r="C17">
-        <v>2.5</v>
-      </c>
-      <c r="D17">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="8">
-        <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
-        <v>44671.66666574074</v>
-      </c>
-      <c r="B18">
-        <v>2.5</v>
-      </c>
-      <c r="C18">
-        <v>2.5</v>
-      </c>
-      <c r="D18">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="8">
-        <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
-        <v>44671.708332349539</v>
-      </c>
-      <c r="B19">
-        <v>4</v>
-      </c>
-      <c r="C19">
-        <v>4</v>
-      </c>
-      <c r="D19">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="8">
-        <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
-        <v>44671.74999895833</v>
-      </c>
-      <c r="B20">
-        <v>4</v>
-      </c>
-      <c r="C20">
-        <v>4</v>
-      </c>
-      <c r="D20">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="8">
-        <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
-        <v>44671.791665567129</v>
-      </c>
-      <c r="B21">
-        <v>4</v>
-      </c>
-      <c r="C21">
-        <v>4</v>
-      </c>
-      <c r="D21">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="8">
-        <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
-        <v>44671.833332175927</v>
-      </c>
-      <c r="B22">
-        <v>4</v>
-      </c>
-      <c r="C22">
-        <v>4</v>
-      </c>
-      <c r="D22">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="8">
-        <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
-        <v>44671.874998784719</v>
-      </c>
-      <c r="B23">
-        <v>3.5</v>
-      </c>
-      <c r="C23">
-        <v>3.5</v>
-      </c>
-      <c r="D23">
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="8">
-        <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
-        <v>44671.916665393517</v>
-      </c>
-      <c r="B24">
-        <v>3.5</v>
-      </c>
-      <c r="C24">
-        <v>3.5</v>
-      </c>
-      <c r="D24">
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="8">
-        <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
-        <v>44671.958332002316</v>
-      </c>
-      <c r="B25">
-        <v>3.5</v>
-      </c>
-      <c r="C25">
-        <v>3.5</v>
-      </c>
-      <c r="D25">
-        <v>3.5</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -4785,7 +4477,7 @@
   <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4830,50 +4522,50 @@
         <v>5</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="7">
-        <v>1</v>
-      </c>
-      <c r="C2" s="7">
-        <v>0</v>
-      </c>
-      <c r="D2" s="7">
-        <v>0</v>
-      </c>
-      <c r="E2" s="7">
-        <v>0</v>
-      </c>
-      <c r="F2" s="7">
-        <v>0</v>
-      </c>
-      <c r="G2" s="7">
-        <v>0</v>
-      </c>
-      <c r="H2" s="7">
-        <v>0</v>
-      </c>
-      <c r="I2" s="7">
-        <v>0</v>
-      </c>
-      <c r="J2" s="7">
-        <v>0</v>
-      </c>
-      <c r="K2" s="7">
-        <v>0</v>
-      </c>
-      <c r="L2" s="7">
+      <c r="B2" s="6">
+        <v>1</v>
+      </c>
+      <c r="C2" s="6">
+        <v>0</v>
+      </c>
+      <c r="D2" s="6">
+        <v>0</v>
+      </c>
+      <c r="E2" s="6">
+        <v>0</v>
+      </c>
+      <c r="F2" s="6">
+        <v>0</v>
+      </c>
+      <c r="G2" s="6">
+        <v>0</v>
+      </c>
+      <c r="H2" s="6">
+        <v>0</v>
+      </c>
+      <c r="I2" s="6">
+        <v>0</v>
+      </c>
+      <c r="J2" s="6">
+        <v>0</v>
+      </c>
+      <c r="K2" s="6">
+        <v>0</v>
+      </c>
+      <c r="L2" s="6">
         <v>0</v>
       </c>
     </row>
@@ -4881,37 +4573,37 @@
       <c r="A3" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="7">
-        <v>0</v>
-      </c>
-      <c r="C3" s="7">
-        <v>0</v>
-      </c>
-      <c r="D3" s="7">
-        <v>1</v>
-      </c>
-      <c r="E3" s="7">
-        <v>0</v>
-      </c>
-      <c r="F3" s="7">
-        <v>0</v>
-      </c>
-      <c r="G3" s="7">
-        <v>0</v>
-      </c>
-      <c r="H3" s="7">
-        <v>0</v>
-      </c>
-      <c r="I3" s="7">
-        <v>0</v>
-      </c>
-      <c r="J3" s="7">
-        <v>0</v>
-      </c>
-      <c r="K3" s="7">
-        <v>0</v>
-      </c>
-      <c r="L3" s="7">
+      <c r="B3" s="6">
+        <v>0</v>
+      </c>
+      <c r="C3" s="6">
+        <v>0</v>
+      </c>
+      <c r="D3" s="6">
+        <v>1</v>
+      </c>
+      <c r="E3" s="6">
+        <v>0</v>
+      </c>
+      <c r="F3" s="6">
+        <v>0</v>
+      </c>
+      <c r="G3" s="6">
+        <v>0</v>
+      </c>
+      <c r="H3" s="6">
+        <v>0</v>
+      </c>
+      <c r="I3" s="6">
+        <v>0</v>
+      </c>
+      <c r="J3" s="6">
+        <v>0</v>
+      </c>
+      <c r="K3" s="6">
+        <v>0</v>
+      </c>
+      <c r="L3" s="6">
         <v>0</v>
       </c>
     </row>
@@ -4919,37 +4611,37 @@
       <c r="A4" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="7">
-        <v>0</v>
-      </c>
-      <c r="C4" s="7">
-        <v>1</v>
-      </c>
-      <c r="D4" s="7">
-        <v>0</v>
-      </c>
-      <c r="E4" s="7">
-        <v>0</v>
-      </c>
-      <c r="F4" s="7">
-        <v>0</v>
-      </c>
-      <c r="G4" s="7">
+      <c r="B4" s="6">
+        <v>0</v>
+      </c>
+      <c r="C4" s="6">
+        <v>1</v>
+      </c>
+      <c r="D4" s="6">
+        <v>0</v>
+      </c>
+      <c r="E4" s="6">
+        <v>0</v>
+      </c>
+      <c r="F4" s="6">
+        <v>0</v>
+      </c>
+      <c r="G4" s="6">
         <v>10</v>
       </c>
-      <c r="H4" s="7">
+      <c r="H4" s="6">
         <v>3</v>
       </c>
-      <c r="I4" s="7">
+      <c r="I4" s="6">
         <v>3</v>
       </c>
-      <c r="J4" s="7">
+      <c r="J4" s="6">
         <v>10</v>
       </c>
       <c r="K4">
         <v>1E-3</v>
       </c>
-      <c r="L4" s="7">
+      <c r="L4" s="6">
         <v>0</v>
       </c>
     </row>
@@ -4957,37 +4649,37 @@
       <c r="A5" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="7">
-        <v>0</v>
-      </c>
-      <c r="C5" s="7">
-        <v>1</v>
-      </c>
-      <c r="D5" s="7">
-        <v>0</v>
-      </c>
-      <c r="E5" s="7">
-        <v>0</v>
-      </c>
-      <c r="F5" s="7">
-        <v>1</v>
-      </c>
-      <c r="G5" s="7">
+      <c r="B5" s="6">
+        <v>0</v>
+      </c>
+      <c r="C5" s="6">
+        <v>1</v>
+      </c>
+      <c r="D5" s="6">
+        <v>0</v>
+      </c>
+      <c r="E5" s="6">
+        <v>0</v>
+      </c>
+      <c r="F5" s="6">
+        <v>1</v>
+      </c>
+      <c r="G5" s="6">
         <v>4</v>
       </c>
-      <c r="H5" s="7">
-        <v>1</v>
-      </c>
-      <c r="I5" s="7">
-        <v>1</v>
-      </c>
-      <c r="J5" s="7">
-        <v>0</v>
-      </c>
-      <c r="K5" s="7">
-        <v>0</v>
-      </c>
-      <c r="L5" s="7">
+      <c r="H5" s="6">
+        <v>1</v>
+      </c>
+      <c r="I5" s="6">
+        <v>1</v>
+      </c>
+      <c r="J5" s="6">
+        <v>0</v>
+      </c>
+      <c r="K5" s="6">
+        <v>0</v>
+      </c>
+      <c r="L5" s="6">
         <v>0</v>
       </c>
     </row>
@@ -4995,52 +4687,52 @@
       <c r="A6" t="s">
         <v>35</v>
       </c>
-      <c r="B6" s="7">
-        <v>0</v>
-      </c>
-      <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7">
-        <v>0</v>
-      </c>
-      <c r="E6" s="7">
-        <v>0</v>
-      </c>
-      <c r="F6" s="7">
-        <v>1</v>
-      </c>
-      <c r="G6" s="7">
-        <v>0</v>
-      </c>
-      <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7">
-        <v>0</v>
-      </c>
-      <c r="J6" s="7">
-        <v>0</v>
-      </c>
-      <c r="K6" s="7">
-        <v>0</v>
-      </c>
-      <c r="L6" s="7">
+      <c r="B6" s="6">
+        <v>0</v>
+      </c>
+      <c r="C6" s="6">
+        <v>0</v>
+      </c>
+      <c r="D6" s="6">
+        <v>0</v>
+      </c>
+      <c r="E6" s="6">
+        <v>0</v>
+      </c>
+      <c r="F6" s="6">
+        <v>1</v>
+      </c>
+      <c r="G6" s="6">
+        <v>0</v>
+      </c>
+      <c r="H6" s="6">
+        <v>0</v>
+      </c>
+      <c r="I6" s="6">
+        <v>0</v>
+      </c>
+      <c r="J6" s="6">
+        <v>0</v>
+      </c>
+      <c r="K6" s="6">
+        <v>0</v>
+      </c>
+      <c r="L6" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="7"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5048,6 +4740,399 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD670E02-665B-45B8-BC4E-9596D2C1BC55}">
+  <dimension ref="A1:D25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="19.33203125" style="7" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="7">
+        <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
+        <v>44671</v>
+      </c>
+      <c r="B2">
+        <v>3</v>
+      </c>
+      <c r="C2">
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="7">
+        <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
+        <v>44671.041666666664</v>
+      </c>
+      <c r="B3">
+        <v>3.5</v>
+      </c>
+      <c r="C3">
+        <v>3.5</v>
+      </c>
+      <c r="D3">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="7">
+        <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
+        <v>44671.08333321759</v>
+      </c>
+      <c r="B4">
+        <v>3.5</v>
+      </c>
+      <c r="C4">
+        <v>3.5</v>
+      </c>
+      <c r="D4">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="7">
+        <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
+        <v>44671.124999826388</v>
+      </c>
+      <c r="B5">
+        <v>3.4</v>
+      </c>
+      <c r="C5">
+        <v>3.4</v>
+      </c>
+      <c r="D5">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7">
+        <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
+        <v>44671.166666435187</v>
+      </c>
+      <c r="B6">
+        <v>3.3</v>
+      </c>
+      <c r="C6">
+        <v>3.3</v>
+      </c>
+      <c r="D6">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="7">
+        <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
+        <v>44671.208333043978</v>
+      </c>
+      <c r="B7">
+        <v>3.2</v>
+      </c>
+      <c r="C7">
+        <v>3.2</v>
+      </c>
+      <c r="D7">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="7">
+        <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
+        <v>44671.249999652777</v>
+      </c>
+      <c r="B8">
+        <v>3.1</v>
+      </c>
+      <c r="C8">
+        <v>3.1</v>
+      </c>
+      <c r="D8">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="7">
+        <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
+        <v>44671.291666261575</v>
+      </c>
+      <c r="B9">
+        <v>3</v>
+      </c>
+      <c r="C9">
+        <v>3</v>
+      </c>
+      <c r="D9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="7">
+        <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
+        <v>44671.333332870374</v>
+      </c>
+      <c r="B10">
+        <v>2.5</v>
+      </c>
+      <c r="C10">
+        <v>2.5</v>
+      </c>
+      <c r="D10">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="7">
+        <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
+        <v>44671.374999479165</v>
+      </c>
+      <c r="B11">
+        <v>2.5</v>
+      </c>
+      <c r="C11">
+        <v>2.5</v>
+      </c>
+      <c r="D11">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="7">
+        <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
+        <v>44671.416666087964</v>
+      </c>
+      <c r="B12">
+        <v>2.5</v>
+      </c>
+      <c r="C12">
+        <v>2.5</v>
+      </c>
+      <c r="D12">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="7">
+        <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
+        <v>44671.458332696762</v>
+      </c>
+      <c r="B13">
+        <v>2.5</v>
+      </c>
+      <c r="C13">
+        <v>2.5</v>
+      </c>
+      <c r="D13">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="7">
+        <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
+        <v>44671.499999305554</v>
+      </c>
+      <c r="B14">
+        <v>2.5</v>
+      </c>
+      <c r="C14">
+        <v>2.5</v>
+      </c>
+      <c r="D14">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="7">
+        <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
+        <v>44671.541665914352</v>
+      </c>
+      <c r="B15">
+        <v>2.5</v>
+      </c>
+      <c r="C15">
+        <v>2.5</v>
+      </c>
+      <c r="D15">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="7">
+        <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
+        <v>44671.583332523151</v>
+      </c>
+      <c r="B16">
+        <v>2.5</v>
+      </c>
+      <c r="C16">
+        <v>2.5</v>
+      </c>
+      <c r="D16">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="7">
+        <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
+        <v>44671.624999131942</v>
+      </c>
+      <c r="B17">
+        <v>2.5</v>
+      </c>
+      <c r="C17">
+        <v>2.5</v>
+      </c>
+      <c r="D17">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="7">
+        <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
+        <v>44671.66666574074</v>
+      </c>
+      <c r="B18">
+        <v>2.5</v>
+      </c>
+      <c r="C18">
+        <v>2.5</v>
+      </c>
+      <c r="D18">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="7">
+        <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
+        <v>44671.708332349539</v>
+      </c>
+      <c r="B19">
+        <v>4</v>
+      </c>
+      <c r="C19">
+        <v>4</v>
+      </c>
+      <c r="D19">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="7">
+        <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
+        <v>44671.74999895833</v>
+      </c>
+      <c r="B20">
+        <v>4</v>
+      </c>
+      <c r="C20">
+        <v>4</v>
+      </c>
+      <c r="D20">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="7">
+        <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
+        <v>44671.791665567129</v>
+      </c>
+      <c r="B21">
+        <v>4</v>
+      </c>
+      <c r="C21">
+        <v>4</v>
+      </c>
+      <c r="D21">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="7">
+        <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
+        <v>44671.833332175927</v>
+      </c>
+      <c r="B22">
+        <v>4</v>
+      </c>
+      <c r="C22">
+        <v>4</v>
+      </c>
+      <c r="D22">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="7">
+        <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
+        <v>44671.874998784719</v>
+      </c>
+      <c r="B23">
+        <v>3.5</v>
+      </c>
+      <c r="C23">
+        <v>3.5</v>
+      </c>
+      <c r="D23">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="7">
+        <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
+        <v>44671.916665393517</v>
+      </c>
+      <c r="B24">
+        <v>3.5</v>
+      </c>
+      <c r="C24">
+        <v>3.5</v>
+      </c>
+      <c r="D24">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" s="7">
+        <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
+        <v>44671.958332002316</v>
+      </c>
+      <c r="B25">
+        <v>3.5</v>
+      </c>
+      <c r="C25">
+        <v>3.5</v>
+      </c>
+      <c r="D25">
+        <v>3.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5704FC51-737E-45F9-9A9E-85A96AFE5439}">
   <dimension ref="A1:M9"/>
   <sheetViews>
@@ -5067,21 +5152,21 @@
         <v>46</v>
       </c>
       <c r="B1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D1" t="s">
         <v>129</v>
-      </c>
-      <c r="D1" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B2" t="s">
         <v>89</v>
-      </c>
-      <c r="B2" t="s">
-        <v>90</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -5101,7 +5186,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE12AB76-2BDA-4ACA-A128-8CFB9FB6C8F8}">
   <dimension ref="A1:J25"/>
   <sheetViews>
@@ -5111,7 +5196,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" style="8" customWidth="1"/>
+    <col min="1" max="1" width="19.33203125" style="7" customWidth="1"/>
     <col min="2" max="4" width="14.44140625" bestFit="1" customWidth="1"/>
     <col min="5" max="7" width="14.109375" bestFit="1" customWidth="1"/>
     <col min="8" max="10" width="5.33203125" bestFit="1" customWidth="1"/>
@@ -5122,35 +5207,35 @@
         <v>31</v>
       </c>
       <c r="B1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C1" t="s">
         <v>91</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>92</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>93</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>94</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>95</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>96</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>97</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>98</v>
       </c>
-      <c r="J1" t="s">
-        <v>99</v>
-      </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="8">
+      <c r="A2" s="7">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44671</v>
       </c>
@@ -5183,7 +5268,7 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="8">
+      <c r="A3" s="7">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44671.041666666664</v>
       </c>
@@ -5216,7 +5301,7 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="8">
+      <c r="A4" s="7">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44671.08333321759</v>
       </c>
@@ -5249,7 +5334,7 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="8">
+      <c r="A5" s="7">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v>44671.124999826388</v>
       </c>
@@ -5282,7 +5367,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="8">
+      <c r="A6" s="7">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v>44671.166666435187</v>
       </c>
@@ -5315,7 +5400,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="8">
+      <c r="A7" s="7">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v>44671.208333043978</v>
       </c>
@@ -5348,7 +5433,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="8">
+      <c r="A8" s="7">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v>44671.249999652777</v>
       </c>
@@ -5381,7 +5466,7 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="8">
+      <c r="A9" s="7">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v>44671.291666261575</v>
       </c>
@@ -5414,7 +5499,7 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="8">
+      <c r="A10" s="7">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v>44671.333332870374</v>
       </c>
@@ -5447,7 +5532,7 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="8">
+      <c r="A11" s="7">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v>44671.374999479165</v>
       </c>
@@ -5480,7 +5565,7 @@
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="8">
+      <c r="A12" s="7">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v>44671.416666087964</v>
       </c>
@@ -5513,7 +5598,7 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="8">
+      <c r="A13" s="7">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v>44671.458332696762</v>
       </c>
@@ -5546,7 +5631,7 @@
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="8">
+      <c r="A14" s="7">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v>44671.499999305554</v>
       </c>
@@ -5579,7 +5664,7 @@
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="8">
+      <c r="A15" s="7">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v>44671.541665914352</v>
       </c>
@@ -5612,7 +5697,7 @@
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="8">
+      <c r="A16" s="7">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v>44671.583332523151</v>
       </c>
@@ -5645,7 +5730,7 @@
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" s="8">
+      <c r="A17" s="7">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v>44671.624999131942</v>
       </c>
@@ -5678,7 +5763,7 @@
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18" s="8">
+      <c r="A18" s="7">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v>44671.66666574074</v>
       </c>
@@ -5711,7 +5796,7 @@
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19" s="8">
+      <c r="A19" s="7">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v>44671.708332349539</v>
       </c>
@@ -5744,7 +5829,7 @@
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A20" s="8">
+      <c r="A20" s="7">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v>44671.74999895833</v>
       </c>
@@ -5777,7 +5862,7 @@
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A21" s="8">
+      <c r="A21" s="7">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v>44671.791665567129</v>
       </c>
@@ -5810,7 +5895,7 @@
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A22" s="8">
+      <c r="A22" s="7">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v>44671.833332175927</v>
       </c>
@@ -5843,7 +5928,7 @@
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A23" s="8">
+      <c r="A23" s="7">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v>44671.874998784719</v>
       </c>
@@ -5876,7 +5961,7 @@
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A24" s="8">
+      <c r="A24" s="7">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v>44671.916665393517</v>
       </c>
@@ -5909,7 +5994,7 @@
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A25" s="8">
+      <c r="A25" s="7">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v>44671.958332002316</v>
       </c>
@@ -5946,7 +6031,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7FEDBA5-B0F3-4E9D-9367-08D5F5FA8AEA}">
   <dimension ref="A1:D25"/>
   <sheetViews>
@@ -5956,7 +6041,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" style="8" customWidth="1"/>
+    <col min="1" max="1" width="19.33203125" style="7" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
@@ -5964,17 +6049,17 @@
         <v>31</v>
       </c>
       <c r="B1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C1" t="s">
         <v>101</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>102</v>
       </c>
-      <c r="D1" t="s">
-        <v>103</v>
-      </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="8">
+      <c r="A2" s="7">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44671</v>
       </c>
@@ -5989,7 +6074,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="8">
+      <c r="A3" s="7">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44671.041666666664</v>
       </c>
@@ -6004,7 +6089,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="8">
+      <c r="A4" s="7">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44671.08333321759</v>
       </c>
@@ -6019,7 +6104,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="8">
+      <c r="A5" s="7">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v>44671.124999826388</v>
       </c>
@@ -6034,7 +6119,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="8">
+      <c r="A6" s="7">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v>44671.166666435187</v>
       </c>
@@ -6049,7 +6134,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="8">
+      <c r="A7" s="7">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v>44671.208333043978</v>
       </c>
@@ -6064,7 +6149,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="8">
+      <c r="A8" s="7">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v>44671.249999652777</v>
       </c>
@@ -6079,7 +6164,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="8">
+      <c r="A9" s="7">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v>44671.291666261575</v>
       </c>
@@ -6094,7 +6179,7 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="8">
+      <c r="A10" s="7">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v>44671.333332870374</v>
       </c>
@@ -6109,7 +6194,7 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="8">
+      <c r="A11" s="7">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v>44671.374999479165</v>
       </c>
@@ -6124,7 +6209,7 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="8">
+      <c r="A12" s="7">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v>44671.416666087964</v>
       </c>
@@ -6139,7 +6224,7 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="8">
+      <c r="A13" s="7">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v>44671.458332696762</v>
       </c>
@@ -6154,7 +6239,7 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="8">
+      <c r="A14" s="7">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v>44671.499999305554</v>
       </c>
@@ -6169,7 +6254,7 @@
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="8">
+      <c r="A15" s="7">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v>44671.541665914352</v>
       </c>
@@ -6184,7 +6269,7 @@
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="8">
+      <c r="A16" s="7">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v>44671.583332523151</v>
       </c>
@@ -6199,7 +6284,7 @@
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="8">
+      <c r="A17" s="7">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v>44671.624999131942</v>
       </c>
@@ -6214,7 +6299,7 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="8">
+      <c r="A18" s="7">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v>44671.66666574074</v>
       </c>
@@ -6229,7 +6314,7 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="8">
+      <c r="A19" s="7">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v>44671.708332349539</v>
       </c>
@@ -6244,7 +6329,7 @@
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="8">
+      <c r="A20" s="7">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v>44671.74999895833</v>
       </c>
@@ -6259,7 +6344,7 @@
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="8">
+      <c r="A21" s="7">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v>44671.791665567129</v>
       </c>
@@ -6274,7 +6359,7 @@
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="8">
+      <c r="A22" s="7">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v>44671.833332175927</v>
       </c>
@@ -6289,7 +6374,7 @@
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="8">
+      <c r="A23" s="7">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v>44671.874998784719</v>
       </c>
@@ -6304,7 +6389,7 @@
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="8">
+      <c r="A24" s="7">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v>44671.916665393517</v>
       </c>
@@ -6319,7 +6404,7 @@
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="8">
+      <c r="A25" s="7">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v>44671.958332002316</v>
       </c>
@@ -6343,7 +6428,7 @@
   <dimension ref="A1:P8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:XFD8"/>
+      <selection activeCell="A2" sqref="A2:A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6369,7 +6454,7 @@
         <v>14</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>15</v>
@@ -6393,71 +6478,71 @@
         <v>69</v>
       </c>
       <c r="K1" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="L1" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="L1" s="3" t="s">
-        <v>75</v>
-      </c>
       <c r="M1" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="N1" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="N1" s="3" t="s">
-        <v>122</v>
-      </c>
       <c r="O1" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="P1" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="7">
-        <v>0</v>
-      </c>
-      <c r="C2" s="7">
-        <v>0</v>
-      </c>
-      <c r="D2" s="7">
-        <v>1</v>
-      </c>
-      <c r="E2" s="7">
-        <v>1</v>
-      </c>
-      <c r="F2" s="7">
-        <v>1</v>
-      </c>
-      <c r="G2" s="7">
+      <c r="B2" s="6">
+        <v>0</v>
+      </c>
+      <c r="C2" s="6">
+        <v>0</v>
+      </c>
+      <c r="D2" s="6">
+        <v>1</v>
+      </c>
+      <c r="E2" s="6">
+        <v>1</v>
+      </c>
+      <c r="F2" s="6">
+        <v>1</v>
+      </c>
+      <c r="G2" s="6">
         <v>0.9</v>
       </c>
-      <c r="H2" s="7">
+      <c r="H2" s="6">
         <v>0.3</v>
       </c>
-      <c r="I2" s="7">
-        <v>1</v>
-      </c>
-      <c r="J2" s="7">
-        <v>0</v>
-      </c>
-      <c r="K2" s="7">
+      <c r="I2" s="6">
+        <v>1</v>
+      </c>
+      <c r="J2" s="6">
+        <v>0</v>
+      </c>
+      <c r="K2" s="6">
         <v>4</v>
       </c>
-      <c r="L2" s="7">
+      <c r="L2" s="6">
         <v>3</v>
       </c>
-      <c r="M2" s="7">
-        <v>0</v>
-      </c>
-      <c r="N2" s="7">
-        <v>0</v>
-      </c>
-      <c r="O2" s="7">
-        <v>1</v>
-      </c>
-      <c r="P2" s="7">
+      <c r="M2" s="6">
+        <v>0</v>
+      </c>
+      <c r="N2" s="6">
+        <v>0</v>
+      </c>
+      <c r="O2" s="6">
+        <v>1</v>
+      </c>
+      <c r="P2" s="6">
         <v>0</v>
       </c>
     </row>
@@ -6465,49 +6550,49 @@
       <c r="A3" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="7">
-        <v>0</v>
-      </c>
-      <c r="C3" s="7">
-        <v>0</v>
-      </c>
-      <c r="D3" s="7">
-        <v>0</v>
-      </c>
-      <c r="E3" s="7">
-        <v>1</v>
-      </c>
-      <c r="F3" s="7">
-        <v>1</v>
-      </c>
-      <c r="G3" s="7">
+      <c r="B3" s="6">
+        <v>0</v>
+      </c>
+      <c r="C3" s="6">
+        <v>0</v>
+      </c>
+      <c r="D3" s="6">
+        <v>0</v>
+      </c>
+      <c r="E3" s="6">
+        <v>1</v>
+      </c>
+      <c r="F3" s="6">
+        <v>1</v>
+      </c>
+      <c r="G3" s="6">
         <v>3</v>
       </c>
-      <c r="H3" s="7">
-        <v>0</v>
-      </c>
-      <c r="I3" s="7">
-        <v>1</v>
-      </c>
-      <c r="J3" s="7">
-        <v>0</v>
-      </c>
-      <c r="K3" s="7">
-        <v>0</v>
-      </c>
-      <c r="L3" s="7">
-        <v>0</v>
-      </c>
-      <c r="M3" s="7">
-        <v>0</v>
-      </c>
-      <c r="N3" s="7">
-        <v>0</v>
-      </c>
-      <c r="O3" s="7">
-        <v>0</v>
-      </c>
-      <c r="P3" s="7">
+      <c r="H3" s="6">
+        <v>0</v>
+      </c>
+      <c r="I3" s="6">
+        <v>1</v>
+      </c>
+      <c r="J3" s="6">
+        <v>0</v>
+      </c>
+      <c r="K3" s="6">
+        <v>0</v>
+      </c>
+      <c r="L3" s="6">
+        <v>0</v>
+      </c>
+      <c r="M3" s="6">
+        <v>0</v>
+      </c>
+      <c r="N3" s="6">
+        <v>0</v>
+      </c>
+      <c r="O3" s="6">
+        <v>0</v>
+      </c>
+      <c r="P3" s="6">
         <v>0</v>
       </c>
     </row>
@@ -6515,49 +6600,49 @@
       <c r="A4" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="7">
-        <v>0</v>
-      </c>
-      <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7">
-        <v>0</v>
-      </c>
-      <c r="E4" s="7">
-        <v>1</v>
-      </c>
-      <c r="F4" s="7">
-        <v>1</v>
-      </c>
-      <c r="G4" s="7">
+      <c r="B4" s="6">
+        <v>0</v>
+      </c>
+      <c r="C4" s="6">
+        <v>0</v>
+      </c>
+      <c r="D4" s="6">
+        <v>0</v>
+      </c>
+      <c r="E4" s="6">
+        <v>1</v>
+      </c>
+      <c r="F4" s="6">
+        <v>1</v>
+      </c>
+      <c r="G4" s="6">
         <v>0.7</v>
       </c>
-      <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7">
-        <v>1</v>
-      </c>
-      <c r="J4" s="7">
-        <v>0</v>
-      </c>
-      <c r="K4" s="7">
-        <v>0</v>
-      </c>
-      <c r="L4" s="7">
-        <v>0</v>
-      </c>
-      <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7">
-        <v>0</v>
-      </c>
-      <c r="O4" s="7">
-        <v>0</v>
-      </c>
-      <c r="P4" s="7">
+      <c r="H4" s="6">
+        <v>0</v>
+      </c>
+      <c r="I4" s="6">
+        <v>1</v>
+      </c>
+      <c r="J4" s="6">
+        <v>0</v>
+      </c>
+      <c r="K4" s="6">
+        <v>0</v>
+      </c>
+      <c r="L4" s="6">
+        <v>0</v>
+      </c>
+      <c r="M4" s="6">
+        <v>0</v>
+      </c>
+      <c r="N4" s="6">
+        <v>0</v>
+      </c>
+      <c r="O4" s="6">
+        <v>0</v>
+      </c>
+      <c r="P4" s="6">
         <v>0</v>
       </c>
     </row>
@@ -6565,99 +6650,99 @@
       <c r="A5" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="7">
-        <v>1</v>
-      </c>
-      <c r="C5" s="7">
-        <v>1</v>
-      </c>
-      <c r="D5" s="7">
-        <v>0</v>
-      </c>
-      <c r="E5" s="7">
-        <v>0</v>
-      </c>
-      <c r="F5" s="7">
-        <v>1</v>
-      </c>
-      <c r="G5" s="7">
-        <v>1</v>
-      </c>
-      <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7">
-        <v>1</v>
-      </c>
-      <c r="J5" s="7">
-        <v>0</v>
-      </c>
-      <c r="K5" s="7">
-        <v>0</v>
-      </c>
-      <c r="L5" s="7">
-        <v>0</v>
-      </c>
-      <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7">
-        <v>0</v>
-      </c>
-      <c r="O5" s="7">
-        <v>0</v>
-      </c>
-      <c r="P5" s="7">
+      <c r="B5" s="6">
+        <v>1</v>
+      </c>
+      <c r="C5" s="6">
+        <v>1</v>
+      </c>
+      <c r="D5" s="6">
+        <v>0</v>
+      </c>
+      <c r="E5" s="6">
+        <v>0</v>
+      </c>
+      <c r="F5" s="6">
+        <v>1</v>
+      </c>
+      <c r="G5" s="6">
+        <v>1</v>
+      </c>
+      <c r="H5" s="6">
+        <v>0</v>
+      </c>
+      <c r="I5" s="6">
+        <v>1</v>
+      </c>
+      <c r="J5" s="6">
+        <v>0</v>
+      </c>
+      <c r="K5" s="6">
+        <v>0</v>
+      </c>
+      <c r="L5" s="6">
+        <v>0</v>
+      </c>
+      <c r="M5" s="6">
+        <v>0</v>
+      </c>
+      <c r="N5" s="6">
+        <v>0</v>
+      </c>
+      <c r="O5" s="6">
+        <v>0</v>
+      </c>
+      <c r="P5" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>84</v>
-      </c>
-      <c r="B6" s="7">
-        <v>1</v>
-      </c>
-      <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7">
-        <v>0</v>
-      </c>
-      <c r="E6" s="7">
-        <v>0</v>
-      </c>
-      <c r="F6" s="7">
-        <v>1</v>
-      </c>
-      <c r="G6" s="7">
-        <v>1</v>
-      </c>
-      <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7">
-        <v>1</v>
-      </c>
-      <c r="J6" s="7">
-        <v>0</v>
-      </c>
-      <c r="K6" s="7">
-        <v>0</v>
-      </c>
-      <c r="L6" s="7">
-        <v>0</v>
-      </c>
-      <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7">
-        <v>0</v>
-      </c>
-      <c r="O6" s="7">
-        <v>0</v>
-      </c>
-      <c r="P6" s="7">
+        <v>83</v>
+      </c>
+      <c r="B6" s="6">
+        <v>1</v>
+      </c>
+      <c r="C6" s="6">
+        <v>0</v>
+      </c>
+      <c r="D6" s="6">
+        <v>0</v>
+      </c>
+      <c r="E6" s="6">
+        <v>0</v>
+      </c>
+      <c r="F6" s="6">
+        <v>1</v>
+      </c>
+      <c r="G6" s="6">
+        <v>1</v>
+      </c>
+      <c r="H6" s="6">
+        <v>0</v>
+      </c>
+      <c r="I6" s="6">
+        <v>1</v>
+      </c>
+      <c r="J6" s="6">
+        <v>0</v>
+      </c>
+      <c r="K6" s="6">
+        <v>0</v>
+      </c>
+      <c r="L6" s="6">
+        <v>0</v>
+      </c>
+      <c r="M6" s="6">
+        <v>0</v>
+      </c>
+      <c r="N6" s="6">
+        <v>0</v>
+      </c>
+      <c r="O6" s="6">
+        <v>0</v>
+      </c>
+      <c r="P6" s="6">
         <v>0</v>
       </c>
     </row>
@@ -6665,68 +6750,68 @@
       <c r="A7" t="s">
         <v>36</v>
       </c>
-      <c r="B7" s="7">
-        <v>0</v>
-      </c>
-      <c r="C7" s="7">
-        <v>0</v>
-      </c>
-      <c r="D7" s="7">
-        <v>0</v>
-      </c>
-      <c r="E7" s="7">
-        <v>0</v>
-      </c>
-      <c r="F7" s="7">
+      <c r="B7" s="6">
+        <v>0</v>
+      </c>
+      <c r="C7" s="6">
+        <v>0</v>
+      </c>
+      <c r="D7" s="6">
+        <v>0</v>
+      </c>
+      <c r="E7" s="6">
+        <v>0</v>
+      </c>
+      <c r="F7" s="6">
         <v>2</v>
       </c>
-      <c r="G7" s="7">
+      <c r="G7" s="6">
         <v>0.99</v>
       </c>
-      <c r="H7" s="7">
-        <v>0</v>
-      </c>
-      <c r="I7" s="7">
-        <v>1</v>
-      </c>
-      <c r="J7" s="7">
-        <v>0</v>
-      </c>
-      <c r="K7" s="7">
-        <v>0</v>
-      </c>
-      <c r="L7" s="7">
-        <v>0</v>
-      </c>
-      <c r="M7" s="7">
-        <v>0</v>
-      </c>
-      <c r="N7" s="7">
-        <v>0</v>
-      </c>
-      <c r="O7" s="7">
-        <v>0</v>
-      </c>
-      <c r="P7" s="7">
+      <c r="H7" s="6">
+        <v>0</v>
+      </c>
+      <c r="I7" s="6">
+        <v>1</v>
+      </c>
+      <c r="J7" s="6">
+        <v>0</v>
+      </c>
+      <c r="K7" s="6">
+        <v>0</v>
+      </c>
+      <c r="L7" s="6">
+        <v>0</v>
+      </c>
+      <c r="M7" s="6">
+        <v>0</v>
+      </c>
+      <c r="N7" s="6">
+        <v>0</v>
+      </c>
+      <c r="O7" s="6">
+        <v>0</v>
+      </c>
+      <c r="P7" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
-      <c r="M8" s="7"/>
-      <c r="N8" s="7"/>
-      <c r="O8" s="7"/>
-      <c r="P8" s="7"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="6"/>
+      <c r="P8" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6735,10 +6820,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6007B83A-95ED-43FB-AC05-C8A15D3323E5}">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6748,10 +6833,54 @@
         <v>38</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>124</v>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>133</v>
       </c>
     </row>
   </sheetData>
@@ -6815,7 +6944,7 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B2">
         <v>0.4</v>
@@ -6835,7 +6964,7 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B3">
         <v>0.8</v>
@@ -7115,7 +7244,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>29</v>
@@ -7207,7 +7336,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" style="8" customWidth="1"/>
+    <col min="1" max="1" width="19.33203125" style="7" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
@@ -7222,145 +7351,145 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="8">
+      <c r="A2" s="7">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44671</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="8">
+      <c r="A3" s="7">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44671.041666666664</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="8">
+      <c r="A4" s="7">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44671.08333321759</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="8">
+      <c r="A5" s="7">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v>44671.124999826388</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="8">
+      <c r="A6" s="7">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v>44671.166666435187</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="8">
+      <c r="A7" s="7">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v>44671.208333043978</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="8">
+      <c r="A8" s="7">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v>44671.249999652777</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="8">
+      <c r="A9" s="7">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v>44671.291666261575</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="8">
+      <c r="A10" s="7">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v>44671.333332870374</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="8">
+      <c r="A11" s="7">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v>44671.374999479165</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="8">
+      <c r="A12" s="7">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v>44671.416666087964</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="8">
+      <c r="A13" s="7">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v>44671.458332696762</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="8">
+      <c r="A14" s="7">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v>44671.499999305554</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="8">
+      <c r="A15" s="7">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v>44671.541665914352</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="8">
+      <c r="A16" s="7">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v>44671.583332523151</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" s="8">
+      <c r="A17" s="7">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v>44671.624999131942</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" s="8">
+      <c r="A18" s="7">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v>44671.66666574074</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19" s="8">
+      <c r="A19" s="7">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v>44671.708332349539</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" s="8">
+      <c r="A20" s="7">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v>44671.74999895833</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A21" s="8">
+      <c r="A21" s="7">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v>44671.791665567129</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A22" s="8">
+      <c r="A22" s="7">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v>44671.833332175927</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A23" s="8">
+      <c r="A23" s="7">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v>44671.874998784719</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A24" s="8">
+      <c r="A24" s="7">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v>44671.916665393517</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A25" s="8">
+      <c r="A25" s="7">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v>44671.958332002316</v>
       </c>
@@ -7385,12 +7514,12 @@
         <v>38</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B2">
         <v>4</v>
@@ -7398,7 +7527,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -7419,7 +7548,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" style="8" customWidth="1"/>
+    <col min="1" max="1" width="19.33203125" style="7" customWidth="1"/>
     <col min="6" max="6" width="23.109375" customWidth="1"/>
     <col min="12" max="12" width="12.109375" bestFit="1" customWidth="1"/>
   </cols>
@@ -7429,21 +7558,21 @@
         <v>31</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>87</v>
-      </c>
       <c r="F1"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" s="8">
+      <c r="A2" s="7">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44671</v>
       </c>
@@ -7461,11 +7590,11 @@
         <f>1*C2</f>
         <v>0</v>
       </c>
-      <c r="F2" s="8"/>
-      <c r="L2" s="8"/>
+      <c r="F2" s="7"/>
+      <c r="L2" s="7"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3" s="8">
+      <c r="A3" s="7">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44671.041666666664</v>
       </c>
@@ -7485,7 +7614,7 @@
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4" s="8">
+      <c r="A4" s="7">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44671.08333321759</v>
       </c>
@@ -7505,7 +7634,7 @@
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5" s="8">
+      <c r="A5" s="7">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v>44671.124999826388</v>
       </c>
@@ -7525,7 +7654,7 @@
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A6" s="8">
+      <c r="A6" s="7">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v>44671.166666435187</v>
       </c>
@@ -7545,7 +7674,7 @@
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7" s="8">
+      <c r="A7" s="7">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v>44671.208333043978</v>
       </c>
@@ -7565,7 +7694,7 @@
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A8" s="8">
+      <c r="A8" s="7">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v>44671.249999652777</v>
       </c>
@@ -7585,7 +7714,7 @@
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A9" s="8">
+      <c r="A9" s="7">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v>44671.291666261575</v>
       </c>
@@ -7605,7 +7734,7 @@
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A10" s="8">
+      <c r="A10" s="7">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v>44671.333332870374</v>
       </c>
@@ -7625,7 +7754,7 @@
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A11" s="8">
+      <c r="A11" s="7">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v>44671.374999479165</v>
       </c>
@@ -7645,7 +7774,7 @@
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A12" s="8">
+      <c r="A12" s="7">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v>44671.416666087964</v>
       </c>
@@ -7665,7 +7794,7 @@
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A13" s="8">
+      <c r="A13" s="7">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v>44671.458332696762</v>
       </c>
@@ -7685,7 +7814,7 @@
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A14" s="8">
+      <c r="A14" s="7">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v>44671.499999305554</v>
       </c>
@@ -7705,7 +7834,7 @@
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A15" s="8">
+      <c r="A15" s="7">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v>44671.541665914352</v>
       </c>
@@ -7725,7 +7854,7 @@
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A16" s="8">
+      <c r="A16" s="7">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v>44671.583332523151</v>
       </c>
@@ -7745,7 +7874,7 @@
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="8">
+      <c r="A17" s="7">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v>44671.624999131942</v>
       </c>
@@ -7765,7 +7894,7 @@
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="8">
+      <c r="A18" s="7">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v>44671.66666574074</v>
       </c>
@@ -7785,7 +7914,7 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="8">
+      <c r="A19" s="7">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v>44671.708332349539</v>
       </c>
@@ -7805,7 +7934,7 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="8">
+      <c r="A20" s="7">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v>44671.74999895833</v>
       </c>
@@ -7825,7 +7954,7 @@
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="8">
+      <c r="A21" s="7">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v>44671.791665567129</v>
       </c>
@@ -7845,7 +7974,7 @@
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="8">
+      <c r="A22" s="7">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v>44671.833332175927</v>
       </c>
@@ -7865,7 +7994,7 @@
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="8">
+      <c r="A23" s="7">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v>44671.874998784719</v>
       </c>
@@ -7885,7 +8014,7 @@
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="8">
+      <c r="A24" s="7">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v>44671.916665393517</v>
       </c>
@@ -7905,7 +8034,7 @@
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="8">
+      <c r="A25" s="7">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v>44671.958332002316</v>
       </c>

--- a/input_data/input_data.xlsx
+++ b/input_data/input_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dsdennis\HOPE\Predicer\input_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A80E1FD-47D8-4606-A109-FB7EF5E01512}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E64F6B1E-6EDD-47DA-8363-5AB11067FD60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="796" activeTab="12" xr2:uid="{788BFBD1-D930-4535-8A91-D85C56924796}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="18240" windowHeight="28440" tabRatio="796" activeTab="1" xr2:uid="{788BFBD1-D930-4535-8A91-D85C56924796}"/>
   </bookViews>
   <sheets>
     <sheet name="timeseries" sheetId="18" r:id="rId1"/>
@@ -20,22 +20,23 @@
     <sheet name="efficiencies" sheetId="10" r:id="rId5"/>
     <sheet name="process_topology" sheetId="6" r:id="rId6"/>
     <sheet name="node_history" sheetId="19" r:id="rId7"/>
-    <sheet name="reserve_type" sheetId="13" r:id="rId8"/>
-    <sheet name="cf" sheetId="7" r:id="rId9"/>
-    <sheet name="inflow" sheetId="3" r:id="rId10"/>
-    <sheet name="inflow_blocks" sheetId="22" r:id="rId11"/>
-    <sheet name="price" sheetId="4" r:id="rId12"/>
-    <sheet name="markets" sheetId="5" r:id="rId13"/>
-    <sheet name="reserve_realisation" sheetId="23" r:id="rId14"/>
-    <sheet name="market_prices" sheetId="8" r:id="rId15"/>
-    <sheet name="balance_prices" sheetId="20" r:id="rId16"/>
-    <sheet name="risk" sheetId="17" r:id="rId17"/>
-    <sheet name="scenarios" sheetId="9" r:id="rId18"/>
-    <sheet name="fixed_ts" sheetId="11" r:id="rId19"/>
-    <sheet name="eff_ts" sheetId="12" r:id="rId20"/>
-    <sheet name="constraints" sheetId="14" r:id="rId21"/>
-    <sheet name="gen_constraint" sheetId="15" r:id="rId22"/>
-    <sheet name="cap_ts" sheetId="16" r:id="rId23"/>
+    <sheet name="node_diffusion" sheetId="24" r:id="rId8"/>
+    <sheet name="reserve_type" sheetId="13" r:id="rId9"/>
+    <sheet name="cf" sheetId="7" r:id="rId10"/>
+    <sheet name="inflow" sheetId="3" r:id="rId11"/>
+    <sheet name="inflow_blocks" sheetId="22" r:id="rId12"/>
+    <sheet name="price" sheetId="4" r:id="rId13"/>
+    <sheet name="markets" sheetId="5" r:id="rId14"/>
+    <sheet name="reserve_realisation" sheetId="23" r:id="rId15"/>
+    <sheet name="market_prices" sheetId="8" r:id="rId16"/>
+    <sheet name="balance_prices" sheetId="20" r:id="rId17"/>
+    <sheet name="risk" sheetId="17" r:id="rId18"/>
+    <sheet name="scenarios" sheetId="9" r:id="rId19"/>
+    <sheet name="fixed_ts" sheetId="11" r:id="rId20"/>
+    <sheet name="eff_ts" sheetId="12" r:id="rId21"/>
+    <sheet name="constraints" sheetId="14" r:id="rId22"/>
+    <sheet name="gen_constraint" sheetId="15" r:id="rId23"/>
+    <sheet name="cap_ts" sheetId="16" r:id="rId24"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -55,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="140">
   <si>
     <t>node</t>
   </si>
@@ -457,6 +458,24 @@
   </si>
   <si>
     <t>elc_res</t>
+  </si>
+  <si>
+    <t>node1</t>
+  </si>
+  <si>
+    <t>node2</t>
+  </si>
+  <si>
+    <t>diff_coeff</t>
+  </si>
+  <si>
+    <t>state_min</t>
+  </si>
+  <si>
+    <t>is_temp</t>
+  </si>
+  <si>
+    <t>T_E_conversion</t>
   </si>
 </sst>
 </file>
@@ -843,206 +862,206 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
         <v>44671</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <v>44671.041666666664</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <v>44671.08333321759</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>44671.124999826388</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <v>44671.166666435187</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <v>44671.208333043978</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <v>44671.249999652777</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>44671.291666261575</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <v>44671.333332870374</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <v>44671.374999479165</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
         <v>44671.416666087964</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <v>44671.458332696762</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
         <v>44671.499999305554</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
         <v>44671.541665914352</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="7">
         <v>44671.583332523151</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="7">
         <v>44671.624999131942</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="7">
         <v>44671.66666574074</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="7">
         <v>44671.708332349539</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="7">
         <v>44671.74999895833</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="7">
         <v>44671.791665567129</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="7">
         <v>44671.833332175927</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="7">
         <v>44671.874998784719</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="7">
         <v>44671.916665393517</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="7">
         <v>44671.958332002316</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="7"/>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="7"/>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="7"/>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" s="7"/>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" s="7"/>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" s="7"/>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" s="7"/>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="7"/>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="7"/>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" s="7"/>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" s="7"/>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" s="7"/>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" s="7"/>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" s="7"/>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" s="7"/>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" s="7"/>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" s="7"/>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" s="7"/>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" s="7"/>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" s="7"/>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" s="7"/>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" s="7"/>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" s="7"/>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" s="7"/>
     </row>
   </sheetData>
@@ -1051,712 +1070,518 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F87DD44-A1AD-4241-AED7-C48CC9DEE2E2}">
-  <dimension ref="A1:G25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77A4637A-7829-48D6-AE54-2E654AB1A427}">
+  <dimension ref="A1:L25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" style="7" customWidth="1"/>
-    <col min="4" max="6" width="10.44140625" customWidth="1"/>
-    <col min="7" max="7" width="10.44140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" style="7" customWidth="1"/>
+    <col min="6" max="6" width="23.140625" customWidth="1"/>
+    <col min="12" max="12" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>31</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>51</v>
+        <v>112</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>52</v>
+        <v>84</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>53</v>
+        <v>85</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+        <v>86</v>
+      </c>
+      <c r="F1"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44671</v>
       </c>
       <c r="B2">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>-5</v>
+        <f>1*C2</f>
+        <v>0</v>
       </c>
       <c r="E2">
         <f>1*C2</f>
-        <v>-5</v>
-      </c>
-      <c r="F2" s="2">
-        <f>1*B2</f>
-        <v>-5</v>
-      </c>
-      <c r="G2" s="2">
-        <f>1*C2</f>
-        <v>-5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="F2" s="7"/>
+      <c r="L2" s="7"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44671.041666666664</v>
       </c>
       <c r="B3">
-        <v>-5</v>
+        <v>0.4</v>
       </c>
       <c r="C3">
-        <v>-5</v>
+        <v>0.4</v>
       </c>
       <c r="D3">
-        <f t="shared" ref="D3:D25" si="0">1*B3</f>
-        <v>-5</v>
+        <f t="shared" ref="D3:D25" si="0">1*C3</f>
+        <v>0.4</v>
       </c>
       <c r="E3">
         <f t="shared" ref="E3:E25" si="1">1*C3</f>
-        <v>-5</v>
-      </c>
-      <c r="F3" s="2">
-        <f t="shared" ref="F3:F25" si="2">1*B3</f>
-        <v>-5</v>
-      </c>
-      <c r="G3" s="2">
-        <f t="shared" ref="G3:G25" si="3">1*C3</f>
-        <v>-5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44671.08333321759</v>
       </c>
       <c r="B4">
-        <v>-4</v>
+        <v>0.5</v>
       </c>
       <c r="C4">
-        <v>-6</v>
+        <v>0.5</v>
       </c>
       <c r="D4">
         <f t="shared" si="0"/>
-        <v>-4</v>
+        <v>0.5</v>
       </c>
       <c r="E4">
         <f t="shared" si="1"/>
-        <v>-6</v>
-      </c>
-      <c r="F4" s="2">
-        <f t="shared" si="2"/>
-        <v>-4</v>
-      </c>
-      <c r="G4" s="2">
-        <f t="shared" si="3"/>
-        <v>-6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v>44671.124999826388</v>
       </c>
       <c r="B5">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="D5">
         <f t="shared" si="0"/>
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="E5">
         <f t="shared" si="1"/>
-        <v>-3</v>
-      </c>
-      <c r="F5" s="2">
-        <f t="shared" si="2"/>
-        <v>-2</v>
-      </c>
-      <c r="G5" s="2">
-        <f t="shared" si="3"/>
-        <v>-3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v>44671.166666435187</v>
       </c>
       <c r="B6">
-        <v>-7</v>
+        <v>0.8</v>
       </c>
       <c r="C6">
-        <v>-4</v>
+        <v>0.8</v>
       </c>
       <c r="D6">
         <f t="shared" si="0"/>
-        <v>-7</v>
+        <v>0.8</v>
       </c>
       <c r="E6">
         <f t="shared" si="1"/>
-        <v>-4</v>
-      </c>
-      <c r="F6" s="2">
-        <f t="shared" si="2"/>
-        <v>-7</v>
-      </c>
-      <c r="G6" s="2">
-        <f t="shared" si="3"/>
-        <v>-4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v>44671.208333043978</v>
       </c>
       <c r="B7">
-        <v>-5</v>
+        <v>1</v>
       </c>
       <c r="C7">
-        <v>-5</v>
+        <v>1</v>
       </c>
       <c r="D7">
         <f t="shared" si="0"/>
-        <v>-5</v>
+        <v>1</v>
       </c>
       <c r="E7">
         <f t="shared" si="1"/>
-        <v>-5</v>
-      </c>
-      <c r="F7" s="2">
-        <f t="shared" si="2"/>
-        <v>-5</v>
-      </c>
-      <c r="G7" s="2">
-        <f t="shared" si="3"/>
-        <v>-5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v>44671.249999652777</v>
       </c>
       <c r="B8">
-        <v>-14</v>
+        <v>0.1</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="D8">
         <f t="shared" si="0"/>
-        <v>-14</v>
+        <v>0.1</v>
       </c>
       <c r="E8">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F8" s="2">
-        <f t="shared" si="2"/>
-        <v>-14</v>
-      </c>
-      <c r="G8" s="2">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v>44671.291666261575</v>
       </c>
       <c r="B9">
-        <v>-20</v>
+        <v>0.6</v>
       </c>
       <c r="C9">
-        <v>-2</v>
+        <v>0.6</v>
       </c>
       <c r="D9">
         <f t="shared" si="0"/>
-        <v>-20</v>
+        <v>0.6</v>
       </c>
       <c r="E9">
         <f t="shared" si="1"/>
-        <v>-2</v>
-      </c>
-      <c r="F9" s="2">
-        <f t="shared" si="2"/>
-        <v>-20</v>
-      </c>
-      <c r="G9" s="2">
-        <f t="shared" si="3"/>
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v>44671.333332870374</v>
       </c>
       <c r="B10">
-        <v>-13</v>
+        <v>0.4</v>
       </c>
       <c r="C10">
-        <v>-2</v>
+        <v>0.4</v>
       </c>
       <c r="D10">
         <f t="shared" si="0"/>
-        <v>-13</v>
+        <v>0.4</v>
       </c>
       <c r="E10">
         <f t="shared" si="1"/>
-        <v>-2</v>
-      </c>
-      <c r="F10" s="2">
-        <f t="shared" si="2"/>
-        <v>-13</v>
-      </c>
-      <c r="G10" s="2">
-        <f t="shared" si="3"/>
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v>44671.374999479165</v>
       </c>
       <c r="B11">
-        <v>-12</v>
+        <v>0.6</v>
       </c>
       <c r="C11">
-        <v>-5</v>
+        <v>0.6</v>
       </c>
       <c r="D11">
         <f t="shared" si="0"/>
-        <v>-12</v>
+        <v>0.6</v>
       </c>
       <c r="E11">
         <f t="shared" si="1"/>
-        <v>-5</v>
-      </c>
-      <c r="F11" s="2">
-        <f t="shared" si="2"/>
-        <v>-12</v>
-      </c>
-      <c r="G11" s="2">
-        <f t="shared" si="3"/>
-        <v>-5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v>44671.416666087964</v>
       </c>
       <c r="B12">
-        <v>-13</v>
+        <v>0.7</v>
       </c>
       <c r="C12">
-        <v>-2</v>
+        <v>0.7</v>
       </c>
       <c r="D12">
         <f t="shared" si="0"/>
-        <v>-13</v>
+        <v>0.7</v>
       </c>
       <c r="E12">
         <f t="shared" si="1"/>
-        <v>-2</v>
-      </c>
-      <c r="F12" s="2">
-        <f t="shared" si="2"/>
-        <v>-13</v>
-      </c>
-      <c r="G12" s="2">
-        <f t="shared" si="3"/>
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v>44671.458332696762</v>
       </c>
       <c r="B13">
-        <v>-14</v>
+        <v>0.1</v>
       </c>
       <c r="C13">
-        <v>-6</v>
+        <v>0.1</v>
       </c>
       <c r="D13">
         <f t="shared" si="0"/>
-        <v>-14</v>
+        <v>0.1</v>
       </c>
       <c r="E13">
         <f t="shared" si="1"/>
-        <v>-6</v>
-      </c>
-      <c r="F13" s="2">
-        <f t="shared" si="2"/>
-        <v>-14</v>
-      </c>
-      <c r="G13" s="2">
-        <f t="shared" si="3"/>
-        <v>-6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v>44671.499999305554</v>
       </c>
       <c r="B14">
-        <v>-18</v>
+        <v>0.1</v>
       </c>
       <c r="C14">
-        <v>-4</v>
+        <v>0.1</v>
       </c>
       <c r="D14">
         <f t="shared" si="0"/>
-        <v>-18</v>
+        <v>0.1</v>
       </c>
       <c r="E14">
         <f t="shared" si="1"/>
-        <v>-4</v>
-      </c>
-      <c r="F14" s="2">
-        <f t="shared" si="2"/>
-        <v>-18</v>
-      </c>
-      <c r="G14" s="2">
-        <f t="shared" si="3"/>
-        <v>-4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v>44671.541665914352</v>
       </c>
       <c r="B15">
-        <v>-14</v>
+        <v>0.8</v>
       </c>
       <c r="C15">
-        <v>-3</v>
+        <v>0.8</v>
       </c>
       <c r="D15">
         <f t="shared" si="0"/>
-        <v>-14</v>
+        <v>0.8</v>
       </c>
       <c r="E15">
         <f t="shared" si="1"/>
-        <v>-3</v>
-      </c>
-      <c r="F15" s="2">
-        <f t="shared" si="2"/>
-        <v>-14</v>
-      </c>
-      <c r="G15" s="2">
-        <f t="shared" si="3"/>
-        <v>-3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="7">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v>44671.583332523151</v>
       </c>
       <c r="B16">
-        <v>-15</v>
+        <v>0.9</v>
       </c>
       <c r="C16">
-        <v>-5</v>
+        <v>0.9</v>
       </c>
       <c r="D16">
         <f t="shared" si="0"/>
-        <v>-15</v>
+        <v>0.9</v>
       </c>
       <c r="E16">
         <f t="shared" si="1"/>
-        <v>-5</v>
-      </c>
-      <c r="F16" s="2">
-        <f t="shared" si="2"/>
-        <v>-15</v>
-      </c>
-      <c r="G16" s="2">
-        <f t="shared" si="3"/>
-        <v>-5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="7">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v>44671.624999131942</v>
       </c>
       <c r="B17">
-        <v>-14</v>
+        <v>0.2</v>
       </c>
       <c r="C17">
-        <v>-1</v>
+        <v>0.2</v>
       </c>
       <c r="D17">
         <f t="shared" si="0"/>
-        <v>-14</v>
+        <v>0.2</v>
       </c>
       <c r="E17">
         <f t="shared" si="1"/>
-        <v>-1</v>
-      </c>
-      <c r="F17" s="2">
-        <f t="shared" si="2"/>
-        <v>-14</v>
-      </c>
-      <c r="G17" s="2">
-        <f t="shared" si="3"/>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="7">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v>44671.66666574074</v>
       </c>
       <c r="B18">
-        <v>-20</v>
+        <v>0.4</v>
       </c>
       <c r="C18">
-        <v>-5</v>
+        <v>0.4</v>
       </c>
       <c r="D18">
         <f t="shared" si="0"/>
-        <v>-20</v>
+        <v>0.4</v>
       </c>
       <c r="E18">
         <f t="shared" si="1"/>
-        <v>-5</v>
-      </c>
-      <c r="F18" s="2">
-        <f t="shared" si="2"/>
-        <v>-20</v>
-      </c>
-      <c r="G18" s="2">
-        <f t="shared" si="3"/>
-        <v>-5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="7">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v>44671.708332349539</v>
       </c>
       <c r="B19">
-        <v>-20</v>
+        <v>0.6</v>
       </c>
       <c r="C19">
-        <v>-4</v>
+        <v>0.6</v>
       </c>
       <c r="D19">
         <f t="shared" si="0"/>
-        <v>-20</v>
+        <v>0.6</v>
       </c>
       <c r="E19">
         <f t="shared" si="1"/>
-        <v>-4</v>
-      </c>
-      <c r="F19" s="2">
-        <f t="shared" si="2"/>
-        <v>-20</v>
-      </c>
-      <c r="G19" s="2">
-        <f t="shared" si="3"/>
-        <v>-4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="7">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v>44671.74999895833</v>
       </c>
       <c r="B20">
-        <v>-20</v>
+        <v>0.7</v>
       </c>
       <c r="C20">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="D20">
         <f t="shared" si="0"/>
-        <v>-20</v>
+        <v>0.7</v>
       </c>
       <c r="E20">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F20" s="2">
-        <f t="shared" si="2"/>
-        <v>-20</v>
-      </c>
-      <c r="G20" s="2">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="7">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v>44671.791665567129</v>
       </c>
       <c r="B21">
-        <v>-20</v>
+        <v>0.7</v>
       </c>
       <c r="C21">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="D21">
         <f t="shared" si="0"/>
-        <v>-20</v>
+        <v>0.7</v>
       </c>
       <c r="E21">
         <f t="shared" si="1"/>
-        <v>-1</v>
-      </c>
-      <c r="F21" s="2">
-        <f t="shared" si="2"/>
-        <v>-20</v>
-      </c>
-      <c r="G21" s="2">
-        <f t="shared" si="3"/>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="7">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v>44671.833332175927</v>
       </c>
       <c r="B22">
-        <v>-16</v>
+        <v>0.6</v>
       </c>
       <c r="C22">
-        <v>-4</v>
+        <v>0.6</v>
       </c>
       <c r="D22">
         <f t="shared" si="0"/>
-        <v>-16</v>
+        <v>0.6</v>
       </c>
       <c r="E22">
         <f t="shared" si="1"/>
-        <v>-4</v>
-      </c>
-      <c r="F22" s="2">
-        <f t="shared" si="2"/>
-        <v>-16</v>
-      </c>
-      <c r="G22" s="2">
-        <f t="shared" si="3"/>
-        <v>-4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="7">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v>44671.874998784719</v>
       </c>
       <c r="B23">
-        <v>-14</v>
+        <v>0.7</v>
       </c>
       <c r="C23">
-        <v>-5</v>
+        <v>0.7</v>
       </c>
       <c r="D23">
         <f t="shared" si="0"/>
-        <v>-14</v>
+        <v>0.7</v>
       </c>
       <c r="E23">
         <f t="shared" si="1"/>
-        <v>-5</v>
-      </c>
-      <c r="F23" s="2">
-        <f t="shared" si="2"/>
-        <v>-14</v>
-      </c>
-      <c r="G23" s="2">
-        <f t="shared" si="3"/>
-        <v>-5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="7">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v>44671.916665393517</v>
       </c>
       <c r="B24">
-        <v>-11</v>
+        <v>0.1</v>
       </c>
       <c r="C24">
-        <v>-1</v>
+        <v>0.1</v>
       </c>
       <c r="D24">
         <f t="shared" si="0"/>
-        <v>-11</v>
+        <v>0.1</v>
       </c>
       <c r="E24">
         <f t="shared" si="1"/>
-        <v>-1</v>
-      </c>
-      <c r="F24" s="2">
-        <f t="shared" si="2"/>
-        <v>-11</v>
-      </c>
-      <c r="G24" s="2">
-        <f t="shared" si="3"/>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="7">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v>44671.958332002316</v>
       </c>
       <c r="B25">
-        <v>-9</v>
+        <v>0.6</v>
       </c>
       <c r="C25">
-        <v>-3</v>
+        <v>0.6</v>
       </c>
       <c r="D25">
         <f t="shared" si="0"/>
-        <v>-9</v>
+        <v>0.6</v>
       </c>
       <c r="E25">
         <f t="shared" si="1"/>
-        <v>-3</v>
-      </c>
-      <c r="F25" s="2">
-        <f t="shared" si="2"/>
-        <v>-9</v>
-      </c>
-      <c r="G25" s="2">
-        <f t="shared" si="3"/>
-        <v>-3</v>
+        <v>0.6</v>
       </c>
     </row>
   </sheetData>
@@ -1767,6 +1592,722 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F87DD44-A1AD-4241-AED7-C48CC9DEE2E2}">
+  <dimension ref="A1:G25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.28515625" style="7" customWidth="1"/>
+    <col min="4" max="6" width="10.42578125" customWidth="1"/>
+    <col min="7" max="7" width="10.42578125" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="7">
+        <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
+        <v>44671</v>
+      </c>
+      <c r="B2">
+        <v>-5</v>
+      </c>
+      <c r="C2">
+        <v>-5</v>
+      </c>
+      <c r="D2">
+        <v>-5</v>
+      </c>
+      <c r="E2">
+        <f>1*C2</f>
+        <v>-5</v>
+      </c>
+      <c r="F2" s="2">
+        <f>1*B2</f>
+        <v>-5</v>
+      </c>
+      <c r="G2" s="2">
+        <f>1*C2</f>
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="7">
+        <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
+        <v>44671.041666666664</v>
+      </c>
+      <c r="B3">
+        <v>-5</v>
+      </c>
+      <c r="C3">
+        <v>-5</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ref="D3:D25" si="0">1*B3</f>
+        <v>-5</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E25" si="1">1*C3</f>
+        <v>-5</v>
+      </c>
+      <c r="F3" s="2">
+        <f t="shared" ref="F3:F25" si="2">1*B3</f>
+        <v>-5</v>
+      </c>
+      <c r="G3" s="2">
+        <f t="shared" ref="G3:G25" si="3">1*C3</f>
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="7">
+        <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
+        <v>44671.08333321759</v>
+      </c>
+      <c r="B4">
+        <v>-4</v>
+      </c>
+      <c r="C4">
+        <v>-6</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="0"/>
+        <v>-4</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="1"/>
+        <v>-6</v>
+      </c>
+      <c r="F4" s="2">
+        <f t="shared" si="2"/>
+        <v>-4</v>
+      </c>
+      <c r="G4" s="2">
+        <f t="shared" si="3"/>
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="7">
+        <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
+        <v>44671.124999826388</v>
+      </c>
+      <c r="B5">
+        <v>-2</v>
+      </c>
+      <c r="C5">
+        <v>-3</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>-2</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="1"/>
+        <v>-3</v>
+      </c>
+      <c r="F5" s="2">
+        <f t="shared" si="2"/>
+        <v>-2</v>
+      </c>
+      <c r="G5" s="2">
+        <f t="shared" si="3"/>
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="7">
+        <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
+        <v>44671.166666435187</v>
+      </c>
+      <c r="B6">
+        <v>-7</v>
+      </c>
+      <c r="C6">
+        <v>-4</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>-7</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="1"/>
+        <v>-4</v>
+      </c>
+      <c r="F6" s="2">
+        <f t="shared" si="2"/>
+        <v>-7</v>
+      </c>
+      <c r="G6" s="2">
+        <f t="shared" si="3"/>
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="7">
+        <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
+        <v>44671.208333043978</v>
+      </c>
+      <c r="B7">
+        <v>-5</v>
+      </c>
+      <c r="C7">
+        <v>-5</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>-5</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="1"/>
+        <v>-5</v>
+      </c>
+      <c r="F7" s="2">
+        <f t="shared" si="2"/>
+        <v>-5</v>
+      </c>
+      <c r="G7" s="2">
+        <f t="shared" si="3"/>
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="7">
+        <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
+        <v>44671.249999652777</v>
+      </c>
+      <c r="B8">
+        <v>-14</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>-14</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F8" s="2">
+        <f t="shared" si="2"/>
+        <v>-14</v>
+      </c>
+      <c r="G8" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="7">
+        <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
+        <v>44671.291666261575</v>
+      </c>
+      <c r="B9">
+        <v>-20</v>
+      </c>
+      <c r="C9">
+        <v>-2</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>-20</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="1"/>
+        <v>-2</v>
+      </c>
+      <c r="F9" s="2">
+        <f t="shared" si="2"/>
+        <v>-20</v>
+      </c>
+      <c r="G9" s="2">
+        <f t="shared" si="3"/>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="7">
+        <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
+        <v>44671.333332870374</v>
+      </c>
+      <c r="B10">
+        <v>-13</v>
+      </c>
+      <c r="C10">
+        <v>-2</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>-13</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="1"/>
+        <v>-2</v>
+      </c>
+      <c r="F10" s="2">
+        <f t="shared" si="2"/>
+        <v>-13</v>
+      </c>
+      <c r="G10" s="2">
+        <f t="shared" si="3"/>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="7">
+        <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
+        <v>44671.374999479165</v>
+      </c>
+      <c r="B11">
+        <v>-12</v>
+      </c>
+      <c r="C11">
+        <v>-5</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>-12</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="1"/>
+        <v>-5</v>
+      </c>
+      <c r="F11" s="2">
+        <f t="shared" si="2"/>
+        <v>-12</v>
+      </c>
+      <c r="G11" s="2">
+        <f t="shared" si="3"/>
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="7">
+        <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
+        <v>44671.416666087964</v>
+      </c>
+      <c r="B12">
+        <v>-13</v>
+      </c>
+      <c r="C12">
+        <v>-2</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>-13</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="1"/>
+        <v>-2</v>
+      </c>
+      <c r="F12" s="2">
+        <f t="shared" si="2"/>
+        <v>-13</v>
+      </c>
+      <c r="G12" s="2">
+        <f t="shared" si="3"/>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="7">
+        <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
+        <v>44671.458332696762</v>
+      </c>
+      <c r="B13">
+        <v>-14</v>
+      </c>
+      <c r="C13">
+        <v>-6</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="0"/>
+        <v>-14</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="1"/>
+        <v>-6</v>
+      </c>
+      <c r="F13" s="2">
+        <f t="shared" si="2"/>
+        <v>-14</v>
+      </c>
+      <c r="G13" s="2">
+        <f t="shared" si="3"/>
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="7">
+        <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
+        <v>44671.499999305554</v>
+      </c>
+      <c r="B14">
+        <v>-18</v>
+      </c>
+      <c r="C14">
+        <v>-4</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="0"/>
+        <v>-18</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="1"/>
+        <v>-4</v>
+      </c>
+      <c r="F14" s="2">
+        <f t="shared" si="2"/>
+        <v>-18</v>
+      </c>
+      <c r="G14" s="2">
+        <f t="shared" si="3"/>
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="7">
+        <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
+        <v>44671.541665914352</v>
+      </c>
+      <c r="B15">
+        <v>-14</v>
+      </c>
+      <c r="C15">
+        <v>-3</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="0"/>
+        <v>-14</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="1"/>
+        <v>-3</v>
+      </c>
+      <c r="F15" s="2">
+        <f t="shared" si="2"/>
+        <v>-14</v>
+      </c>
+      <c r="G15" s="2">
+        <f t="shared" si="3"/>
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="7">
+        <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
+        <v>44671.583332523151</v>
+      </c>
+      <c r="B16">
+        <v>-15</v>
+      </c>
+      <c r="C16">
+        <v>-5</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="0"/>
+        <v>-15</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="1"/>
+        <v>-5</v>
+      </c>
+      <c r="F16" s="2">
+        <f t="shared" si="2"/>
+        <v>-15</v>
+      </c>
+      <c r="G16" s="2">
+        <f t="shared" si="3"/>
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="7">
+        <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
+        <v>44671.624999131942</v>
+      </c>
+      <c r="B17">
+        <v>-14</v>
+      </c>
+      <c r="C17">
+        <v>-1</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="0"/>
+        <v>-14</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="F17" s="2">
+        <f t="shared" si="2"/>
+        <v>-14</v>
+      </c>
+      <c r="G17" s="2">
+        <f t="shared" si="3"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="7">
+        <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
+        <v>44671.66666574074</v>
+      </c>
+      <c r="B18">
+        <v>-20</v>
+      </c>
+      <c r="C18">
+        <v>-5</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="0"/>
+        <v>-20</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="1"/>
+        <v>-5</v>
+      </c>
+      <c r="F18" s="2">
+        <f t="shared" si="2"/>
+        <v>-20</v>
+      </c>
+      <c r="G18" s="2">
+        <f t="shared" si="3"/>
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="7">
+        <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
+        <v>44671.708332349539</v>
+      </c>
+      <c r="B19">
+        <v>-20</v>
+      </c>
+      <c r="C19">
+        <v>-4</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="0"/>
+        <v>-20</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="1"/>
+        <v>-4</v>
+      </c>
+      <c r="F19" s="2">
+        <f t="shared" si="2"/>
+        <v>-20</v>
+      </c>
+      <c r="G19" s="2">
+        <f t="shared" si="3"/>
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="7">
+        <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
+        <v>44671.74999895833</v>
+      </c>
+      <c r="B20">
+        <v>-20</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="0"/>
+        <v>-20</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F20" s="2">
+        <f t="shared" si="2"/>
+        <v>-20</v>
+      </c>
+      <c r="G20" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="7">
+        <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
+        <v>44671.791665567129</v>
+      </c>
+      <c r="B21">
+        <v>-20</v>
+      </c>
+      <c r="C21">
+        <v>-1</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="0"/>
+        <v>-20</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="F21" s="2">
+        <f t="shared" si="2"/>
+        <v>-20</v>
+      </c>
+      <c r="G21" s="2">
+        <f t="shared" si="3"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="7">
+        <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
+        <v>44671.833332175927</v>
+      </c>
+      <c r="B22">
+        <v>-16</v>
+      </c>
+      <c r="C22">
+        <v>-4</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="0"/>
+        <v>-16</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="1"/>
+        <v>-4</v>
+      </c>
+      <c r="F22" s="2">
+        <f t="shared" si="2"/>
+        <v>-16</v>
+      </c>
+      <c r="G22" s="2">
+        <f t="shared" si="3"/>
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="7">
+        <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
+        <v>44671.874998784719</v>
+      </c>
+      <c r="B23">
+        <v>-14</v>
+      </c>
+      <c r="C23">
+        <v>-5</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="0"/>
+        <v>-14</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="1"/>
+        <v>-5</v>
+      </c>
+      <c r="F23" s="2">
+        <f t="shared" si="2"/>
+        <v>-14</v>
+      </c>
+      <c r="G23" s="2">
+        <f t="shared" si="3"/>
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="7">
+        <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
+        <v>44671.916665393517</v>
+      </c>
+      <c r="B24">
+        <v>-11</v>
+      </c>
+      <c r="C24">
+        <v>-1</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="0"/>
+        <v>-11</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="F24" s="2">
+        <f t="shared" si="2"/>
+        <v>-11</v>
+      </c>
+      <c r="G24" s="2">
+        <f t="shared" si="3"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="7">
+        <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
+        <v>44671.958332002316</v>
+      </c>
+      <c r="B25">
+        <v>-9</v>
+      </c>
+      <c r="C25">
+        <v>-3</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="0"/>
+        <v>-9</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="1"/>
+        <v>-3</v>
+      </c>
+      <c r="F25" s="2">
+        <f t="shared" si="2"/>
+        <v>-9</v>
+      </c>
+      <c r="G25" s="2">
+        <f t="shared" si="3"/>
+        <v>-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{098BD40C-3F1E-4DCA-B153-EDE213641CC0}">
   <dimension ref="A1:F17"/>
   <sheetViews>
@@ -1774,82 +2315,82 @@
       <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="6" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.6640625" customWidth="1"/>
+    <col min="3" max="6" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="C2" s="7"/>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="C3" s="7"/>
       <c r="E3" s="7"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="C4" s="7"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="C5" s="7"/>
       <c r="E5" s="7"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
     </row>
-    <row r="17" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
       <c r="E17" s="7"/>
@@ -1860,7 +2401,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02307C1F-427B-487D-B703-EBF512D7AC27}">
   <dimension ref="A1:B25"/>
   <sheetViews>
@@ -1868,12 +2409,12 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" style="7" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>31</v>
       </c>
@@ -1881,7 +2422,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44671</v>
@@ -1890,7 +2431,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44671.041666666664</v>
@@ -1899,7 +2440,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44671.08333321759</v>
@@ -1908,7 +2449,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v>44671.124999826388</v>
@@ -1917,7 +2458,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v>44671.166666435187</v>
@@ -1926,7 +2467,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v>44671.208333043978</v>
@@ -1935,7 +2476,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v>44671.249999652777</v>
@@ -1944,7 +2485,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v>44671.291666261575</v>
@@ -1953,7 +2494,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v>44671.333332870374</v>
@@ -1962,7 +2503,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v>44671.374999479165</v>
@@ -1971,7 +2512,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v>44671.416666087964</v>
@@ -1980,7 +2521,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v>44671.458332696762</v>
@@ -1989,7 +2530,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v>44671.499999305554</v>
@@ -1998,7 +2539,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v>44671.541665914352</v>
@@ -2007,7 +2548,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="7">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v>44671.583332523151</v>
@@ -2016,7 +2557,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="7">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v>44671.624999131942</v>
@@ -2025,7 +2566,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="7">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v>44671.66666574074</v>
@@ -2034,7 +2575,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="7">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v>44671.708332349539</v>
@@ -2043,7 +2584,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="7">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v>44671.74999895833</v>
@@ -2052,7 +2593,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="7">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v>44671.791665567129</v>
@@ -2061,7 +2602,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="7">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v>44671.833332175927</v>
@@ -2070,7 +2611,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="7">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v>44671.874998784719</v>
@@ -2079,7 +2620,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="7">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v>44671.916665393517</v>
@@ -2088,211 +2629,13 @@
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="7">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v>44671.958332002316</v>
       </c>
       <c r="B25">
         <v>12</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3788A93-7501-4F5D-9E8F-38D329CC85EC}">
-  <dimension ref="A1:K5"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="G2">
-        <v>1</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2" s="6">
-        <v>0</v>
-      </c>
-      <c r="J2" s="6">
-        <v>0</v>
-      </c>
-      <c r="K2" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="G3">
-        <v>1</v>
-      </c>
-      <c r="H3">
-        <v>1</v>
-      </c>
-      <c r="I3" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="J3" s="6">
-        <v>10</v>
-      </c>
-      <c r="K3" s="6">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="G4">
-        <v>1</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4" s="6">
-        <v>0</v>
-      </c>
-      <c r="J4" s="6">
-        <v>0</v>
-      </c>
-      <c r="K4" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="G5">
-        <v>1</v>
-      </c>
-      <c r="H5">
-        <v>1</v>
-      </c>
-      <c r="I5" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="J5" s="6">
-        <v>5</v>
-      </c>
-      <c r="K5" s="6">
-        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -2301,6 +2644,204 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3788A93-7501-4F5D-9E8F-38D329CC85EC}">
+  <dimension ref="A1:K5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2" s="6">
+        <v>0</v>
+      </c>
+      <c r="J2" s="6">
+        <v>0</v>
+      </c>
+      <c r="K2" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="J3" s="6">
+        <v>10</v>
+      </c>
+      <c r="K3" s="6">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4" s="6">
+        <v>0</v>
+      </c>
+      <c r="J4" s="6">
+        <v>0</v>
+      </c>
+      <c r="K4" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="J5" s="6">
+        <v>5</v>
+      </c>
+      <c r="K5" s="6">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E21372C5-DB60-4318-868D-D4FA20FECD5D}">
   <dimension ref="A1:D4"/>
   <sheetViews>
@@ -2308,13 +2849,13 @@
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.44140625" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="6.5546875" customWidth="1"/>
+    <col min="1" max="1" width="13.42578125" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="6.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>130</v>
       </c>
@@ -2328,7 +2869,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>40</v>
       </c>
@@ -2342,7 +2883,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>41</v>
       </c>
@@ -2356,7 +2897,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>42</v>
       </c>
@@ -2375,7 +2916,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF6DDD9A-EF34-4108-8532-230729E9C708}">
   <dimension ref="A1:M25"/>
   <sheetViews>
@@ -2383,14 +2924,14 @@
       <selection activeCell="P16" sqref="P16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" style="7" customWidth="1"/>
-    <col min="2" max="5" width="11.44140625" customWidth="1"/>
-    <col min="6" max="13" width="11.109375" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" style="7" customWidth="1"/>
+    <col min="2" max="5" width="11.42578125" customWidth="1"/>
+    <col min="6" max="13" width="11.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>31</v>
       </c>
@@ -2431,7 +2972,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44671</v>
@@ -2473,7 +3014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44671.041666666664</v>
@@ -2515,7 +3056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44671.08333321759</v>
@@ -2557,7 +3098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v>44671.124999826388</v>
@@ -2599,7 +3140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v>44671.166666435187</v>
@@ -2641,7 +3182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v>44671.208333043978</v>
@@ -2683,7 +3224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v>44671.249999652777</v>
@@ -2725,7 +3266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v>44671.291666261575</v>
@@ -2767,7 +3308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v>44671.333332870374</v>
@@ -2809,7 +3350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v>44671.374999479165</v>
@@ -2851,7 +3392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v>44671.416666087964</v>
@@ -2893,7 +3434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v>44671.458332696762</v>
@@ -2935,7 +3476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v>44671.499999305554</v>
@@ -2977,7 +3518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v>44671.541665914352</v>
@@ -3019,7 +3560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="7">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v>44671.583332523151</v>
@@ -3061,7 +3602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="7">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v>44671.624999131942</v>
@@ -3103,7 +3644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="7">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v>44671.66666574074</v>
@@ -3145,7 +3686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="7">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v>44671.708332349539</v>
@@ -3187,7 +3728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="7">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v>44671.74999895833</v>
@@ -3229,7 +3770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="7">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v>44671.791665567129</v>
@@ -3271,7 +3812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="7">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v>44671.833332175927</v>
@@ -3313,7 +3854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="7">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v>44671.874998784719</v>
@@ -3355,7 +3896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="7">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v>44671.916665393517</v>
@@ -3397,7 +3938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="7">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v>44671.958332002316</v>
@@ -3445,7 +3986,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{817FDE8F-BC70-48D0-8376-FB52E6946AF1}">
   <dimension ref="A1:G25"/>
   <sheetViews>
@@ -3453,14 +3994,14 @@
       <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="10.33203125" customWidth="1"/>
-    <col min="5" max="7" width="11.6640625" customWidth="1"/>
+    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="10.28515625" customWidth="1"/>
+    <col min="5" max="7" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>31</v>
       </c>
@@ -3483,7 +4024,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44671</v>
@@ -3513,7 +4054,7 @@
         <v>21.6</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44671.041666666664</v>
@@ -3543,7 +4084,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44671.08333321759</v>
@@ -3573,7 +4114,7 @@
         <v>26.1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v>44671.124999826388</v>
@@ -3603,7 +4144,7 @@
         <v>22.95</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v>44671.166666435187</v>
@@ -3633,7 +4174,7 @@
         <v>16.650000000000002</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v>44671.208333043978</v>
@@ -3663,7 +4204,7 @@
         <v>15.3</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v>44671.249999652777</v>
@@ -3693,7 +4234,7 @@
         <v>20.25</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v>44671.291666261575</v>
@@ -3723,7 +4264,7 @@
         <v>18.45</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v>44671.333332870374</v>
@@ -3753,7 +4294,7 @@
         <v>24.75</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v>44671.374999479165</v>
@@ -3783,7 +4324,7 @@
         <v>26.55</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v>44671.416666087964</v>
@@ -3813,7 +4354,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v>44671.458332696762</v>
@@ -3843,7 +4384,7 @@
         <v>18.45</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v>44671.499999305554</v>
@@ -3873,7 +4414,7 @@
         <v>20.7</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v>44671.541665914352</v>
@@ -3903,7 +4444,7 @@
         <v>17.100000000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="7">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v>44671.583332523151</v>
@@ -3933,7 +4474,7 @@
         <v>20.7</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="7">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v>44671.624999131942</v>
@@ -3963,7 +4504,7 @@
         <v>20.25</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="7">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v>44671.66666574074</v>
@@ -3993,7 +4534,7 @@
         <v>18.45</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="7">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v>44671.708332349539</v>
@@ -4023,7 +4564,7 @@
         <v>20.7</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="7">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v>44671.74999895833</v>
@@ -4053,7 +4594,7 @@
         <v>23.400000000000002</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="7">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v>44671.791665567129</v>
@@ -4083,7 +4624,7 @@
         <v>25.2</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="7">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v>44671.833332175927</v>
@@ -4113,7 +4654,7 @@
         <v>14.85</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="7">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v>44671.874998784719</v>
@@ -4143,7 +4684,7 @@
         <v>19.350000000000001</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="7">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v>44671.916665393517</v>
@@ -4173,7 +4714,7 @@
         <v>25.650000000000002</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="7">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v>44671.958332002316</v>
@@ -4209,7 +4750,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9314D326-256A-435C-AAE3-3517FA836EAE}">
   <dimension ref="A1:B3"/>
   <sheetViews>
@@ -4217,12 +4758,12 @@
       <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>104</v>
       </c>
@@ -4230,7 +4771,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>106</v>
       </c>
@@ -4238,7 +4779,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>107</v>
       </c>
@@ -4251,7 +4792,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A87AD413-E614-48C1-80E1-F1E8236FCBC6}">
   <dimension ref="A1:B4"/>
   <sheetViews>
@@ -4259,9 +4800,9 @@
       <selection activeCell="B2" sqref="B2:B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>46</v>
       </c>
@@ -4269,7 +4810,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>48</v>
       </c>
@@ -4277,7 +4818,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>49</v>
       </c>
@@ -4285,186 +4826,12 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>50</v>
       </c>
       <c r="B4">
         <v>0.2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31679CA5-0AA2-4F6F-8223-14BF74917F04}">
-  <dimension ref="A1:B25"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L31" sqref="L31"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="19.33203125" style="7" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="7">
-        <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
-        <v>44671</v>
-      </c>
-      <c r="B2" s="2"/>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="7">
-        <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
-        <v>44671.041666666664</v>
-      </c>
-      <c r="B3" s="2"/>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="7">
-        <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
-        <v>44671.08333321759</v>
-      </c>
-      <c r="B4" s="2"/>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="7">
-        <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
-        <v>44671.124999826388</v>
-      </c>
-      <c r="B5" s="2"/>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="7">
-        <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
-        <v>44671.166666435187</v>
-      </c>
-      <c r="B6" s="2"/>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="7">
-        <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
-        <v>44671.208333043978</v>
-      </c>
-      <c r="B7" s="2"/>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="7">
-        <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
-        <v>44671.249999652777</v>
-      </c>
-      <c r="B8" s="2"/>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="7">
-        <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
-        <v>44671.291666261575</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="7">
-        <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
-        <v>44671.333332870374</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="7">
-        <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
-        <v>44671.374999479165</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="7">
-        <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
-        <v>44671.416666087964</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="7">
-        <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
-        <v>44671.458332696762</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" s="7">
-        <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
-        <v>44671.499999305554</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" s="7">
-        <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
-        <v>44671.541665914352</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" s="7">
-        <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
-        <v>44671.583332523151</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" s="7">
-        <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
-        <v>44671.624999131942</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" s="7">
-        <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
-        <v>44671.66666574074</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19" s="7">
-        <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
-        <v>44671.708332349539</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" s="7">
-        <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
-        <v>44671.74999895833</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A21" s="7">
-        <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
-        <v>44671.791665567129</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A22" s="7">
-        <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
-        <v>44671.833332175927</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A23" s="7">
-        <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
-        <v>44671.874998784719</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A24" s="7">
-        <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
-        <v>44671.916665393517</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A25" s="7">
-        <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
-        <v>44671.958332002316</v>
       </c>
     </row>
   </sheetData>
@@ -4474,26 +4841,26 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04A1B16B-CDA9-46BD-BA51-731AA9327652}">
-  <dimension ref="A1:L7"/>
+  <dimension ref="A1:O7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -4516,22 +4883,31 @@
         <v>3</v>
       </c>
       <c r="H1" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="O1" s="3" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -4568,8 +4944,17 @@
       <c r="L2" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M2" s="6">
+        <v>0</v>
+      </c>
+      <c r="N2" s="6">
+        <v>1</v>
+      </c>
+      <c r="O2" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -4606,8 +4991,17 @@
       <c r="L3" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M3" s="6">
+        <v>0</v>
+      </c>
+      <c r="N3" s="6">
+        <v>1</v>
+      </c>
+      <c r="O3" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -4630,22 +5024,31 @@
         <v>10</v>
       </c>
       <c r="H4" s="6">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I4" s="6">
         <v>3</v>
       </c>
       <c r="J4" s="6">
+        <v>3</v>
+      </c>
+      <c r="K4" s="6">
         <v>10</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>1E-3</v>
       </c>
-      <c r="L4" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M4" s="6">
+        <v>0</v>
+      </c>
+      <c r="N4" s="6">
+        <v>1</v>
+      </c>
+      <c r="O4" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -4668,13 +5071,13 @@
         <v>4</v>
       </c>
       <c r="H5" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" s="6">
         <v>1</v>
       </c>
       <c r="J5" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K5" s="6">
         <v>0</v>
@@ -4682,8 +5085,17 @@
       <c r="L5" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M5" s="6">
+        <v>0</v>
+      </c>
+      <c r="N5" s="6">
+        <v>1</v>
+      </c>
+      <c r="O5" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>35</v>
       </c>
@@ -4720,8 +5132,17 @@
       <c r="L6" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M6" s="6">
+        <v>0</v>
+      </c>
+      <c r="N6" s="6">
+        <v>1</v>
+      </c>
+      <c r="O6" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
@@ -4740,6 +5161,180 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31679CA5-0AA2-4F6F-8223-14BF74917F04}">
+  <dimension ref="A1:B25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L31" sqref="L31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.28515625" style="7" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="7">
+        <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
+        <v>44671</v>
+      </c>
+      <c r="B2" s="2"/>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="7">
+        <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
+        <v>44671.041666666664</v>
+      </c>
+      <c r="B3" s="2"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="7">
+        <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
+        <v>44671.08333321759</v>
+      </c>
+      <c r="B4" s="2"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="7">
+        <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
+        <v>44671.124999826388</v>
+      </c>
+      <c r="B5" s="2"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="7">
+        <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
+        <v>44671.166666435187</v>
+      </c>
+      <c r="B6" s="2"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="7">
+        <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
+        <v>44671.208333043978</v>
+      </c>
+      <c r="B7" s="2"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="7">
+        <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
+        <v>44671.249999652777</v>
+      </c>
+      <c r="B8" s="2"/>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="7">
+        <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
+        <v>44671.291666261575</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="7">
+        <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
+        <v>44671.333332870374</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="7">
+        <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
+        <v>44671.374999479165</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="7">
+        <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
+        <v>44671.416666087964</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="7">
+        <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
+        <v>44671.458332696762</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="7">
+        <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
+        <v>44671.499999305554</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="7">
+        <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
+        <v>44671.541665914352</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="7">
+        <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
+        <v>44671.583332523151</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="7">
+        <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
+        <v>44671.624999131942</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="7">
+        <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
+        <v>44671.66666574074</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="7">
+        <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
+        <v>44671.708332349539</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="7">
+        <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
+        <v>44671.74999895833</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="7">
+        <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
+        <v>44671.791665567129</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="7">
+        <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
+        <v>44671.833332175927</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="7">
+        <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
+        <v>44671.874998784719</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="7">
+        <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
+        <v>44671.916665393517</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="7">
+        <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
+        <v>44671.958332002316</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD670E02-665B-45B8-BC4E-9596D2C1BC55}">
   <dimension ref="A1:D25"/>
   <sheetViews>
@@ -4747,12 +5342,12 @@
       <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" style="7" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>31</v>
       </c>
@@ -4766,7 +5361,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44671</v>
@@ -4781,7 +5376,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44671.041666666664</v>
@@ -4796,7 +5391,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44671.08333321759</v>
@@ -4811,7 +5406,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v>44671.124999826388</v>
@@ -4826,7 +5421,7 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v>44671.166666435187</v>
@@ -4841,7 +5436,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v>44671.208333043978</v>
@@ -4856,7 +5451,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v>44671.249999652777</v>
@@ -4871,7 +5466,7 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v>44671.291666261575</v>
@@ -4886,7 +5481,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v>44671.333332870374</v>
@@ -4901,7 +5496,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v>44671.374999479165</v>
@@ -4916,7 +5511,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v>44671.416666087964</v>
@@ -4931,7 +5526,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v>44671.458332696762</v>
@@ -4946,7 +5541,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v>44671.499999305554</v>
@@ -4961,7 +5556,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v>44671.541665914352</v>
@@ -4976,7 +5571,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="7">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v>44671.583332523151</v>
@@ -4991,7 +5586,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="7">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v>44671.624999131942</v>
@@ -5006,7 +5601,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="7">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v>44671.66666574074</v>
@@ -5021,7 +5616,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="7">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v>44671.708332349539</v>
@@ -5036,7 +5631,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="7">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v>44671.74999895833</v>
@@ -5051,7 +5646,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="7">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v>44671.791665567129</v>
@@ -5066,7 +5661,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="7">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v>44671.833332175927</v>
@@ -5081,7 +5676,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="7">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v>44671.874998784719</v>
@@ -5096,7 +5691,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="7">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v>44671.916665393517</v>
@@ -5111,7 +5706,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="7">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v>44671.958332002316</v>
@@ -5132,7 +5727,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5704FC51-737E-45F9-9A9E-85A96AFE5439}">
   <dimension ref="A1:M9"/>
   <sheetViews>
@@ -5140,14 +5735,14 @@
       <selection activeCell="C1" sqref="C1:D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>46</v>
       </c>
@@ -5161,7 +5756,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>88</v>
       </c>
@@ -5175,7 +5770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
@@ -5186,7 +5781,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE12AB76-2BDA-4ACA-A128-8CFB9FB6C8F8}">
   <dimension ref="A1:J25"/>
   <sheetViews>
@@ -5194,15 +5789,15 @@
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" style="7" customWidth="1"/>
-    <col min="2" max="4" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" style="7" customWidth="1"/>
+    <col min="2" max="4" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="5.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>31</v>
       </c>
@@ -5234,7 +5829,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44671</v>
@@ -5267,7 +5862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44671.041666666664</v>
@@ -5300,7 +5895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44671.08333321759</v>
@@ -5333,7 +5928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v>44671.124999826388</v>
@@ -5366,7 +5961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v>44671.166666435187</v>
@@ -5399,7 +5994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v>44671.208333043978</v>
@@ -5432,7 +6027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v>44671.249999652777</v>
@@ -5465,7 +6060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v>44671.291666261575</v>
@@ -5498,7 +6093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v>44671.333332870374</v>
@@ -5531,7 +6126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v>44671.374999479165</v>
@@ -5564,7 +6159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v>44671.416666087964</v>
@@ -5597,7 +6192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v>44671.458332696762</v>
@@ -5630,7 +6225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v>44671.499999305554</v>
@@ -5663,7 +6258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v>44671.541665914352</v>
@@ -5696,7 +6291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="7">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v>44671.583332523151</v>
@@ -5729,7 +6324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="7">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v>44671.624999131942</v>
@@ -5762,7 +6357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="7">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v>44671.66666574074</v>
@@ -5795,7 +6390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="7">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v>44671.708332349539</v>
@@ -5828,7 +6423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="7">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v>44671.74999895833</v>
@@ -5861,7 +6456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="7">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v>44671.791665567129</v>
@@ -5894,7 +6489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="7">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v>44671.833332175927</v>
@@ -5927,7 +6522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="7">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v>44671.874998784719</v>
@@ -5960,7 +6555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="7">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v>44671.916665393517</v>
@@ -5993,7 +6588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="7">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v>44671.958332002316</v>
@@ -6031,7 +6626,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7FEDBA5-B0F3-4E9D-9367-08D5F5FA8AEA}">
   <dimension ref="A1:D25"/>
   <sheetViews>
@@ -6039,12 +6634,12 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" style="7" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>31</v>
       </c>
@@ -6058,7 +6653,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44671</v>
@@ -6073,7 +6668,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44671.041666666664</v>
@@ -6088,7 +6683,7 @@
         <v>4.2857142857142856</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44671.08333321759</v>
@@ -6103,7 +6698,7 @@
         <v>4.2857142857142856</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v>44671.124999826388</v>
@@ -6118,7 +6713,7 @@
         <v>4.4117647058823533</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v>44671.166666435187</v>
@@ -6133,7 +6728,7 @@
         <v>4.5454545454545459</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v>44671.208333043978</v>
@@ -6148,7 +6743,7 @@
         <v>4.6875</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v>44671.249999652777</v>
@@ -6163,7 +6758,7 @@
         <v>4.838709677419355</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v>44671.291666261575</v>
@@ -6178,7 +6773,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v>44671.333332870374</v>
@@ -6193,7 +6788,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v>44671.374999479165</v>
@@ -6208,7 +6803,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v>44671.416666087964</v>
@@ -6223,7 +6818,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v>44671.458332696762</v>
@@ -6238,7 +6833,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v>44671.499999305554</v>
@@ -6253,7 +6848,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v>44671.541665914352</v>
@@ -6268,7 +6863,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="7">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v>44671.583332523151</v>
@@ -6283,7 +6878,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="7">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v>44671.624999131942</v>
@@ -6298,7 +6893,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="7">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v>44671.66666574074</v>
@@ -6313,7 +6908,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="7">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v>44671.708332349539</v>
@@ -6328,7 +6923,7 @@
         <v>3.75</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="7">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v>44671.74999895833</v>
@@ -6343,7 +6938,7 @@
         <v>3.75</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="7">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v>44671.791665567129</v>
@@ -6358,7 +6953,7 @@
         <v>3.75</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="7">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v>44671.833332175927</v>
@@ -6373,7 +6968,7 @@
         <v>3.75</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="7">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v>44671.874998784719</v>
@@ -6388,7 +6983,7 @@
         <v>4.2857142857142856</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="7">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v>44671.916665393517</v>
@@ -6403,7 +6998,7 @@
         <v>4.2857142857142856</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="7">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v>44671.958332002316</v>
@@ -6431,22 +7026,22 @@
       <selection activeCell="A2" sqref="A2:A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.6640625" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" customWidth="1"/>
     <col min="2" max="2" width="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.6640625" customWidth="1"/>
+    <col min="3" max="3" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" customWidth="1"/>
     <col min="7" max="7" width="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="11.44140625" customWidth="1"/>
+    <col min="8" max="8" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>13</v>
       </c>
@@ -6496,7 +7091,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>23</v>
       </c>
@@ -6546,7 +7141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>24</v>
       </c>
@@ -6596,7 +7191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>25</v>
       </c>
@@ -6646,7 +7241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -6696,7 +7291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>83</v>
       </c>
@@ -6746,7 +7341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>36</v>
       </c>
@@ -6796,7 +7391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
@@ -6826,9 +7421,9 @@
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>38</v>
       </c>
@@ -6839,7 +7434,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -6850,7 +7445,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -6861,7 +7456,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -6872,7 +7467,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -6896,9 +7491,9 @@
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>13</v>
       </c>
@@ -6942,7 +7537,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>75</v>
       </c>
@@ -6962,7 +7557,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>76</v>
       </c>
@@ -6995,20 +7590,20 @@
       <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.44140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.5546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.44140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.88671875" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.5546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.109375" style="5"/>
+    <col min="1" max="1" width="7.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>13</v>
       </c>
@@ -7034,7 +7629,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>23</v>
       </c>
@@ -7060,7 +7655,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>23</v>
       </c>
@@ -7086,7 +7681,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>23</v>
       </c>
@@ -7112,7 +7707,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>24</v>
       </c>
@@ -7138,7 +7733,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>24</v>
       </c>
@@ -7164,7 +7759,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>25</v>
       </c>
@@ -7190,7 +7785,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>25</v>
       </c>
@@ -7216,7 +7811,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>26</v>
       </c>
@@ -7242,7 +7837,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>83</v>
       </c>
@@ -7268,7 +7863,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>36</v>
       </c>
@@ -7294,7 +7889,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>36</v>
       </c>
@@ -7334,12 +7929,12 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" style="7" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>31</v>
       </c>
@@ -7350,145 +7945,145 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44671</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44671.041666666664</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44671.08333321759</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v>44671.124999826388</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v>44671.166666435187</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v>44671.208333043978</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v>44671.249999652777</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v>44671.291666261575</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v>44671.333332870374</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v>44671.374999479165</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v>44671.416666087964</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v>44671.458332696762</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v>44671.499999305554</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v>44671.541665914352</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="7">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v>44671.583332523151</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="7">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v>44671.624999131942</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="7">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v>44671.66666574074</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="7">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v>44671.708332349539</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="7">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v>44671.74999895833</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="7">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v>44671.791665567129</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="7">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v>44671.833332175927</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="7">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v>44671.874998784719</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="7">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v>44671.916665393517</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="7">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v>44671.958332002316</v>
@@ -7500,6 +8095,36 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA355BEF-1F4B-494A-B089-4FCDFFFA57F7}">
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E42" sqref="E42:E43"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.85546875" style="7" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>136</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0532F8A-0FB4-47AD-98A1-4065D3376432}">
   <dimension ref="A1:B3"/>
   <sheetViews>
@@ -7507,9 +8132,9 @@
       <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>38</v>
       </c>
@@ -7517,7 +8142,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>78</v>
       </c>
@@ -7525,7 +8150,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>79</v>
       </c>
@@ -7536,526 +8161,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77A4637A-7829-48D6-AE54-2E654AB1A427}">
-  <dimension ref="A1:L25"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="19.33203125" style="7" customWidth="1"/>
-    <col min="6" max="6" width="23.109375" customWidth="1"/>
-    <col min="12" max="12" width="12.109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="F1"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" s="7">
-        <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
-        <v>44671</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <f>1*C2</f>
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <f>1*C2</f>
-        <v>0</v>
-      </c>
-      <c r="F2" s="7"/>
-      <c r="L2" s="7"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3" s="7">
-        <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
-        <v>44671.041666666664</v>
-      </c>
-      <c r="B3">
-        <v>0.4</v>
-      </c>
-      <c r="C3">
-        <v>0.4</v>
-      </c>
-      <c r="D3">
-        <f t="shared" ref="D3:D25" si="0">1*C3</f>
-        <v>0.4</v>
-      </c>
-      <c r="E3">
-        <f t="shared" ref="E3:E25" si="1">1*C3</f>
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4" s="7">
-        <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
-        <v>44671.08333321759</v>
-      </c>
-      <c r="B4">
-        <v>0.5</v>
-      </c>
-      <c r="C4">
-        <v>0.5</v>
-      </c>
-      <c r="D4">
-        <f t="shared" si="0"/>
-        <v>0.5</v>
-      </c>
-      <c r="E4">
-        <f t="shared" si="1"/>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5" s="7">
-        <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
-        <v>44671.124999826388</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A6" s="7">
-        <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
-        <v>44671.166666435187</v>
-      </c>
-      <c r="B6">
-        <v>0.8</v>
-      </c>
-      <c r="C6">
-        <v>0.8</v>
-      </c>
-      <c r="D6">
-        <f t="shared" si="0"/>
-        <v>0.8</v>
-      </c>
-      <c r="E6">
-        <f t="shared" si="1"/>
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7" s="7">
-        <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
-        <v>44671.208333043978</v>
-      </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="E7">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A8" s="7">
-        <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
-        <v>44671.249999652777</v>
-      </c>
-      <c r="B8">
-        <v>0.1</v>
-      </c>
-      <c r="C8">
-        <v>0.1</v>
-      </c>
-      <c r="D8">
-        <f t="shared" si="0"/>
-        <v>0.1</v>
-      </c>
-      <c r="E8">
-        <f t="shared" si="1"/>
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A9" s="7">
-        <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
-        <v>44671.291666261575</v>
-      </c>
-      <c r="B9">
-        <v>0.6</v>
-      </c>
-      <c r="C9">
-        <v>0.6</v>
-      </c>
-      <c r="D9">
-        <f t="shared" si="0"/>
-        <v>0.6</v>
-      </c>
-      <c r="E9">
-        <f t="shared" si="1"/>
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A10" s="7">
-        <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
-        <v>44671.333332870374</v>
-      </c>
-      <c r="B10">
-        <v>0.4</v>
-      </c>
-      <c r="C10">
-        <v>0.4</v>
-      </c>
-      <c r="D10">
-        <f t="shared" si="0"/>
-        <v>0.4</v>
-      </c>
-      <c r="E10">
-        <f t="shared" si="1"/>
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A11" s="7">
-        <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
-        <v>44671.374999479165</v>
-      </c>
-      <c r="B11">
-        <v>0.6</v>
-      </c>
-      <c r="C11">
-        <v>0.6</v>
-      </c>
-      <c r="D11">
-        <f t="shared" si="0"/>
-        <v>0.6</v>
-      </c>
-      <c r="E11">
-        <f t="shared" si="1"/>
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A12" s="7">
-        <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
-        <v>44671.416666087964</v>
-      </c>
-      <c r="B12">
-        <v>0.7</v>
-      </c>
-      <c r="C12">
-        <v>0.7</v>
-      </c>
-      <c r="D12">
-        <f t="shared" si="0"/>
-        <v>0.7</v>
-      </c>
-      <c r="E12">
-        <f t="shared" si="1"/>
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A13" s="7">
-        <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
-        <v>44671.458332696762</v>
-      </c>
-      <c r="B13">
-        <v>0.1</v>
-      </c>
-      <c r="C13">
-        <v>0.1</v>
-      </c>
-      <c r="D13">
-        <f t="shared" si="0"/>
-        <v>0.1</v>
-      </c>
-      <c r="E13">
-        <f t="shared" si="1"/>
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A14" s="7">
-        <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
-        <v>44671.499999305554</v>
-      </c>
-      <c r="B14">
-        <v>0.1</v>
-      </c>
-      <c r="C14">
-        <v>0.1</v>
-      </c>
-      <c r="D14">
-        <f t="shared" si="0"/>
-        <v>0.1</v>
-      </c>
-      <c r="E14">
-        <f t="shared" si="1"/>
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A15" s="7">
-        <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
-        <v>44671.541665914352</v>
-      </c>
-      <c r="B15">
-        <v>0.8</v>
-      </c>
-      <c r="C15">
-        <v>0.8</v>
-      </c>
-      <c r="D15">
-        <f t="shared" si="0"/>
-        <v>0.8</v>
-      </c>
-      <c r="E15">
-        <f t="shared" si="1"/>
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A16" s="7">
-        <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
-        <v>44671.583332523151</v>
-      </c>
-      <c r="B16">
-        <v>0.9</v>
-      </c>
-      <c r="C16">
-        <v>0.9</v>
-      </c>
-      <c r="D16">
-        <f t="shared" si="0"/>
-        <v>0.9</v>
-      </c>
-      <c r="E16">
-        <f t="shared" si="1"/>
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="7">
-        <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
-        <v>44671.624999131942</v>
-      </c>
-      <c r="B17">
-        <v>0.2</v>
-      </c>
-      <c r="C17">
-        <v>0.2</v>
-      </c>
-      <c r="D17">
-        <f t="shared" si="0"/>
-        <v>0.2</v>
-      </c>
-      <c r="E17">
-        <f t="shared" si="1"/>
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="7">
-        <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
-        <v>44671.66666574074</v>
-      </c>
-      <c r="B18">
-        <v>0.4</v>
-      </c>
-      <c r="C18">
-        <v>0.4</v>
-      </c>
-      <c r="D18">
-        <f t="shared" si="0"/>
-        <v>0.4</v>
-      </c>
-      <c r="E18">
-        <f t="shared" si="1"/>
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="7">
-        <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
-        <v>44671.708332349539</v>
-      </c>
-      <c r="B19">
-        <v>0.6</v>
-      </c>
-      <c r="C19">
-        <v>0.6</v>
-      </c>
-      <c r="D19">
-        <f t="shared" si="0"/>
-        <v>0.6</v>
-      </c>
-      <c r="E19">
-        <f t="shared" si="1"/>
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="7">
-        <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
-        <v>44671.74999895833</v>
-      </c>
-      <c r="B20">
-        <v>0.7</v>
-      </c>
-      <c r="C20">
-        <v>0.7</v>
-      </c>
-      <c r="D20">
-        <f t="shared" si="0"/>
-        <v>0.7</v>
-      </c>
-      <c r="E20">
-        <f t="shared" si="1"/>
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="7">
-        <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
-        <v>44671.791665567129</v>
-      </c>
-      <c r="B21">
-        <v>0.7</v>
-      </c>
-      <c r="C21">
-        <v>0.7</v>
-      </c>
-      <c r="D21">
-        <f t="shared" si="0"/>
-        <v>0.7</v>
-      </c>
-      <c r="E21">
-        <f t="shared" si="1"/>
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="7">
-        <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
-        <v>44671.833332175927</v>
-      </c>
-      <c r="B22">
-        <v>0.6</v>
-      </c>
-      <c r="C22">
-        <v>0.6</v>
-      </c>
-      <c r="D22">
-        <f t="shared" si="0"/>
-        <v>0.6</v>
-      </c>
-      <c r="E22">
-        <f t="shared" si="1"/>
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="7">
-        <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
-        <v>44671.874998784719</v>
-      </c>
-      <c r="B23">
-        <v>0.7</v>
-      </c>
-      <c r="C23">
-        <v>0.7</v>
-      </c>
-      <c r="D23">
-        <f t="shared" si="0"/>
-        <v>0.7</v>
-      </c>
-      <c r="E23">
-        <f t="shared" si="1"/>
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="7">
-        <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
-        <v>44671.916665393517</v>
-      </c>
-      <c r="B24">
-        <v>0.1</v>
-      </c>
-      <c r="C24">
-        <v>0.1</v>
-      </c>
-      <c r="D24">
-        <f t="shared" si="0"/>
-        <v>0.1</v>
-      </c>
-      <c r="E24">
-        <f t="shared" si="1"/>
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="7">
-        <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
-        <v>44671.958332002316</v>
-      </c>
-      <c r="B25">
-        <v>0.6</v>
-      </c>
-      <c r="C25">
-        <v>0.6</v>
-      </c>
-      <c r="D25">
-        <f t="shared" si="0"/>
-        <v>0.6</v>
-      </c>
-      <c r="E25">
-        <f t="shared" si="1"/>
-        <v>0.6</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/input_data/input_data.xlsx
+++ b/input_data/input_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dsdennis\HOPE\Predicer\input_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E64F6B1E-6EDD-47DA-8363-5AB11067FD60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7492EBE4-9071-4F9C-A8EB-134831EDE6F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="18240" windowHeight="28440" tabRatio="796" activeTab="1" xr2:uid="{788BFBD1-D930-4535-8A91-D85C56924796}"/>
   </bookViews>
@@ -4844,7 +4844,7 @@
   <dimension ref="A1:O7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O7" sqref="O7"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/input_data/input_data.xlsx
+++ b/input_data/input_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dsdennis\HOPE\Predicer\input_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7492EBE4-9071-4F9C-A8EB-134831EDE6F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C568E239-1292-4371-8EA4-1897EE3D30DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="18240" windowHeight="28440" tabRatio="796" activeTab="1" xr2:uid="{788BFBD1-D930-4535-8A91-D85C56924796}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="796" firstSheet="6" activeTab="6" xr2:uid="{788BFBD1-D930-4535-8A91-D85C56924796}"/>
   </bookViews>
   <sheets>
     <sheet name="timeseries" sheetId="18" r:id="rId1"/>
@@ -20,23 +20,24 @@
     <sheet name="efficiencies" sheetId="10" r:id="rId5"/>
     <sheet name="process_topology" sheetId="6" r:id="rId6"/>
     <sheet name="node_history" sheetId="19" r:id="rId7"/>
-    <sheet name="node_diffusion" sheetId="24" r:id="rId8"/>
-    <sheet name="reserve_type" sheetId="13" r:id="rId9"/>
-    <sheet name="cf" sheetId="7" r:id="rId10"/>
-    <sheet name="inflow" sheetId="3" r:id="rId11"/>
-    <sheet name="inflow_blocks" sheetId="22" r:id="rId12"/>
-    <sheet name="price" sheetId="4" r:id="rId13"/>
-    <sheet name="markets" sheetId="5" r:id="rId14"/>
-    <sheet name="reserve_realisation" sheetId="23" r:id="rId15"/>
-    <sheet name="market_prices" sheetId="8" r:id="rId16"/>
-    <sheet name="balance_prices" sheetId="20" r:id="rId17"/>
-    <sheet name="risk" sheetId="17" r:id="rId18"/>
-    <sheet name="scenarios" sheetId="9" r:id="rId19"/>
-    <sheet name="fixed_ts" sheetId="11" r:id="rId20"/>
-    <sheet name="eff_ts" sheetId="12" r:id="rId21"/>
-    <sheet name="constraints" sheetId="14" r:id="rId22"/>
-    <sheet name="gen_constraint" sheetId="15" r:id="rId23"/>
-    <sheet name="cap_ts" sheetId="16" r:id="rId24"/>
+    <sheet name="node_delay" sheetId="25" r:id="rId8"/>
+    <sheet name="node_diffusion" sheetId="24" r:id="rId9"/>
+    <sheet name="reserve_type" sheetId="13" r:id="rId10"/>
+    <sheet name="cf" sheetId="7" r:id="rId11"/>
+    <sheet name="inflow" sheetId="3" r:id="rId12"/>
+    <sheet name="inflow_blocks" sheetId="22" r:id="rId13"/>
+    <sheet name="price" sheetId="4" r:id="rId14"/>
+    <sheet name="markets" sheetId="5" r:id="rId15"/>
+    <sheet name="reserve_realisation" sheetId="23" r:id="rId16"/>
+    <sheet name="market_prices" sheetId="8" r:id="rId17"/>
+    <sheet name="balance_prices" sheetId="20" r:id="rId18"/>
+    <sheet name="risk" sheetId="17" r:id="rId19"/>
+    <sheet name="scenarios" sheetId="9" r:id="rId20"/>
+    <sheet name="fixed_ts" sheetId="11" r:id="rId21"/>
+    <sheet name="eff_ts" sheetId="12" r:id="rId22"/>
+    <sheet name="constraints" sheetId="14" r:id="rId23"/>
+    <sheet name="gen_constraint" sheetId="15" r:id="rId24"/>
+    <sheet name="cap_ts" sheetId="16" r:id="rId25"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -56,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="143">
   <si>
     <t>node</t>
   </si>
@@ -476,6 +477,15 @@
   </si>
   <si>
     <t>T_E_conversion</t>
+  </si>
+  <si>
+    <t>delay_t</t>
+  </si>
+  <si>
+    <t>min_flow</t>
+  </si>
+  <si>
+    <t>max_flow</t>
   </si>
 </sst>
 </file>
@@ -862,206 +872,206 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="7">
         <v>44671</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="7">
         <v>44671.041666666664</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" s="7">
         <v>44671.08333321759</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" s="7">
         <v>44671.124999826388</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" s="7">
         <v>44671.166666435187</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" s="7">
         <v>44671.208333043978</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" s="7">
         <v>44671.249999652777</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" s="7">
         <v>44671.291666261575</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" s="7">
         <v>44671.333332870374</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" s="7">
         <v>44671.374999479165</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" s="7">
         <v>44671.416666087964</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" s="7">
         <v>44671.458332696762</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" s="7">
         <v>44671.499999305554</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" s="7">
         <v>44671.541665914352</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" s="7">
         <v>44671.583332523151</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="7">
         <v>44671.624999131942</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="7">
         <v>44671.66666574074</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="7">
         <v>44671.708332349539</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="7">
         <v>44671.74999895833</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="7">
         <v>44671.791665567129</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" s="7">
         <v>44671.833332175927</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" s="7">
         <v>44671.874998784719</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" s="7">
         <v>44671.916665393517</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" s="7">
         <v>44671.958332002316</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" s="7"/>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" s="7"/>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28" s="7"/>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" s="7"/>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30" s="7"/>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" s="7"/>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A32" s="7"/>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" s="7"/>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" s="7"/>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" s="7"/>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36" s="7"/>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" s="7"/>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A38" s="7"/>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A39" s="7"/>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A40" s="7"/>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A41" s="7"/>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A42" s="7"/>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A43" s="7"/>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A44" s="7"/>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A45" s="7"/>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A46" s="7"/>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A47" s="7"/>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A48" s="7"/>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" s="7"/>
     </row>
   </sheetData>
@@ -1070,6 +1080,45 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0532F8A-0FB4-47AD-98A1-4065D3376432}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K20" sqref="K20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77A4637A-7829-48D6-AE54-2E654AB1A427}">
   <dimension ref="A1:L25"/>
   <sheetViews>
@@ -1077,14 +1126,14 @@
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" style="7" customWidth="1"/>
-    <col min="6" max="6" width="23.140625" customWidth="1"/>
-    <col min="12" max="12" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.33203125" style="7" customWidth="1"/>
+    <col min="6" max="6" width="23.109375" customWidth="1"/>
+    <col min="12" max="12" width="12.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>31</v>
       </c>
@@ -1102,7 +1151,7 @@
       </c>
       <c r="F1"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="7">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44671</v>
@@ -1124,7 +1173,7 @@
       <c r="F2" s="7"/>
       <c r="L2" s="7"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="7">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44671.041666666664</v>
@@ -1144,7 +1193,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="7">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44671.08333321759</v>
@@ -1164,7 +1213,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="7">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v>44671.124999826388</v>
@@ -1184,7 +1233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="7">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v>44671.166666435187</v>
@@ -1204,7 +1253,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="7">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v>44671.208333043978</v>
@@ -1224,7 +1273,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="7">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v>44671.249999652777</v>
@@ -1244,7 +1293,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="7">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v>44671.291666261575</v>
@@ -1264,7 +1313,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="7">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v>44671.333332870374</v>
@@ -1284,7 +1333,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="7">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v>44671.374999479165</v>
@@ -1304,7 +1353,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="7">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v>44671.416666087964</v>
@@ -1324,7 +1373,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="7">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v>44671.458332696762</v>
@@ -1344,7 +1393,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="7">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v>44671.499999305554</v>
@@ -1364,7 +1413,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="7">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v>44671.541665914352</v>
@@ -1384,7 +1433,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="7">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v>44671.583332523151</v>
@@ -1404,7 +1453,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="7">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v>44671.624999131942</v>
@@ -1424,7 +1473,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="7">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v>44671.66666574074</v>
@@ -1444,7 +1493,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="7">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v>44671.708332349539</v>
@@ -1464,7 +1513,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="7">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v>44671.74999895833</v>
@@ -1484,7 +1533,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="7">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v>44671.791665567129</v>
@@ -1504,7 +1553,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="7">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v>44671.833332175927</v>
@@ -1524,7 +1573,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="7">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v>44671.874998784719</v>
@@ -1544,7 +1593,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="7">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v>44671.916665393517</v>
@@ -1564,7 +1613,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="7">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v>44671.958332002316</v>
@@ -1582,722 +1631,6 @@
       <c r="E25">
         <f t="shared" si="1"/>
         <v>0.6</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F87DD44-A1AD-4241-AED7-C48CC9DEE2E2}">
-  <dimension ref="A1:G25"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="19.28515625" style="7" customWidth="1"/>
-    <col min="4" max="6" width="10.42578125" customWidth="1"/>
-    <col min="7" max="7" width="10.42578125" style="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="7">
-        <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
-        <v>44671</v>
-      </c>
-      <c r="B2">
-        <v>-5</v>
-      </c>
-      <c r="C2">
-        <v>-5</v>
-      </c>
-      <c r="D2">
-        <v>-5</v>
-      </c>
-      <c r="E2">
-        <f>1*C2</f>
-        <v>-5</v>
-      </c>
-      <c r="F2" s="2">
-        <f>1*B2</f>
-        <v>-5</v>
-      </c>
-      <c r="G2" s="2">
-        <f>1*C2</f>
-        <v>-5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="7">
-        <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
-        <v>44671.041666666664</v>
-      </c>
-      <c r="B3">
-        <v>-5</v>
-      </c>
-      <c r="C3">
-        <v>-5</v>
-      </c>
-      <c r="D3">
-        <f t="shared" ref="D3:D25" si="0">1*B3</f>
-        <v>-5</v>
-      </c>
-      <c r="E3">
-        <f t="shared" ref="E3:E25" si="1">1*C3</f>
-        <v>-5</v>
-      </c>
-      <c r="F3" s="2">
-        <f t="shared" ref="F3:F25" si="2">1*B3</f>
-        <v>-5</v>
-      </c>
-      <c r="G3" s="2">
-        <f t="shared" ref="G3:G25" si="3">1*C3</f>
-        <v>-5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="7">
-        <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
-        <v>44671.08333321759</v>
-      </c>
-      <c r="B4">
-        <v>-4</v>
-      </c>
-      <c r="C4">
-        <v>-6</v>
-      </c>
-      <c r="D4">
-        <f t="shared" si="0"/>
-        <v>-4</v>
-      </c>
-      <c r="E4">
-        <f t="shared" si="1"/>
-        <v>-6</v>
-      </c>
-      <c r="F4" s="2">
-        <f t="shared" si="2"/>
-        <v>-4</v>
-      </c>
-      <c r="G4" s="2">
-        <f t="shared" si="3"/>
-        <v>-6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="7">
-        <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
-        <v>44671.124999826388</v>
-      </c>
-      <c r="B5">
-        <v>-2</v>
-      </c>
-      <c r="C5">
-        <v>-3</v>
-      </c>
-      <c r="D5">
-        <f t="shared" si="0"/>
-        <v>-2</v>
-      </c>
-      <c r="E5">
-        <f t="shared" si="1"/>
-        <v>-3</v>
-      </c>
-      <c r="F5" s="2">
-        <f t="shared" si="2"/>
-        <v>-2</v>
-      </c>
-      <c r="G5" s="2">
-        <f t="shared" si="3"/>
-        <v>-3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="7">
-        <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
-        <v>44671.166666435187</v>
-      </c>
-      <c r="B6">
-        <v>-7</v>
-      </c>
-      <c r="C6">
-        <v>-4</v>
-      </c>
-      <c r="D6">
-        <f t="shared" si="0"/>
-        <v>-7</v>
-      </c>
-      <c r="E6">
-        <f t="shared" si="1"/>
-        <v>-4</v>
-      </c>
-      <c r="F6" s="2">
-        <f t="shared" si="2"/>
-        <v>-7</v>
-      </c>
-      <c r="G6" s="2">
-        <f t="shared" si="3"/>
-        <v>-4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="7">
-        <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
-        <v>44671.208333043978</v>
-      </c>
-      <c r="B7">
-        <v>-5</v>
-      </c>
-      <c r="C7">
-        <v>-5</v>
-      </c>
-      <c r="D7">
-        <f t="shared" si="0"/>
-        <v>-5</v>
-      </c>
-      <c r="E7">
-        <f t="shared" si="1"/>
-        <v>-5</v>
-      </c>
-      <c r="F7" s="2">
-        <f t="shared" si="2"/>
-        <v>-5</v>
-      </c>
-      <c r="G7" s="2">
-        <f t="shared" si="3"/>
-        <v>-5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="7">
-        <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
-        <v>44671.249999652777</v>
-      </c>
-      <c r="B8">
-        <v>-14</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <f t="shared" si="0"/>
-        <v>-14</v>
-      </c>
-      <c r="E8">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F8" s="2">
-        <f t="shared" si="2"/>
-        <v>-14</v>
-      </c>
-      <c r="G8" s="2">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="7">
-        <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
-        <v>44671.291666261575</v>
-      </c>
-      <c r="B9">
-        <v>-20</v>
-      </c>
-      <c r="C9">
-        <v>-2</v>
-      </c>
-      <c r="D9">
-        <f t="shared" si="0"/>
-        <v>-20</v>
-      </c>
-      <c r="E9">
-        <f t="shared" si="1"/>
-        <v>-2</v>
-      </c>
-      <c r="F9" s="2">
-        <f t="shared" si="2"/>
-        <v>-20</v>
-      </c>
-      <c r="G9" s="2">
-        <f t="shared" si="3"/>
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="7">
-        <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
-        <v>44671.333332870374</v>
-      </c>
-      <c r="B10">
-        <v>-13</v>
-      </c>
-      <c r="C10">
-        <v>-2</v>
-      </c>
-      <c r="D10">
-        <f t="shared" si="0"/>
-        <v>-13</v>
-      </c>
-      <c r="E10">
-        <f t="shared" si="1"/>
-        <v>-2</v>
-      </c>
-      <c r="F10" s="2">
-        <f t="shared" si="2"/>
-        <v>-13</v>
-      </c>
-      <c r="G10" s="2">
-        <f t="shared" si="3"/>
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="7">
-        <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
-        <v>44671.374999479165</v>
-      </c>
-      <c r="B11">
-        <v>-12</v>
-      </c>
-      <c r="C11">
-        <v>-5</v>
-      </c>
-      <c r="D11">
-        <f t="shared" si="0"/>
-        <v>-12</v>
-      </c>
-      <c r="E11">
-        <f t="shared" si="1"/>
-        <v>-5</v>
-      </c>
-      <c r="F11" s="2">
-        <f t="shared" si="2"/>
-        <v>-12</v>
-      </c>
-      <c r="G11" s="2">
-        <f t="shared" si="3"/>
-        <v>-5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="7">
-        <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
-        <v>44671.416666087964</v>
-      </c>
-      <c r="B12">
-        <v>-13</v>
-      </c>
-      <c r="C12">
-        <v>-2</v>
-      </c>
-      <c r="D12">
-        <f t="shared" si="0"/>
-        <v>-13</v>
-      </c>
-      <c r="E12">
-        <f t="shared" si="1"/>
-        <v>-2</v>
-      </c>
-      <c r="F12" s="2">
-        <f t="shared" si="2"/>
-        <v>-13</v>
-      </c>
-      <c r="G12" s="2">
-        <f t="shared" si="3"/>
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="7">
-        <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
-        <v>44671.458332696762</v>
-      </c>
-      <c r="B13">
-        <v>-14</v>
-      </c>
-      <c r="C13">
-        <v>-6</v>
-      </c>
-      <c r="D13">
-        <f t="shared" si="0"/>
-        <v>-14</v>
-      </c>
-      <c r="E13">
-        <f t="shared" si="1"/>
-        <v>-6</v>
-      </c>
-      <c r="F13" s="2">
-        <f t="shared" si="2"/>
-        <v>-14</v>
-      </c>
-      <c r="G13" s="2">
-        <f t="shared" si="3"/>
-        <v>-6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="7">
-        <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
-        <v>44671.499999305554</v>
-      </c>
-      <c r="B14">
-        <v>-18</v>
-      </c>
-      <c r="C14">
-        <v>-4</v>
-      </c>
-      <c r="D14">
-        <f t="shared" si="0"/>
-        <v>-18</v>
-      </c>
-      <c r="E14">
-        <f t="shared" si="1"/>
-        <v>-4</v>
-      </c>
-      <c r="F14" s="2">
-        <f t="shared" si="2"/>
-        <v>-18</v>
-      </c>
-      <c r="G14" s="2">
-        <f t="shared" si="3"/>
-        <v>-4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="7">
-        <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
-        <v>44671.541665914352</v>
-      </c>
-      <c r="B15">
-        <v>-14</v>
-      </c>
-      <c r="C15">
-        <v>-3</v>
-      </c>
-      <c r="D15">
-        <f t="shared" si="0"/>
-        <v>-14</v>
-      </c>
-      <c r="E15">
-        <f t="shared" si="1"/>
-        <v>-3</v>
-      </c>
-      <c r="F15" s="2">
-        <f t="shared" si="2"/>
-        <v>-14</v>
-      </c>
-      <c r="G15" s="2">
-        <f t="shared" si="3"/>
-        <v>-3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="7">
-        <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
-        <v>44671.583332523151</v>
-      </c>
-      <c r="B16">
-        <v>-15</v>
-      </c>
-      <c r="C16">
-        <v>-5</v>
-      </c>
-      <c r="D16">
-        <f t="shared" si="0"/>
-        <v>-15</v>
-      </c>
-      <c r="E16">
-        <f t="shared" si="1"/>
-        <v>-5</v>
-      </c>
-      <c r="F16" s="2">
-        <f t="shared" si="2"/>
-        <v>-15</v>
-      </c>
-      <c r="G16" s="2">
-        <f t="shared" si="3"/>
-        <v>-5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="7">
-        <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
-        <v>44671.624999131942</v>
-      </c>
-      <c r="B17">
-        <v>-14</v>
-      </c>
-      <c r="C17">
-        <v>-1</v>
-      </c>
-      <c r="D17">
-        <f t="shared" si="0"/>
-        <v>-14</v>
-      </c>
-      <c r="E17">
-        <f t="shared" si="1"/>
-        <v>-1</v>
-      </c>
-      <c r="F17" s="2">
-        <f t="shared" si="2"/>
-        <v>-14</v>
-      </c>
-      <c r="G17" s="2">
-        <f t="shared" si="3"/>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="7">
-        <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
-        <v>44671.66666574074</v>
-      </c>
-      <c r="B18">
-        <v>-20</v>
-      </c>
-      <c r="C18">
-        <v>-5</v>
-      </c>
-      <c r="D18">
-        <f t="shared" si="0"/>
-        <v>-20</v>
-      </c>
-      <c r="E18">
-        <f t="shared" si="1"/>
-        <v>-5</v>
-      </c>
-      <c r="F18" s="2">
-        <f t="shared" si="2"/>
-        <v>-20</v>
-      </c>
-      <c r="G18" s="2">
-        <f t="shared" si="3"/>
-        <v>-5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="7">
-        <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
-        <v>44671.708332349539</v>
-      </c>
-      <c r="B19">
-        <v>-20</v>
-      </c>
-      <c r="C19">
-        <v>-4</v>
-      </c>
-      <c r="D19">
-        <f t="shared" si="0"/>
-        <v>-20</v>
-      </c>
-      <c r="E19">
-        <f t="shared" si="1"/>
-        <v>-4</v>
-      </c>
-      <c r="F19" s="2">
-        <f t="shared" si="2"/>
-        <v>-20</v>
-      </c>
-      <c r="G19" s="2">
-        <f t="shared" si="3"/>
-        <v>-4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="7">
-        <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
-        <v>44671.74999895833</v>
-      </c>
-      <c r="B20">
-        <v>-20</v>
-      </c>
-      <c r="C20">
-        <v>0</v>
-      </c>
-      <c r="D20">
-        <f t="shared" si="0"/>
-        <v>-20</v>
-      </c>
-      <c r="E20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F20" s="2">
-        <f t="shared" si="2"/>
-        <v>-20</v>
-      </c>
-      <c r="G20" s="2">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="7">
-        <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
-        <v>44671.791665567129</v>
-      </c>
-      <c r="B21">
-        <v>-20</v>
-      </c>
-      <c r="C21">
-        <v>-1</v>
-      </c>
-      <c r="D21">
-        <f t="shared" si="0"/>
-        <v>-20</v>
-      </c>
-      <c r="E21">
-        <f t="shared" si="1"/>
-        <v>-1</v>
-      </c>
-      <c r="F21" s="2">
-        <f t="shared" si="2"/>
-        <v>-20</v>
-      </c>
-      <c r="G21" s="2">
-        <f t="shared" si="3"/>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="7">
-        <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
-        <v>44671.833332175927</v>
-      </c>
-      <c r="B22">
-        <v>-16</v>
-      </c>
-      <c r="C22">
-        <v>-4</v>
-      </c>
-      <c r="D22">
-        <f t="shared" si="0"/>
-        <v>-16</v>
-      </c>
-      <c r="E22">
-        <f t="shared" si="1"/>
-        <v>-4</v>
-      </c>
-      <c r="F22" s="2">
-        <f t="shared" si="2"/>
-        <v>-16</v>
-      </c>
-      <c r="G22" s="2">
-        <f t="shared" si="3"/>
-        <v>-4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="7">
-        <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
-        <v>44671.874998784719</v>
-      </c>
-      <c r="B23">
-        <v>-14</v>
-      </c>
-      <c r="C23">
-        <v>-5</v>
-      </c>
-      <c r="D23">
-        <f t="shared" si="0"/>
-        <v>-14</v>
-      </c>
-      <c r="E23">
-        <f t="shared" si="1"/>
-        <v>-5</v>
-      </c>
-      <c r="F23" s="2">
-        <f t="shared" si="2"/>
-        <v>-14</v>
-      </c>
-      <c r="G23" s="2">
-        <f t="shared" si="3"/>
-        <v>-5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="7">
-        <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
-        <v>44671.916665393517</v>
-      </c>
-      <c r="B24">
-        <v>-11</v>
-      </c>
-      <c r="C24">
-        <v>-1</v>
-      </c>
-      <c r="D24">
-        <f t="shared" si="0"/>
-        <v>-11</v>
-      </c>
-      <c r="E24">
-        <f t="shared" si="1"/>
-        <v>-1</v>
-      </c>
-      <c r="F24" s="2">
-        <f t="shared" si="2"/>
-        <v>-11</v>
-      </c>
-      <c r="G24" s="2">
-        <f t="shared" si="3"/>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="7">
-        <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
-        <v>44671.958332002316</v>
-      </c>
-      <c r="B25">
-        <v>-9</v>
-      </c>
-      <c r="C25">
-        <v>-3</v>
-      </c>
-      <c r="D25">
-        <f t="shared" si="0"/>
-        <v>-9</v>
-      </c>
-      <c r="E25">
-        <f t="shared" si="1"/>
-        <v>-3</v>
-      </c>
-      <c r="F25" s="2">
-        <f t="shared" si="2"/>
-        <v>-9</v>
-      </c>
-      <c r="G25" s="2">
-        <f t="shared" si="3"/>
-        <v>-3</v>
       </c>
     </row>
   </sheetData>
@@ -2308,6 +1641,722 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F87DD44-A1AD-4241-AED7-C48CC9DEE2E2}">
+  <dimension ref="A1:G25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="19.33203125" style="7" customWidth="1"/>
+    <col min="4" max="6" width="10.44140625" customWidth="1"/>
+    <col min="7" max="7" width="10.44140625" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="7">
+        <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
+        <v>44671</v>
+      </c>
+      <c r="B2">
+        <v>-5</v>
+      </c>
+      <c r="C2">
+        <v>-5</v>
+      </c>
+      <c r="D2">
+        <v>-5</v>
+      </c>
+      <c r="E2">
+        <f>1*C2</f>
+        <v>-5</v>
+      </c>
+      <c r="F2" s="2">
+        <f>1*B2</f>
+        <v>-5</v>
+      </c>
+      <c r="G2" s="2">
+        <f>1*C2</f>
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="7">
+        <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
+        <v>44671.041666666664</v>
+      </c>
+      <c r="B3">
+        <v>-5</v>
+      </c>
+      <c r="C3">
+        <v>-5</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ref="D3:D25" si="0">1*B3</f>
+        <v>-5</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E25" si="1">1*C3</f>
+        <v>-5</v>
+      </c>
+      <c r="F3" s="2">
+        <f t="shared" ref="F3:F25" si="2">1*B3</f>
+        <v>-5</v>
+      </c>
+      <c r="G3" s="2">
+        <f t="shared" ref="G3:G25" si="3">1*C3</f>
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="7">
+        <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
+        <v>44671.08333321759</v>
+      </c>
+      <c r="B4">
+        <v>-4</v>
+      </c>
+      <c r="C4">
+        <v>-6</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="0"/>
+        <v>-4</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="1"/>
+        <v>-6</v>
+      </c>
+      <c r="F4" s="2">
+        <f t="shared" si="2"/>
+        <v>-4</v>
+      </c>
+      <c r="G4" s="2">
+        <f t="shared" si="3"/>
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="7">
+        <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
+        <v>44671.124999826388</v>
+      </c>
+      <c r="B5">
+        <v>-2</v>
+      </c>
+      <c r="C5">
+        <v>-3</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>-2</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="1"/>
+        <v>-3</v>
+      </c>
+      <c r="F5" s="2">
+        <f t="shared" si="2"/>
+        <v>-2</v>
+      </c>
+      <c r="G5" s="2">
+        <f t="shared" si="3"/>
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="7">
+        <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
+        <v>44671.166666435187</v>
+      </c>
+      <c r="B6">
+        <v>-7</v>
+      </c>
+      <c r="C6">
+        <v>-4</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>-7</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="1"/>
+        <v>-4</v>
+      </c>
+      <c r="F6" s="2">
+        <f t="shared" si="2"/>
+        <v>-7</v>
+      </c>
+      <c r="G6" s="2">
+        <f t="shared" si="3"/>
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="7">
+        <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
+        <v>44671.208333043978</v>
+      </c>
+      <c r="B7">
+        <v>-5</v>
+      </c>
+      <c r="C7">
+        <v>-5</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>-5</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="1"/>
+        <v>-5</v>
+      </c>
+      <c r="F7" s="2">
+        <f t="shared" si="2"/>
+        <v>-5</v>
+      </c>
+      <c r="G7" s="2">
+        <f t="shared" si="3"/>
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="7">
+        <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
+        <v>44671.249999652777</v>
+      </c>
+      <c r="B8">
+        <v>-14</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>-14</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F8" s="2">
+        <f t="shared" si="2"/>
+        <v>-14</v>
+      </c>
+      <c r="G8" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="7">
+        <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
+        <v>44671.291666261575</v>
+      </c>
+      <c r="B9">
+        <v>-20</v>
+      </c>
+      <c r="C9">
+        <v>-2</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>-20</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="1"/>
+        <v>-2</v>
+      </c>
+      <c r="F9" s="2">
+        <f t="shared" si="2"/>
+        <v>-20</v>
+      </c>
+      <c r="G9" s="2">
+        <f t="shared" si="3"/>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="7">
+        <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
+        <v>44671.333332870374</v>
+      </c>
+      <c r="B10">
+        <v>-13</v>
+      </c>
+      <c r="C10">
+        <v>-2</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>-13</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="1"/>
+        <v>-2</v>
+      </c>
+      <c r="F10" s="2">
+        <f t="shared" si="2"/>
+        <v>-13</v>
+      </c>
+      <c r="G10" s="2">
+        <f t="shared" si="3"/>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="7">
+        <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
+        <v>44671.374999479165</v>
+      </c>
+      <c r="B11">
+        <v>-12</v>
+      </c>
+      <c r="C11">
+        <v>-5</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>-12</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="1"/>
+        <v>-5</v>
+      </c>
+      <c r="F11" s="2">
+        <f t="shared" si="2"/>
+        <v>-12</v>
+      </c>
+      <c r="G11" s="2">
+        <f t="shared" si="3"/>
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="7">
+        <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
+        <v>44671.416666087964</v>
+      </c>
+      <c r="B12">
+        <v>-13</v>
+      </c>
+      <c r="C12">
+        <v>-2</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>-13</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="1"/>
+        <v>-2</v>
+      </c>
+      <c r="F12" s="2">
+        <f t="shared" si="2"/>
+        <v>-13</v>
+      </c>
+      <c r="G12" s="2">
+        <f t="shared" si="3"/>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="7">
+        <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
+        <v>44671.458332696762</v>
+      </c>
+      <c r="B13">
+        <v>-14</v>
+      </c>
+      <c r="C13">
+        <v>-6</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="0"/>
+        <v>-14</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="1"/>
+        <v>-6</v>
+      </c>
+      <c r="F13" s="2">
+        <f t="shared" si="2"/>
+        <v>-14</v>
+      </c>
+      <c r="G13" s="2">
+        <f t="shared" si="3"/>
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="7">
+        <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
+        <v>44671.499999305554</v>
+      </c>
+      <c r="B14">
+        <v>-18</v>
+      </c>
+      <c r="C14">
+        <v>-4</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="0"/>
+        <v>-18</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="1"/>
+        <v>-4</v>
+      </c>
+      <c r="F14" s="2">
+        <f t="shared" si="2"/>
+        <v>-18</v>
+      </c>
+      <c r="G14" s="2">
+        <f t="shared" si="3"/>
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="7">
+        <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
+        <v>44671.541665914352</v>
+      </c>
+      <c r="B15">
+        <v>-14</v>
+      </c>
+      <c r="C15">
+        <v>-3</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="0"/>
+        <v>-14</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="1"/>
+        <v>-3</v>
+      </c>
+      <c r="F15" s="2">
+        <f t="shared" si="2"/>
+        <v>-14</v>
+      </c>
+      <c r="G15" s="2">
+        <f t="shared" si="3"/>
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="7">
+        <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
+        <v>44671.583332523151</v>
+      </c>
+      <c r="B16">
+        <v>-15</v>
+      </c>
+      <c r="C16">
+        <v>-5</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="0"/>
+        <v>-15</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="1"/>
+        <v>-5</v>
+      </c>
+      <c r="F16" s="2">
+        <f t="shared" si="2"/>
+        <v>-15</v>
+      </c>
+      <c r="G16" s="2">
+        <f t="shared" si="3"/>
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="7">
+        <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
+        <v>44671.624999131942</v>
+      </c>
+      <c r="B17">
+        <v>-14</v>
+      </c>
+      <c r="C17">
+        <v>-1</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="0"/>
+        <v>-14</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="F17" s="2">
+        <f t="shared" si="2"/>
+        <v>-14</v>
+      </c>
+      <c r="G17" s="2">
+        <f t="shared" si="3"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="7">
+        <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
+        <v>44671.66666574074</v>
+      </c>
+      <c r="B18">
+        <v>-20</v>
+      </c>
+      <c r="C18">
+        <v>-5</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="0"/>
+        <v>-20</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="1"/>
+        <v>-5</v>
+      </c>
+      <c r="F18" s="2">
+        <f t="shared" si="2"/>
+        <v>-20</v>
+      </c>
+      <c r="G18" s="2">
+        <f t="shared" si="3"/>
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="7">
+        <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
+        <v>44671.708332349539</v>
+      </c>
+      <c r="B19">
+        <v>-20</v>
+      </c>
+      <c r="C19">
+        <v>-4</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="0"/>
+        <v>-20</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="1"/>
+        <v>-4</v>
+      </c>
+      <c r="F19" s="2">
+        <f t="shared" si="2"/>
+        <v>-20</v>
+      </c>
+      <c r="G19" s="2">
+        <f t="shared" si="3"/>
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="7">
+        <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
+        <v>44671.74999895833</v>
+      </c>
+      <c r="B20">
+        <v>-20</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="0"/>
+        <v>-20</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F20" s="2">
+        <f t="shared" si="2"/>
+        <v>-20</v>
+      </c>
+      <c r="G20" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" s="7">
+        <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
+        <v>44671.791665567129</v>
+      </c>
+      <c r="B21">
+        <v>-20</v>
+      </c>
+      <c r="C21">
+        <v>-1</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="0"/>
+        <v>-20</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="F21" s="2">
+        <f t="shared" si="2"/>
+        <v>-20</v>
+      </c>
+      <c r="G21" s="2">
+        <f t="shared" si="3"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" s="7">
+        <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
+        <v>44671.833332175927</v>
+      </c>
+      <c r="B22">
+        <v>-16</v>
+      </c>
+      <c r="C22">
+        <v>-4</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="0"/>
+        <v>-16</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="1"/>
+        <v>-4</v>
+      </c>
+      <c r="F22" s="2">
+        <f t="shared" si="2"/>
+        <v>-16</v>
+      </c>
+      <c r="G22" s="2">
+        <f t="shared" si="3"/>
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" s="7">
+        <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
+        <v>44671.874998784719</v>
+      </c>
+      <c r="B23">
+        <v>-14</v>
+      </c>
+      <c r="C23">
+        <v>-5</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="0"/>
+        <v>-14</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="1"/>
+        <v>-5</v>
+      </c>
+      <c r="F23" s="2">
+        <f t="shared" si="2"/>
+        <v>-14</v>
+      </c>
+      <c r="G23" s="2">
+        <f t="shared" si="3"/>
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" s="7">
+        <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
+        <v>44671.916665393517</v>
+      </c>
+      <c r="B24">
+        <v>-11</v>
+      </c>
+      <c r="C24">
+        <v>-1</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="0"/>
+        <v>-11</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="F24" s="2">
+        <f t="shared" si="2"/>
+        <v>-11</v>
+      </c>
+      <c r="G24" s="2">
+        <f t="shared" si="3"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" s="7">
+        <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
+        <v>44671.958332002316</v>
+      </c>
+      <c r="B25">
+        <v>-9</v>
+      </c>
+      <c r="C25">
+        <v>-3</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="0"/>
+        <v>-9</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="1"/>
+        <v>-3</v>
+      </c>
+      <c r="F25" s="2">
+        <f t="shared" si="2"/>
+        <v>-9</v>
+      </c>
+      <c r="G25" s="2">
+        <f t="shared" si="3"/>
+        <v>-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{098BD40C-3F1E-4DCA-B153-EDE213641CC0}">
   <dimension ref="A1:F17"/>
   <sheetViews>
@@ -2315,82 +2364,82 @@
       <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="6" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.7109375" customWidth="1"/>
+    <col min="3" max="6" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="C2" s="7"/>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="C3" s="7"/>
       <c r="E3" s="7"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="C4" s="7"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="C5" s="7"/>
       <c r="E5" s="7"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
     </row>
-    <row r="17" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
       <c r="E17" s="7"/>
@@ -2401,7 +2450,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02307C1F-427B-487D-B703-EBF512D7AC27}">
   <dimension ref="A1:B25"/>
   <sheetViews>
@@ -2409,12 +2458,12 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" style="7" customWidth="1"/>
+    <col min="1" max="1" width="19.33203125" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>31</v>
       </c>
@@ -2422,7 +2471,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="7">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44671</v>
@@ -2431,7 +2480,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="7">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44671.041666666664</v>
@@ -2440,7 +2489,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="7">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44671.08333321759</v>
@@ -2449,7 +2498,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="7">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v>44671.124999826388</v>
@@ -2458,7 +2507,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="7">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v>44671.166666435187</v>
@@ -2467,7 +2516,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="7">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v>44671.208333043978</v>
@@ -2476,7 +2525,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="7">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v>44671.249999652777</v>
@@ -2485,7 +2534,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="7">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v>44671.291666261575</v>
@@ -2494,7 +2543,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="7">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v>44671.333332870374</v>
@@ -2503,7 +2552,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="7">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v>44671.374999479165</v>
@@ -2512,7 +2561,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="7">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v>44671.416666087964</v>
@@ -2521,7 +2570,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="7">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v>44671.458332696762</v>
@@ -2530,7 +2579,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="7">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v>44671.499999305554</v>
@@ -2539,7 +2588,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="7">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v>44671.541665914352</v>
@@ -2548,7 +2597,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="7">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v>44671.583332523151</v>
@@ -2557,7 +2606,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="7">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v>44671.624999131942</v>
@@ -2566,7 +2615,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="7">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v>44671.66666574074</v>
@@ -2575,7 +2624,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="7">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v>44671.708332349539</v>
@@ -2584,7 +2633,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="7">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v>44671.74999895833</v>
@@ -2593,7 +2642,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="7">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v>44671.791665567129</v>
@@ -2602,7 +2651,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="7">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v>44671.833332175927</v>
@@ -2611,7 +2660,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="7">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v>44671.874998784719</v>
@@ -2620,7 +2669,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="7">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v>44671.916665393517</v>
@@ -2629,211 +2678,13 @@
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="7">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v>44671.958332002316</v>
       </c>
       <c r="B25">
         <v>12</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3788A93-7501-4F5D-9E8F-38D329CC85EC}">
-  <dimension ref="A1:K5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="G2">
-        <v>1</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2" s="6">
-        <v>0</v>
-      </c>
-      <c r="J2" s="6">
-        <v>0</v>
-      </c>
-      <c r="K2" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="G3">
-        <v>1</v>
-      </c>
-      <c r="H3">
-        <v>1</v>
-      </c>
-      <c r="I3" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="J3" s="6">
-        <v>10</v>
-      </c>
-      <c r="K3" s="6">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="G4">
-        <v>1</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4" s="6">
-        <v>0</v>
-      </c>
-      <c r="J4" s="6">
-        <v>0</v>
-      </c>
-      <c r="K4" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="G5">
-        <v>1</v>
-      </c>
-      <c r="H5">
-        <v>1</v>
-      </c>
-      <c r="I5" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="J5" s="6">
-        <v>5</v>
-      </c>
-      <c r="K5" s="6">
-        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -2842,6 +2693,204 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3788A93-7501-4F5D-9E8F-38D329CC85EC}">
+  <dimension ref="A1:K5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2" s="6">
+        <v>0</v>
+      </c>
+      <c r="J2" s="6">
+        <v>0</v>
+      </c>
+      <c r="K2" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="J3" s="6">
+        <v>10</v>
+      </c>
+      <c r="K3" s="6">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4" s="6">
+        <v>0</v>
+      </c>
+      <c r="J4" s="6">
+        <v>0</v>
+      </c>
+      <c r="K4" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="J5" s="6">
+        <v>5</v>
+      </c>
+      <c r="K5" s="6">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E21372C5-DB60-4318-868D-D4FA20FECD5D}">
   <dimension ref="A1:D4"/>
   <sheetViews>
@@ -2849,13 +2898,13 @@
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="6.5703125" customWidth="1"/>
+    <col min="1" max="1" width="13.44140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="6.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>130</v>
       </c>
@@ -2869,7 +2918,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>40</v>
       </c>
@@ -2883,7 +2932,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>41</v>
       </c>
@@ -2897,7 +2946,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>42</v>
       </c>
@@ -2916,7 +2965,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF6DDD9A-EF34-4108-8532-230729E9C708}">
   <dimension ref="A1:M25"/>
   <sheetViews>
@@ -2924,14 +2973,14 @@
       <selection activeCell="P16" sqref="P16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" style="7" customWidth="1"/>
-    <col min="2" max="5" width="11.42578125" customWidth="1"/>
-    <col min="6" max="13" width="11.140625" customWidth="1"/>
+    <col min="1" max="1" width="19.33203125" style="7" customWidth="1"/>
+    <col min="2" max="5" width="11.44140625" customWidth="1"/>
+    <col min="6" max="13" width="11.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>31</v>
       </c>
@@ -2972,7 +3021,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="7">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44671</v>
@@ -3014,7 +3063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="7">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44671.041666666664</v>
@@ -3056,7 +3105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="7">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44671.08333321759</v>
@@ -3098,7 +3147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="7">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v>44671.124999826388</v>
@@ -3140,7 +3189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="7">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v>44671.166666435187</v>
@@ -3182,7 +3231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="7">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v>44671.208333043978</v>
@@ -3224,7 +3273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="7">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v>44671.249999652777</v>
@@ -3266,7 +3315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="7">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v>44671.291666261575</v>
@@ -3308,7 +3357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="7">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v>44671.333332870374</v>
@@ -3350,7 +3399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="7">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v>44671.374999479165</v>
@@ -3392,7 +3441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="7">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v>44671.416666087964</v>
@@ -3434,7 +3483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="7">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v>44671.458332696762</v>
@@ -3476,7 +3525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="7">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v>44671.499999305554</v>
@@ -3518,7 +3567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="7">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v>44671.541665914352</v>
@@ -3560,7 +3609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="7">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v>44671.583332523151</v>
@@ -3602,7 +3651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" s="7">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v>44671.624999131942</v>
@@ -3644,7 +3693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" s="7">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v>44671.66666574074</v>
@@ -3686,7 +3735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" s="7">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v>44671.708332349539</v>
@@ -3728,7 +3777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" s="7">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v>44671.74999895833</v>
@@ -3770,7 +3819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" s="7">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v>44671.791665567129</v>
@@ -3812,7 +3861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" s="7">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v>44671.833332175927</v>
@@ -3854,7 +3903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" s="7">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v>44671.874998784719</v>
@@ -3896,7 +3945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" s="7">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v>44671.916665393517</v>
@@ -3938,7 +3987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" s="7">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v>44671.958332002316</v>
@@ -3986,7 +4035,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{817FDE8F-BC70-48D0-8376-FB52E6946AF1}">
   <dimension ref="A1:G25"/>
   <sheetViews>
@@ -3994,14 +4043,14 @@
       <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="10.28515625" customWidth="1"/>
-    <col min="5" max="7" width="11.7109375" customWidth="1"/>
+    <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="10.33203125" customWidth="1"/>
+    <col min="5" max="7" width="11.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>31</v>
       </c>
@@ -4024,7 +4073,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="7">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44671</v>
@@ -4054,7 +4103,7 @@
         <v>21.6</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="7">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44671.041666666664</v>
@@ -4084,7 +4133,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="7">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44671.08333321759</v>
@@ -4114,7 +4163,7 @@
         <v>26.1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="7">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v>44671.124999826388</v>
@@ -4144,7 +4193,7 @@
         <v>22.95</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="7">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v>44671.166666435187</v>
@@ -4174,7 +4223,7 @@
         <v>16.650000000000002</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="7">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v>44671.208333043978</v>
@@ -4204,7 +4253,7 @@
         <v>15.3</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="7">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v>44671.249999652777</v>
@@ -4234,7 +4283,7 @@
         <v>20.25</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="7">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v>44671.291666261575</v>
@@ -4264,7 +4313,7 @@
         <v>18.45</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="7">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v>44671.333332870374</v>
@@ -4294,7 +4343,7 @@
         <v>24.75</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="7">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v>44671.374999479165</v>
@@ -4324,7 +4373,7 @@
         <v>26.55</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="7">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v>44671.416666087964</v>
@@ -4354,7 +4403,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="7">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v>44671.458332696762</v>
@@ -4384,7 +4433,7 @@
         <v>18.45</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="7">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v>44671.499999305554</v>
@@ -4414,7 +4463,7 @@
         <v>20.7</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="7">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v>44671.541665914352</v>
@@ -4444,7 +4493,7 @@
         <v>17.100000000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="7">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v>44671.583332523151</v>
@@ -4474,7 +4523,7 @@
         <v>20.7</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="7">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v>44671.624999131942</v>
@@ -4504,7 +4553,7 @@
         <v>20.25</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="7">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v>44671.66666574074</v>
@@ -4534,7 +4583,7 @@
         <v>18.45</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="7">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v>44671.708332349539</v>
@@ -4564,7 +4613,7 @@
         <v>20.7</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="7">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v>44671.74999895833</v>
@@ -4594,7 +4643,7 @@
         <v>23.400000000000002</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="7">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v>44671.791665567129</v>
@@ -4624,7 +4673,7 @@
         <v>25.2</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="7">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v>44671.833332175927</v>
@@ -4654,7 +4703,7 @@
         <v>14.85</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="7">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v>44671.874998784719</v>
@@ -4684,7 +4733,7 @@
         <v>19.350000000000001</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="7">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v>44671.916665393517</v>
@@ -4714,7 +4763,7 @@
         <v>25.650000000000002</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="7">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v>44671.958332002316</v>
@@ -4750,7 +4799,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9314D326-256A-435C-AAE3-3517FA836EAE}">
   <dimension ref="A1:B3"/>
   <sheetViews>
@@ -4758,12 +4807,12 @@
       <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>104</v>
       </c>
@@ -4771,7 +4820,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>106</v>
       </c>
@@ -4779,58 +4828,11 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>107</v>
       </c>
       <c r="B3">
-        <v>0.2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A87AD413-E614-48C1-80E1-F1E8236FCBC6}">
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B2">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B3">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>50</v>
-      </c>
-      <c r="B4">
         <v>0.2</v>
       </c>
     </row>
@@ -4843,24 +4845,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04A1B16B-CDA9-46BD-BA51-731AA9327652}">
   <dimension ref="A1:O7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -4907,7 +4909,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -4954,7 +4956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -5001,7 +5003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -5048,7 +5050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -5095,7 +5097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>35</v>
       </c>
@@ -5142,7 +5144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
@@ -5161,6 +5163,53 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A87AD413-E614-48C1-80E1-F1E8236FCBC6}">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4">
+        <v>0.2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31679CA5-0AA2-4F6F-8223-14BF74917F04}">
   <dimension ref="A1:B25"/>
   <sheetViews>
@@ -5168,162 +5217,162 @@
       <selection activeCell="L31" sqref="L31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" style="7" customWidth="1"/>
+    <col min="1" max="1" width="19.33203125" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="7">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44671</v>
       </c>
       <c r="B2" s="2"/>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="7">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44671.041666666664</v>
       </c>
       <c r="B3" s="2"/>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="7">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44671.08333321759</v>
       </c>
       <c r="B4" s="2"/>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="7">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v>44671.124999826388</v>
       </c>
       <c r="B5" s="2"/>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="7">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v>44671.166666435187</v>
       </c>
       <c r="B6" s="2"/>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="7">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v>44671.208333043978</v>
       </c>
       <c r="B7" s="2"/>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="7">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v>44671.249999652777</v>
       </c>
       <c r="B8" s="2"/>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="7">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v>44671.291666261575</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="7">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v>44671.333332870374</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="7">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v>44671.374999479165</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="7">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v>44671.416666087964</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="7">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v>44671.458332696762</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="7">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v>44671.499999305554</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="7">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v>44671.541665914352</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="7">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v>44671.583332523151</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="7">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v>44671.624999131942</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="7">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v>44671.66666574074</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="7">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v>44671.708332349539</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="7">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v>44671.74999895833</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="7">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v>44671.791665567129</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" s="7">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v>44671.833332175927</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" s="7">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v>44671.874998784719</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" s="7">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v>44671.916665393517</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" s="7">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v>44671.958332002316</v>
@@ -5334,7 +5383,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD670E02-665B-45B8-BC4E-9596D2C1BC55}">
   <dimension ref="A1:D25"/>
   <sheetViews>
@@ -5342,12 +5391,12 @@
       <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" style="7" customWidth="1"/>
+    <col min="1" max="1" width="19.33203125" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>31</v>
       </c>
@@ -5361,7 +5410,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="7">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44671</v>
@@ -5376,7 +5425,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="7">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44671.041666666664</v>
@@ -5391,7 +5440,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="7">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44671.08333321759</v>
@@ -5406,7 +5455,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="7">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v>44671.124999826388</v>
@@ -5421,7 +5470,7 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="7">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v>44671.166666435187</v>
@@ -5436,7 +5485,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="7">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v>44671.208333043978</v>
@@ -5451,7 +5500,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="7">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v>44671.249999652777</v>
@@ -5466,7 +5515,7 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="7">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v>44671.291666261575</v>
@@ -5481,7 +5530,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="7">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v>44671.333332870374</v>
@@ -5496,7 +5545,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="7">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v>44671.374999479165</v>
@@ -5511,7 +5560,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="7">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v>44671.416666087964</v>
@@ -5526,7 +5575,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="7">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v>44671.458332696762</v>
@@ -5541,7 +5590,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="7">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v>44671.499999305554</v>
@@ -5556,7 +5605,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="7">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v>44671.541665914352</v>
@@ -5571,7 +5620,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="7">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v>44671.583332523151</v>
@@ -5586,7 +5635,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="7">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v>44671.624999131942</v>
@@ -5601,7 +5650,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="7">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v>44671.66666574074</v>
@@ -5616,7 +5665,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="7">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v>44671.708332349539</v>
@@ -5631,7 +5680,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="7">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v>44671.74999895833</v>
@@ -5646,7 +5695,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="7">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v>44671.791665567129</v>
@@ -5661,7 +5710,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="7">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v>44671.833332175927</v>
@@ -5676,7 +5725,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="7">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v>44671.874998784719</v>
@@ -5691,7 +5740,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="7">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v>44671.916665393517</v>
@@ -5706,7 +5755,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="7">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v>44671.958332002316</v>
@@ -5727,7 +5776,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5704FC51-737E-45F9-9A9E-85A96AFE5439}">
   <dimension ref="A1:M9"/>
   <sheetViews>
@@ -5735,14 +5784,14 @@
       <selection activeCell="C1" sqref="C1:D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>46</v>
       </c>
@@ -5756,7 +5805,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>88</v>
       </c>
@@ -5770,7 +5819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
@@ -5781,7 +5830,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE12AB76-2BDA-4ACA-A128-8CFB9FB6C8F8}">
   <dimension ref="A1:J25"/>
   <sheetViews>
@@ -5789,15 +5838,15 @@
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" style="7" customWidth="1"/>
-    <col min="2" max="4" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.33203125" style="7" customWidth="1"/>
+    <col min="2" max="4" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="5.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>31</v>
       </c>
@@ -5829,7 +5878,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="7">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44671</v>
@@ -5862,7 +5911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="7">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44671.041666666664</v>
@@ -5895,7 +5944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="7">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44671.08333321759</v>
@@ -5928,7 +5977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="7">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v>44671.124999826388</v>
@@ -5961,7 +6010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="7">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v>44671.166666435187</v>
@@ -5994,7 +6043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="7">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v>44671.208333043978</v>
@@ -6027,7 +6076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="7">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v>44671.249999652777</v>
@@ -6060,7 +6109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="7">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v>44671.291666261575</v>
@@ -6093,7 +6142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="7">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v>44671.333332870374</v>
@@ -6126,7 +6175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="7">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v>44671.374999479165</v>
@@ -6159,7 +6208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="7">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v>44671.416666087964</v>
@@ -6192,7 +6241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="7">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v>44671.458332696762</v>
@@ -6225,7 +6274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="7">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v>44671.499999305554</v>
@@ -6258,7 +6307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="7">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v>44671.541665914352</v>
@@ -6291,7 +6340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="7">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v>44671.583332523151</v>
@@ -6324,7 +6373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="7">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v>44671.624999131942</v>
@@ -6357,7 +6406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="7">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v>44671.66666574074</v>
@@ -6390,7 +6439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="7">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v>44671.708332349539</v>
@@ -6423,7 +6472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="7">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v>44671.74999895833</v>
@@ -6456,7 +6505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="7">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v>44671.791665567129</v>
@@ -6489,7 +6538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="7">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v>44671.833332175927</v>
@@ -6522,7 +6571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="7">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v>44671.874998784719</v>
@@ -6555,7 +6604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="7">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v>44671.916665393517</v>
@@ -6588,7 +6637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="7">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v>44671.958332002316</v>
@@ -6626,7 +6675,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7FEDBA5-B0F3-4E9D-9367-08D5F5FA8AEA}">
   <dimension ref="A1:D25"/>
   <sheetViews>
@@ -6634,12 +6683,12 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" style="7" customWidth="1"/>
+    <col min="1" max="1" width="19.33203125" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>31</v>
       </c>
@@ -6653,7 +6702,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="7">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44671</v>
@@ -6668,7 +6717,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="7">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44671.041666666664</v>
@@ -6683,7 +6732,7 @@
         <v>4.2857142857142856</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="7">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44671.08333321759</v>
@@ -6698,7 +6747,7 @@
         <v>4.2857142857142856</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="7">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v>44671.124999826388</v>
@@ -6713,7 +6762,7 @@
         <v>4.4117647058823533</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="7">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v>44671.166666435187</v>
@@ -6728,7 +6777,7 @@
         <v>4.5454545454545459</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="7">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v>44671.208333043978</v>
@@ -6743,7 +6792,7 @@
         <v>4.6875</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="7">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v>44671.249999652777</v>
@@ -6758,7 +6807,7 @@
         <v>4.838709677419355</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="7">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v>44671.291666261575</v>
@@ -6773,7 +6822,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="7">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v>44671.333332870374</v>
@@ -6788,7 +6837,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="7">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v>44671.374999479165</v>
@@ -6803,7 +6852,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="7">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v>44671.416666087964</v>
@@ -6818,7 +6867,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="7">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v>44671.458332696762</v>
@@ -6833,7 +6882,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="7">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v>44671.499999305554</v>
@@ -6848,7 +6897,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="7">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v>44671.541665914352</v>
@@ -6863,7 +6912,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="7">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v>44671.583332523151</v>
@@ -6878,7 +6927,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="7">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v>44671.624999131942</v>
@@ -6893,7 +6942,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="7">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v>44671.66666574074</v>
@@ -6908,7 +6957,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="7">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v>44671.708332349539</v>
@@ -6923,7 +6972,7 @@
         <v>3.75</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="7">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v>44671.74999895833</v>
@@ -6938,7 +6987,7 @@
         <v>3.75</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="7">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v>44671.791665567129</v>
@@ -6953,7 +7002,7 @@
         <v>3.75</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="7">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v>44671.833332175927</v>
@@ -6968,7 +7017,7 @@
         <v>3.75</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="7">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v>44671.874998784719</v>
@@ -6983,7 +7032,7 @@
         <v>4.2857142857142856</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="7">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v>44671.916665393517</v>
@@ -6998,7 +7047,7 @@
         <v>4.2857142857142856</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="7">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v>44671.958332002316</v>
@@ -7023,25 +7072,25 @@
   <dimension ref="A1:P8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A4"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" customWidth="1"/>
     <col min="2" max="2" width="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.7109375" customWidth="1"/>
+    <col min="3" max="3" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.6640625" customWidth="1"/>
     <col min="7" max="7" width="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="11.42578125" customWidth="1"/>
+    <col min="8" max="8" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="11.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>13</v>
       </c>
@@ -7091,7 +7140,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>23</v>
       </c>
@@ -7141,7 +7190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>24</v>
       </c>
@@ -7191,7 +7240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>25</v>
       </c>
@@ -7241,7 +7290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -7291,7 +7340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>83</v>
       </c>
@@ -7341,7 +7390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>36</v>
       </c>
@@ -7391,7 +7440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
@@ -7421,9 +7470,9 @@
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>38</v>
       </c>
@@ -7434,7 +7483,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -7445,7 +7494,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -7456,7 +7505,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -7467,7 +7516,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -7491,9 +7540,9 @@
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>13</v>
       </c>
@@ -7537,7 +7586,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>75</v>
       </c>
@@ -7557,7 +7606,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>76</v>
       </c>
@@ -7587,23 +7636,23 @@
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="5"/>
+    <col min="1" max="1" width="7.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.44140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.5546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.44140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.88671875" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.5546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.109375" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>13</v>
       </c>
@@ -7629,7 +7678,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>23</v>
       </c>
@@ -7655,7 +7704,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>23</v>
       </c>
@@ -7681,7 +7730,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>23</v>
       </c>
@@ -7707,7 +7756,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>24</v>
       </c>
@@ -7733,7 +7782,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>24</v>
       </c>
@@ -7759,7 +7808,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>25</v>
       </c>
@@ -7785,7 +7834,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>25</v>
       </c>
@@ -7811,7 +7860,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>26</v>
       </c>
@@ -7837,7 +7886,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>83</v>
       </c>
@@ -7863,7 +7912,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>36</v>
       </c>
@@ -7889,7 +7938,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>36</v>
       </c>
@@ -7923,167 +7972,161 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7AEF404-3743-47D7-AC45-7AE3A9FB796E}">
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:A25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" style="7" customWidth="1"/>
+    <col min="1" max="1" width="19.33203125" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="7">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44671</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="7">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44671.041666666664</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" s="7">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44671.08333321759</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" s="7">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v>44671.124999826388</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" s="7">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v>44671.166666435187</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" s="7">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v>44671.208333043978</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" s="7">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v>44671.249999652777</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" s="7">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v>44671.291666261575</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" s="7">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v>44671.333332870374</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" s="7">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v>44671.374999479165</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" s="7">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v>44671.416666087964</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" s="7">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v>44671.458332696762</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" s="7">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v>44671.499999305554</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" s="7">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v>44671.541665914352</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" s="7">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v>44671.583332523151</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="7">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v>44671.624999131942</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="7">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v>44671.66666574074</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="7">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v>44671.708332349539</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="7">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v>44671.74999895833</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="7">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v>44671.791665567129</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" s="7">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v>44671.833332175927</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" s="7">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v>44671.874998784719</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" s="7">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v>44671.916665393517</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" s="7">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v>44671.958332002316</v>
@@ -8095,6 +8138,44 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7A97A19-79B8-46BB-9B8D-DDA080BD4E36}">
+  <dimension ref="A1:E1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA355BEF-1F4B-494A-B089-4FCDFFFA57F7}">
   <dimension ref="A1:C1"/>
   <sheetViews>
@@ -8102,12 +8183,12 @@
       <selection activeCell="E42" sqref="E42:E43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.85546875" style="7" customWidth="1"/>
+    <col min="1" max="1" width="9.88671875" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>134</v>
       </c>
@@ -8122,43 +8203,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0532F8A-0FB4-47AD-98A1-4065D3376432}">
-  <dimension ref="A1:B3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>78</v>
-      </c>
-      <c r="B2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>79</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/input_data/input_data.xlsx
+++ b/input_data/input_data.xlsx
@@ -1,43 +1,44 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dsdennis\HOPE\Predicer\input_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C568E239-1292-4371-8EA4-1897EE3D30DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{635E7A4A-9526-44A7-BCA1-F7CA3B6EFD87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="796" firstSheet="6" activeTab="6" xr2:uid="{788BFBD1-D930-4535-8A91-D85C56924796}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="796" activeTab="6" xr2:uid="{788BFBD1-D930-4535-8A91-D85C56924796}"/>
   </bookViews>
   <sheets>
     <sheet name="timeseries" sheetId="18" r:id="rId1"/>
-    <sheet name="nodes" sheetId="1" r:id="rId2"/>
-    <sheet name="processes" sheetId="2" r:id="rId3"/>
-    <sheet name="groups" sheetId="21" r:id="rId4"/>
-    <sheet name="efficiencies" sheetId="10" r:id="rId5"/>
-    <sheet name="process_topology" sheetId="6" r:id="rId6"/>
-    <sheet name="node_history" sheetId="19" r:id="rId7"/>
-    <sheet name="node_delay" sheetId="25" r:id="rId8"/>
-    <sheet name="node_diffusion" sheetId="24" r:id="rId9"/>
-    <sheet name="reserve_type" sheetId="13" r:id="rId10"/>
-    <sheet name="cf" sheetId="7" r:id="rId11"/>
-    <sheet name="inflow" sheetId="3" r:id="rId12"/>
-    <sheet name="inflow_blocks" sheetId="22" r:id="rId13"/>
-    <sheet name="price" sheetId="4" r:id="rId14"/>
-    <sheet name="markets" sheetId="5" r:id="rId15"/>
-    <sheet name="reserve_realisation" sheetId="23" r:id="rId16"/>
-    <sheet name="market_prices" sheetId="8" r:id="rId17"/>
-    <sheet name="balance_prices" sheetId="20" r:id="rId18"/>
-    <sheet name="risk" sheetId="17" r:id="rId19"/>
-    <sheet name="scenarios" sheetId="9" r:id="rId20"/>
-    <sheet name="fixed_ts" sheetId="11" r:id="rId21"/>
-    <sheet name="eff_ts" sheetId="12" r:id="rId22"/>
-    <sheet name="constraints" sheetId="14" r:id="rId23"/>
-    <sheet name="gen_constraint" sheetId="15" r:id="rId24"/>
-    <sheet name="cap_ts" sheetId="16" r:id="rId25"/>
+    <sheet name="setup" sheetId="26" r:id="rId2"/>
+    <sheet name="nodes" sheetId="1" r:id="rId3"/>
+    <sheet name="processes" sheetId="2" r:id="rId4"/>
+    <sheet name="groups" sheetId="21" r:id="rId5"/>
+    <sheet name="efficiencies" sheetId="10" r:id="rId6"/>
+    <sheet name="process_topology" sheetId="6" r:id="rId7"/>
+    <sheet name="node_history" sheetId="19" r:id="rId8"/>
+    <sheet name="node_delay" sheetId="25" r:id="rId9"/>
+    <sheet name="node_diffusion" sheetId="24" r:id="rId10"/>
+    <sheet name="reserve_type" sheetId="13" r:id="rId11"/>
+    <sheet name="cf" sheetId="7" r:id="rId12"/>
+    <sheet name="inflow" sheetId="3" r:id="rId13"/>
+    <sheet name="inflow_blocks" sheetId="22" r:id="rId14"/>
+    <sheet name="price" sheetId="4" r:id="rId15"/>
+    <sheet name="markets" sheetId="5" r:id="rId16"/>
+    <sheet name="reserve_realisation" sheetId="23" r:id="rId17"/>
+    <sheet name="market_prices" sheetId="8" r:id="rId18"/>
+    <sheet name="balance_prices" sheetId="20" r:id="rId19"/>
+    <sheet name="risk" sheetId="17" r:id="rId20"/>
+    <sheet name="scenarios" sheetId="9" r:id="rId21"/>
+    <sheet name="fixed_ts" sheetId="11" r:id="rId22"/>
+    <sheet name="eff_ts" sheetId="12" r:id="rId23"/>
+    <sheet name="constraints" sheetId="14" r:id="rId24"/>
+    <sheet name="gen_constraint" sheetId="15" r:id="rId25"/>
+    <sheet name="cap_ts" sheetId="16" r:id="rId26"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -57,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="154">
   <si>
     <t>node</t>
   </si>
@@ -486,6 +487,39 @@
   </si>
   <si>
     <t>max_flow</t>
+  </si>
+  <si>
+    <t>initial_load</t>
+  </si>
+  <si>
+    <t>use_reserves</t>
+  </si>
+  <si>
+    <t>use_reserve_realisation</t>
+  </si>
+  <si>
+    <t>use_node_dummy_variables</t>
+  </si>
+  <si>
+    <t>use_ramp_dummy_variables</t>
+  </si>
+  <si>
+    <t>use_market_bids</t>
+  </si>
+  <si>
+    <t>common_timesteps</t>
+  </si>
+  <si>
+    <t>common_scenario_name</t>
+  </si>
+  <si>
+    <t>scenario_independent_online</t>
+  </si>
+  <si>
+    <t>scenario_independent_state</t>
+  </si>
+  <si>
+    <t>initial_flow</t>
   </si>
 </sst>
 </file>
@@ -872,206 +906,206 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
         <v>44671</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <v>44671.041666666664</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <v>44671.08333321759</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>44671.124999826388</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <v>44671.166666435187</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <v>44671.208333043978</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <v>44671.249999652777</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>44671.291666261575</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <v>44671.333332870374</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <v>44671.374999479165</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
         <v>44671.416666087964</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <v>44671.458332696762</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
         <v>44671.499999305554</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
         <v>44671.541665914352</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="7">
         <v>44671.583332523151</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="7">
         <v>44671.624999131942</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="7">
         <v>44671.66666574074</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="7">
         <v>44671.708332349539</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="7">
         <v>44671.74999895833</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="7">
         <v>44671.791665567129</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="7">
         <v>44671.833332175927</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="7">
         <v>44671.874998784719</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="7">
         <v>44671.916665393517</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="7">
         <v>44671.958332002316</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="7"/>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="7"/>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="7"/>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" s="7"/>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" s="7"/>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" s="7"/>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" s="7"/>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="7"/>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="7"/>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" s="7"/>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" s="7"/>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" s="7"/>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" s="7"/>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" s="7"/>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" s="7"/>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" s="7"/>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" s="7"/>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" s="7"/>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" s="7"/>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" s="7"/>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" s="7"/>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" s="7"/>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" s="7"/>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" s="7"/>
     </row>
   </sheetData>
@@ -1080,6 +1114,36 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA355BEF-1F4B-494A-B089-4FCDFFFA57F7}">
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E42" sqref="E42:E43"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.85546875" style="7" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>136</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0532F8A-0FB4-47AD-98A1-4065D3376432}">
   <dimension ref="A1:B3"/>
   <sheetViews>
@@ -1087,9 +1151,9 @@
       <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>38</v>
       </c>
@@ -1097,7 +1161,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>78</v>
       </c>
@@ -1105,7 +1169,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>79</v>
       </c>
@@ -1118,7 +1182,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77A4637A-7829-48D6-AE54-2E654AB1A427}">
   <dimension ref="A1:L25"/>
   <sheetViews>
@@ -1126,14 +1190,14 @@
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" style="7" customWidth="1"/>
-    <col min="6" max="6" width="23.109375" customWidth="1"/>
-    <col min="12" max="12" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" style="7" customWidth="1"/>
+    <col min="6" max="6" width="23.140625" customWidth="1"/>
+    <col min="12" max="12" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>31</v>
       </c>
@@ -1151,7 +1215,7 @@
       </c>
       <c r="F1"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44671</v>
@@ -1173,7 +1237,7 @@
       <c r="F2" s="7"/>
       <c r="L2" s="7"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44671.041666666664</v>
@@ -1193,7 +1257,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44671.08333321759</v>
@@ -1213,7 +1277,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v>44671.124999826388</v>
@@ -1233,7 +1297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v>44671.166666435187</v>
@@ -1253,7 +1317,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v>44671.208333043978</v>
@@ -1273,7 +1337,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v>44671.249999652777</v>
@@ -1293,7 +1357,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v>44671.291666261575</v>
@@ -1313,7 +1377,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v>44671.333332870374</v>
@@ -1333,7 +1397,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v>44671.374999479165</v>
@@ -1353,7 +1417,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v>44671.416666087964</v>
@@ -1373,7 +1437,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v>44671.458332696762</v>
@@ -1393,7 +1457,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v>44671.499999305554</v>
@@ -1413,7 +1477,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v>44671.541665914352</v>
@@ -1433,7 +1497,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="7">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v>44671.583332523151</v>
@@ -1453,7 +1517,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="7">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v>44671.624999131942</v>
@@ -1473,7 +1537,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="7">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v>44671.66666574074</v>
@@ -1493,7 +1557,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="7">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v>44671.708332349539</v>
@@ -1513,7 +1577,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="7">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v>44671.74999895833</v>
@@ -1533,7 +1597,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="7">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v>44671.791665567129</v>
@@ -1553,7 +1617,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="7">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v>44671.833332175927</v>
@@ -1573,7 +1637,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="7">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v>44671.874998784719</v>
@@ -1593,7 +1657,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="7">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v>44671.916665393517</v>
@@ -1613,7 +1677,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="7">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v>44671.958332002316</v>
@@ -1631,722 +1695,6 @@
       <c r="E25">
         <f t="shared" si="1"/>
         <v>0.6</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F87DD44-A1AD-4241-AED7-C48CC9DEE2E2}">
-  <dimension ref="A1:G25"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="19.33203125" style="7" customWidth="1"/>
-    <col min="4" max="6" width="10.44140625" customWidth="1"/>
-    <col min="7" max="7" width="10.44140625" style="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="7">
-        <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
-        <v>44671</v>
-      </c>
-      <c r="B2">
-        <v>-5</v>
-      </c>
-      <c r="C2">
-        <v>-5</v>
-      </c>
-      <c r="D2">
-        <v>-5</v>
-      </c>
-      <c r="E2">
-        <f>1*C2</f>
-        <v>-5</v>
-      </c>
-      <c r="F2" s="2">
-        <f>1*B2</f>
-        <v>-5</v>
-      </c>
-      <c r="G2" s="2">
-        <f>1*C2</f>
-        <v>-5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="7">
-        <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
-        <v>44671.041666666664</v>
-      </c>
-      <c r="B3">
-        <v>-5</v>
-      </c>
-      <c r="C3">
-        <v>-5</v>
-      </c>
-      <c r="D3">
-        <f t="shared" ref="D3:D25" si="0">1*B3</f>
-        <v>-5</v>
-      </c>
-      <c r="E3">
-        <f t="shared" ref="E3:E25" si="1">1*C3</f>
-        <v>-5</v>
-      </c>
-      <c r="F3" s="2">
-        <f t="shared" ref="F3:F25" si="2">1*B3</f>
-        <v>-5</v>
-      </c>
-      <c r="G3" s="2">
-        <f t="shared" ref="G3:G25" si="3">1*C3</f>
-        <v>-5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="7">
-        <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
-        <v>44671.08333321759</v>
-      </c>
-      <c r="B4">
-        <v>-4</v>
-      </c>
-      <c r="C4">
-        <v>-6</v>
-      </c>
-      <c r="D4">
-        <f t="shared" si="0"/>
-        <v>-4</v>
-      </c>
-      <c r="E4">
-        <f t="shared" si="1"/>
-        <v>-6</v>
-      </c>
-      <c r="F4" s="2">
-        <f t="shared" si="2"/>
-        <v>-4</v>
-      </c>
-      <c r="G4" s="2">
-        <f t="shared" si="3"/>
-        <v>-6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="7">
-        <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
-        <v>44671.124999826388</v>
-      </c>
-      <c r="B5">
-        <v>-2</v>
-      </c>
-      <c r="C5">
-        <v>-3</v>
-      </c>
-      <c r="D5">
-        <f t="shared" si="0"/>
-        <v>-2</v>
-      </c>
-      <c r="E5">
-        <f t="shared" si="1"/>
-        <v>-3</v>
-      </c>
-      <c r="F5" s="2">
-        <f t="shared" si="2"/>
-        <v>-2</v>
-      </c>
-      <c r="G5" s="2">
-        <f t="shared" si="3"/>
-        <v>-3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="7">
-        <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
-        <v>44671.166666435187</v>
-      </c>
-      <c r="B6">
-        <v>-7</v>
-      </c>
-      <c r="C6">
-        <v>-4</v>
-      </c>
-      <c r="D6">
-        <f t="shared" si="0"/>
-        <v>-7</v>
-      </c>
-      <c r="E6">
-        <f t="shared" si="1"/>
-        <v>-4</v>
-      </c>
-      <c r="F6" s="2">
-        <f t="shared" si="2"/>
-        <v>-7</v>
-      </c>
-      <c r="G6" s="2">
-        <f t="shared" si="3"/>
-        <v>-4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="7">
-        <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
-        <v>44671.208333043978</v>
-      </c>
-      <c r="B7">
-        <v>-5</v>
-      </c>
-      <c r="C7">
-        <v>-5</v>
-      </c>
-      <c r="D7">
-        <f t="shared" si="0"/>
-        <v>-5</v>
-      </c>
-      <c r="E7">
-        <f t="shared" si="1"/>
-        <v>-5</v>
-      </c>
-      <c r="F7" s="2">
-        <f t="shared" si="2"/>
-        <v>-5</v>
-      </c>
-      <c r="G7" s="2">
-        <f t="shared" si="3"/>
-        <v>-5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="7">
-        <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
-        <v>44671.249999652777</v>
-      </c>
-      <c r="B8">
-        <v>-14</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <f t="shared" si="0"/>
-        <v>-14</v>
-      </c>
-      <c r="E8">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F8" s="2">
-        <f t="shared" si="2"/>
-        <v>-14</v>
-      </c>
-      <c r="G8" s="2">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="7">
-        <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
-        <v>44671.291666261575</v>
-      </c>
-      <c r="B9">
-        <v>-20</v>
-      </c>
-      <c r="C9">
-        <v>-2</v>
-      </c>
-      <c r="D9">
-        <f t="shared" si="0"/>
-        <v>-20</v>
-      </c>
-      <c r="E9">
-        <f t="shared" si="1"/>
-        <v>-2</v>
-      </c>
-      <c r="F9" s="2">
-        <f t="shared" si="2"/>
-        <v>-20</v>
-      </c>
-      <c r="G9" s="2">
-        <f t="shared" si="3"/>
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="7">
-        <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
-        <v>44671.333332870374</v>
-      </c>
-      <c r="B10">
-        <v>-13</v>
-      </c>
-      <c r="C10">
-        <v>-2</v>
-      </c>
-      <c r="D10">
-        <f t="shared" si="0"/>
-        <v>-13</v>
-      </c>
-      <c r="E10">
-        <f t="shared" si="1"/>
-        <v>-2</v>
-      </c>
-      <c r="F10" s="2">
-        <f t="shared" si="2"/>
-        <v>-13</v>
-      </c>
-      <c r="G10" s="2">
-        <f t="shared" si="3"/>
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="7">
-        <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
-        <v>44671.374999479165</v>
-      </c>
-      <c r="B11">
-        <v>-12</v>
-      </c>
-      <c r="C11">
-        <v>-5</v>
-      </c>
-      <c r="D11">
-        <f t="shared" si="0"/>
-        <v>-12</v>
-      </c>
-      <c r="E11">
-        <f t="shared" si="1"/>
-        <v>-5</v>
-      </c>
-      <c r="F11" s="2">
-        <f t="shared" si="2"/>
-        <v>-12</v>
-      </c>
-      <c r="G11" s="2">
-        <f t="shared" si="3"/>
-        <v>-5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="7">
-        <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
-        <v>44671.416666087964</v>
-      </c>
-      <c r="B12">
-        <v>-13</v>
-      </c>
-      <c r="C12">
-        <v>-2</v>
-      </c>
-      <c r="D12">
-        <f t="shared" si="0"/>
-        <v>-13</v>
-      </c>
-      <c r="E12">
-        <f t="shared" si="1"/>
-        <v>-2</v>
-      </c>
-      <c r="F12" s="2">
-        <f t="shared" si="2"/>
-        <v>-13</v>
-      </c>
-      <c r="G12" s="2">
-        <f t="shared" si="3"/>
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="7">
-        <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
-        <v>44671.458332696762</v>
-      </c>
-      <c r="B13">
-        <v>-14</v>
-      </c>
-      <c r="C13">
-        <v>-6</v>
-      </c>
-      <c r="D13">
-        <f t="shared" si="0"/>
-        <v>-14</v>
-      </c>
-      <c r="E13">
-        <f t="shared" si="1"/>
-        <v>-6</v>
-      </c>
-      <c r="F13" s="2">
-        <f t="shared" si="2"/>
-        <v>-14</v>
-      </c>
-      <c r="G13" s="2">
-        <f t="shared" si="3"/>
-        <v>-6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="7">
-        <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
-        <v>44671.499999305554</v>
-      </c>
-      <c r="B14">
-        <v>-18</v>
-      </c>
-      <c r="C14">
-        <v>-4</v>
-      </c>
-      <c r="D14">
-        <f t="shared" si="0"/>
-        <v>-18</v>
-      </c>
-      <c r="E14">
-        <f t="shared" si="1"/>
-        <v>-4</v>
-      </c>
-      <c r="F14" s="2">
-        <f t="shared" si="2"/>
-        <v>-18</v>
-      </c>
-      <c r="G14" s="2">
-        <f t="shared" si="3"/>
-        <v>-4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="7">
-        <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
-        <v>44671.541665914352</v>
-      </c>
-      <c r="B15">
-        <v>-14</v>
-      </c>
-      <c r="C15">
-        <v>-3</v>
-      </c>
-      <c r="D15">
-        <f t="shared" si="0"/>
-        <v>-14</v>
-      </c>
-      <c r="E15">
-        <f t="shared" si="1"/>
-        <v>-3</v>
-      </c>
-      <c r="F15" s="2">
-        <f t="shared" si="2"/>
-        <v>-14</v>
-      </c>
-      <c r="G15" s="2">
-        <f t="shared" si="3"/>
-        <v>-3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="7">
-        <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
-        <v>44671.583332523151</v>
-      </c>
-      <c r="B16">
-        <v>-15</v>
-      </c>
-      <c r="C16">
-        <v>-5</v>
-      </c>
-      <c r="D16">
-        <f t="shared" si="0"/>
-        <v>-15</v>
-      </c>
-      <c r="E16">
-        <f t="shared" si="1"/>
-        <v>-5</v>
-      </c>
-      <c r="F16" s="2">
-        <f t="shared" si="2"/>
-        <v>-15</v>
-      </c>
-      <c r="G16" s="2">
-        <f t="shared" si="3"/>
-        <v>-5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="7">
-        <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
-        <v>44671.624999131942</v>
-      </c>
-      <c r="B17">
-        <v>-14</v>
-      </c>
-      <c r="C17">
-        <v>-1</v>
-      </c>
-      <c r="D17">
-        <f t="shared" si="0"/>
-        <v>-14</v>
-      </c>
-      <c r="E17">
-        <f t="shared" si="1"/>
-        <v>-1</v>
-      </c>
-      <c r="F17" s="2">
-        <f t="shared" si="2"/>
-        <v>-14</v>
-      </c>
-      <c r="G17" s="2">
-        <f t="shared" si="3"/>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="7">
-        <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
-        <v>44671.66666574074</v>
-      </c>
-      <c r="B18">
-        <v>-20</v>
-      </c>
-      <c r="C18">
-        <v>-5</v>
-      </c>
-      <c r="D18">
-        <f t="shared" si="0"/>
-        <v>-20</v>
-      </c>
-      <c r="E18">
-        <f t="shared" si="1"/>
-        <v>-5</v>
-      </c>
-      <c r="F18" s="2">
-        <f t="shared" si="2"/>
-        <v>-20</v>
-      </c>
-      <c r="G18" s="2">
-        <f t="shared" si="3"/>
-        <v>-5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="7">
-        <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
-        <v>44671.708332349539</v>
-      </c>
-      <c r="B19">
-        <v>-20</v>
-      </c>
-      <c r="C19">
-        <v>-4</v>
-      </c>
-      <c r="D19">
-        <f t="shared" si="0"/>
-        <v>-20</v>
-      </c>
-      <c r="E19">
-        <f t="shared" si="1"/>
-        <v>-4</v>
-      </c>
-      <c r="F19" s="2">
-        <f t="shared" si="2"/>
-        <v>-20</v>
-      </c>
-      <c r="G19" s="2">
-        <f t="shared" si="3"/>
-        <v>-4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="7">
-        <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
-        <v>44671.74999895833</v>
-      </c>
-      <c r="B20">
-        <v>-20</v>
-      </c>
-      <c r="C20">
-        <v>0</v>
-      </c>
-      <c r="D20">
-        <f t="shared" si="0"/>
-        <v>-20</v>
-      </c>
-      <c r="E20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F20" s="2">
-        <f t="shared" si="2"/>
-        <v>-20</v>
-      </c>
-      <c r="G20" s="2">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="7">
-        <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
-        <v>44671.791665567129</v>
-      </c>
-      <c r="B21">
-        <v>-20</v>
-      </c>
-      <c r="C21">
-        <v>-1</v>
-      </c>
-      <c r="D21">
-        <f t="shared" si="0"/>
-        <v>-20</v>
-      </c>
-      <c r="E21">
-        <f t="shared" si="1"/>
-        <v>-1</v>
-      </c>
-      <c r="F21" s="2">
-        <f t="shared" si="2"/>
-        <v>-20</v>
-      </c>
-      <c r="G21" s="2">
-        <f t="shared" si="3"/>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="7">
-        <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
-        <v>44671.833332175927</v>
-      </c>
-      <c r="B22">
-        <v>-16</v>
-      </c>
-      <c r="C22">
-        <v>-4</v>
-      </c>
-      <c r="D22">
-        <f t="shared" si="0"/>
-        <v>-16</v>
-      </c>
-      <c r="E22">
-        <f t="shared" si="1"/>
-        <v>-4</v>
-      </c>
-      <c r="F22" s="2">
-        <f t="shared" si="2"/>
-        <v>-16</v>
-      </c>
-      <c r="G22" s="2">
-        <f t="shared" si="3"/>
-        <v>-4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="7">
-        <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
-        <v>44671.874998784719</v>
-      </c>
-      <c r="B23">
-        <v>-14</v>
-      </c>
-      <c r="C23">
-        <v>-5</v>
-      </c>
-      <c r="D23">
-        <f t="shared" si="0"/>
-        <v>-14</v>
-      </c>
-      <c r="E23">
-        <f t="shared" si="1"/>
-        <v>-5</v>
-      </c>
-      <c r="F23" s="2">
-        <f t="shared" si="2"/>
-        <v>-14</v>
-      </c>
-      <c r="G23" s="2">
-        <f t="shared" si="3"/>
-        <v>-5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="7">
-        <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
-        <v>44671.916665393517</v>
-      </c>
-      <c r="B24">
-        <v>-11</v>
-      </c>
-      <c r="C24">
-        <v>-1</v>
-      </c>
-      <c r="D24">
-        <f t="shared" si="0"/>
-        <v>-11</v>
-      </c>
-      <c r="E24">
-        <f t="shared" si="1"/>
-        <v>-1</v>
-      </c>
-      <c r="F24" s="2">
-        <f t="shared" si="2"/>
-        <v>-11</v>
-      </c>
-      <c r="G24" s="2">
-        <f t="shared" si="3"/>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="7">
-        <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
-        <v>44671.958332002316</v>
-      </c>
-      <c r="B25">
-        <v>-9</v>
-      </c>
-      <c r="C25">
-        <v>-3</v>
-      </c>
-      <c r="D25">
-        <f t="shared" si="0"/>
-        <v>-9</v>
-      </c>
-      <c r="E25">
-        <f t="shared" si="1"/>
-        <v>-3</v>
-      </c>
-      <c r="F25" s="2">
-        <f t="shared" si="2"/>
-        <v>-9</v>
-      </c>
-      <c r="G25" s="2">
-        <f t="shared" si="3"/>
-        <v>-3</v>
       </c>
     </row>
   </sheetData>
@@ -2357,6 +1705,722 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F87DD44-A1AD-4241-AED7-C48CC9DEE2E2}">
+  <dimension ref="A1:G25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.28515625" style="7" customWidth="1"/>
+    <col min="4" max="6" width="10.42578125" customWidth="1"/>
+    <col min="7" max="7" width="10.42578125" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="7">
+        <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
+        <v>44671</v>
+      </c>
+      <c r="B2">
+        <v>-5</v>
+      </c>
+      <c r="C2">
+        <v>-5</v>
+      </c>
+      <c r="D2">
+        <v>-5</v>
+      </c>
+      <c r="E2">
+        <f>1*C2</f>
+        <v>-5</v>
+      </c>
+      <c r="F2" s="2">
+        <f>1*B2</f>
+        <v>-5</v>
+      </c>
+      <c r="G2" s="2">
+        <f>1*C2</f>
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="7">
+        <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
+        <v>44671.041666666664</v>
+      </c>
+      <c r="B3">
+        <v>-5</v>
+      </c>
+      <c r="C3">
+        <v>-5</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ref="D3:D25" si="0">1*B3</f>
+        <v>-5</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E25" si="1">1*C3</f>
+        <v>-5</v>
+      </c>
+      <c r="F3" s="2">
+        <f t="shared" ref="F3:F25" si="2">1*B3</f>
+        <v>-5</v>
+      </c>
+      <c r="G3" s="2">
+        <f t="shared" ref="G3:G25" si="3">1*C3</f>
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="7">
+        <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
+        <v>44671.08333321759</v>
+      </c>
+      <c r="B4">
+        <v>-4</v>
+      </c>
+      <c r="C4">
+        <v>-6</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="0"/>
+        <v>-4</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="1"/>
+        <v>-6</v>
+      </c>
+      <c r="F4" s="2">
+        <f t="shared" si="2"/>
+        <v>-4</v>
+      </c>
+      <c r="G4" s="2">
+        <f t="shared" si="3"/>
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="7">
+        <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
+        <v>44671.124999826388</v>
+      </c>
+      <c r="B5">
+        <v>-2</v>
+      </c>
+      <c r="C5">
+        <v>-3</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>-2</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="1"/>
+        <v>-3</v>
+      </c>
+      <c r="F5" s="2">
+        <f t="shared" si="2"/>
+        <v>-2</v>
+      </c>
+      <c r="G5" s="2">
+        <f t="shared" si="3"/>
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="7">
+        <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
+        <v>44671.166666435187</v>
+      </c>
+      <c r="B6">
+        <v>-7</v>
+      </c>
+      <c r="C6">
+        <v>-4</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>-7</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="1"/>
+        <v>-4</v>
+      </c>
+      <c r="F6" s="2">
+        <f t="shared" si="2"/>
+        <v>-7</v>
+      </c>
+      <c r="G6" s="2">
+        <f t="shared" si="3"/>
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="7">
+        <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
+        <v>44671.208333043978</v>
+      </c>
+      <c r="B7">
+        <v>-5</v>
+      </c>
+      <c r="C7">
+        <v>-5</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>-5</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="1"/>
+        <v>-5</v>
+      </c>
+      <c r="F7" s="2">
+        <f t="shared" si="2"/>
+        <v>-5</v>
+      </c>
+      <c r="G7" s="2">
+        <f t="shared" si="3"/>
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="7">
+        <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
+        <v>44671.249999652777</v>
+      </c>
+      <c r="B8">
+        <v>-14</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>-14</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F8" s="2">
+        <f t="shared" si="2"/>
+        <v>-14</v>
+      </c>
+      <c r="G8" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="7">
+        <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
+        <v>44671.291666261575</v>
+      </c>
+      <c r="B9">
+        <v>-20</v>
+      </c>
+      <c r="C9">
+        <v>-2</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>-20</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="1"/>
+        <v>-2</v>
+      </c>
+      <c r="F9" s="2">
+        <f t="shared" si="2"/>
+        <v>-20</v>
+      </c>
+      <c r="G9" s="2">
+        <f t="shared" si="3"/>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="7">
+        <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
+        <v>44671.333332870374</v>
+      </c>
+      <c r="B10">
+        <v>-13</v>
+      </c>
+      <c r="C10">
+        <v>-2</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>-13</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="1"/>
+        <v>-2</v>
+      </c>
+      <c r="F10" s="2">
+        <f t="shared" si="2"/>
+        <v>-13</v>
+      </c>
+      <c r="G10" s="2">
+        <f t="shared" si="3"/>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="7">
+        <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
+        <v>44671.374999479165</v>
+      </c>
+      <c r="B11">
+        <v>-12</v>
+      </c>
+      <c r="C11">
+        <v>-5</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>-12</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="1"/>
+        <v>-5</v>
+      </c>
+      <c r="F11" s="2">
+        <f t="shared" si="2"/>
+        <v>-12</v>
+      </c>
+      <c r="G11" s="2">
+        <f t="shared" si="3"/>
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="7">
+        <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
+        <v>44671.416666087964</v>
+      </c>
+      <c r="B12">
+        <v>-13</v>
+      </c>
+      <c r="C12">
+        <v>-2</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>-13</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="1"/>
+        <v>-2</v>
+      </c>
+      <c r="F12" s="2">
+        <f t="shared" si="2"/>
+        <v>-13</v>
+      </c>
+      <c r="G12" s="2">
+        <f t="shared" si="3"/>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="7">
+        <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
+        <v>44671.458332696762</v>
+      </c>
+      <c r="B13">
+        <v>-14</v>
+      </c>
+      <c r="C13">
+        <v>-6</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="0"/>
+        <v>-14</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="1"/>
+        <v>-6</v>
+      </c>
+      <c r="F13" s="2">
+        <f t="shared" si="2"/>
+        <v>-14</v>
+      </c>
+      <c r="G13" s="2">
+        <f t="shared" si="3"/>
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="7">
+        <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
+        <v>44671.499999305554</v>
+      </c>
+      <c r="B14">
+        <v>-18</v>
+      </c>
+      <c r="C14">
+        <v>-4</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="0"/>
+        <v>-18</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="1"/>
+        <v>-4</v>
+      </c>
+      <c r="F14" s="2">
+        <f t="shared" si="2"/>
+        <v>-18</v>
+      </c>
+      <c r="G14" s="2">
+        <f t="shared" si="3"/>
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="7">
+        <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
+        <v>44671.541665914352</v>
+      </c>
+      <c r="B15">
+        <v>-14</v>
+      </c>
+      <c r="C15">
+        <v>-3</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="0"/>
+        <v>-14</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="1"/>
+        <v>-3</v>
+      </c>
+      <c r="F15" s="2">
+        <f t="shared" si="2"/>
+        <v>-14</v>
+      </c>
+      <c r="G15" s="2">
+        <f t="shared" si="3"/>
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="7">
+        <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
+        <v>44671.583332523151</v>
+      </c>
+      <c r="B16">
+        <v>-15</v>
+      </c>
+      <c r="C16">
+        <v>-5</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="0"/>
+        <v>-15</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="1"/>
+        <v>-5</v>
+      </c>
+      <c r="F16" s="2">
+        <f t="shared" si="2"/>
+        <v>-15</v>
+      </c>
+      <c r="G16" s="2">
+        <f t="shared" si="3"/>
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="7">
+        <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
+        <v>44671.624999131942</v>
+      </c>
+      <c r="B17">
+        <v>-14</v>
+      </c>
+      <c r="C17">
+        <v>-1</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="0"/>
+        <v>-14</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="F17" s="2">
+        <f t="shared" si="2"/>
+        <v>-14</v>
+      </c>
+      <c r="G17" s="2">
+        <f t="shared" si="3"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="7">
+        <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
+        <v>44671.66666574074</v>
+      </c>
+      <c r="B18">
+        <v>-20</v>
+      </c>
+      <c r="C18">
+        <v>-5</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="0"/>
+        <v>-20</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="1"/>
+        <v>-5</v>
+      </c>
+      <c r="F18" s="2">
+        <f t="shared" si="2"/>
+        <v>-20</v>
+      </c>
+      <c r="G18" s="2">
+        <f t="shared" si="3"/>
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="7">
+        <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
+        <v>44671.708332349539</v>
+      </c>
+      <c r="B19">
+        <v>-20</v>
+      </c>
+      <c r="C19">
+        <v>-4</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="0"/>
+        <v>-20</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="1"/>
+        <v>-4</v>
+      </c>
+      <c r="F19" s="2">
+        <f t="shared" si="2"/>
+        <v>-20</v>
+      </c>
+      <c r="G19" s="2">
+        <f t="shared" si="3"/>
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="7">
+        <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
+        <v>44671.74999895833</v>
+      </c>
+      <c r="B20">
+        <v>-20</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="0"/>
+        <v>-20</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F20" s="2">
+        <f t="shared" si="2"/>
+        <v>-20</v>
+      </c>
+      <c r="G20" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="7">
+        <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
+        <v>44671.791665567129</v>
+      </c>
+      <c r="B21">
+        <v>-20</v>
+      </c>
+      <c r="C21">
+        <v>-1</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="0"/>
+        <v>-20</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="F21" s="2">
+        <f t="shared" si="2"/>
+        <v>-20</v>
+      </c>
+      <c r="G21" s="2">
+        <f t="shared" si="3"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="7">
+        <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
+        <v>44671.833332175927</v>
+      </c>
+      <c r="B22">
+        <v>-16</v>
+      </c>
+      <c r="C22">
+        <v>-4</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="0"/>
+        <v>-16</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="1"/>
+        <v>-4</v>
+      </c>
+      <c r="F22" s="2">
+        <f t="shared" si="2"/>
+        <v>-16</v>
+      </c>
+      <c r="G22" s="2">
+        <f t="shared" si="3"/>
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="7">
+        <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
+        <v>44671.874998784719</v>
+      </c>
+      <c r="B23">
+        <v>-14</v>
+      </c>
+      <c r="C23">
+        <v>-5</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="0"/>
+        <v>-14</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="1"/>
+        <v>-5</v>
+      </c>
+      <c r="F23" s="2">
+        <f t="shared" si="2"/>
+        <v>-14</v>
+      </c>
+      <c r="G23" s="2">
+        <f t="shared" si="3"/>
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="7">
+        <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
+        <v>44671.916665393517</v>
+      </c>
+      <c r="B24">
+        <v>-11</v>
+      </c>
+      <c r="C24">
+        <v>-1</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="0"/>
+        <v>-11</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="F24" s="2">
+        <f t="shared" si="2"/>
+        <v>-11</v>
+      </c>
+      <c r="G24" s="2">
+        <f t="shared" si="3"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="7">
+        <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
+        <v>44671.958332002316</v>
+      </c>
+      <c r="B25">
+        <v>-9</v>
+      </c>
+      <c r="C25">
+        <v>-3</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="0"/>
+        <v>-9</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="1"/>
+        <v>-3</v>
+      </c>
+      <c r="F25" s="2">
+        <f t="shared" si="2"/>
+        <v>-9</v>
+      </c>
+      <c r="G25" s="2">
+        <f t="shared" si="3"/>
+        <v>-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{098BD40C-3F1E-4DCA-B153-EDE213641CC0}">
   <dimension ref="A1:F17"/>
   <sheetViews>
@@ -2364,82 +2428,82 @@
       <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="6" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.6640625" customWidth="1"/>
+    <col min="3" max="6" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="C2" s="7"/>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="C3" s="7"/>
       <c r="E3" s="7"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="C4" s="7"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="C5" s="7"/>
       <c r="E5" s="7"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
     </row>
-    <row r="17" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
       <c r="E17" s="7"/>
@@ -2450,7 +2514,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02307C1F-427B-487D-B703-EBF512D7AC27}">
   <dimension ref="A1:B25"/>
   <sheetViews>
@@ -2458,12 +2522,12 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" style="7" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>31</v>
       </c>
@@ -2471,7 +2535,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44671</v>
@@ -2480,7 +2544,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44671.041666666664</v>
@@ -2489,7 +2553,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44671.08333321759</v>
@@ -2498,7 +2562,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v>44671.124999826388</v>
@@ -2507,7 +2571,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v>44671.166666435187</v>
@@ -2516,7 +2580,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v>44671.208333043978</v>
@@ -2525,7 +2589,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v>44671.249999652777</v>
@@ -2534,7 +2598,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v>44671.291666261575</v>
@@ -2543,7 +2607,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v>44671.333332870374</v>
@@ -2552,7 +2616,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v>44671.374999479165</v>
@@ -2561,7 +2625,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v>44671.416666087964</v>
@@ -2570,7 +2634,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v>44671.458332696762</v>
@@ -2579,7 +2643,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v>44671.499999305554</v>
@@ -2588,7 +2652,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v>44671.541665914352</v>
@@ -2597,7 +2661,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="7">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v>44671.583332523151</v>
@@ -2606,7 +2670,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="7">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v>44671.624999131942</v>
@@ -2615,7 +2679,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="7">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v>44671.66666574074</v>
@@ -2624,7 +2688,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="7">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v>44671.708332349539</v>
@@ -2633,7 +2697,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="7">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v>44671.74999895833</v>
@@ -2642,7 +2706,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="7">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v>44671.791665567129</v>
@@ -2651,7 +2715,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="7">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v>44671.833332175927</v>
@@ -2660,7 +2724,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="7">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v>44671.874998784719</v>
@@ -2669,7 +2733,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="7">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v>44671.916665393517</v>
@@ -2678,211 +2742,13 @@
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="7">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v>44671.958332002316</v>
       </c>
       <c r="B25">
         <v>12</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3788A93-7501-4F5D-9E8F-38D329CC85EC}">
-  <dimension ref="A1:K5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="G2">
-        <v>1</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2" s="6">
-        <v>0</v>
-      </c>
-      <c r="J2" s="6">
-        <v>0</v>
-      </c>
-      <c r="K2" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="G3">
-        <v>1</v>
-      </c>
-      <c r="H3">
-        <v>1</v>
-      </c>
-      <c r="I3" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="J3" s="6">
-        <v>10</v>
-      </c>
-      <c r="K3" s="6">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="G4">
-        <v>1</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4" s="6">
-        <v>0</v>
-      </c>
-      <c r="J4" s="6">
-        <v>0</v>
-      </c>
-      <c r="K4" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="G5">
-        <v>1</v>
-      </c>
-      <c r="H5">
-        <v>1</v>
-      </c>
-      <c r="I5" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="J5" s="6">
-        <v>5</v>
-      </c>
-      <c r="K5" s="6">
-        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -2891,6 +2757,204 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3788A93-7501-4F5D-9E8F-38D329CC85EC}">
+  <dimension ref="A1:K5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2" s="6">
+        <v>0</v>
+      </c>
+      <c r="J2" s="6">
+        <v>0</v>
+      </c>
+      <c r="K2" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="J3" s="6">
+        <v>10</v>
+      </c>
+      <c r="K3" s="6">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4" s="6">
+        <v>0</v>
+      </c>
+      <c r="J4" s="6">
+        <v>0</v>
+      </c>
+      <c r="K4" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="J5" s="6">
+        <v>5</v>
+      </c>
+      <c r="K5" s="6">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E21372C5-DB60-4318-868D-D4FA20FECD5D}">
   <dimension ref="A1:D4"/>
   <sheetViews>
@@ -2898,13 +2962,13 @@
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.44140625" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="6.5546875" customWidth="1"/>
+    <col min="1" max="1" width="13.42578125" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="6.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>130</v>
       </c>
@@ -2918,7 +2982,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>40</v>
       </c>
@@ -2932,7 +2996,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>41</v>
       </c>
@@ -2946,7 +3010,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>42</v>
       </c>
@@ -2965,7 +3029,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF6DDD9A-EF34-4108-8532-230729E9C708}">
   <dimension ref="A1:M25"/>
   <sheetViews>
@@ -2973,14 +3037,14 @@
       <selection activeCell="P16" sqref="P16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" style="7" customWidth="1"/>
-    <col min="2" max="5" width="11.44140625" customWidth="1"/>
-    <col min="6" max="13" width="11.109375" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" style="7" customWidth="1"/>
+    <col min="2" max="5" width="11.42578125" customWidth="1"/>
+    <col min="6" max="13" width="11.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>31</v>
       </c>
@@ -3021,7 +3085,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44671</v>
@@ -3063,7 +3127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44671.041666666664</v>
@@ -3105,7 +3169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44671.08333321759</v>
@@ -3147,7 +3211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v>44671.124999826388</v>
@@ -3189,7 +3253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v>44671.166666435187</v>
@@ -3231,7 +3295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v>44671.208333043978</v>
@@ -3273,7 +3337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v>44671.249999652777</v>
@@ -3315,7 +3379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v>44671.291666261575</v>
@@ -3357,7 +3421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v>44671.333332870374</v>
@@ -3399,7 +3463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v>44671.374999479165</v>
@@ -3441,7 +3505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v>44671.416666087964</v>
@@ -3483,7 +3547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v>44671.458332696762</v>
@@ -3525,7 +3589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v>44671.499999305554</v>
@@ -3567,7 +3631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v>44671.541665914352</v>
@@ -3609,7 +3673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="7">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v>44671.583332523151</v>
@@ -3651,7 +3715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="7">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v>44671.624999131942</v>
@@ -3693,7 +3757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="7">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v>44671.66666574074</v>
@@ -3735,7 +3799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="7">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v>44671.708332349539</v>
@@ -3777,7 +3841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="7">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v>44671.74999895833</v>
@@ -3819,7 +3883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="7">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v>44671.791665567129</v>
@@ -3861,7 +3925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="7">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v>44671.833332175927</v>
@@ -3903,7 +3967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="7">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v>44671.874998784719</v>
@@ -3945,7 +4009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="7">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v>44671.916665393517</v>
@@ -3987,7 +4051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="7">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v>44671.958332002316</v>
@@ -4035,7 +4099,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{817FDE8F-BC70-48D0-8376-FB52E6946AF1}">
   <dimension ref="A1:G25"/>
   <sheetViews>
@@ -4043,14 +4107,14 @@
       <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="10.33203125" customWidth="1"/>
-    <col min="5" max="7" width="11.6640625" customWidth="1"/>
+    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="10.28515625" customWidth="1"/>
+    <col min="5" max="7" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>31</v>
       </c>
@@ -4073,7 +4137,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44671</v>
@@ -4103,7 +4167,7 @@
         <v>21.6</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44671.041666666664</v>
@@ -4133,7 +4197,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44671.08333321759</v>
@@ -4163,7 +4227,7 @@
         <v>26.1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v>44671.124999826388</v>
@@ -4193,7 +4257,7 @@
         <v>22.95</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v>44671.166666435187</v>
@@ -4223,7 +4287,7 @@
         <v>16.650000000000002</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v>44671.208333043978</v>
@@ -4253,7 +4317,7 @@
         <v>15.3</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v>44671.249999652777</v>
@@ -4283,7 +4347,7 @@
         <v>20.25</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v>44671.291666261575</v>
@@ -4313,7 +4377,7 @@
         <v>18.45</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v>44671.333332870374</v>
@@ -4343,7 +4407,7 @@
         <v>24.75</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v>44671.374999479165</v>
@@ -4373,7 +4437,7 @@
         <v>26.55</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v>44671.416666087964</v>
@@ -4403,7 +4467,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v>44671.458332696762</v>
@@ -4433,7 +4497,7 @@
         <v>18.45</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v>44671.499999305554</v>
@@ -4463,7 +4527,7 @@
         <v>20.7</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v>44671.541665914352</v>
@@ -4493,7 +4557,7 @@
         <v>17.100000000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="7">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v>44671.583332523151</v>
@@ -4523,7 +4587,7 @@
         <v>20.7</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="7">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v>44671.624999131942</v>
@@ -4553,7 +4617,7 @@
         <v>20.25</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="7">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v>44671.66666574074</v>
@@ -4583,7 +4647,7 @@
         <v>18.45</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="7">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v>44671.708332349539</v>
@@ -4613,7 +4677,7 @@
         <v>20.7</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="7">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v>44671.74999895833</v>
@@ -4643,7 +4707,7 @@
         <v>23.400000000000002</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="7">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v>44671.791665567129</v>
@@ -4673,7 +4737,7 @@
         <v>25.2</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="7">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v>44671.833332175927</v>
@@ -4703,7 +4767,7 @@
         <v>14.85</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="7">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v>44671.874998784719</v>
@@ -4733,7 +4797,7 @@
         <v>19.350000000000001</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="7">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v>44671.916665393517</v>
@@ -4763,7 +4827,7 @@
         <v>25.650000000000002</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="7">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v>44671.958332002316</v>
@@ -4799,7 +4863,88 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82624B08-6930-4D2B-BCBB-C78CE759E704}">
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="27" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>144</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>145</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>146</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>147</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>149</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>150</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9314D326-256A-435C-AAE3-3517FA836EAE}">
   <dimension ref="A1:B3"/>
   <sheetViews>
@@ -4807,12 +4952,12 @@
       <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>104</v>
       </c>
@@ -4820,7 +4965,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>106</v>
       </c>
@@ -4828,7 +4973,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>107</v>
       </c>
@@ -4841,28 +4986,1933 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04A1B16B-CDA9-46BD-BA51-731AA9327652}">
-  <dimension ref="A1:O7"/>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A87AD413-E614-48C1-80E1-F1E8236FCBC6}">
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+      <selection activeCell="B2" sqref="B2:B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4">
+        <v>0.2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revi